--- a/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
@@ -728,7 +728,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="168" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0000%"/>
-    <numFmt numFmtId="192" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1633,7 +1633,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,7 +1643,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,7 +1653,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1753,7 +1753,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>5</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -2179,10 +2179,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="19" customWidth="1"/>
+    <col min="1" max="2" width="2.7109375" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="19" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
@@ -2212,7 +2213,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>41821.419282407405</v>
+        <v>41822.4215625</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2223,7 +2224,7 @@
       </c>
       <c r="D5" s="6">
         <f>[1]!TriggerCounter</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -2327,7 +2328,7 @@
       </c>
       <c r="D17" s="17">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41821</v>
+        <v>41822</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -2349,7 +2350,7 @@
       </c>
       <c r="D19" s="18">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -2370,20 +2371,6 @@
       <c r="E21" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"EUR,USD,GBP,JPY,CHF"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15">
-      <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
-      <formula1>"JoinBusinessDays,JoinHolidays"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
-      <formula1>"BackwardFlat,ForwardFlat,Linear,LogLinear,Parabolic,LogParabolic,MonotonicParabolic,MonotonicLogParabolic,CubicNaturalSpline,MonotonicCubicNaturalSpline,LogCubicNaturalSpline,MonotonicLogCubicNaturalSpline,KrugerCubic,KrugerLogCubic,FritschButlandCubic,FritschButlandLogCubic"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -2676,11 +2663,11 @@
       </c>
       <c r="E9" s="118">
         <f>'ON Pricing'!F6*100</f>
-        <v>6.4355432718876671E-2</v>
+        <v>6.43868188605623E-2</v>
       </c>
       <c r="F9" s="118">
         <f>E9</f>
-        <v>6.4355432718876671E-2</v>
+        <v>6.43868188605623E-2</v>
       </c>
       <c r="G9" s="119" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D9,Fields,E9:F9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D9:F9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2696,11 +2683,11 @@
       </c>
       <c r="K9" s="118">
         <f>'3M Pricing'!H6*100</f>
-        <v>0.13295871573551346</v>
+        <v>0.13297890241619742</v>
       </c>
       <c r="L9" s="118">
         <f>K9</f>
-        <v>0.13295871573551346</v>
+        <v>0.13297890241619742</v>
       </c>
       <c r="M9" s="119" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J9,Fields,K9:L9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J9:L9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2716,11 +2703,11 @@
       </c>
       <c r="Q9" s="118">
         <f>'6M Pricing'!H6*100</f>
-        <v>0.20241594847463551</v>
+        <v>0.20179135513876623</v>
       </c>
       <c r="R9" s="118">
         <f>Q9</f>
-        <v>0.20241594847463551</v>
+        <v>0.20179135513876623</v>
       </c>
       <c r="S9" s="119" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P9,Fields,Q9:R9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P9:R9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2746,11 +2733,11 @@
       </c>
       <c r="E10" s="122">
         <f>'ON Pricing'!F7*100</f>
-        <v>6.435422189543516E-2</v>
+        <v>6.4385373560682524E-2</v>
       </c>
       <c r="F10" s="122">
         <f t="shared" ref="F10:F69" si="3">E10</f>
-        <v>6.435422189543516E-2</v>
+        <v>6.4385373560682524E-2</v>
       </c>
       <c r="G10" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D10,Fields,E10:F10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D10:F10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2766,11 +2753,11 @@
       </c>
       <c r="K10" s="122">
         <f>'3M Pricing'!H7*100</f>
-        <v>0.13295722927195527</v>
+        <v>0.13297492690167445</v>
       </c>
       <c r="L10" s="122">
         <f t="shared" ref="L10:L69" si="4">K10</f>
-        <v>0.13295722927195527</v>
+        <v>0.13297492690167445</v>
       </c>
       <c r="M10" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J10,Fields,K10:L10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J10:L10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2786,11 +2773,11 @@
       </c>
       <c r="Q10" s="122">
         <f>'6M Pricing'!H7*100</f>
-        <v>0.20239536107228179</v>
+        <v>0.20174698522598283</v>
       </c>
       <c r="R10" s="122">
         <f t="shared" ref="R10:R69" si="5">Q10</f>
-        <v>0.20239536107228179</v>
+        <v>0.20174698522598283</v>
       </c>
       <c r="S10" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P10,Fields,Q10:R10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P10:R10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2816,11 +2803,11 @@
       </c>
       <c r="E11" s="122">
         <f>'ON Pricing'!F8*100</f>
-        <v>6.4351800256545744E-2</v>
+        <v>6.4377780434554666E-2</v>
       </c>
       <c r="F11" s="122">
         <f t="shared" si="3"/>
-        <v>6.4351800256545744E-2</v>
+        <v>6.4377780434554666E-2</v>
       </c>
       <c r="G11" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D11,Fields,E11:F11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D11:F11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2836,11 +2823,11 @@
       </c>
       <c r="K11" s="122">
         <f>'3M Pricing'!H8*100</f>
-        <v>0.13295482120856406</v>
+        <v>0.1329645074603647</v>
       </c>
       <c r="L11" s="122">
         <f t="shared" si="4"/>
-        <v>0.13295482120856406</v>
+        <v>0.1329645074603647</v>
       </c>
       <c r="M11" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J11,Fields,K11:L11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J11:L11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2856,11 +2843,11 @@
       </c>
       <c r="Q11" s="122">
         <f>'6M Pricing'!H8*100</f>
-        <v>0.20236070763068881</v>
+        <v>0.20162566863568543</v>
       </c>
       <c r="R11" s="122">
         <f t="shared" si="5"/>
-        <v>0.20236070763068881</v>
+        <v>0.20162566863568543</v>
       </c>
       <c r="S11" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P11,Fields,Q11:R11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P11:R11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2886,11 +2873,11 @@
       </c>
       <c r="E12" s="122">
         <f>'ON Pricing'!F9*100</f>
-        <v>6.4335193652453881E-2</v>
+        <v>6.4362594021284886E-2</v>
       </c>
       <c r="F12" s="122">
         <f t="shared" si="3"/>
-        <v>6.4335193652453881E-2</v>
+        <v>6.4362594021284886E-2</v>
       </c>
       <c r="G12" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D12,Fields,E12:F12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D12:F12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2906,11 +2893,11 @@
       </c>
       <c r="K12" s="122">
         <f>'3M Pricing'!H9*100</f>
-        <v>0.13294398189054946</v>
+        <v>0.13295408801905495</v>
       </c>
       <c r="L12" s="122">
         <f t="shared" si="4"/>
-        <v>0.13294398189054946</v>
+        <v>0.13295408801905495</v>
       </c>
       <c r="M12" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J12,Fields,K12:L12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J12:L12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2926,11 +2913,11 @@
       </c>
       <c r="Q12" s="122">
         <f>'6M Pricing'!H9*100</f>
-        <v>0.20221501058197738</v>
+        <v>0.20150435204538802</v>
       </c>
       <c r="R12" s="122">
         <f t="shared" si="5"/>
-        <v>0.20221501058197738</v>
+        <v>0.20150435204538802</v>
       </c>
       <c r="S12" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P12,Fields,Q12:R12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P12:R12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2956,11 +2943,11 @@
       </c>
       <c r="E13" s="122">
         <f>'ON Pricing'!F10*100</f>
-        <v>6.4297454260271128E-2</v>
+        <v>6.4317468863959809E-2</v>
       </c>
       <c r="F13" s="122">
         <f t="shared" si="3"/>
-        <v>6.4297454260271128E-2</v>
+        <v>6.4317468863959809E-2</v>
       </c>
       <c r="G13" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D13,Fields,E13:F13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D13:F13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2976,11 +2963,11 @@
       </c>
       <c r="K13" s="122">
         <f>'3M Pricing'!H10*100</f>
-        <v>0.13290799247909846</v>
+        <v>0.1329139044859825</v>
       </c>
       <c r="L13" s="122">
         <f t="shared" si="4"/>
-        <v>0.13290799247909846</v>
+        <v>0.1329139044859825</v>
       </c>
       <c r="M13" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J13,Fields,K13:L13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J13:L13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -2996,11 +2983,11 @@
       </c>
       <c r="Q13" s="122">
         <f>'6M Pricing'!H10*100</f>
-        <v>0.20176232013227996</v>
+        <v>0.20105414344755751</v>
       </c>
       <c r="R13" s="122">
         <f t="shared" si="5"/>
-        <v>0.20176232013227996</v>
+        <v>0.20105414344755751</v>
       </c>
       <c r="S13" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P13,Fields,Q13:R13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P13:R13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3026,11 +3013,11 @@
       </c>
       <c r="E14" s="122">
         <f>'ON Pricing'!F11*100</f>
-        <v>6.4239936443856643E-2</v>
+        <v>6.4248735215092057E-2</v>
       </c>
       <c r="F14" s="122">
         <f t="shared" si="3"/>
-        <v>6.4239936443856643E-2</v>
+        <v>6.4248735215092057E-2</v>
       </c>
       <c r="G14" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D14,Fields,E14:F14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D14:F14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3046,11 +3033,11 @@
       </c>
       <c r="K14" s="122">
         <f>'3M Pricing'!H11*100</f>
-        <v>0.13284686201612114</v>
+        <v>0.13284578335629302</v>
       </c>
       <c r="L14" s="122">
         <f t="shared" si="4"/>
-        <v>0.13284686201612114</v>
+        <v>0.13284578335629302</v>
       </c>
       <c r="M14" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J14,Fields,K14:L14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J14:L14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3066,11 +3053,11 @@
       </c>
       <c r="Q14" s="122">
         <f>'6M Pricing'!H11*100</f>
-        <v>0.20100513825774663</v>
+        <v>0.2003011170164421</v>
       </c>
       <c r="R14" s="122">
         <f t="shared" si="5"/>
-        <v>0.20100513825774663</v>
+        <v>0.2003011170164421</v>
       </c>
       <c r="S14" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P14,Fields,Q14:R14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P14:R14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3096,11 +3083,11 @@
       </c>
       <c r="E15" s="122">
         <f>'ON Pricing'!F12*100</f>
-        <v>6.5000000000117034E-2</v>
+        <v>6.4999999999978145E-2</v>
       </c>
       <c r="F15" s="122">
         <f t="shared" si="3"/>
-        <v>6.5000000000117034E-2</v>
+        <v>6.4999999999978145E-2</v>
       </c>
       <c r="G15" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D15,Fields,E15:F15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D15:F15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3116,11 +3103,11 @@
       </c>
       <c r="K15" s="122">
         <f>'3M Pricing'!H12*100</f>
-        <v>0.1326999999999301</v>
+        <v>0.13269999999978505</v>
       </c>
       <c r="L15" s="122">
         <f t="shared" si="4"/>
-        <v>0.1326999999999301</v>
+        <v>0.13269999999978505</v>
       </c>
       <c r="M15" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J15,Fields,K15:L15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J15:L15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3136,11 +3123,11 @@
       </c>
       <c r="Q15" s="122">
         <f>'6M Pricing'!H12*100</f>
-        <v>0.19920000000006599</v>
+        <v>0.19870000000024321</v>
       </c>
       <c r="R15" s="122">
         <f t="shared" si="5"/>
-        <v>0.19920000000006599</v>
+        <v>0.19870000000024321</v>
       </c>
       <c r="S15" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P15,Fields,Q15:R15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P15:R15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3166,11 +3153,11 @@
       </c>
       <c r="E16" s="122">
         <f>'ON Pricing'!F13*100</f>
-        <v>6.5000000000108887E-2</v>
+        <v>6.4999999999978159E-2</v>
       </c>
       <c r="F16" s="122">
         <f t="shared" si="3"/>
-        <v>6.5000000000108887E-2</v>
+        <v>6.4999999999978159E-2</v>
       </c>
       <c r="G16" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D16,Fields,E16:F16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D16:F16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3206,11 +3193,11 @@
       </c>
       <c r="Q16" s="122">
         <f>'6M Pricing'!H13*100</f>
-        <v>0.19319999999990423</v>
+        <v>0.19270000000004919</v>
       </c>
       <c r="R16" s="122">
         <f t="shared" si="5"/>
-        <v>0.19319999999990423</v>
+        <v>0.19270000000004919</v>
       </c>
       <c r="S16" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P16,Fields,Q16:R16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P16:R16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3236,11 +3223,11 @@
       </c>
       <c r="E17" s="122">
         <f>'ON Pricing'!F14*100</f>
-        <v>6.5000000000017946E-2</v>
+        <v>6.500000000002544E-2</v>
       </c>
       <c r="F17" s="122">
         <f t="shared" si="3"/>
-        <v>6.5000000000017946E-2</v>
+        <v>6.500000000002544E-2</v>
       </c>
       <c r="G17" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D17,Fields,E17:F17,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D17:F17,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3256,11 +3243,11 @@
       </c>
       <c r="K17" s="122">
         <f>'3M Pricing'!H14*100</f>
-        <v>0.13290000000055613</v>
+        <v>0.13290000000065041</v>
       </c>
       <c r="L17" s="122">
         <f t="shared" si="4"/>
-        <v>0.13290000000055613</v>
+        <v>0.13290000000065041</v>
       </c>
       <c r="M17" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J17,Fields,K17:L17,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J17:L17,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3276,11 +3263,11 @@
       </c>
       <c r="Q17" s="122">
         <f>'6M Pricing'!H14*100</f>
-        <v>0.18849999999999242</v>
+        <v>0.18780000000000746</v>
       </c>
       <c r="R17" s="122">
         <f t="shared" si="5"/>
-        <v>0.18849999999999242</v>
+        <v>0.18780000000000746</v>
       </c>
       <c r="S17" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P17,Fields,Q17:R17,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P17:R17,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3306,11 +3293,11 @@
       </c>
       <c r="E18" s="122">
         <f>'ON Pricing'!F15*100</f>
-        <v>6.2500000000034306E-2</v>
+        <v>6.2500000000005079E-2</v>
       </c>
       <c r="F18" s="122">
         <f t="shared" si="3"/>
-        <v>6.2500000000034306E-2</v>
+        <v>6.2500000000005079E-2</v>
       </c>
       <c r="G18" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D18,Fields,E18:F18,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D18:F18,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3326,11 +3313,11 @@
       </c>
       <c r="K18" s="122">
         <f>'3M Pricing'!H15*100</f>
-        <v>0.12995063284892006</v>
+        <v>0.12986936201242472</v>
       </c>
       <c r="L18" s="122">
         <f t="shared" si="4"/>
-        <v>0.12995063284892006</v>
+        <v>0.12986936201242472</v>
       </c>
       <c r="M18" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J18,Fields,K18:L18,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J18:L18,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3346,11 +3333,11 @@
       </c>
       <c r="Q18" s="122">
         <f>'6M Pricing'!H15*100</f>
-        <v>0.18196363522830905</v>
+        <v>0.18190000000000855</v>
       </c>
       <c r="R18" s="122">
         <f t="shared" si="5"/>
-        <v>0.18196363522830905</v>
+        <v>0.18190000000000855</v>
       </c>
       <c r="S18" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P18,Fields,Q18:R18,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P18:R18,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3396,11 +3383,11 @@
       </c>
       <c r="K19" s="122">
         <f>'3M Pricing'!H16*100</f>
-        <v>0.13000000000651746</v>
+        <v>0.13000000000748371</v>
       </c>
       <c r="L19" s="122">
         <f t="shared" si="4"/>
-        <v>0.13000000000651746</v>
+        <v>0.13000000000748371</v>
       </c>
       <c r="M19" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J19,Fields,K19:L19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J19:L19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3416,11 +3403,11 @@
       </c>
       <c r="Q19" s="122">
         <f>'6M Pricing'!H16*100</f>
-        <v>0.17979999999999141</v>
+        <v>0.17960000000000526</v>
       </c>
       <c r="R19" s="122">
         <f t="shared" si="5"/>
-        <v>0.17979999999999141</v>
+        <v>0.17960000000000526</v>
       </c>
       <c r="S19" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P19,Fields,Q19:R19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P19:R19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3446,11 +3433,11 @@
       </c>
       <c r="E20" s="122">
         <f>'ON Pricing'!F17*100</f>
-        <v>6.2500000000012518E-2</v>
+        <v>6.2500000000036748E-2</v>
       </c>
       <c r="F20" s="122">
         <f t="shared" si="3"/>
-        <v>6.2500000000012518E-2</v>
+        <v>6.2500000000036748E-2</v>
       </c>
       <c r="G20" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D20,Fields,E20:F20,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D20:F20,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3466,11 +3453,11 @@
       </c>
       <c r="K20" s="122">
         <f>'3M Pricing'!H17*100</f>
-        <v>0.13000000000859016</v>
+        <v>0.13000000001049614</v>
       </c>
       <c r="L20" s="122">
         <f t="shared" si="4"/>
-        <v>0.13000000000859016</v>
+        <v>0.13000000001049614</v>
       </c>
       <c r="M20" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J20,Fields,K20:L20,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J20:L20,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3486,11 +3473,11 @@
       </c>
       <c r="Q20" s="122">
         <f>'6M Pricing'!H17*100</f>
-        <v>0.17840000000000147</v>
+        <v>0.17829999999999824</v>
       </c>
       <c r="R20" s="122">
         <f t="shared" si="5"/>
-        <v>0.17840000000000147</v>
+        <v>0.17829999999999824</v>
       </c>
       <c r="S20" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P20,Fields,Q20:R20,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P20:R20,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3513,11 +3500,11 @@
       <c r="D21" s="121"/>
       <c r="E21" s="122">
         <f>'ON Pricing'!F18*100</f>
-        <v>6.2701265433157252E-2</v>
+        <v>6.2706566465582161E-2</v>
       </c>
       <c r="F21" s="122">
         <f t="shared" si="3"/>
-        <v>6.2701265433157252E-2</v>
+        <v>6.2706566465582161E-2</v>
       </c>
       <c r="G21" s="123"/>
       <c r="H21" s="100"/>
@@ -3530,11 +3517,11 @@
       </c>
       <c r="K21" s="122">
         <f>'3M Pricing'!H18*100</f>
-        <v>0.12974497242292649</v>
+        <v>0.12485014221298779</v>
       </c>
       <c r="L21" s="122">
         <f t="shared" si="4"/>
-        <v>0.12974497242292649</v>
+        <v>0.12485014221298779</v>
       </c>
       <c r="M21" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J21,Fields,K21:L21,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J21:L21,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3550,11 +3537,11 @@
       </c>
       <c r="Q21" s="122">
         <f>'6M Pricing'!H18*100</f>
-        <v>0.17495613587620551</v>
+        <v>0.17498651555523878</v>
       </c>
       <c r="R21" s="122">
         <f t="shared" si="5"/>
-        <v>0.17495613587620551</v>
+        <v>0.17498651555523878</v>
       </c>
       <c r="S21" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P21,Fields,Q21:R21,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P21:R21,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3577,11 +3564,11 @@
       <c r="D22" s="121"/>
       <c r="E22" s="122">
         <f>'ON Pricing'!F19*100</f>
-        <v>6.2830093101318832E-2</v>
+        <v>6.2845413400546973E-2</v>
       </c>
       <c r="F22" s="122">
         <f t="shared" si="3"/>
-        <v>6.2830093101318832E-2</v>
+        <v>6.2845413400546973E-2</v>
       </c>
       <c r="G22" s="123"/>
       <c r="H22" s="100"/>
@@ -3594,11 +3581,11 @@
       </c>
       <c r="K22" s="122">
         <f>'3M Pricing'!H19*100</f>
-        <v>0.12499999999997513</v>
+        <v>0.12500000003417</v>
       </c>
       <c r="L22" s="122">
         <f t="shared" si="4"/>
-        <v>0.12499999999997513</v>
+        <v>0.12500000003417</v>
       </c>
       <c r="M22" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J22,Fields,K22:L22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J22:L22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3614,11 +3601,11 @@
       </c>
       <c r="Q22" s="122">
         <f>'6M Pricing'!H19*100</f>
-        <v>0.17499999995209178</v>
+        <v>0.17499999996017374</v>
       </c>
       <c r="R22" s="122">
         <f t="shared" si="5"/>
-        <v>0.17499999995209178</v>
+        <v>0.17499999996017374</v>
       </c>
       <c r="S22" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P22,Fields,Q22:R22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P22:R22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3644,11 +3631,11 @@
       </c>
       <c r="E23" s="122">
         <f>'ON Pricing'!F20*100</f>
-        <v>6.2407022593666893E-2</v>
+        <v>6.2477541606986521E-2</v>
       </c>
       <c r="F23" s="122">
         <f t="shared" si="3"/>
-        <v>6.2407022593666893E-2</v>
+        <v>6.2477541606986521E-2</v>
       </c>
       <c r="G23" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D23,Fields,E23:F23,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D23:F23,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3664,11 +3651,11 @@
       </c>
       <c r="K23" s="122">
         <f>'3M Pricing'!H20*100</f>
-        <v>0.12490104984799189</v>
+        <v>0.12520790679166893</v>
       </c>
       <c r="L23" s="122">
         <f t="shared" si="4"/>
-        <v>0.12490104984799189</v>
+        <v>0.12520790679166893</v>
       </c>
       <c r="M23" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J23,Fields,K23:L23,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J23:L23,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3684,11 +3671,11 @@
       </c>
       <c r="Q23" s="122">
         <f>'6M Pricing'!H20*100</f>
-        <v>0.17499999999992161</v>
+        <v>0.16999999999999987</v>
       </c>
       <c r="R23" s="122">
         <f t="shared" si="5"/>
-        <v>0.17499999999992161</v>
+        <v>0.16999999999999987</v>
       </c>
       <c r="S23" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P23,Fields,Q23:R23,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P23:R23,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3711,11 +3698,11 @@
       <c r="D24" s="121"/>
       <c r="E24" s="122">
         <f>'ON Pricing'!F21*100</f>
-        <v>6.1472371033489646E-2</v>
+        <v>6.1568593317608493E-2</v>
       </c>
       <c r="F24" s="122">
         <f t="shared" si="3"/>
-        <v>6.1472371033489646E-2</v>
+        <v>6.1568593317608493E-2</v>
       </c>
       <c r="G24" s="123"/>
       <c r="H24" s="100"/>
@@ -3725,11 +3712,11 @@
       <c r="J24" s="121"/>
       <c r="K24" s="122">
         <f>'3M Pricing'!H21*100</f>
-        <v>0.12703196008344719</v>
+        <v>0.13044317710013106</v>
       </c>
       <c r="L24" s="122">
         <f t="shared" si="4"/>
-        <v>0.12703196008344719</v>
+        <v>0.13044317710013106</v>
       </c>
       <c r="M24" s="123"/>
       <c r="N24" s="100"/>
@@ -3742,11 +3729,11 @@
       </c>
       <c r="Q24" s="122">
         <f>'6M Pricing'!H21*100</f>
-        <v>0.1700425426013695</v>
+        <v>0.17005435106608105</v>
       </c>
       <c r="R24" s="122">
         <f t="shared" si="5"/>
-        <v>0.1700425426013695</v>
+        <v>0.17005435106608105</v>
       </c>
       <c r="S24" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P24,Fields,Q24:R24,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P24:R24,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3769,11 +3756,11 @@
       <c r="D25" s="121"/>
       <c r="E25" s="122">
         <f>'ON Pricing'!F22*100</f>
-        <v>6.0603406230118242E-2</v>
+        <v>6.0654494024808742E-2</v>
       </c>
       <c r="F25" s="122">
         <f t="shared" si="3"/>
-        <v>6.0603406230118242E-2</v>
+        <v>6.0654494024808742E-2</v>
       </c>
       <c r="G25" s="123"/>
       <c r="H25" s="100"/>
@@ -3783,11 +3770,11 @@
       <c r="J25" s="121"/>
       <c r="K25" s="122">
         <f>'3M Pricing'!H22*100</f>
-        <v>0.12930292356532108</v>
+        <v>0.1261845456357035</v>
       </c>
       <c r="L25" s="122">
         <f t="shared" si="4"/>
-        <v>0.12930292356532108</v>
+        <v>0.1261845456357035</v>
       </c>
       <c r="M25" s="123"/>
       <c r="N25" s="100"/>
@@ -3800,11 +3787,11 @@
       </c>
       <c r="Q25" s="122">
         <f>'6M Pricing'!H22*100</f>
-        <v>0.16999999999997176</v>
+        <v>0.16500000000000489</v>
       </c>
       <c r="R25" s="122">
         <f t="shared" si="5"/>
-        <v>0.16999999999997176</v>
+        <v>0.16500000000000489</v>
       </c>
       <c r="S25" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P25,Fields,Q25:R25,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P25:R25,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3830,11 +3817,11 @@
       </c>
       <c r="E26" s="122">
         <f>'ON Pricing'!F23*100</f>
-        <v>5.9999999999993378E-2</v>
+        <v>5.99999999999868E-2</v>
       </c>
       <c r="F26" s="122">
         <f t="shared" si="3"/>
-        <v>5.9999999999993378E-2</v>
+        <v>5.99999999999868E-2</v>
       </c>
       <c r="G26" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D26,Fields,E26:F26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D26:F26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3850,11 +3837,11 @@
       </c>
       <c r="K26" s="122">
         <f>'3M Pricing'!H23*100</f>
-        <v>0.12499999999996245</v>
+        <v>0.11986371663079039</v>
       </c>
       <c r="L26" s="122">
         <f t="shared" si="4"/>
-        <v>0.12499999999996245</v>
+        <v>0.11986371663079039</v>
       </c>
       <c r="M26" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J26,Fields,K26:L26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J26:L26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3870,11 +3857,11 @@
       </c>
       <c r="Q26" s="122">
         <f>'6M Pricing'!H23*100</f>
-        <v>0.16991947273230476</v>
+        <v>0.16499420972792497</v>
       </c>
       <c r="R26" s="122">
         <f t="shared" si="5"/>
-        <v>0.16991947273230476</v>
+        <v>0.16499420972792497</v>
       </c>
       <c r="S26" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P26,Fields,Q26:R26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P26:R26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -3897,11 +3884,11 @@
       <c r="D27" s="121"/>
       <c r="E27" s="122">
         <f>'ON Pricing'!F24*100</f>
-        <v>5.9984463198608007E-2</v>
+        <v>5.9980353587140434E-2</v>
       </c>
       <c r="F27" s="122">
         <f t="shared" si="3"/>
-        <v>5.9984463198608007E-2</v>
+        <v>5.9980353587140434E-2</v>
       </c>
       <c r="G27" s="123"/>
       <c r="H27" s="100"/>
@@ -3911,11 +3898,11 @@
       <c r="J27" s="121"/>
       <c r="K27" s="122">
         <f>'3M Pricing'!H24*100</f>
-        <v>0.1218858944340127</v>
+        <v>0.11668537500118271</v>
       </c>
       <c r="L27" s="122">
         <f t="shared" si="4"/>
-        <v>0.1218858944340127</v>
+        <v>0.11668537500118271</v>
       </c>
       <c r="M27" s="123"/>
       <c r="N27" s="100"/>
@@ -3925,11 +3912,11 @@
       <c r="P27" s="121"/>
       <c r="Q27" s="122">
         <f>'6M Pricing'!H24*100</f>
-        <v>0.16716330422138193</v>
+        <v>0.16418334759963207</v>
       </c>
       <c r="R27" s="122">
         <f t="shared" si="5"/>
-        <v>0.16716330422138193</v>
+        <v>0.16418334759963207</v>
       </c>
       <c r="S27" s="123"/>
       <c r="T27" s="101"/>
@@ -3949,11 +3936,11 @@
       <c r="D28" s="121"/>
       <c r="E28" s="122">
         <f>'ON Pricing'!F25*100</f>
-        <v>6.0393657873401015E-2</v>
+        <v>6.0382453145137495E-2</v>
       </c>
       <c r="F28" s="122">
         <f t="shared" si="3"/>
-        <v>6.0393657873401015E-2</v>
+        <v>6.0382453145137495E-2</v>
       </c>
       <c r="G28" s="123"/>
       <c r="H28" s="100"/>
@@ -3963,11 +3950,11 @@
       <c r="J28" s="121"/>
       <c r="K28" s="122">
         <f>'3M Pricing'!H25*100</f>
-        <v>0.12078431493474193</v>
+        <v>0.11562213555686889</v>
       </c>
       <c r="L28" s="122">
         <f t="shared" si="4"/>
-        <v>0.12078431493474193</v>
+        <v>0.11562213555686889</v>
       </c>
       <c r="M28" s="123"/>
       <c r="N28" s="100"/>
@@ -3977,11 +3964,11 @@
       <c r="P28" s="121"/>
       <c r="Q28" s="122">
         <f>'6M Pricing'!H25*100</f>
-        <v>0.16214693153225543</v>
+        <v>0.16067773297891708</v>
       </c>
       <c r="R28" s="122">
         <f t="shared" si="5"/>
-        <v>0.16214693153225543</v>
+        <v>0.16067773297891708</v>
       </c>
       <c r="S28" s="123"/>
       <c r="T28" s="101"/>
@@ -4001,11 +3988,11 @@
       <c r="D29" s="121"/>
       <c r="E29" s="122">
         <f>'ON Pricing'!F26*100</f>
-        <v>6.1021598421088508E-2</v>
+        <v>6.0992744464512513E-2</v>
       </c>
       <c r="F29" s="122">
         <f t="shared" si="3"/>
-        <v>6.1021598421088508E-2</v>
+        <v>6.0992744464512513E-2</v>
       </c>
       <c r="G29" s="123"/>
       <c r="H29" s="100"/>
@@ -4018,11 +4005,11 @@
       </c>
       <c r="K29" s="122">
         <f>'3M Pricing'!H26*100</f>
-        <v>0.12000000022426695</v>
+        <v>0.11499999998876298</v>
       </c>
       <c r="L29" s="122">
         <f t="shared" si="4"/>
-        <v>0.12000000022426695</v>
+        <v>0.11499999998876298</v>
       </c>
       <c r="M29" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J29,Fields,K29:L29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J29:L29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4035,11 +4022,11 @@
       <c r="P29" s="121"/>
       <c r="Q29" s="122">
         <f>'6M Pricing'!H26*100</f>
-        <v>0.1574700945587508</v>
+        <v>0.16186731790069891</v>
       </c>
       <c r="R29" s="122">
         <f t="shared" si="5"/>
-        <v>0.1574700945587508</v>
+        <v>0.16186731790069891</v>
       </c>
       <c r="S29" s="123"/>
       <c r="T29" s="101"/>
@@ -4059,11 +4046,11 @@
       <c r="D30" s="121"/>
       <c r="E30" s="122">
         <f>'ON Pricing'!F27*100</f>
-        <v>6.1636441953269311E-2</v>
+        <v>6.1615789521687815E-2</v>
       </c>
       <c r="F30" s="122">
         <f t="shared" si="3"/>
-        <v>6.1636441953269311E-2</v>
+        <v>6.1615789521687815E-2</v>
       </c>
       <c r="G30" s="123"/>
       <c r="H30" s="100"/>
@@ -4073,11 +4060,11 @@
       <c r="J30" s="121"/>
       <c r="K30" s="122">
         <f>'3M Pricing'!H27*100</f>
-        <v>0.11848371298101737</v>
+        <v>0.11461522525607858</v>
       </c>
       <c r="L30" s="122">
         <f t="shared" si="4"/>
-        <v>0.11848371298101737</v>
+        <v>0.11461522525607858</v>
       </c>
       <c r="M30" s="123"/>
       <c r="N30" s="100"/>
@@ -4087,11 +4074,11 @@
       <c r="P30" s="121"/>
       <c r="Q30" s="122">
         <f>'6M Pricing'!H27*100</f>
-        <v>0.16041092486645195</v>
+        <v>0.16047165077991565</v>
       </c>
       <c r="R30" s="122">
         <f t="shared" si="5"/>
-        <v>0.16041092486645195</v>
+        <v>0.16047165077991565</v>
       </c>
       <c r="S30" s="123"/>
       <c r="T30" s="101"/>
@@ -4111,11 +4098,11 @@
       <c r="D31" s="121"/>
       <c r="E31" s="122">
         <f>'ON Pricing'!F28*100</f>
-        <v>6.2142339071888895E-2</v>
+        <v>6.2147431018268154E-2</v>
       </c>
       <c r="F31" s="122">
         <f t="shared" si="3"/>
-        <v>6.2142339071888895E-2</v>
+        <v>6.2147431018268154E-2</v>
       </c>
       <c r="G31" s="123"/>
       <c r="H31" s="100"/>
@@ -4125,11 +4112,11 @@
       <c r="J31" s="121"/>
       <c r="K31" s="122">
         <f>'3M Pricing'!H28*100</f>
-        <v>0.11670683056895427</v>
+        <v>0.11449972686660403</v>
       </c>
       <c r="L31" s="122">
         <f t="shared" si="4"/>
-        <v>0.11670683056895427</v>
+        <v>0.11449972686660403</v>
       </c>
       <c r="M31" s="123"/>
       <c r="N31" s="100"/>
@@ -4139,11 +4126,11 @@
       <c r="P31" s="121"/>
       <c r="Q31" s="122">
         <f>'6M Pricing'!H28*100</f>
-        <v>0.15768797981634664</v>
+        <v>0.16261055497691071</v>
       </c>
       <c r="R31" s="122">
         <f t="shared" si="5"/>
-        <v>0.15768797981634664</v>
+        <v>0.16261055497691071</v>
       </c>
       <c r="S31" s="123"/>
       <c r="T31" s="101"/>
@@ -4163,11 +4150,11 @@
       <c r="D32" s="121"/>
       <c r="E32" s="122">
         <f>'ON Pricing'!F29*100</f>
-        <v>6.2500000000000944E-2</v>
+        <v>6.2499999999992215E-2</v>
       </c>
       <c r="F32" s="122">
         <f t="shared" si="3"/>
-        <v>6.2500000000000944E-2</v>
+        <v>6.2499999999992215E-2</v>
       </c>
       <c r="G32" s="123"/>
       <c r="H32" s="100"/>
@@ -4180,11 +4167,11 @@
       </c>
       <c r="K32" s="122">
         <f>'3M Pricing'!H29*100</f>
-        <v>0.11500000023943203</v>
+        <v>0.11502972866610892</v>
       </c>
       <c r="L32" s="122">
         <f t="shared" si="4"/>
-        <v>0.11500000023943203</v>
+        <v>0.11502972866610892</v>
       </c>
       <c r="M32" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J32,Fields,K32:L32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J32:L32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4200,11 +4187,11 @@
       </c>
       <c r="Q32" s="122">
         <f>'6M Pricing'!H29*100</f>
-        <v>0.15456712436467418</v>
+        <v>0.15949780149735279</v>
       </c>
       <c r="R32" s="122">
         <f t="shared" si="5"/>
-        <v>0.15456712436467418</v>
+        <v>0.15949780149735279</v>
       </c>
       <c r="S32" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P32,Fields,Q32:R32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P32:R32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4227,11 +4214,11 @@
       <c r="D33" s="121"/>
       <c r="E33" s="122">
         <f>'ON Pricing'!F30*100</f>
-        <v>6.259897035298255E-2</v>
+        <v>6.2604532065853438E-2</v>
       </c>
       <c r="F33" s="122">
         <f t="shared" si="3"/>
-        <v>6.259897035298255E-2</v>
+        <v>6.2604532065853438E-2</v>
       </c>
       <c r="G33" s="123"/>
       <c r="H33" s="100"/>
@@ -4241,11 +4228,11 @@
       <c r="J33" s="121"/>
       <c r="K33" s="122">
         <f>'3M Pricing'!H30*100</f>
-        <v>0.1142823878763343</v>
+        <v>0.1162509597889453</v>
       </c>
       <c r="L33" s="122">
         <f t="shared" si="4"/>
-        <v>0.1142823878763343</v>
+        <v>0.1162509597889453</v>
       </c>
       <c r="M33" s="123"/>
       <c r="N33" s="100"/>
@@ -4255,11 +4242,11 @@
       <c r="P33" s="121"/>
       <c r="Q33" s="122">
         <f>'6M Pricing'!H30*100</f>
-        <v>0.15367122476074158</v>
+        <v>0.1569178810502935</v>
       </c>
       <c r="R33" s="122">
         <f t="shared" si="5"/>
-        <v>0.15367122476074158</v>
+        <v>0.1569178810502935</v>
       </c>
       <c r="S33" s="123"/>
       <c r="T33" s="101"/>
@@ -4279,11 +4266,11 @@
       <c r="D34" s="121"/>
       <c r="E34" s="122">
         <f>'ON Pricing'!F31*100</f>
-        <v>6.2552211595939072E-2</v>
+        <v>6.2556315359355449E-2</v>
       </c>
       <c r="F34" s="122">
         <f t="shared" si="3"/>
-        <v>6.2552211595939072E-2</v>
+        <v>6.2556315359355449E-2</v>
       </c>
       <c r="G34" s="123"/>
       <c r="H34" s="100"/>
@@ -4293,11 +4280,11 @@
       <c r="J34" s="121"/>
       <c r="K34" s="122">
         <f>'3M Pricing'!H31*100</f>
-        <v>0.11429366828787654</v>
+        <v>0.11794168215644359</v>
       </c>
       <c r="L34" s="122">
         <f t="shared" si="4"/>
-        <v>0.11429366828787654</v>
+        <v>0.11794168215644359</v>
       </c>
       <c r="M34" s="123"/>
       <c r="N34" s="100"/>
@@ -4307,11 +4294,11 @@
       <c r="P34" s="121"/>
       <c r="Q34" s="122">
         <f>'6M Pricing'!H31*100</f>
-        <v>0.15446817778997668</v>
+        <v>0.15651108348517989</v>
       </c>
       <c r="R34" s="122">
         <f t="shared" si="5"/>
-        <v>0.15446817778997668</v>
+        <v>0.15651108348517989</v>
       </c>
       <c r="S34" s="123"/>
       <c r="T34" s="101"/>
@@ -4331,11 +4318,11 @@
       <c r="D35" s="121"/>
       <c r="E35" s="122">
         <f>'ON Pricing'!F32*100</f>
-        <v>6.2439606320265503E-2</v>
+        <v>6.2446273589259318E-2</v>
       </c>
       <c r="F35" s="122">
         <f t="shared" si="3"/>
-        <v>6.2439606320265503E-2</v>
+        <v>6.2446273589259318E-2</v>
       </c>
       <c r="G35" s="123"/>
       <c r="H35" s="100"/>
@@ -4345,11 +4332,11 @@
       <c r="J35" s="121"/>
       <c r="K35" s="122">
         <f>'3M Pricing'!H32*100</f>
-        <v>0.11490378425142952</v>
+        <v>0.11988669793819692</v>
       </c>
       <c r="L35" s="122">
         <f t="shared" si="4"/>
-        <v>0.11490378425142952</v>
+        <v>0.11988669793819692</v>
       </c>
       <c r="M35" s="123"/>
       <c r="N35" s="100"/>
@@ -4359,11 +4346,11 @@
       <c r="P35" s="121"/>
       <c r="Q35" s="122">
         <f>'6M Pricing'!H32*100</f>
-        <v>0.15690356707218853</v>
+        <v>0.15811092832124321</v>
       </c>
       <c r="R35" s="122">
         <f t="shared" si="5"/>
-        <v>0.15690356707218853</v>
+        <v>0.15811092832124321</v>
       </c>
       <c r="S35" s="123"/>
       <c r="T35" s="101"/>
@@ -4383,11 +4370,11 @@
       <c r="D36" s="121"/>
       <c r="E36" s="122">
         <f>'ON Pricing'!F33*100</f>
-        <v>6.2351927924657824E-2</v>
+        <v>6.2356635967169768E-2</v>
       </c>
       <c r="F36" s="122">
         <f t="shared" si="3"/>
-        <v>6.2351927924657824E-2</v>
+        <v>6.2356635967169768E-2</v>
       </c>
       <c r="G36" s="123"/>
       <c r="H36" s="100"/>
@@ -4397,11 +4384,11 @@
       <c r="J36" s="121"/>
       <c r="K36" s="122">
         <f>'3M Pricing'!H33*100</f>
-        <v>0.11571904267615449</v>
+        <v>0.12129811074768071</v>
       </c>
       <c r="L36" s="122">
         <f t="shared" si="4"/>
-        <v>0.11571904267615449</v>
+        <v>0.12129811074768071</v>
       </c>
       <c r="M36" s="123"/>
       <c r="N36" s="100"/>
@@ -4411,11 +4398,11 @@
       <c r="P36" s="121"/>
       <c r="Q36" s="122">
         <f>'6M Pricing'!H33*100</f>
-        <v>0.16014318604133357</v>
+        <v>0.16077243779725242</v>
       </c>
       <c r="R36" s="122">
         <f t="shared" si="5"/>
-        <v>0.16014318604133357</v>
+        <v>0.16077243779725242</v>
       </c>
       <c r="S36" s="123"/>
       <c r="T36" s="101"/>
@@ -4435,11 +4422,11 @@
       <c r="D37" s="121"/>
       <c r="E37" s="122">
         <f>'ON Pricing'!F34*100</f>
-        <v>6.2355380117786637E-2</v>
+        <v>6.2364356506668661E-2</v>
       </c>
       <c r="F37" s="122">
         <f t="shared" si="3"/>
-        <v>6.2355380117786637E-2</v>
+        <v>6.2364356506668661E-2</v>
       </c>
       <c r="G37" s="123"/>
       <c r="H37" s="100"/>
@@ -4449,11 +4436,11 @@
       <c r="J37" s="121"/>
       <c r="K37" s="122">
         <f>'3M Pricing'!H34*100</f>
-        <v>0.11673187314590859</v>
+        <v>0.12234269269993628</v>
       </c>
       <c r="L37" s="122">
         <f t="shared" si="4"/>
-        <v>0.11673187314590859</v>
+        <v>0.12234269269993628</v>
       </c>
       <c r="M37" s="123"/>
       <c r="N37" s="100"/>
@@ -4463,11 +4450,11 @@
       <c r="P37" s="121"/>
       <c r="Q37" s="122">
         <f>'6M Pricing'!H34*100</f>
-        <v>0.16364571863784239</v>
+        <v>0.16419077481898506</v>
       </c>
       <c r="R37" s="122">
         <f t="shared" si="5"/>
-        <v>0.16364571863784239</v>
+        <v>0.16419077481898506</v>
       </c>
       <c r="S37" s="123"/>
       <c r="T37" s="101"/>
@@ -4490,11 +4477,11 @@
       </c>
       <c r="E38" s="122">
         <f>'ON Pricing'!F35*100</f>
-        <v>6.2500000000000222E-2</v>
+        <v>6.2499999999993103E-2</v>
       </c>
       <c r="F38" s="122">
         <f t="shared" si="3"/>
-        <v>6.2500000000000222E-2</v>
+        <v>6.2499999999993103E-2</v>
       </c>
       <c r="G38" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D38,Fields,E38:F38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D38:F38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4510,11 +4497,11 @@
       </c>
       <c r="K38" s="122">
         <f>'3M Pricing'!H35*100</f>
-        <v>0.12437148756077734</v>
+        <v>0.1243715002794622</v>
       </c>
       <c r="L38" s="122">
         <f t="shared" si="4"/>
-        <v>0.12437148756077734</v>
+        <v>0.1243715002794622</v>
       </c>
       <c r="M38" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J38,Fields,K38:L38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J38:L38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4530,11 +4517,11 @@
       </c>
       <c r="Q38" s="122">
         <f>'6M Pricing'!H35*100</f>
-        <v>0.17000000002390647</v>
+        <v>0.16999999999999621</v>
       </c>
       <c r="R38" s="122">
         <f t="shared" si="5"/>
-        <v>0.17000000002390647</v>
+        <v>0.16999999999999621</v>
       </c>
       <c r="S38" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P38,Fields,Q38:R38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P38:R38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4557,11 +4544,11 @@
       <c r="D39" s="121"/>
       <c r="E39" s="122">
         <f>'ON Pricing'!F36*100</f>
-        <v>6.3843825161579007E-2</v>
+        <v>6.3859259222864673E-2</v>
       </c>
       <c r="F39" s="122">
         <f t="shared" si="3"/>
-        <v>6.3843825161579007E-2</v>
+        <v>6.3859259222864673E-2</v>
       </c>
       <c r="G39" s="123"/>
       <c r="H39" s="100"/>
@@ -4571,11 +4558,11 @@
       <c r="J39" s="121"/>
       <c r="K39" s="122">
         <f>'3M Pricing'!H36*100</f>
-        <v>0.1244712826334405</v>
+        <v>0.1245403356428645</v>
       </c>
       <c r="L39" s="122">
         <f t="shared" si="4"/>
-        <v>0.1244712826334405</v>
+        <v>0.1245403356428645</v>
       </c>
       <c r="M39" s="123"/>
       <c r="N39" s="100"/>
@@ -4585,11 +4572,11 @@
       <c r="P39" s="121"/>
       <c r="Q39" s="122">
         <f>'6M Pricing'!H36*100</f>
-        <v>0.17175306934810727</v>
+        <v>0.1715445670337421</v>
       </c>
       <c r="R39" s="122">
         <f t="shared" si="5"/>
-        <v>0.17175306934810727</v>
+        <v>0.1715445670337421</v>
       </c>
       <c r="S39" s="123"/>
       <c r="T39" s="101"/>
@@ -4609,11 +4596,11 @@
       <c r="D40" s="121"/>
       <c r="E40" s="122">
         <f>'ON Pricing'!F37*100</f>
-        <v>6.5977899604134568E-2</v>
+        <v>6.5969648482837706E-2</v>
       </c>
       <c r="F40" s="122">
         <f t="shared" si="3"/>
-        <v>6.5977899604134568E-2</v>
+        <v>6.5969648482837706E-2</v>
       </c>
       <c r="G40" s="123"/>
       <c r="H40" s="100"/>
@@ -4623,11 +4610,11 @@
       <c r="J40" s="121"/>
       <c r="K40" s="122">
         <f>'3M Pricing'!H37*100</f>
-        <v>0.12520037022345071</v>
+        <v>0.12520119169445854</v>
       </c>
       <c r="L40" s="122">
         <f t="shared" si="4"/>
-        <v>0.12520037022345071</v>
+        <v>0.12520119169445854</v>
       </c>
       <c r="M40" s="123"/>
       <c r="N40" s="100"/>
@@ -4637,11 +4624,11 @@
       <c r="P40" s="121"/>
       <c r="Q40" s="122">
         <f>'6M Pricing'!H37*100</f>
-        <v>0.17423984501647577</v>
+        <v>0.17404054582492845</v>
       </c>
       <c r="R40" s="122">
         <f t="shared" si="5"/>
-        <v>0.17423984501647577</v>
+        <v>0.17404054582492845</v>
       </c>
       <c r="S40" s="123"/>
       <c r="T40" s="101"/>
@@ -4661,11 +4648,11 @@
       <c r="D41" s="121"/>
       <c r="E41" s="122">
         <f>'ON Pricing'!F38*100</f>
-        <v>6.8122107033434187E-2</v>
+        <v>6.8132978335679772E-2</v>
       </c>
       <c r="F41" s="122">
         <f t="shared" si="3"/>
-        <v>6.8122107033434187E-2</v>
+        <v>6.8132978335679772E-2</v>
       </c>
       <c r="G41" s="123"/>
       <c r="H41" s="100"/>
@@ -4675,11 +4662,11 @@
       <c r="J41" s="121"/>
       <c r="K41" s="122">
         <f>'3M Pricing'!H38*100</f>
-        <v>0.12692164143434609</v>
+        <v>0.1266829864666893</v>
       </c>
       <c r="L41" s="122">
         <f t="shared" si="4"/>
-        <v>0.12692164143434609</v>
+        <v>0.1266829864666893</v>
       </c>
       <c r="M41" s="123"/>
       <c r="N41" s="100"/>
@@ -4689,11 +4676,11 @@
       <c r="P41" s="121"/>
       <c r="Q41" s="122">
         <f>'6M Pricing'!H38*100</f>
-        <v>0.17796203411043479</v>
+        <v>0.17760480440984092</v>
       </c>
       <c r="R41" s="122">
         <f t="shared" si="5"/>
-        <v>0.17796203411043479</v>
+        <v>0.17760480440984092</v>
       </c>
       <c r="S41" s="123"/>
       <c r="T41" s="101"/>
@@ -4716,11 +4703,11 @@
       </c>
       <c r="E42" s="122">
         <f>'ON Pricing'!F39*100</f>
-        <v>6.9999999999999257E-2</v>
+        <v>7.0000000000003795E-2</v>
       </c>
       <c r="F42" s="122">
         <f t="shared" si="3"/>
-        <v>6.9999999999999257E-2</v>
+        <v>7.0000000000003795E-2</v>
       </c>
       <c r="G42" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D42,Fields,E42:F42,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D42:F42,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4736,11 +4723,11 @@
       </c>
       <c r="K42" s="122">
         <f>'3M Pricing'!H39*100</f>
-        <v>0.12926616480056397</v>
+        <v>0.12926616775518512</v>
       </c>
       <c r="L42" s="122">
         <f t="shared" si="4"/>
-        <v>0.12926616480056397</v>
+        <v>0.12926616775518512</v>
       </c>
       <c r="M42" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J42,Fields,K42:L42,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J42:L42,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4756,11 +4743,11 @@
       </c>
       <c r="Q42" s="122">
         <f>'6M Pricing'!H39*100</f>
-        <v>0.18250001984575392</v>
+        <v>0.18250000000253871</v>
       </c>
       <c r="R42" s="122">
         <f t="shared" si="5"/>
-        <v>0.18250001984575392</v>
+        <v>0.18250000000253871</v>
       </c>
       <c r="S42" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P42,Fields,Q42:R42,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P42:R42,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4786,11 +4773,11 @@
       </c>
       <c r="E43" s="122">
         <f>'ON Pricing'!F40*100</f>
-        <v>7.7499999999999583E-2</v>
+        <v>7.7500000000002164E-2</v>
       </c>
       <c r="F43" s="122">
         <f t="shared" si="3"/>
-        <v>7.7499999999999583E-2</v>
+        <v>7.7500000000002164E-2</v>
       </c>
       <c r="G43" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D43,Fields,E43:F43,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D43:F43,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4806,11 +4793,11 @@
       </c>
       <c r="K43" s="122">
         <f>'3M Pricing'!H40*100</f>
-        <v>0.14912570675471226</v>
+        <v>0.15162570135990122</v>
       </c>
       <c r="L43" s="122">
         <f t="shared" si="4"/>
-        <v>0.14912570675471226</v>
+        <v>0.15162570135990122</v>
       </c>
       <c r="M43" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J43,Fields,K43:L43,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J43:L43,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4826,11 +4813,11 @@
       </c>
       <c r="Q43" s="122">
         <f>'6M Pricing'!H40*100</f>
-        <v>0.21250005433124153</v>
+        <v>0.21499999996106556</v>
       </c>
       <c r="R43" s="122">
         <f t="shared" si="5"/>
-        <v>0.21250005433124153</v>
+        <v>0.21499999996106556</v>
       </c>
       <c r="S43" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P43,Fields,Q43:R43,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P43:R43,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4856,11 +4843,11 @@
       </c>
       <c r="E44" s="122">
         <f>'ON Pricing'!F41*100</f>
-        <v>0.10249999999998886</v>
+        <v>0.10249999999999805</v>
       </c>
       <c r="F44" s="122">
         <f t="shared" si="3"/>
-        <v>0.10249999999998886</v>
+        <v>0.10249999999999805</v>
       </c>
       <c r="G44" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D44,Fields,E44:F44,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D44:F44,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4876,11 +4863,11 @@
       </c>
       <c r="K44" s="122">
         <f>'3M Pricing'!H41*100</f>
-        <v>0.1914831754514412</v>
+        <v>0.19398316669164084</v>
       </c>
       <c r="L44" s="122">
         <f t="shared" si="4"/>
-        <v>0.1914831754514412</v>
+        <v>0.19398316669164084</v>
       </c>
       <c r="M44" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J44,Fields,K44:L44,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J44:L44,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4896,11 +4883,11 @@
       </c>
       <c r="Q44" s="122">
         <f>'6M Pricing'!H41*100</f>
-        <v>0.26500007778094709</v>
+        <v>0.26750000000025065</v>
       </c>
       <c r="R44" s="122">
         <f t="shared" si="5"/>
-        <v>0.26500007778094709</v>
+        <v>0.26750000000025065</v>
       </c>
       <c r="S44" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P44,Fields,Q44:R44,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P44:R44,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4926,11 +4913,11 @@
       </c>
       <c r="E45" s="122">
         <f>'ON Pricing'!F42*100</f>
-        <v>0.15500000000000164</v>
+        <v>0.1550000000000038</v>
       </c>
       <c r="F45" s="122">
         <f t="shared" si="3"/>
-        <v>0.15500000000000164</v>
+        <v>0.1550000000000038</v>
       </c>
       <c r="G45" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D45,Fields,E45:F45,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D45:F45,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4946,11 +4933,11 @@
       </c>
       <c r="K45" s="122">
         <f>'3M Pricing'!H42*100</f>
-        <v>0.25383703907980038</v>
+        <v>0.25883695833614073</v>
       </c>
       <c r="L45" s="122">
         <f t="shared" si="4"/>
-        <v>0.25383703907980038</v>
+        <v>0.25883695833614073</v>
       </c>
       <c r="M45" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J45,Fields,K45:L45,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J45:L45,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4966,11 +4953,11 @@
       </c>
       <c r="Q45" s="122">
         <f>'6M Pricing'!H42*100</f>
-        <v>0.33750018157944334</v>
+        <v>0.34250000000000391</v>
       </c>
       <c r="R45" s="122">
         <f t="shared" si="5"/>
-        <v>0.33750018157944334</v>
+        <v>0.34250000000000391</v>
       </c>
       <c r="S45" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P45,Fields,Q45:R45,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P45:R45,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -4996,11 +4983,11 @@
       </c>
       <c r="E46" s="122">
         <f>'ON Pricing'!F43*100</f>
-        <v>0.22250000000000394</v>
+        <v>0.22250000000000766</v>
       </c>
       <c r="F46" s="122">
         <f t="shared" si="3"/>
-        <v>0.22250000000000394</v>
+        <v>0.22250000000000766</v>
       </c>
       <c r="G46" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D46,Fields,E46:F46,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D46:F46,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5016,11 +5003,11 @@
       </c>
       <c r="K46" s="122">
         <f>'3M Pricing'!H43*100</f>
-        <v>0.33372334954935656</v>
+        <v>0.33368789720269121</v>
       </c>
       <c r="L46" s="122">
         <f t="shared" si="4"/>
-        <v>0.33372334954935656</v>
+        <v>0.33368789720269121</v>
       </c>
       <c r="M46" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J46,Fields,K46:L46,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J46:L46,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5036,11 +5023,11 @@
       </c>
       <c r="Q46" s="122">
         <f>'6M Pricing'!H43*100</f>
-        <v>0.42500015577829015</v>
+        <v>0.42749999999951777</v>
       </c>
       <c r="R46" s="122">
         <f t="shared" si="5"/>
-        <v>0.42500015577829015</v>
+        <v>0.42749999999951777</v>
       </c>
       <c r="S46" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P46,Fields,Q46:R46,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P46:R46,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5066,11 +5053,11 @@
       </c>
       <c r="E47" s="122">
         <f>'ON Pricing'!F44*100</f>
-        <v>0.29250000000000098</v>
+        <v>0.29249999999999543</v>
       </c>
       <c r="F47" s="122">
         <f t="shared" si="3"/>
-        <v>0.29250000000000098</v>
+        <v>0.29249999999999543</v>
       </c>
       <c r="G47" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D47,Fields,E47:F47,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D47:F47,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5086,11 +5073,11 @@
       </c>
       <c r="K47" s="122">
         <f>'3M Pricing'!H44*100</f>
-        <v>0.41610824155094672</v>
+        <v>0.41857257464180464</v>
       </c>
       <c r="L47" s="122">
         <f t="shared" si="4"/>
-        <v>0.41610824155094672</v>
+        <v>0.41857257464180464</v>
       </c>
       <c r="M47" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J47,Fields,K47:L47,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J47:L47,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5106,11 +5093,11 @@
       </c>
       <c r="Q47" s="122">
         <f>'6M Pricing'!H44*100</f>
-        <v>0.51500013666202971</v>
+        <v>0.5199999999990641</v>
       </c>
       <c r="R47" s="122">
         <f t="shared" si="5"/>
-        <v>0.51500013666202971</v>
+        <v>0.5199999999990641</v>
       </c>
       <c r="S47" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P47,Fields,Q47:R47,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P47:R47,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5136,11 +5123,11 @@
       </c>
       <c r="E48" s="122">
         <f>'ON Pricing'!F45*100</f>
-        <v>0.36499999999999622</v>
+        <v>0.36500000000000232</v>
       </c>
       <c r="F48" s="122">
         <f t="shared" si="3"/>
-        <v>0.36499999999999622</v>
+        <v>0.36500000000000232</v>
       </c>
       <c r="G48" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D48,Fields,E48:F48,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D48:F48,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5156,11 +5143,11 @@
       </c>
       <c r="K48" s="122">
         <f>'3M Pricing'!H45*100</f>
-        <v>0.49845557010359853</v>
+        <v>0.50091962568004578</v>
       </c>
       <c r="L48" s="122">
         <f t="shared" si="4"/>
-        <v>0.49845557010359853</v>
+        <v>0.50091962568004578</v>
       </c>
       <c r="M48" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J48,Fields,K48:L48,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J48:L48,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5176,11 +5163,11 @@
       </c>
       <c r="Q48" s="122">
         <f>'6M Pricing'!H45*100</f>
-        <v>0.60750014938827968</v>
+        <v>0.61250000000450577</v>
       </c>
       <c r="R48" s="122">
         <f t="shared" si="5"/>
-        <v>0.60750014938827968</v>
+        <v>0.61250000000450577</v>
       </c>
       <c r="S48" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P48,Fields,Q48:R48,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P48:R48,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5206,11 +5193,11 @@
       </c>
       <c r="E49" s="122">
         <f>'ON Pricing'!F46*100</f>
-        <v>0.43999999999999828</v>
+        <v>0.44000000000000444</v>
       </c>
       <c r="F49" s="122">
         <f t="shared" si="3"/>
-        <v>0.43999999999999828</v>
+        <v>0.44000000000000444</v>
       </c>
       <c r="G49" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D49,Fields,E49:F49,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D49:F49,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5226,11 +5213,11 @@
       </c>
       <c r="K49" s="122">
         <f>'3M Pricing'!H46*100</f>
-        <v>0.58333672467853426</v>
+        <v>0.58830053520909509</v>
       </c>
       <c r="L49" s="122">
         <f t="shared" si="4"/>
-        <v>0.58333672467853426</v>
+        <v>0.58830053520909509</v>
       </c>
       <c r="M49" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J49,Fields,K49:L49,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J49:L49,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5246,11 +5233,11 @@
       </c>
       <c r="Q49" s="122">
         <f>'6M Pricing'!H46*100</f>
-        <v>0.70000014951463396</v>
+        <v>0.70750000000799462</v>
       </c>
       <c r="R49" s="122">
         <f t="shared" si="5"/>
-        <v>0.70000014951463396</v>
+        <v>0.70750000000799462</v>
       </c>
       <c r="S49" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P49,Fields,Q49:R49,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P49:R49,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5273,11 +5260,11 @@
       <c r="D50" s="121"/>
       <c r="E50" s="122">
         <f>'ON Pricing'!F47*100</f>
-        <v>0.52037986444691819</v>
+        <v>0.52013535732412242</v>
       </c>
       <c r="F50" s="122">
         <f t="shared" si="3"/>
-        <v>0.52037986444691819</v>
+        <v>0.52013535732412242</v>
       </c>
       <c r="G50" s="123"/>
       <c r="H50" s="100"/>
@@ -5287,11 +5274,11 @@
       <c r="J50" s="121"/>
       <c r="K50" s="122">
         <f>'3M Pricing'!H47*100</f>
-        <v>0.67229523266739866</v>
+        <v>0.67797026388092108</v>
       </c>
       <c r="L50" s="122">
         <f t="shared" si="4"/>
-        <v>0.67229523266739866</v>
+        <v>0.67797026388092108</v>
       </c>
       <c r="M50" s="123"/>
       <c r="N50" s="100"/>
@@ -5301,11 +5288,11 @@
       <c r="P50" s="121"/>
       <c r="Q50" s="122">
         <f>'6M Pricing'!H47*100</f>
-        <v>0.7948284830978376</v>
+        <v>0.80027908208928178</v>
       </c>
       <c r="R50" s="122">
         <f t="shared" si="5"/>
-        <v>0.7948284830978376</v>
+        <v>0.80027908208928178</v>
       </c>
       <c r="S50" s="123"/>
       <c r="T50" s="101"/>
@@ -5328,11 +5315,11 @@
       </c>
       <c r="E51" s="122">
         <f>'ON Pricing'!F48*100</f>
-        <v>0.60500000000000465</v>
+        <v>0.60500000000000476</v>
       </c>
       <c r="F51" s="122">
         <f t="shared" si="3"/>
-        <v>0.60500000000000465</v>
+        <v>0.60500000000000476</v>
       </c>
       <c r="G51" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D51,Fields,E51:F51,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D51:F51,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5345,11 +5332,11 @@
       <c r="J51" s="121"/>
       <c r="K51" s="122">
         <f>'3M Pricing'!H48*100</f>
-        <v>0.76290557705676154</v>
+        <v>0.76768118051617329</v>
       </c>
       <c r="L51" s="122">
         <f t="shared" si="4"/>
-        <v>0.76290557705676154</v>
+        <v>0.76768118051617329</v>
       </c>
       <c r="M51" s="123"/>
       <c r="N51" s="100"/>
@@ -5362,11 +5349,11 @@
       </c>
       <c r="Q51" s="122">
         <f>'6M Pricing'!H48*100</f>
-        <v>0.8900001061086652</v>
+        <v>0.89250000000165286</v>
       </c>
       <c r="R51" s="122">
         <f t="shared" si="5"/>
-        <v>0.8900001061086652</v>
+        <v>0.89250000000165286</v>
       </c>
       <c r="S51" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P51,Fields,Q51:R51,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P51:R51,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5389,11 +5376,11 @@
       <c r="D52" s="121"/>
       <c r="E52" s="122">
         <f>'ON Pricing'!F49*100</f>
-        <v>0.69186064533803771</v>
+        <v>0.69120727766342394</v>
       </c>
       <c r="F52" s="122">
         <f t="shared" si="3"/>
-        <v>0.69186064533803771</v>
+        <v>0.69120727766342394</v>
       </c>
       <c r="G52" s="123"/>
       <c r="H52" s="100"/>
@@ -5403,11 +5390,11 @@
       <c r="J52" s="121"/>
       <c r="K52" s="122">
         <f>'3M Pricing'!H49*100</f>
-        <v>0.85280794898554402</v>
+        <v>0.85451557055484328</v>
       </c>
       <c r="L52" s="122">
         <f t="shared" si="4"/>
-        <v>0.85280794898554402</v>
+        <v>0.85451557055484328</v>
       </c>
       <c r="M52" s="123"/>
       <c r="N52" s="100"/>
@@ -5417,11 +5404,11 @@
       <c r="P52" s="121"/>
       <c r="Q52" s="122">
         <f>'6M Pricing'!H49*100</f>
-        <v>0.98318311797645586</v>
+        <v>0.98397802219996799</v>
       </c>
       <c r="R52" s="122">
         <f t="shared" si="5"/>
-        <v>0.98318311797645586</v>
+        <v>0.98397802219996799</v>
       </c>
       <c r="S52" s="123"/>
       <c r="T52" s="101"/>
@@ -5441,11 +5428,11 @@
       <c r="D53" s="121"/>
       <c r="E53" s="122">
         <f>'ON Pricing'!F50*100</f>
-        <v>0.77657272996002447</v>
+        <v>0.77637089741807297</v>
       </c>
       <c r="F53" s="122">
         <f t="shared" si="3"/>
-        <v>0.77657272996002447</v>
+        <v>0.77637089741807297</v>
       </c>
       <c r="G53" s="123"/>
       <c r="H53" s="100"/>
@@ -5455,11 +5442,11 @@
       <c r="J53" s="121"/>
       <c r="K53" s="122">
         <f>'3M Pricing'!H50*100</f>
-        <v>0.93880777162861462</v>
+        <v>0.93828089799807524</v>
       </c>
       <c r="L53" s="122">
         <f t="shared" si="4"/>
-        <v>0.93880777162861462</v>
+        <v>0.93828089799807524</v>
       </c>
       <c r="M53" s="123"/>
       <c r="N53" s="100"/>
@@ -5469,11 +5456,11 @@
       <c r="P53" s="121"/>
       <c r="Q53" s="122">
         <f>'6M Pricing'!H50*100</f>
-        <v>1.0715167443135094</v>
+        <v>1.0732276887938073</v>
       </c>
       <c r="R53" s="122">
         <f t="shared" si="5"/>
-        <v>1.0715167443135094</v>
+        <v>1.0732276887938073</v>
       </c>
       <c r="S53" s="123"/>
       <c r="T53" s="101"/>
@@ -5496,11 +5483,11 @@
       </c>
       <c r="E54" s="122">
         <f>'ON Pricing'!F51*100</f>
-        <v>0.85749999999999971</v>
+        <v>0.85749999999999993</v>
       </c>
       <c r="F54" s="122">
         <f t="shared" si="3"/>
-        <v>0.85749999999999971</v>
+        <v>0.85749999999999993</v>
       </c>
       <c r="G54" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D54,Fields,E54:F54,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D54:F54,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5516,11 +5503,11 @@
       </c>
       <c r="K54" s="122">
         <f>'3M Pricing'!H51*100</f>
-        <v>1.0205134212668689</v>
+        <v>1.0179384468090165</v>
       </c>
       <c r="L54" s="122">
         <f t="shared" si="4"/>
-        <v>1.0205134212668689</v>
+        <v>1.0179384468090165</v>
       </c>
       <c r="M54" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J54,Fields,K54:L54,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J54:L54,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5536,11 +5523,11 @@
       </c>
       <c r="Q54" s="122">
         <f>'6M Pricing'!H51*100</f>
-        <v>1.1550000768401938</v>
+        <v>1.1574999999970887</v>
       </c>
       <c r="R54" s="122">
         <f t="shared" si="5"/>
-        <v>1.1550000768401938</v>
+        <v>1.1574999999970887</v>
       </c>
       <c r="S54" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P54,Fields,Q54:R54,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P54:R54,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5563,11 +5550,11 @@
       <c r="D55" s="121"/>
       <c r="E55" s="122">
         <f>'ON Pricing'!F52*100</f>
-        <v>0.93274415365334973</v>
+        <v>0.9328381870116097</v>
       </c>
       <c r="F55" s="122">
         <f t="shared" si="3"/>
-        <v>0.93274415365334973</v>
+        <v>0.9328381870116097</v>
       </c>
       <c r="G55" s="123"/>
       <c r="H55" s="100"/>
@@ -5577,11 +5564,11 @@
       <c r="J55" s="121"/>
       <c r="K55" s="122">
         <f>'3M Pricing'!H52*100</f>
-        <v>1.0967500148008977</v>
+        <v>1.0928659204585973</v>
       </c>
       <c r="L55" s="122">
         <f t="shared" si="4"/>
-        <v>1.0967500148008977</v>
+        <v>1.0928659204585973</v>
       </c>
       <c r="M55" s="123"/>
       <c r="N55" s="100"/>
@@ -5591,11 +5578,11 @@
       <c r="P55" s="121"/>
       <c r="Q55" s="122">
         <f>'6M Pricing'!H52*100</f>
-        <v>1.2326866251824042</v>
+        <v>1.2352401332486365</v>
       </c>
       <c r="R55" s="122">
         <f t="shared" si="5"/>
-        <v>1.2326866251824042</v>
+        <v>1.2352401332486365</v>
       </c>
       <c r="S55" s="123"/>
       <c r="T55" s="101"/>
@@ -5615,11 +5602,11 @@
       <c r="D56" s="121"/>
       <c r="E56" s="122">
         <f>'ON Pricing'!F53*100</f>
-        <v>1.0017693196658926</v>
+        <v>1.0018743592978949</v>
       </c>
       <c r="F56" s="122">
         <f t="shared" si="3"/>
-        <v>1.0017693196658926</v>
+        <v>1.0018743592978949</v>
       </c>
       <c r="G56" s="123"/>
       <c r="H56" s="100"/>
@@ -5629,11 +5616,11 @@
       <c r="J56" s="121"/>
       <c r="K56" s="122">
         <f>'3M Pricing'!H53*100</f>
-        <v>1.166921332041849</v>
+        <v>1.1623154135961677</v>
       </c>
       <c r="L56" s="122">
         <f t="shared" si="4"/>
-        <v>1.166921332041849</v>
+        <v>1.1623154135961677</v>
       </c>
       <c r="M56" s="123"/>
       <c r="N56" s="100"/>
@@ -5643,11 +5630,11 @@
       <c r="P56" s="121"/>
       <c r="Q56" s="122">
         <f>'6M Pricing'!H53*100</f>
-        <v>1.3040603098089636</v>
+        <v>1.3061062348463477</v>
       </c>
       <c r="R56" s="122">
         <f t="shared" si="5"/>
-        <v>1.3040603098089636</v>
+        <v>1.3061062348463477</v>
       </c>
       <c r="S56" s="123"/>
       <c r="T56" s="101"/>
@@ -5667,11 +5654,11 @@
       <c r="D57" s="121"/>
       <c r="E57" s="122">
         <f>'ON Pricing'!F54*100</f>
-        <v>1.0648589464924672</v>
+        <v>1.0647683531782708</v>
       </c>
       <c r="F57" s="122">
         <f t="shared" si="3"/>
-        <v>1.0648589464924672</v>
+        <v>1.0647683531782708</v>
       </c>
       <c r="G57" s="123"/>
       <c r="H57" s="100"/>
@@ -5681,11 +5668,11 @@
       <c r="J57" s="121"/>
       <c r="K57" s="122">
         <f>'3M Pricing'!H54*100</f>
-        <v>1.231133038406268</v>
+        <v>1.2260199968658858</v>
       </c>
       <c r="L57" s="122">
         <f t="shared" si="4"/>
-        <v>1.231133038406268</v>
+        <v>1.2260199968658858</v>
       </c>
       <c r="M57" s="123"/>
       <c r="N57" s="100"/>
@@ -5695,11 +5682,11 @@
       <c r="P57" s="121"/>
       <c r="Q57" s="122">
         <f>'6M Pricing'!H54*100</f>
-        <v>1.3692743291026561</v>
+        <v>1.3703986657693772</v>
       </c>
       <c r="R57" s="122">
         <f t="shared" si="5"/>
-        <v>1.3692743291026561</v>
+        <v>1.3703986657693772</v>
       </c>
       <c r="S57" s="123"/>
       <c r="T57" s="101"/>
@@ -5719,11 +5706,11 @@
       <c r="D58" s="121"/>
       <c r="E58" s="122">
         <f>'ON Pricing'!F55*100</f>
-        <v>1.1207104834923229</v>
+        <v>1.1205951731058585</v>
       </c>
       <c r="F58" s="122">
         <f t="shared" si="3"/>
-        <v>1.1207104834923229</v>
+        <v>1.1205951731058585</v>
       </c>
       <c r="G58" s="123"/>
       <c r="H58" s="100"/>
@@ -5733,11 +5720,11 @@
       <c r="J58" s="121"/>
       <c r="K58" s="122">
         <f>'3M Pricing'!H55*100</f>
-        <v>1.2879267877227432</v>
+        <v>1.2827175186889861</v>
       </c>
       <c r="L58" s="122">
         <f t="shared" si="4"/>
-        <v>1.2879267877227432</v>
+        <v>1.2827175186889861</v>
       </c>
       <c r="M58" s="123"/>
       <c r="N58" s="100"/>
@@ -5747,11 +5734,11 @@
       <c r="P58" s="121"/>
       <c r="Q58" s="122">
         <f>'6M Pricing'!H55*100</f>
-        <v>1.426880793316931</v>
+        <v>1.427282457423884</v>
       </c>
       <c r="R58" s="122">
         <f t="shared" si="5"/>
-        <v>1.426880793316931</v>
+        <v>1.427282457423884</v>
       </c>
       <c r="S58" s="123"/>
       <c r="T58" s="101"/>
@@ -5774,11 +5761,11 @@
       </c>
       <c r="E59" s="122">
         <f>'ON Pricing'!F56*100</f>
-        <v>1.1699999999999968</v>
+        <v>1.1699999999999955</v>
       </c>
       <c r="F59" s="122">
         <f t="shared" si="3"/>
-        <v>1.1699999999999968</v>
+        <v>1.1699999999999955</v>
       </c>
       <c r="G59" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D59,Fields,E59:F59,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D59:F59,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5794,11 +5781,11 @@
       </c>
       <c r="K59" s="122">
         <f>'3M Pricing'!H56*100</f>
-        <v>1.3378849129812662</v>
+        <v>1.3328080376919011</v>
       </c>
       <c r="L59" s="122">
         <f t="shared" si="4"/>
-        <v>1.3378849129812662</v>
+        <v>1.3328080376919011</v>
       </c>
       <c r="M59" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J59,Fields,K59:L59,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J59:L59,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5814,11 +5801,11 @@
       </c>
       <c r="Q59" s="122">
         <f>'6M Pricing'!H56*100</f>
-        <v>1.4774999820360739</v>
+        <v>1.4774999999983816</v>
       </c>
       <c r="R59" s="122">
         <f t="shared" si="5"/>
-        <v>1.4774999820360739</v>
+        <v>1.4774999999983816</v>
       </c>
       <c r="S59" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P59,Fields,Q59:R59,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P59:R59,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -5841,11 +5828,11 @@
       <c r="D60" s="121"/>
       <c r="E60" s="122">
         <f>'ON Pricing'!F57*100</f>
-        <v>1.2130144879168712</v>
+        <v>1.2130093419188448</v>
       </c>
       <c r="F60" s="122">
         <f t="shared" si="3"/>
-        <v>1.2130144879168712</v>
+        <v>1.2130093419188448</v>
       </c>
       <c r="G60" s="123"/>
       <c r="H60" s="100"/>
@@ -5855,11 +5842,11 @@
       <c r="J60" s="121"/>
       <c r="K60" s="122">
         <f>'3M Pricing'!H57*100</f>
-        <v>1.3812506688364126</v>
+        <v>1.3761751564640499</v>
       </c>
       <c r="L60" s="122">
         <f t="shared" si="4"/>
-        <v>1.3812506688364126</v>
+        <v>1.3761751564640499</v>
       </c>
       <c r="M60" s="123"/>
       <c r="N60" s="100"/>
@@ -5869,11 +5856,11 @@
       <c r="P60" s="121"/>
       <c r="Q60" s="122">
         <f>'6M Pricing'!H57*100</f>
-        <v>1.5213986743138725</v>
+        <v>1.5211436083108913</v>
       </c>
       <c r="R60" s="122">
         <f t="shared" si="5"/>
-        <v>1.5213986743138725</v>
+        <v>1.5211436083108913</v>
       </c>
       <c r="S60" s="123"/>
       <c r="T60" s="101"/>
@@ -5893,11 +5880,11 @@
       <c r="D61" s="121"/>
       <c r="E61" s="122">
         <f>'ON Pricing'!F58*100</f>
-        <v>1.2505637396800029</v>
+        <v>1.2505717548283561</v>
       </c>
       <c r="F61" s="122">
         <f t="shared" si="3"/>
-        <v>1.2505637396800029</v>
+        <v>1.2505717548283561</v>
       </c>
       <c r="G61" s="123"/>
       <c r="H61" s="100"/>
@@ -5907,11 +5894,11 @@
       <c r="J61" s="121"/>
       <c r="K61" s="122">
         <f>'3M Pricing'!H58*100</f>
-        <v>1.4189365085932577</v>
+        <v>1.4138634910100514</v>
       </c>
       <c r="L61" s="122">
         <f t="shared" si="4"/>
-        <v>1.4189365085932577</v>
+        <v>1.4138634910100514</v>
       </c>
       <c r="M61" s="123"/>
       <c r="N61" s="100"/>
@@ -5921,11 +5908,11 @@
       <c r="P61" s="121"/>
       <c r="Q61" s="122">
         <f>'6M Pricing'!H58*100</f>
-        <v>1.5595139384236638</v>
+        <v>1.5592261489143717</v>
       </c>
       <c r="R61" s="122">
         <f t="shared" si="5"/>
-        <v>1.5595139384236638</v>
+        <v>1.5592261489143717</v>
       </c>
       <c r="S61" s="123"/>
       <c r="T61" s="101"/>
@@ -5945,11 +5932,11 @@
       <c r="D62" s="121"/>
       <c r="E62" s="122">
         <f>'ON Pricing'!F59*100</f>
-        <v>1.2833074667583955</v>
+        <v>1.2835075391488313</v>
       </c>
       <c r="F62" s="122">
         <f t="shared" si="3"/>
-        <v>1.2833074667583955</v>
+        <v>1.2835075391488313</v>
       </c>
       <c r="G62" s="123"/>
       <c r="H62" s="100"/>
@@ -5959,11 +5946,11 @@
       <c r="J62" s="121"/>
       <c r="K62" s="122">
         <f>'3M Pricing'!H59*100</f>
-        <v>1.4517199709752531</v>
+        <v>1.4468197477924791</v>
       </c>
       <c r="L62" s="122">
         <f t="shared" si="4"/>
-        <v>1.4517199709752531</v>
+        <v>1.4468197477924791</v>
       </c>
       <c r="M62" s="123"/>
       <c r="N62" s="100"/>
@@ -5973,11 +5960,11 @@
       <c r="P62" s="121"/>
       <c r="Q62" s="122">
         <f>'6M Pricing'!H59*100</f>
-        <v>1.5926431255998537</v>
+        <v>1.5926204999518259</v>
       </c>
       <c r="R62" s="122">
         <f t="shared" si="5"/>
-        <v>1.5926431255998537</v>
+        <v>1.5926204999518259</v>
       </c>
       <c r="S62" s="123"/>
       <c r="T62" s="101"/>
@@ -5997,11 +5984,11 @@
       <c r="D63" s="121"/>
       <c r="E63" s="122">
         <f>'ON Pricing'!F60*100</f>
-        <v>1.3122180003351567</v>
+        <v>1.3121940665487082</v>
       </c>
       <c r="F63" s="122">
         <f t="shared" si="3"/>
-        <v>1.3122180003351567</v>
+        <v>1.3121940665487082</v>
       </c>
       <c r="G63" s="123"/>
       <c r="H63" s="100"/>
@@ -6011,11 +5998,11 @@
       <c r="J63" s="121"/>
       <c r="K63" s="122">
         <f>'3M Pricing'!H60*100</f>
-        <v>1.4806669386085169</v>
+        <v>1.4755261526666699</v>
       </c>
       <c r="L63" s="122">
         <f t="shared" si="4"/>
-        <v>1.4806669386085169</v>
+        <v>1.4755261526666699</v>
       </c>
       <c r="M63" s="123"/>
       <c r="N63" s="100"/>
@@ -6025,11 +6012,11 @@
       <c r="P63" s="121"/>
       <c r="Q63" s="122">
         <f>'6M Pricing'!H60*100</f>
-        <v>1.6218738253193508</v>
+        <v>1.621743155553329</v>
       </c>
       <c r="R63" s="122">
         <f t="shared" si="5"/>
-        <v>1.6218738253193508</v>
+        <v>1.621743155553329</v>
       </c>
       <c r="S63" s="123"/>
       <c r="T63" s="101"/>
@@ -6052,11 +6039,11 @@
       </c>
       <c r="E64" s="122">
         <f>'ON Pricing'!F61*100</f>
-        <v>1.3375000000000017</v>
+        <v>1.337500000000001</v>
       </c>
       <c r="F64" s="122">
         <f t="shared" si="3"/>
-        <v>1.3375000000000017</v>
+        <v>1.337500000000001</v>
       </c>
       <c r="G64" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D64,Fields,E64:F64,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D64:F64,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6069,11 +6056,11 @@
       <c r="J64" s="121"/>
       <c r="K64" s="122">
         <f>'3M Pricing'!H61*100</f>
-        <v>1.5060608167745475</v>
+        <v>1.5009325585333835</v>
       </c>
       <c r="L64" s="122">
         <f t="shared" si="4"/>
-        <v>1.5060608167745475</v>
+        <v>1.5009325585333835</v>
       </c>
       <c r="M64" s="123"/>
       <c r="N64" s="100"/>
@@ -6086,11 +6073,11 @@
       </c>
       <c r="Q64" s="122">
         <f>'6M Pricing'!H61*100</f>
-        <v>1.6474999581329266</v>
+        <v>1.6475000000036224</v>
       </c>
       <c r="R64" s="122">
         <f t="shared" si="5"/>
-        <v>1.6474999581329266</v>
+        <v>1.6475000000036224</v>
       </c>
       <c r="S64" s="123" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P64,Fields,Q64:R64,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P64:R64,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6113,11 +6100,11 @@
       <c r="D65" s="121"/>
       <c r="E65" s="122">
         <f>'ON Pricing'!F62*100</f>
-        <v>1.3599725052030163</v>
+        <v>1.3600444024231595</v>
       </c>
       <c r="F65" s="122">
         <f t="shared" si="3"/>
-        <v>1.3599725052030163</v>
+        <v>1.3600444024231595</v>
       </c>
       <c r="G65" s="123"/>
       <c r="H65" s="100"/>
@@ -6127,11 +6114,11 @@
       <c r="J65" s="121"/>
       <c r="K65" s="122">
         <f>'3M Pricing'!H62*100</f>
-        <v>1.5287650527315781</v>
+        <v>1.523707878237901</v>
       </c>
       <c r="L65" s="122">
         <f t="shared" si="4"/>
-        <v>1.5287650527315781</v>
+        <v>1.523707878237901</v>
       </c>
       <c r="M65" s="123"/>
       <c r="N65" s="100"/>
@@ -6141,11 +6128,11 @@
       <c r="P65" s="121"/>
       <c r="Q65" s="122">
         <f>'6M Pricing'!H62*100</f>
-        <v>1.6704007647557708</v>
+        <v>1.6705324642372299</v>
       </c>
       <c r="R65" s="122">
         <f t="shared" si="5"/>
-        <v>1.6704007647557708</v>
+        <v>1.6705324642372299</v>
       </c>
       <c r="S65" s="123"/>
       <c r="T65" s="101"/>
@@ -6165,11 +6152,11 @@
       <c r="D66" s="121"/>
       <c r="E66" s="122">
         <f>'ON Pricing'!F63*100</f>
-        <v>1.3800520384370143</v>
+        <v>1.3801214488826474</v>
       </c>
       <c r="F66" s="122">
         <f t="shared" si="3"/>
-        <v>1.3800520384370143</v>
+        <v>1.3801214488826474</v>
       </c>
       <c r="G66" s="123"/>
       <c r="H66" s="100"/>
@@ -6179,11 +6166,11 @@
       <c r="J66" s="121"/>
       <c r="K66" s="122">
         <f>'3M Pricing'!H63*100</f>
-        <v>1.5491696660745706</v>
+        <v>1.5441173658161014</v>
       </c>
       <c r="L66" s="122">
         <f t="shared" si="4"/>
-        <v>1.5491696660745706</v>
+        <v>1.5441173658161014</v>
       </c>
       <c r="M66" s="123"/>
       <c r="N66" s="100"/>
@@ -6193,11 +6180,11 @@
       <c r="P66" s="121"/>
       <c r="Q66" s="122">
         <f>'6M Pricing'!H63*100</f>
-        <v>1.6909735415522411</v>
+        <v>1.6911191320313188</v>
       </c>
       <c r="R66" s="122">
         <f t="shared" si="5"/>
-        <v>1.6909735415522411</v>
+        <v>1.6911191320313188</v>
       </c>
       <c r="S66" s="123"/>
       <c r="T66" s="101"/>
@@ -6217,11 +6204,11 @@
       <c r="D67" s="121"/>
       <c r="E67" s="122">
         <f>'ON Pricing'!F64*100</f>
-        <v>1.3981686293124123</v>
+        <v>1.3982305472467951</v>
       </c>
       <c r="F67" s="122">
         <f t="shared" si="3"/>
-        <v>1.3981686293124123</v>
+        <v>1.3982305472467951</v>
       </c>
       <c r="G67" s="123"/>
       <c r="H67" s="100"/>
@@ -6231,11 +6218,11 @@
       <c r="J67" s="121"/>
       <c r="K67" s="122">
         <f>'3M Pricing'!H64*100</f>
-        <v>1.5676666475744006</v>
+        <v>1.5626194417041421</v>
       </c>
       <c r="L67" s="122">
         <f t="shared" si="4"/>
-        <v>1.5676666475744006</v>
+        <v>1.5626194417041421</v>
       </c>
       <c r="M67" s="123"/>
       <c r="N67" s="100"/>
@@ -6245,11 +6232,11 @@
       <c r="P67" s="121"/>
       <c r="Q67" s="122">
         <f>'6M Pricing'!H64*100</f>
-        <v>1.7096167214392137</v>
+        <v>1.7097429175042387</v>
       </c>
       <c r="R67" s="122">
         <f t="shared" si="5"/>
-        <v>1.7096167214392137</v>
+        <v>1.7097429175042387</v>
       </c>
       <c r="S67" s="123"/>
       <c r="T67" s="101"/>
@@ -6269,11 +6256,11 @@
       <c r="D68" s="121"/>
       <c r="E68" s="122">
         <f>'ON Pricing'!F65*100</f>
-        <v>1.4146869096667853</v>
+        <v>1.4148274265269964</v>
       </c>
       <c r="F68" s="122">
         <f t="shared" si="3"/>
-        <v>1.4146869096667853</v>
+        <v>1.4148274265269964</v>
       </c>
       <c r="G68" s="123"/>
       <c r="H68" s="100"/>
@@ -6283,11 +6270,11 @@
       <c r="J68" s="121"/>
       <c r="K68" s="122">
         <f>'3M Pricing'!H65*100</f>
-        <v>1.5845882303287453</v>
+        <v>1.5796364172192225</v>
       </c>
       <c r="L68" s="122">
         <f t="shared" si="4"/>
-        <v>1.5845882303287453</v>
+        <v>1.5796364172192225</v>
       </c>
       <c r="M68" s="123"/>
       <c r="N68" s="100"/>
@@ -6297,11 +6284,11 @@
       <c r="P68" s="121"/>
       <c r="Q68" s="122">
         <f>'6M Pricing'!H65*100</f>
-        <v>1.7266679848078301</v>
+        <v>1.7268466297958176</v>
       </c>
       <c r="R68" s="122">
         <f t="shared" si="5"/>
-        <v>1.7266679848078301</v>
+        <v>1.7268466297958176</v>
       </c>
       <c r="S68" s="123"/>
       <c r="T68" s="101"/>
@@ -6324,11 +6311,11 @@
       </c>
       <c r="E69" s="126">
         <f>'ON Pricing'!F66*100</f>
-        <v>1.4300000000000015</v>
+        <v>1.4300000000000019</v>
       </c>
       <c r="F69" s="126">
         <f t="shared" si="3"/>
-        <v>1.4300000000000015</v>
+        <v>1.4300000000000019</v>
       </c>
       <c r="G69" s="127" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,D69,Fields,E69:F69,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,D69:F69,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6344,11 +6331,11 @@
       </c>
       <c r="K69" s="126">
         <f>'3M Pricing'!H66*100</f>
-        <v>1.6003014725914335</v>
+        <v>1.5952230419042042</v>
       </c>
       <c r="L69" s="126">
         <f t="shared" si="4"/>
-        <v>1.6003014725914335</v>
+        <v>1.5952230419042042</v>
       </c>
       <c r="M69" s="127" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,J69,Fields,K69:L69,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,J69:L69,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6364,11 +6351,11 @@
       </c>
       <c r="Q69" s="126">
         <f>'6M Pricing'!H66*100</f>
-        <v>1.7424999186379546</v>
+        <v>1.7424999999999997</v>
       </c>
       <c r="R69" s="126">
         <f t="shared" si="5"/>
-        <v>1.7424999186379546</v>
+        <v>1.7424999999999997</v>
       </c>
       <c r="S69" s="127" t="str">
         <f>IF(Contribute="abcd",IF($D$5&lt;&gt;-1,_xll.RtContribute(SourceAlias,P69,Fields,Q69:R69,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$D$5:$F$5,P69:R69,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7188,11 +7175,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="44"/>
-    <col min="2" max="2" width="6" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="6" style="44" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="44" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="44" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" style="44"/>
     <col min="8" max="8" width="15.140625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="14.85546875" style="20" customWidth="1" collapsed="1"/>
@@ -7263,7 +7250,7 @@
       </c>
       <c r="D3" s="47" t="str">
         <f>_xll.qlOvernightIndex(,"Tonar",0,Currency,Calendar,"Actual/365 (Fixed)",YieldCurve,,Trigger)</f>
-        <v>obj_0059e#0013</v>
+        <v>obj_0048e#0000</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -7348,21 +7335,21 @@
         <v>168</v>
       </c>
       <c r="D6" s="36">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" ref="D6:D37" si="0">EvaluationDate</f>
+        <v>41822</v>
       </c>
       <c r="E6" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1D","f",TRUE,Trigger)</f>
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="F6" s="52">
         <f>_xll.qlIndexFixing(H6,D6,TRUE,TriggerCounter)</f>
-        <v>6.4355432718876671E-4</v>
+        <v>6.43868188605623E-4</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="57" t="str">
         <f>_xll.qlLibor(,Currency,B6,YieldCurve,,Trigger)</f>
-        <v>obj_005c6#0006</v>
+        <v>obj_00482#0000</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -7387,21 +7374,21 @@
         <v>168</v>
       </c>
       <c r="D7" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E7" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f",TRUE,Trigger)</f>
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="F7" s="52">
         <f>_xll.qlIndexFixing(H7,D7,TRUE,TriggerCounter)</f>
-        <v>6.435422189543516E-4</v>
+        <v>6.4385373560682524E-4</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="57" t="str">
         <f>_xll.qlLibor(,Currency,B7,YieldCurve,,Trigger)</f>
-        <v>obj_005c7#0006</v>
+        <v>obj_00485#0000</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -7426,21 +7413,21 @@
         <v>168</v>
       </c>
       <c r="D8" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E8" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"1D","f",TRUE,Trigger)</f>
-        <v>41824</v>
+        <v>41827</v>
       </c>
       <c r="F8" s="52">
         <f>_xll.qlIndexFixing(H8,D8,TRUE,TriggerCounter)</f>
-        <v>6.4351800256545744E-4</v>
+        <v>6.4377780434554666E-4</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="57" t="str">
         <f>_xll.qlLibor(,Currency,B8,YieldCurve,,Trigger)</f>
-        <v>obj_005a3#0008</v>
+        <v>obj_0048d#0000</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -7465,21 +7452,21 @@
         <v>168</v>
       </c>
       <c r="D9" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E9" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"1W","f",TRUE,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="F9" s="52">
         <f>_xll.qlIndexFixing(H9,D9,TRUE,TriggerCounter)</f>
-        <v>6.4335193652453881E-4</v>
+        <v>6.4362594021284887E-4</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="57" t="str">
         <f>_xll.qlLibor(,Currency,B9,YieldCurve,,Trigger)</f>
-        <v>obj_005a1#0008</v>
+        <v>obj_00488#0000</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -7504,21 +7491,21 @@
         <v>168</v>
       </c>
       <c r="D10" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E10" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B10,"f",TRUE,Trigger)</f>
-        <v>41837</v>
+        <v>41838</v>
       </c>
       <c r="F10" s="52">
         <f>_xll.qlIndexFixing(H10,D10,TRUE,TriggerCounter)</f>
-        <v>6.4297454260271128E-4</v>
+        <v>6.4317468863959808E-4</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="57" t="str">
         <f>_xll.qlLibor(,Currency,B10,YieldCurve,,Trigger)</f>
-        <v>obj_0059f#0008</v>
+        <v>obj_0048b#0000</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -7543,21 +7530,21 @@
         <v>168</v>
       </c>
       <c r="D11" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E11" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B11,"f",TRUE,Trigger)</f>
-        <v>41844</v>
+        <v>41845</v>
       </c>
       <c r="F11" s="52">
         <f>_xll.qlIndexFixing(H11,D11,TRUE,TriggerCounter)</f>
-        <v>6.4239936443856644E-4</v>
+        <v>6.4248735215092058E-4</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="57" t="str">
         <f>_xll.qlLibor(,Currency,B11,YieldCurve,,Trigger)</f>
-        <v>obj_005a4#0008</v>
+        <v>obj_0048f#0000</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -7582,8 +7569,8 @@
         <v>157</v>
       </c>
       <c r="D12" s="36">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E12" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B12,"mf",TRUE,Trigger)</f>
@@ -7591,12 +7578,12 @@
       </c>
       <c r="F12" s="51">
         <f>_xll.qlOvernightIndexedSwapFairRate(H12,TriggerCounter)</f>
-        <v>6.5000000000117037E-4</v>
+        <v>6.499999999997815E-4</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="56" t="str">
         <f>_xll.qlMakeOIS(,B12,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005a2#0010</v>
+        <v>obj_004bd#0000</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -7621,21 +7608,21 @@
         <v>157</v>
       </c>
       <c r="D13" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E13" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B13,"mf",TRUE,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="F13" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H13,TriggerCounter)</f>
-        <v>6.5000000000108894E-4</v>
+        <v>6.4999999999978161E-4</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="57" t="str">
         <f>_xll.qlMakeOIS(,B13,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005a0#0011</v>
+        <v>obj_004a5#0000</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -7660,21 +7647,21 @@
         <v>157</v>
       </c>
       <c r="D14" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E14" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B14,"mf",TRUE,Trigger)</f>
-        <v>41915</v>
+        <v>41918</v>
       </c>
       <c r="F14" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H14,TriggerCounter)</f>
-        <v>6.5000000000017941E-4</v>
+        <v>6.5000000000025443E-4</v>
       </c>
       <c r="G14" s="39"/>
       <c r="H14" s="57" t="str">
         <f>_xll.qlMakeOIS(,B14,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0059d#0011</v>
+        <v>obj_004b4#0000</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -7699,8 +7686,8 @@
         <v>157</v>
       </c>
       <c r="D15" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E15" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B15,"mf",TRUE,Trigger)</f>
@@ -7708,12 +7695,12 @@
       </c>
       <c r="F15" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H15,TriggerCounter)</f>
-        <v>6.2500000000034305E-4</v>
+        <v>6.2500000000005075E-4</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="57" t="str">
         <f>_xll.qlMakeOIS(,B15,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005cc#0007</v>
+        <v>obj_004a7#0000</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -7738,12 +7725,12 @@
         <v>157</v>
       </c>
       <c r="D16" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E16" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B16,"mf",TRUE,Trigger)</f>
-        <v>41976</v>
+        <v>41977</v>
       </c>
       <c r="F16" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H16,TriggerCounter)</f>
@@ -7752,7 +7739,7 @@
       <c r="G16" s="39"/>
       <c r="H16" s="57" t="str">
         <f>_xll.qlMakeOIS(,B16,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005cf#0007</v>
+        <v>obj_004c5#0000</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -7777,8 +7764,8 @@
         <v>157</v>
       </c>
       <c r="D17" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E17" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B17,"mf",TRUE,Trigger)</f>
@@ -7786,12 +7773,12 @@
       </c>
       <c r="F17" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H17,TriggerCounter)</f>
-        <v>6.2500000000012513E-4</v>
+        <v>6.2500000000036745E-4</v>
       </c>
       <c r="G17" s="39"/>
       <c r="H17" s="57" t="str">
         <f>_xll.qlMakeOIS(,B17,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d2#0007</v>
+        <v>obj_004af#0000</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
@@ -7816,21 +7803,21 @@
         <v>157</v>
       </c>
       <c r="D18" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E18" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B18,"mf",TRUE,Trigger)</f>
-        <v>42038</v>
+        <v>42039</v>
       </c>
       <c r="F18" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H18,TriggerCounter)</f>
-        <v>6.2701265433157257E-4</v>
+        <v>6.2706566465582159E-4</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="57" t="str">
         <f>_xll.qlMakeOIS(,B18,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d5#0007</v>
+        <v>obj_004a3#0000</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -7855,21 +7842,21 @@
         <v>157</v>
       </c>
       <c r="D19" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E19" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B19,"mf",TRUE,Trigger)</f>
-        <v>42066</v>
+        <v>42067</v>
       </c>
       <c r="F19" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H19,TriggerCounter)</f>
-        <v>6.2830093101318835E-4</v>
+        <v>6.2845413400546978E-4</v>
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="57" t="str">
         <f>_xll.qlMakeOIS(,B19,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d8#0007</v>
+        <v>obj_00498#0000</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
@@ -7894,8 +7881,8 @@
         <v>157</v>
       </c>
       <c r="D20" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E20" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B20,"mf",TRUE,Trigger)</f>
@@ -7903,12 +7890,12 @@
       </c>
       <c r="F20" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H20,TriggerCounter)</f>
-        <v>6.240702259366689E-4</v>
+        <v>6.2477541606986524E-4</v>
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="57" t="str">
         <f>_xll.qlMakeOIS(,B20,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005da#0007</v>
+        <v>obj_004b1#0000</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -7933,8 +7920,8 @@
         <v>157</v>
       </c>
       <c r="D21" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E21" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B21,"mf",TRUE,Trigger)</f>
@@ -7942,12 +7929,12 @@
       </c>
       <c r="F21" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H21,TriggerCounter)</f>
-        <v>6.1472371033489644E-4</v>
+        <v>6.1568593317608495E-4</v>
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="57" t="str">
         <f>_xll.qlMakeOIS(,B21,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005c8#0008</v>
+        <v>obj_004bf#0000</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
@@ -7972,21 +7959,21 @@
         <v>157</v>
       </c>
       <c r="D22" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E22" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B22,"mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="F22" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H22,TriggerCounter)</f>
-        <v>6.0603406230118242E-4</v>
+        <v>6.0654494024808738E-4</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="57" t="str">
         <f>_xll.qlMakeOIS(,B22,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005ca#0008</v>
+        <v>obj_004b0#0000</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
@@ -8011,21 +7998,21 @@
         <v>157</v>
       </c>
       <c r="D23" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E23" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B23,"mf",TRUE,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="F23" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H23,TriggerCounter)</f>
-        <v>5.9999999999993381E-4</v>
+        <v>5.99999999999868E-4</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="57" t="str">
         <f>_xll.qlMakeOIS(,B23,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005cd#0008</v>
+        <v>obj_00495#0000</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -8050,21 +8037,21 @@
         <v>157</v>
       </c>
       <c r="D24" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E24" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B24,"mf",TRUE,Trigger)</f>
-        <v>42219</v>
+        <v>42220</v>
       </c>
       <c r="F24" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H24,TriggerCounter)</f>
-        <v>5.998446319860801E-4</v>
+        <v>5.9980353587140431E-4</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="57" t="str">
         <f>_xll.qlMakeOIS(,B24,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d0#0008</v>
+        <v>obj_004be#0000</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -8089,21 +8076,21 @@
         <v>157</v>
       </c>
       <c r="D25" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E25" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B25,"mf",TRUE,Trigger)</f>
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="F25" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H25,TriggerCounter)</f>
-        <v>6.0393657873401016E-4</v>
+        <v>6.0382453145137497E-4</v>
       </c>
       <c r="G25" s="39"/>
       <c r="H25" s="57" t="str">
         <f>_xll.qlMakeOIS(,B25,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d3#0008</v>
+        <v>obj_004aa#0000</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -8128,8 +8115,8 @@
         <v>157</v>
       </c>
       <c r="D26" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E26" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B26,"mf",TRUE,Trigger)</f>
@@ -8137,12 +8124,12 @@
       </c>
       <c r="F26" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H26,TriggerCounter)</f>
-        <v>6.102159842108851E-4</v>
+        <v>6.099274446451251E-4</v>
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="57" t="str">
         <f>_xll.qlMakeOIS(,B26,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d6#0008</v>
+        <v>obj_004a0#0000</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -8167,8 +8154,8 @@
         <v>157</v>
       </c>
       <c r="D27" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E27" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B27,"mf",TRUE,Trigger)</f>
@@ -8176,12 +8163,12 @@
       </c>
       <c r="F27" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H27,TriggerCounter)</f>
-        <v>6.1636441953269309E-4</v>
+        <v>6.1615789521687816E-4</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="57" t="str">
         <f>_xll.qlMakeOIS(,B27,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d9#0008</v>
+        <v>obj_004ab#0000</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -8206,21 +8193,21 @@
         <v>157</v>
       </c>
       <c r="D28" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E28" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B28,"mf",TRUE,Trigger)</f>
-        <v>42341</v>
+        <v>42342</v>
       </c>
       <c r="F28" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H28,TriggerCounter)</f>
-        <v>6.2142339071888895E-4</v>
+        <v>6.2147431018268152E-4</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="57" t="str">
         <f>_xll.qlMakeOIS(,B28,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005db#0008</v>
+        <v>obj_004b8#0000</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -8245,8 +8232,8 @@
         <v>157</v>
       </c>
       <c r="D29" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E29" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B29,"mf",TRUE,Trigger)</f>
@@ -8254,12 +8241,12 @@
       </c>
       <c r="F29" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H29,TriggerCounter)</f>
-        <v>6.2500000000000945E-4</v>
+        <v>6.2499999999992217E-4</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="57" t="str">
         <f>_xll.qlMakeOIS(,B29,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005c9#0008</v>
+        <v>obj_004c6#0000</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -8284,21 +8271,21 @@
         <v>157</v>
       </c>
       <c r="D30" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E30" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B30,"mf",TRUE,Trigger)</f>
-        <v>42403</v>
+        <v>42404</v>
       </c>
       <c r="F30" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H30,TriggerCounter)</f>
-        <v>6.2598970352982551E-4</v>
+        <v>6.2604532065853433E-4</v>
       </c>
       <c r="G30" s="39"/>
       <c r="H30" s="57" t="str">
         <f>_xll.qlMakeOIS(,B30,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005cb#0008</v>
+        <v>obj_0049b#0000</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -8323,21 +8310,21 @@
         <v>157</v>
       </c>
       <c r="D31" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E31" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B31,"mf",TRUE,Trigger)</f>
-        <v>42432</v>
+        <v>42433</v>
       </c>
       <c r="F31" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H31,TriggerCounter)</f>
-        <v>6.2552211595939074E-4</v>
+        <v>6.2556315359355453E-4</v>
       </c>
       <c r="G31" s="39"/>
       <c r="H31" s="57" t="str">
         <f>_xll.qlMakeOIS(,B31,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005ce#0008</v>
+        <v>obj_00490#0000</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -8362,8 +8349,8 @@
         <v>157</v>
       </c>
       <c r="D32" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E32" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B32,"mf",TRUE,Trigger)</f>
@@ -8371,12 +8358,12 @@
       </c>
       <c r="F32" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H32,TriggerCounter)</f>
-        <v>6.2439606320265507E-4</v>
+        <v>6.2446273589259317E-4</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="57" t="str">
         <f>_xll.qlMakeOIS(,B32,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d1#0008</v>
+        <v>obj_004b7#0000</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -8401,8 +8388,8 @@
         <v>157</v>
       </c>
       <c r="D33" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E33" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B33,"mf",TRUE,Trigger)</f>
@@ -8410,12 +8397,12 @@
       </c>
       <c r="F33" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H33,TriggerCounter)</f>
-        <v>6.2351927924657823E-4</v>
+        <v>6.2356635967169768E-4</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="57" t="str">
         <f>_xll.qlMakeOIS(,B33,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d4#0008</v>
+        <v>obj_004a6#0000</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
@@ -8440,21 +8427,21 @@
         <v>157</v>
       </c>
       <c r="D34" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E34" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B34,"mf",TRUE,Trigger)</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="F34" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H34,TriggerCounter)</f>
-        <v>6.2355380117786634E-4</v>
+        <v>6.2364356506668659E-4</v>
       </c>
       <c r="G34" s="39"/>
       <c r="H34" s="57" t="str">
         <f>_xll.qlMakeOIS(,B34,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005d7#0008</v>
+        <v>obj_004c4#0000</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -8479,8 +8466,8 @@
         <v>157</v>
       </c>
       <c r="D35" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E35" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B35,"mf",TRUE,Trigger)</f>
@@ -8488,12 +8475,12 @@
       </c>
       <c r="F35" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H35,TriggerCounter)</f>
-        <v>6.2500000000000218E-4</v>
+        <v>6.2499999999993106E-4</v>
       </c>
       <c r="G35" s="39"/>
       <c r="H35" s="57" t="str">
         <f>_xll.qlMakeOIS(,B35,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005ad#0009</v>
+        <v>obj_00497#0000</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="21"/>
@@ -8518,21 +8505,21 @@
         <v>157</v>
       </c>
       <c r="D36" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E36" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B36,"mf",TRUE,Trigger)</f>
-        <v>42646</v>
+        <v>42647</v>
       </c>
       <c r="F36" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H36,TriggerCounter)</f>
-        <v>6.3843825161579001E-4</v>
+        <v>6.3859259222864666E-4</v>
       </c>
       <c r="G36" s="39"/>
       <c r="H36" s="57" t="str">
         <f>_xll.qlMakeOIS(,B36,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b5#0009</v>
+        <v>obj_004bc#0000</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="21"/>
@@ -8557,8 +8544,8 @@
         <v>157</v>
       </c>
       <c r="D37" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="E37" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B37,"mf",TRUE,Trigger)</f>
@@ -8566,12 +8553,12 @@
       </c>
       <c r="F37" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H37,TriggerCounter)</f>
-        <v>6.5977899604134573E-4</v>
+        <v>6.5969648482837708E-4</v>
       </c>
       <c r="G37" s="39"/>
       <c r="H37" s="57" t="str">
         <f>_xll.qlMakeOIS(,B37,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005a5#0009</v>
+        <v>obj_004a2#0000</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="21"/>
@@ -8596,21 +8583,21 @@
         <v>157</v>
       </c>
       <c r="D38" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" ref="D38:D66" si="1">EvaluationDate</f>
+        <v>41822</v>
       </c>
       <c r="E38" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B38,"mf",TRUE,Trigger)</f>
-        <v>42828</v>
+        <v>42829</v>
       </c>
       <c r="F38" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H38,TriggerCounter)</f>
-        <v>6.8122107033434184E-4</v>
+        <v>6.8132978335679777E-4</v>
       </c>
       <c r="G38" s="39"/>
       <c r="H38" s="57" t="str">
         <f>_xll.qlMakeOIS(,B38,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b6#0009</v>
+        <v>obj_004ad#0000</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="21"/>
@@ -8635,21 +8622,21 @@
         <v>157</v>
       </c>
       <c r="D39" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E39" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B39,"mf",TRUE,Trigger)</f>
-        <v>42919</v>
+        <v>42920</v>
       </c>
       <c r="F39" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H39,TriggerCounter)</f>
-        <v>6.9999999999999251E-4</v>
+        <v>7.0000000000003794E-4</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="57" t="str">
         <f>_xll.qlMakeOIS(,B39,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005ae#0009</v>
+        <v>obj_00492#0000</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="21"/>
@@ -8674,21 +8661,21 @@
         <v>157</v>
       </c>
       <c r="D40" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E40" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B40,"mf",TRUE,Trigger)</f>
-        <v>43284</v>
+        <v>43285</v>
       </c>
       <c r="F40" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H40,TriggerCounter)</f>
-        <v>7.7499999999999585E-4</v>
+        <v>7.7500000000002166E-4</v>
       </c>
       <c r="G40" s="39"/>
       <c r="H40" s="57" t="str">
         <f>_xll.qlMakeOIS(,B40,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b7#0009</v>
+        <v>obj_0049c#0000</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="21"/>
@@ -8713,21 +8700,21 @@
         <v>157</v>
       </c>
       <c r="D41" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E41" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B41,"mf",TRUE,Trigger)</f>
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="F41" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H41,TriggerCounter)</f>
-        <v>1.0249999999998886E-3</v>
+        <v>1.0249999999999806E-3</v>
       </c>
       <c r="G41" s="39"/>
       <c r="H41" s="57" t="str">
         <f>_xll.qlMakeOIS(,B41,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005a6#0009</v>
+        <v>obj_0049e#0000</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="21"/>
@@ -8752,21 +8739,21 @@
         <v>157</v>
       </c>
       <c r="D42" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E42" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B42,"mf",TRUE,Trigger)</f>
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="F42" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H42,TriggerCounter)</f>
-        <v>1.5500000000000164E-3</v>
+        <v>1.5500000000000381E-3</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="57" t="str">
         <f>_xll.qlMakeOIS(,B42,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b8#0009</v>
+        <v>obj_004b6#0000</v>
       </c>
       <c r="I42" s="22"/>
       <c r="J42" s="21"/>
@@ -8791,8 +8778,8 @@
         <v>157</v>
       </c>
       <c r="D43" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E43" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B43,"mf",TRUE,Trigger)</f>
@@ -8800,12 +8787,12 @@
       </c>
       <c r="F43" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H43,TriggerCounter)</f>
-        <v>2.2250000000000394E-3</v>
+        <v>2.2250000000000767E-3</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="57" t="str">
         <f>_xll.qlMakeOIS(,B43,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005af#0009</v>
+        <v>obj_00494#0000</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="21"/>
@@ -8830,8 +8817,8 @@
         <v>157</v>
       </c>
       <c r="D44" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E44" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B44,"mf",TRUE,Trigger)</f>
@@ -8839,12 +8826,12 @@
       </c>
       <c r="F44" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H44,TriggerCounter)</f>
-        <v>2.9250000000000101E-3</v>
+        <v>2.9249999999999545E-3</v>
       </c>
       <c r="G44" s="39"/>
       <c r="H44" s="57" t="str">
         <f>_xll.qlMakeOIS(,B44,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b9#0009</v>
+        <v>obj_004b5#0000</v>
       </c>
       <c r="I44" s="22"/>
       <c r="J44" s="21"/>
@@ -8869,21 +8856,21 @@
         <v>157</v>
       </c>
       <c r="D45" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E45" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B45,"mf",TRUE,Trigger)</f>
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="F45" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H45,TriggerCounter)</f>
-        <v>3.6499999999999623E-3</v>
+        <v>3.6500000000000235E-3</v>
       </c>
       <c r="G45" s="39"/>
       <c r="H45" s="57" t="str">
         <f>_xll.qlMakeOIS(,B45,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005a7#0009</v>
+        <v>obj_0049f#0000</v>
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="21"/>
@@ -8908,21 +8895,21 @@
         <v>157</v>
       </c>
       <c r="D46" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E46" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B46,"mf",TRUE,Trigger)</f>
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="F46" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H46,TriggerCounter)</f>
-        <v>4.3999999999999829E-3</v>
+        <v>4.4000000000000445E-3</v>
       </c>
       <c r="G46" s="39"/>
       <c r="H46" s="57" t="str">
         <f>_xll.qlMakeOIS(,B46,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005ba#0009</v>
+        <v>obj_00499#0000</v>
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="21"/>
@@ -8947,21 +8934,21 @@
         <v>157</v>
       </c>
       <c r="D47" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E47" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B47,"mf",TRUE,Trigger)</f>
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="F47" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H47,TriggerCounter)</f>
-        <v>5.2037986444691819E-3</v>
+        <v>5.2013535732412242E-3</v>
       </c>
       <c r="G47" s="39"/>
       <c r="H47" s="57" t="str">
         <f>_xll.qlMakeOIS(,B47,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b0#0009</v>
+        <v>obj_004c1#0000</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="21"/>
@@ -8986,21 +8973,21 @@
         <v>157</v>
       </c>
       <c r="D48" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E48" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B48,"mf",TRUE,Trigger)</f>
-        <v>46206</v>
+        <v>46209</v>
       </c>
       <c r="F48" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H48,TriggerCounter)</f>
-        <v>6.0500000000000467E-3</v>
+        <v>6.0500000000000475E-3</v>
       </c>
       <c r="G48" s="39"/>
       <c r="H48" s="57" t="str">
         <f>_xll.qlMakeOIS(,B48,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005bb#0009</v>
+        <v>obj_004a8#0000</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="21"/>
@@ -9025,8 +9012,8 @@
         <v>157</v>
       </c>
       <c r="D49" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E49" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B49,"mf",TRUE,Trigger)</f>
@@ -9034,12 +9021,12 @@
       </c>
       <c r="F49" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H49,TriggerCounter)</f>
-        <v>6.9186064533803774E-3</v>
+        <v>6.9120727766342396E-3</v>
       </c>
       <c r="G49" s="39"/>
       <c r="H49" s="57" t="str">
         <f>_xll.qlMakeOIS(,B49,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005a8#0009</v>
+        <v>obj_004c0#0000</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="21"/>
@@ -9064,21 +9051,21 @@
         <v>157</v>
       </c>
       <c r="D50" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E50" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B50,"mf",TRUE,Trigger)</f>
-        <v>46937</v>
+        <v>46938</v>
       </c>
       <c r="F50" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H50,TriggerCounter)</f>
-        <v>7.7657272996002448E-3</v>
+        <v>7.7637089741807302E-3</v>
       </c>
       <c r="G50" s="39"/>
       <c r="H50" s="57" t="str">
         <f>_xll.qlMakeOIS(,B50,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005bc#0009</v>
+        <v>obj_004ac#0000</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="21"/>
@@ -9103,21 +9090,21 @@
         <v>157</v>
       </c>
       <c r="D51" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E51" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B51,"mf",TRUE,Trigger)</f>
-        <v>47302</v>
+        <v>47303</v>
       </c>
       <c r="F51" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H51,TriggerCounter)</f>
-        <v>8.5749999999999976E-3</v>
+        <v>8.5749999999999993E-3</v>
       </c>
       <c r="G51" s="39"/>
       <c r="H51" s="57" t="str">
         <f>_xll.qlMakeOIS(,B51,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b1#0009</v>
+        <v>obj_00491#0000</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="21"/>
@@ -9142,21 +9129,21 @@
         <v>157</v>
       </c>
       <c r="D52" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E52" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B52,"mf",TRUE,Trigger)</f>
-        <v>47667</v>
+        <v>47668</v>
       </c>
       <c r="F52" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H52,TriggerCounter)</f>
-        <v>9.327441536533497E-3</v>
+        <v>9.3283818701160974E-3</v>
       </c>
       <c r="G52" s="39"/>
       <c r="H52" s="57" t="str">
         <f>_xll.qlMakeOIS(,B52,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005bd#0009</v>
+        <v>obj_004ae#0000</v>
       </c>
       <c r="I52" s="22"/>
       <c r="J52" s="21"/>
@@ -9181,21 +9168,21 @@
         <v>157</v>
       </c>
       <c r="D53" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E53" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B53,"mf",TRUE,Trigger)</f>
-        <v>48032</v>
+        <v>48033</v>
       </c>
       <c r="F53" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H53,TriggerCounter)</f>
-        <v>1.0017693196658926E-2</v>
+        <v>1.0018743592978949E-2</v>
       </c>
       <c r="G53" s="39"/>
       <c r="H53" s="57" t="str">
         <f>_xll.qlMakeOIS(,B53,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005a9#0009</v>
+        <v>obj_004c2#0000</v>
       </c>
       <c r="I53" s="22"/>
       <c r="J53" s="21"/>
@@ -9220,8 +9207,8 @@
         <v>157</v>
       </c>
       <c r="D54" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E54" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B54,"mf",TRUE,Trigger)</f>
@@ -9229,12 +9216,12 @@
       </c>
       <c r="F54" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H54,TriggerCounter)</f>
-        <v>1.0648589464924672E-2</v>
+        <v>1.0647683531782708E-2</v>
       </c>
       <c r="G54" s="39"/>
       <c r="H54" s="57" t="str">
         <f>_xll.qlMakeOIS(,B54,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005be#0009</v>
+        <v>obj_00496#0000</v>
       </c>
       <c r="I54" s="22"/>
       <c r="J54" s="21"/>
@@ -9259,8 +9246,8 @@
         <v>157</v>
       </c>
       <c r="D55" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E55" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B55,"mf",TRUE,Trigger)</f>
@@ -9268,12 +9255,12 @@
       </c>
       <c r="F55" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H55,TriggerCounter)</f>
-        <v>1.1207104834923228E-2</v>
+        <v>1.1205951731058586E-2</v>
       </c>
       <c r="G55" s="39"/>
       <c r="H55" s="57" t="str">
         <f>_xll.qlMakeOIS(,B55,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b2#0009</v>
+        <v>obj_004ba#0000</v>
       </c>
       <c r="I55" s="22"/>
       <c r="J55" s="21"/>
@@ -9298,21 +9285,21 @@
         <v>157</v>
       </c>
       <c r="D56" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E56" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B56,"mf",TRUE,Trigger)</f>
-        <v>49128</v>
+        <v>49129</v>
       </c>
       <c r="F56" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H56,TriggerCounter)</f>
-        <v>1.1699999999999969E-2</v>
+        <v>1.1699999999999955E-2</v>
       </c>
       <c r="G56" s="39"/>
       <c r="H56" s="57" t="str">
         <f>_xll.qlMakeOIS(,B56,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005bf#0009</v>
+        <v>obj_004a4#0000</v>
       </c>
       <c r="I56" s="22"/>
       <c r="J56" s="21"/>
@@ -9337,21 +9324,21 @@
         <v>157</v>
       </c>
       <c r="D57" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E57" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B57,"mf",TRUE,Trigger)</f>
-        <v>49493</v>
+        <v>49494</v>
       </c>
       <c r="F57" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H57,TriggerCounter)</f>
-        <v>1.2130144879168712E-2</v>
+        <v>1.2130093419188448E-2</v>
       </c>
       <c r="G57" s="39"/>
       <c r="H57" s="57" t="str">
         <f>_xll.qlMakeOIS(,B57,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005aa#0009</v>
+        <v>obj_004b9#0000</v>
       </c>
       <c r="I57" s="22"/>
       <c r="J57" s="21"/>
@@ -9376,21 +9363,21 @@
         <v>157</v>
       </c>
       <c r="D58" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E58" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B58,"mf",TRUE,Trigger)</f>
-        <v>49859</v>
+        <v>49860</v>
       </c>
       <c r="F58" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H58,TriggerCounter)</f>
-        <v>1.2505637396800029E-2</v>
+        <v>1.2505717548283562E-2</v>
       </c>
       <c r="G58" s="39"/>
       <c r="H58" s="57" t="str">
         <f>_xll.qlMakeOIS(,B58,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005c0#0009</v>
+        <v>obj_0049d#0000</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="21"/>
@@ -9415,21 +9402,21 @@
         <v>157</v>
       </c>
       <c r="D59" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E59" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B59,"mf",TRUE,Trigger)</f>
-        <v>50224</v>
+        <v>50227</v>
       </c>
       <c r="F59" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H59,TriggerCounter)</f>
-        <v>1.2833074667583955E-2</v>
+        <v>1.2835075391488314E-2</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="57" t="str">
         <f>_xll.qlMakeOIS(,B59,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b3#0009</v>
+        <v>obj_004c3#0000</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="21"/>
@@ -9454,8 +9441,8 @@
         <v>157</v>
       </c>
       <c r="D60" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E60" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B60,"mf",TRUE,Trigger)</f>
@@ -9463,12 +9450,12 @@
       </c>
       <c r="F60" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H60,TriggerCounter)</f>
-        <v>1.3122180003351566E-2</v>
+        <v>1.3121940665487082E-2</v>
       </c>
       <c r="G60" s="39"/>
       <c r="H60" s="57" t="str">
         <f>_xll.qlMakeOIS(,B60,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005c1#0009</v>
+        <v>obj_004a9#0000</v>
       </c>
       <c r="I60" s="22"/>
       <c r="J60" s="21"/>
@@ -9493,8 +9480,8 @@
         <v>157</v>
       </c>
       <c r="D61" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E61" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B61,"mf",TRUE,Trigger)</f>
@@ -9502,12 +9489,12 @@
       </c>
       <c r="F61" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H61,TriggerCounter)</f>
-        <v>1.3375000000000017E-2</v>
+        <v>1.337500000000001E-2</v>
       </c>
       <c r="G61" s="39"/>
       <c r="H61" s="57" t="str">
         <f>_xll.qlMakeOIS(,B61,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005ab#0009</v>
+        <v>obj_004bb#0000</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="21"/>
@@ -9532,21 +9519,21 @@
         <v>157</v>
       </c>
       <c r="D62" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E62" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B62,"mf",TRUE,Trigger)</f>
-        <v>51320</v>
+        <v>51321</v>
       </c>
       <c r="F62" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H62,TriggerCounter)</f>
-        <v>1.3599725052030163E-2</v>
+        <v>1.3600444024231596E-2</v>
       </c>
       <c r="G62" s="39"/>
       <c r="H62" s="57" t="str">
         <f>_xll.qlMakeOIS(,B62,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005c2#0009</v>
+        <v>obj_00493#0000</v>
       </c>
       <c r="I62" s="22"/>
       <c r="J62" s="21"/>
@@ -9571,21 +9558,21 @@
         <v>157</v>
       </c>
       <c r="D63" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E63" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B63,"mf",TRUE,Trigger)</f>
-        <v>51685</v>
+        <v>51686</v>
       </c>
       <c r="F63" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H63,TriggerCounter)</f>
-        <v>1.3800520384370144E-2</v>
+        <v>1.3801214488826473E-2</v>
       </c>
       <c r="G63" s="39"/>
       <c r="H63" s="57" t="str">
         <f>_xll.qlMakeOIS(,B63,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005b4#0009</v>
+        <v>obj_004b3#0000</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="21"/>
@@ -9610,21 +9597,21 @@
         <v>157</v>
       </c>
       <c r="D64" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E64" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B64,"mf",TRUE,Trigger)</f>
-        <v>52050</v>
+        <v>52051</v>
       </c>
       <c r="F64" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H64,TriggerCounter)</f>
-        <v>1.3981686293124122E-2</v>
+        <v>1.3982305472467951E-2</v>
       </c>
       <c r="G64" s="39"/>
       <c r="H64" s="57" t="str">
         <f>_xll.qlMakeOIS(,B64,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005c3#0009</v>
+        <v>obj_004a1#0000</v>
       </c>
       <c r="I64" s="22"/>
       <c r="J64" s="21"/>
@@ -9649,21 +9636,21 @@
         <v>157</v>
       </c>
       <c r="D65" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E65" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B65,"mf",TRUE,Trigger)</f>
-        <v>52415</v>
+        <v>52418</v>
       </c>
       <c r="F65" s="52">
         <f>_xll.qlOvernightIndexedSwapFairRate(H65,TriggerCounter)</f>
-        <v>1.4146869096667854E-2</v>
+        <v>1.4148274265269965E-2</v>
       </c>
       <c r="G65" s="39"/>
       <c r="H65" s="57" t="str">
         <f>_xll.qlMakeOIS(,B65,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005ac#0009</v>
+        <v>obj_004b2#0000</v>
       </c>
       <c r="I65" s="22"/>
       <c r="J65" s="21"/>
@@ -9688,8 +9675,8 @@
         <v>157</v>
       </c>
       <c r="D66" s="53">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="1"/>
+        <v>41822</v>
       </c>
       <c r="E66" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B66,"mf",TRUE,Trigger)</f>
@@ -9697,12 +9684,12 @@
       </c>
       <c r="F66" s="54">
         <f>_xll.qlOvernightIndexedSwapFairRate(H66,TriggerCounter)</f>
-        <v>1.4300000000000014E-2</v>
+        <v>1.4300000000000019E-2</v>
       </c>
       <c r="G66" s="39"/>
       <c r="H66" s="58" t="str">
         <f>_xll.qlMakeOIS(,B66,IborIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005c4#0009</v>
+        <v>obj_0049a#0000</v>
       </c>
       <c r="I66" s="22"/>
       <c r="J66" s="21"/>
@@ -10518,13 +10505,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="44"/>
+    <col min="1" max="1" width="2.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="3" style="75" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="44" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="44" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="44" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="44" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="44"/>
     <col min="10" max="10" width="15.140625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="14.140625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -10611,11 +10598,11 @@
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlLibor(,Currency,CurveTenor,YieldCurve,,Trigger)</f>
-        <v>obj_00570#0053</v>
+        <v>obj_004c7#0000</v>
       </c>
       <c r="G3" s="47" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_00535#0044</v>
+        <v>obj_00510#0000</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
@@ -10712,16 +10699,16 @@
         <v>165</v>
       </c>
       <c r="F6" s="36">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" ref="F6:F14" si="0">EvaluationDate</f>
+        <v>41822</v>
       </c>
       <c r="G6" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1D","f",TRUE,Trigger)</f>
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="H6" s="49">
         <f>_xll.qlInterpolationInterpolate(G3,-2,TRUE)</f>
-        <v>1.3295871573551345E-3</v>
+        <v>1.3297890241619741E-3</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
@@ -10753,16 +10740,16 @@
         <v>165</v>
       </c>
       <c r="F7" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G7" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f",TRUE,Trigger)</f>
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="H7" s="50">
         <f>_xll.qlInterpolationInterpolate(G3,-1,TRUE)</f>
-        <v>1.3295722927195528E-3</v>
+        <v>1.3297492690167445E-3</v>
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="55" t="s">
@@ -10788,8 +10775,8 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="71">
-        <f>G8-SettlementDate</f>
-        <v>1</v>
+        <f t="shared" ref="B8:B14" si="1">G8-SettlementDate</f>
+        <v>3</v>
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="82" t="s">
@@ -10799,21 +10786,21 @@
         <v>168</v>
       </c>
       <c r="F8" s="36">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G8" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"1D","f",TRUE,Trigger)</f>
-        <v>41824</v>
+        <v>41827</v>
       </c>
       <c r="H8" s="51">
         <f>_xll.qlIndexFixing(J8,F8,TRUE,TriggerCounter)</f>
-        <v>1.3295482120856406E-3</v>
+        <v>1.329645074603647E-3</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="56" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_00547#0050</v>
+        <v>obj_004ce#0000</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
@@ -10835,7 +10822,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="72">
-        <f>G9-SettlementDate</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="80"/>
@@ -10846,21 +10833,21 @@
         <v>168</v>
       </c>
       <c r="F9" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G9" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"1W","f",TRUE,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H9" s="52">
         <f>_xll.qlIndexFixing(J9,F9,TRUE,TriggerCounter)</f>
-        <v>1.3294398189054946E-3</v>
+        <v>1.3295408801905495E-3</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_00537#0034</v>
+        <v>obj_004cd#0000</v>
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -10882,7 +10869,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="72">
-        <f>G10-SettlementDate</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C10" s="80"/>
@@ -10893,21 +10880,21 @@
         <v>168</v>
       </c>
       <c r="F10" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G10" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D10,"f",TRUE,Trigger)</f>
-        <v>41837</v>
+        <v>41838</v>
       </c>
       <c r="H10" s="52">
         <f>_xll.qlIndexFixing(J10,F10,TRUE,TriggerCounter)</f>
-        <v>1.3290799247909846E-3</v>
+        <v>1.3291390448598251E-3</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_00534#0034</v>
+        <v>obj_004cc#0000</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -10929,7 +10916,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="72">
-        <f>G11-SettlementDate</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C11" s="80"/>
@@ -10940,21 +10927,21 @@
         <v>168</v>
       </c>
       <c r="F11" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G11" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D11,"f",TRUE,Trigger)</f>
-        <v>41844</v>
+        <v>41845</v>
       </c>
       <c r="H11" s="52">
         <f>_xll.qlIndexFixing(J11,F11,TRUE,TriggerCounter)</f>
-        <v>1.3284686201612114E-3</v>
+        <v>1.3284578335629302E-3</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_00532#0034</v>
+        <v>obj_004cb#0000</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -10976,8 +10963,8 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="72">
-        <f>G12-SettlementDate</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="C12" s="80"/>
       <c r="D12" s="83" t="s">
@@ -10987,8 +10974,8 @@
         <v>168</v>
       </c>
       <c r="F12" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G12" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D12,"mf",TRUE,Trigger)</f>
@@ -10996,12 +10983,12 @@
       </c>
       <c r="H12" s="52">
         <f>_xll.qlIndexFixing(J12,F12,TRUE,TriggerCounter)</f>
-        <v>1.326999999999301E-3</v>
+        <v>1.3269999999978505E-3</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_0053e#0033</v>
+        <v>obj_004ca#0000</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
@@ -11023,7 +11010,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="72">
-        <f>G13-SettlementDate</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C13" s="80"/>
@@ -11034,12 +11021,12 @@
         <v>168</v>
       </c>
       <c r="F13" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G13" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D13,"mf",TRUE,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="H13" s="52">
         <f>_xll.qlIndexFixing(J13,F13,TRUE,TriggerCounter)</f>
@@ -11048,7 +11035,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D13,YieldCurve,,Trigger)</f>
-        <v>obj_00554#0033</v>
+        <v>obj_004c9#0000</v>
       </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
@@ -11070,8 +11057,8 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="72">
-        <f>G14-SettlementDate</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="83" t="s">
@@ -11081,21 +11068,21 @@
         <v>168</v>
       </c>
       <c r="F14" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G14" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D14,"mf",TRUE,Trigger)</f>
-        <v>41915</v>
+        <v>41918</v>
       </c>
       <c r="H14" s="52">
         <f>_xll.qlIndexFixing(J14,F14,TRUE,TriggerCounter)</f>
-        <v>1.3290000000055614E-3</v>
+        <v>1.329000000006504E-3</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D14,YieldCurve,,Trigger)</f>
-        <v>obj_00562#0033</v>
+        <v>obj_004c8#0000</v>
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
@@ -11131,7 +11118,7 @@
       </c>
       <c r="F15" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B15&amp;"M","Modified Following",TRUE)</f>
-        <v>41852</v>
+        <v>41855</v>
       </c>
       <c r="G15" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D15,"mf",TRUE,Trigger)</f>
@@ -11139,7 +11126,7 @@
       </c>
       <c r="H15" s="51">
         <f>_xll.qlIndexFixing(IborIndex,F15,TRUE,TriggerCounter)</f>
-        <v>1.2995063284892007E-3</v>
+        <v>1.2986936201242472E-3</v>
       </c>
       <c r="I15" s="39"/>
       <c r="J15" s="43"/>
@@ -11169,7 +11156,7 @@
         <v>169</v>
       </c>
       <c r="D16" s="83" t="str">
-        <f t="shared" ref="D16:D34" si="0">B16+3&amp;"M"</f>
+        <f t="shared" ref="D16:D34" si="2">B16+3&amp;"M"</f>
         <v>5M</v>
       </c>
       <c r="E16" s="34" t="s">
@@ -11177,15 +11164,15 @@
       </c>
       <c r="F16" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B16&amp;"M","Modified Following",TRUE)</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="G16" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D16,"mf",TRUE,Trigger)</f>
-        <v>41976</v>
+        <v>41977</v>
       </c>
       <c r="H16" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F16,TRUE,TriggerCounter)</f>
-        <v>1.3000000000651746E-3</v>
+        <v>1.3000000000748372E-3</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -11215,7 +11202,7 @@
         <v>169</v>
       </c>
       <c r="D17" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6M</v>
       </c>
       <c r="E17" s="34" t="s">
@@ -11223,7 +11210,7 @@
       </c>
       <c r="F17" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B17&amp;"M","Modified Following",TRUE)</f>
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="G17" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D17,"mf",TRUE,Trigger)</f>
@@ -11231,7 +11218,7 @@
       </c>
       <c r="H17" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F17,TRUE,TriggerCounter)</f>
-        <v>1.3000000000859015E-3</v>
+        <v>1.3000000001049613E-3</v>
       </c>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
@@ -11261,7 +11248,7 @@
         <v>169</v>
       </c>
       <c r="D18" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7M</v>
       </c>
       <c r="E18" s="34" t="s">
@@ -11273,11 +11260,11 @@
       </c>
       <c r="G18" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D18,"mf",TRUE,Trigger)</f>
-        <v>42038</v>
+        <v>42039</v>
       </c>
       <c r="H18" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,TriggerCounter)</f>
-        <v>1.2974497242292649E-3</v>
+        <v>1.2485014221298779E-3</v>
       </c>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -11307,7 +11294,7 @@
         <v>169</v>
       </c>
       <c r="D19" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8M</v>
       </c>
       <c r="E19" s="34" t="s">
@@ -11315,15 +11302,15 @@
       </c>
       <c r="F19" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B19&amp;"M","Modified Following",TRUE)</f>
-        <v>41974</v>
+        <v>41975</v>
       </c>
       <c r="G19" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D19,"mf",TRUE,Trigger)</f>
-        <v>42066</v>
+        <v>42067</v>
       </c>
       <c r="H19" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,TriggerCounter)</f>
-        <v>1.2499999999997513E-3</v>
+        <v>1.2500000003417E-3</v>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -11353,7 +11340,7 @@
         <v>169</v>
       </c>
       <c r="D20" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9M</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -11369,7 +11356,7 @@
       </c>
       <c r="H20" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,TriggerCounter)</f>
-        <v>1.2490104984799189E-3</v>
+        <v>1.2520790679166893E-3</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
@@ -11399,7 +11386,7 @@
         <v>169</v>
       </c>
       <c r="D21" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10M</v>
       </c>
       <c r="E21" s="34" t="s">
@@ -11415,7 +11402,7 @@
       </c>
       <c r="H21" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,TriggerCounter)</f>
-        <v>1.270319600834472E-3</v>
+        <v>1.3044317710013107E-3</v>
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
@@ -11445,7 +11432,7 @@
         <v>169</v>
       </c>
       <c r="D22" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11M</v>
       </c>
       <c r="E22" s="34" t="s">
@@ -11457,11 +11444,11 @@
       </c>
       <c r="G22" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D22,"mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="H22" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,TriggerCounter)</f>
-        <v>1.2930292356532107E-3</v>
+        <v>1.261845456357035E-3</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
@@ -11491,7 +11478,7 @@
         <v>169</v>
       </c>
       <c r="D23" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12M</v>
       </c>
       <c r="E23" s="34" t="s">
@@ -11499,15 +11486,15 @@
       </c>
       <c r="F23" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B23&amp;"M","Modified Following",TRUE)</f>
-        <v>42095</v>
+        <v>42096</v>
       </c>
       <c r="G23" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D23,"mf",TRUE,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="H23" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,TriggerCounter)</f>
-        <v>1.2499999999996245E-3</v>
+        <v>1.1986371663079039E-3</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
@@ -11537,7 +11524,7 @@
         <v>169</v>
       </c>
       <c r="D24" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13M</v>
       </c>
       <c r="E24" s="34" t="s">
@@ -11545,15 +11532,15 @@
       </c>
       <c r="F24" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B24&amp;"M","Modified Following",TRUE)</f>
-        <v>42125</v>
+        <v>42131</v>
       </c>
       <c r="G24" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D24,"mf",TRUE,Trigger)</f>
-        <v>42219</v>
+        <v>42220</v>
       </c>
       <c r="H24" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F24,TRUE,TriggerCounter)</f>
-        <v>1.2188589443401269E-3</v>
+        <v>1.1668537500118272E-3</v>
       </c>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
@@ -11583,7 +11570,7 @@
         <v>169</v>
       </c>
       <c r="D25" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14M</v>
       </c>
       <c r="E25" s="34" t="s">
@@ -11591,15 +11578,15 @@
       </c>
       <c r="F25" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B25&amp;"M","Modified Following",TRUE)</f>
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="G25" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D25,"mf",TRUE,Trigger)</f>
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="H25" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F25,TRUE,TriggerCounter)</f>
-        <v>1.2078431493474193E-3</v>
+        <v>1.1562213555686889E-3</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
@@ -11629,7 +11616,7 @@
         <v>169</v>
       </c>
       <c r="D26" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15M</v>
       </c>
       <c r="E26" s="34" t="s">
@@ -11637,7 +11624,7 @@
       </c>
       <c r="F26" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B26&amp;"M","Modified Following",TRUE)</f>
-        <v>42186</v>
+        <v>42187</v>
       </c>
       <c r="G26" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D26,"mf",TRUE,Trigger)</f>
@@ -11645,7 +11632,7 @@
       </c>
       <c r="H26" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F26,TRUE,TriggerCounter)</f>
-        <v>1.2000000022426695E-3</v>
+        <v>1.1499999998876298E-3</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
@@ -11675,7 +11662,7 @@
         <v>169</v>
       </c>
       <c r="D27" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16M</v>
       </c>
       <c r="E27" s="34" t="s">
@@ -11691,7 +11678,7 @@
       </c>
       <c r="H27" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F27,TRUE,TriggerCounter)</f>
-        <v>1.1848371298101737E-3</v>
+        <v>1.1461522525607858E-3</v>
       </c>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
@@ -11721,7 +11708,7 @@
         <v>169</v>
       </c>
       <c r="D28" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17M</v>
       </c>
       <c r="E28" s="34" t="s">
@@ -11729,15 +11716,15 @@
       </c>
       <c r="F28" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B28&amp;"M","Modified Following",TRUE)</f>
-        <v>42248</v>
+        <v>42249</v>
       </c>
       <c r="G28" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D28,"mf",TRUE,Trigger)</f>
-        <v>42341</v>
+        <v>42342</v>
       </c>
       <c r="H28" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F28,TRUE,TriggerCounter)</f>
-        <v>1.1670683056895427E-3</v>
+        <v>1.1449972686660404E-3</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
@@ -11767,7 +11754,7 @@
         <v>169</v>
       </c>
       <c r="D29" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18M</v>
       </c>
       <c r="E29" s="34" t="s">
@@ -11775,7 +11762,7 @@
       </c>
       <c r="F29" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B29&amp;"M","Modified Following",TRUE)</f>
-        <v>42278</v>
+        <v>42279</v>
       </c>
       <c r="G29" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D29,"mf",TRUE,Trigger)</f>
@@ -11783,7 +11770,7 @@
       </c>
       <c r="H29" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F29,TRUE,TriggerCounter)</f>
-        <v>1.1500000023943204E-3</v>
+        <v>1.1502972866610892E-3</v>
       </c>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
@@ -11813,7 +11800,7 @@
         <v>169</v>
       </c>
       <c r="D30" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19M</v>
       </c>
       <c r="E30" s="34" t="s">
@@ -11825,11 +11812,11 @@
       </c>
       <c r="G30" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D30,"mf",TRUE,Trigger)</f>
-        <v>42403</v>
+        <v>42404</v>
       </c>
       <c r="H30" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F30,TRUE,TriggerCounter)</f>
-        <v>1.142823878763343E-3</v>
+        <v>1.1625095978894529E-3</v>
       </c>
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
@@ -11859,7 +11846,7 @@
         <v>169</v>
       </c>
       <c r="D31" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20M</v>
       </c>
       <c r="E31" s="34" t="s">
@@ -11867,15 +11854,15 @@
       </c>
       <c r="F31" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B31&amp;"M","Modified Following",TRUE)</f>
-        <v>42339</v>
+        <v>42340</v>
       </c>
       <c r="G31" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D31,"mf",TRUE,Trigger)</f>
-        <v>42432</v>
+        <v>42433</v>
       </c>
       <c r="H31" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F31,TRUE,TriggerCounter)</f>
-        <v>1.1429366828787655E-3</v>
+        <v>1.1794168215644358E-3</v>
       </c>
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
@@ -11905,7 +11892,7 @@
         <v>169</v>
       </c>
       <c r="D32" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21M</v>
       </c>
       <c r="E32" s="34" t="s">
@@ -11921,7 +11908,7 @@
       </c>
       <c r="H32" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F32,TRUE,TriggerCounter)</f>
-        <v>1.1490378425142952E-3</v>
+        <v>1.1988669793819692E-3</v>
       </c>
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
@@ -11951,7 +11938,7 @@
         <v>169</v>
       </c>
       <c r="D33" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22M</v>
       </c>
       <c r="E33" s="34" t="s">
@@ -11959,7 +11946,7 @@
       </c>
       <c r="F33" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B33&amp;"M","Modified Following",TRUE)</f>
-        <v>42401</v>
+        <v>42402</v>
       </c>
       <c r="G33" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D33,"mf",TRUE,Trigger)</f>
@@ -11967,7 +11954,7 @@
       </c>
       <c r="H33" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F33,TRUE,TriggerCounter)</f>
-        <v>1.1571904267615449E-3</v>
+        <v>1.2129811074768071E-3</v>
       </c>
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
@@ -11997,7 +11984,7 @@
         <v>169</v>
       </c>
       <c r="D34" s="83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23M</v>
       </c>
       <c r="E34" s="34" t="s">
@@ -12005,15 +11992,15 @@
       </c>
       <c r="F34" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B34&amp;"M","Modified Following",TRUE)</f>
-        <v>42430</v>
+        <v>42431</v>
       </c>
       <c r="G34" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"mf",TRUE,Trigger)</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="H34" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F34,TRUE,TriggerCounter)</f>
-        <v>1.1673187314590859E-3</v>
+        <v>1.2234269269993628E-3</v>
       </c>
       <c r="I34" s="39"/>
       <c r="J34" s="55" t="s">
@@ -12053,8 +12040,8 @@
         <v>162</v>
       </c>
       <c r="F35" s="36">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" ref="F35:F66" si="3">EvaluationDate</f>
+        <v>41822</v>
       </c>
       <c r="G35" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"mf",TRUE,Trigger)</f>
@@ -12062,12 +12049,12 @@
       </c>
       <c r="H35" s="51">
         <f>_xll.qlIndexFixing(J35,F35,TRUE,TriggerCounter)</f>
-        <v>1.2437148756077735E-3</v>
+        <v>1.243715002794622E-3</v>
       </c>
       <c r="I35" s="39"/>
       <c r="J35" s="56" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,"6M",L35,M35,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0053b#0045</v>
+        <v>obj_00509#0000</v>
       </c>
       <c r="K35" s="33" t="s">
         <v>24</v>
@@ -12103,21 +12090,21 @@
         <v>162</v>
       </c>
       <c r="F36" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G36" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"mf",TRUE,Trigger)</f>
-        <v>42646</v>
+        <v>42647</v>
       </c>
       <c r="H36" s="52">
         <f>_xll.qlIndexFixing(J36,F36,TRUE,TriggerCounter)</f>
-        <v>1.244712826334405E-3</v>
+        <v>1.245403356428645E-3</v>
       </c>
       <c r="I36" s="39"/>
       <c r="J36" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,"6M",L36,M36,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0053f#0037</v>
+        <v>obj_004ef#0000</v>
       </c>
       <c r="K36" s="34" t="s">
         <v>24</v>
@@ -12153,8 +12140,8 @@
         <v>162</v>
       </c>
       <c r="F37" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G37" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"mf",TRUE,Trigger)</f>
@@ -12162,12 +12149,12 @@
       </c>
       <c r="H37" s="52">
         <f>_xll.qlIndexFixing(J37,F37,TRUE,TriggerCounter)</f>
-        <v>1.2520037022345071E-3</v>
+        <v>1.2520119169445853E-3</v>
       </c>
       <c r="I37" s="39"/>
       <c r="J37" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,"6M",L37,M37,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0055a#0037</v>
+        <v>obj_004e5#0000</v>
       </c>
       <c r="K37" s="34" t="s">
         <v>24</v>
@@ -12203,21 +12190,21 @@
         <v>162</v>
       </c>
       <c r="F38" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G38" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE,Trigger)</f>
-        <v>42828</v>
+        <v>42829</v>
       </c>
       <c r="H38" s="52">
         <f>_xll.qlIndexFixing(J38,F38,TRUE,TriggerCounter)</f>
-        <v>1.2692164143434609E-3</v>
+        <v>1.2668298646668929E-3</v>
       </c>
       <c r="I38" s="39"/>
       <c r="J38" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,"6M",L38,M38,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00568#0037</v>
+        <v>obj_004d8#0000</v>
       </c>
       <c r="K38" s="34" t="s">
         <v>24</v>
@@ -12253,21 +12240,21 @@
         <v>162</v>
       </c>
       <c r="F39" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G39" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE,Trigger)</f>
-        <v>42919</v>
+        <v>42920</v>
       </c>
       <c r="H39" s="52">
         <f>_xll.qlIndexFixing(J39,F39,TRUE,TriggerCounter)</f>
-        <v>1.2926616480056397E-3</v>
+        <v>1.2926616775518513E-3</v>
       </c>
       <c r="I39" s="39"/>
       <c r="J39" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D39,SettlementDays,Currency,Calendar,"6M",L39,M39,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00543#0037</v>
+        <v>obj_004e8#0000</v>
       </c>
       <c r="K39" s="34" t="s">
         <v>24</v>
@@ -12303,21 +12290,21 @@
         <v>162</v>
       </c>
       <c r="F40" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G40" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE,Trigger)</f>
-        <v>43284</v>
+        <v>43285</v>
       </c>
       <c r="H40" s="52">
         <f>_xll.qlIndexFixing(J40,F40,TRUE,TriggerCounter)</f>
-        <v>1.4912570675471226E-3</v>
+        <v>1.5162570135990123E-3</v>
       </c>
       <c r="I40" s="39"/>
       <c r="J40" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D40,SettlementDays,Currency,Calendar,"6M",L40,M40,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0054d#0037</v>
+        <v>obj_004d7#0000</v>
       </c>
       <c r="K40" s="34" t="s">
         <v>24</v>
@@ -12353,21 +12340,21 @@
         <v>162</v>
       </c>
       <c r="F41" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G41" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE,Trigger)</f>
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="H41" s="52">
         <f>_xll.qlIndexFixing(J41,F41,TRUE,TriggerCounter)</f>
-        <v>1.914831754514412E-3</v>
+        <v>1.9398316669164083E-3</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D41,SettlementDays,Currency,Calendar,"6M",L41,M41,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0055b#0037</v>
+        <v>obj_00508#0000</v>
       </c>
       <c r="K41" s="34" t="s">
         <v>24</v>
@@ -12403,21 +12390,21 @@
         <v>162</v>
       </c>
       <c r="F42" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G42" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE,Trigger)</f>
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="H42" s="52">
         <f>_xll.qlIndexFixing(J42,F42,TRUE,TriggerCounter)</f>
-        <v>2.5383703907980036E-3</v>
+        <v>2.5883695833614074E-3</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D42,SettlementDays,Currency,Calendar,"6M",L42,M42,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00569#0037</v>
+        <v>obj_004f1#0000</v>
       </c>
       <c r="K42" s="34" t="s">
         <v>24</v>
@@ -12453,8 +12440,8 @@
         <v>162</v>
       </c>
       <c r="F43" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G43" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE,Trigger)</f>
@@ -12462,12 +12449,12 @@
       </c>
       <c r="H43" s="52">
         <f>_xll.qlIndexFixing(J43,F43,TRUE,TriggerCounter)</f>
-        <v>3.3372334954935657E-3</v>
+        <v>3.3368789720269122E-3</v>
       </c>
       <c r="I43" s="39"/>
       <c r="J43" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D43,SettlementDays,Currency,Calendar,"6M",L43,M43,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0053a#0037</v>
+        <v>obj_004e2#0000</v>
       </c>
       <c r="K43" s="34" t="s">
         <v>24</v>
@@ -12503,8 +12490,8 @@
         <v>162</v>
       </c>
       <c r="F44" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G44" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE,Trigger)</f>
@@ -12512,12 +12499,12 @@
       </c>
       <c r="H44" s="52">
         <f>_xll.qlIndexFixing(J44,F44,TRUE,TriggerCounter)</f>
-        <v>4.1610824155094671E-3</v>
+        <v>4.1857257464180467E-3</v>
       </c>
       <c r="I44" s="39"/>
       <c r="J44" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D44,SettlementDays,Currency,Calendar,"6M",L44,M44,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0054e#0037</v>
+        <v>obj_004ec#0000</v>
       </c>
       <c r="K44" s="34" t="s">
         <v>24</v>
@@ -12553,21 +12540,21 @@
         <v>162</v>
       </c>
       <c r="F45" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G45" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE,Trigger)</f>
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="H45" s="52">
         <f>_xll.qlIndexFixing(J45,F45,TRUE,TriggerCounter)</f>
-        <v>4.9845557010359852E-3</v>
+        <v>5.0091962568004581E-3</v>
       </c>
       <c r="I45" s="39"/>
       <c r="J45" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D45,SettlementDays,Currency,Calendar,"6M",L45,M45,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0055c#0037</v>
+        <v>obj_004fc#0000</v>
       </c>
       <c r="K45" s="34" t="s">
         <v>24</v>
@@ -12603,21 +12590,21 @@
         <v>162</v>
       </c>
       <c r="F46" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G46" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE,Trigger)</f>
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="H46" s="52">
         <f>_xll.qlIndexFixing(J46,F46,TRUE,TriggerCounter)</f>
-        <v>5.8333672467853421E-3</v>
+        <v>5.8830053520909512E-3</v>
       </c>
       <c r="I46" s="39"/>
       <c r="J46" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D46,SettlementDays,Currency,Calendar,"6M",L46,M46,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0056a#0037</v>
+        <v>obj_004d1#0000</v>
       </c>
       <c r="K46" s="34" t="s">
         <v>24</v>
@@ -12653,21 +12640,21 @@
         <v>162</v>
       </c>
       <c r="F47" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G47" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE,Trigger)</f>
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="H47" s="52">
         <f>_xll.qlIndexFixing(J47,F47,TRUE,TriggerCounter)</f>
-        <v>6.7229523266739864E-3</v>
+        <v>6.7797026388092107E-3</v>
       </c>
       <c r="I47" s="39"/>
       <c r="J47" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D47,SettlementDays,Currency,Calendar,"6M",L47,M47,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00542#0037</v>
+        <v>obj_004fb#0000</v>
       </c>
       <c r="K47" s="34" t="s">
         <v>24</v>
@@ -12703,21 +12690,21 @@
         <v>162</v>
       </c>
       <c r="F48" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G48" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE,Trigger)</f>
-        <v>46206</v>
+        <v>46209</v>
       </c>
       <c r="H48" s="52">
         <f>_xll.qlIndexFixing(J48,F48,TRUE,TriggerCounter)</f>
-        <v>7.6290557705676158E-3</v>
+        <v>7.6768118051617328E-3</v>
       </c>
       <c r="I48" s="39"/>
       <c r="J48" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D48,SettlementDays,Currency,Calendar,"6M",L48,M48,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0054f#0037</v>
+        <v>obj_004d0#0000</v>
       </c>
       <c r="K48" s="34" t="s">
         <v>24</v>
@@ -12753,8 +12740,8 @@
         <v>162</v>
       </c>
       <c r="F49" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G49" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE,Trigger)</f>
@@ -12762,12 +12749,12 @@
       </c>
       <c r="H49" s="52">
         <f>_xll.qlIndexFixing(J49,F49,TRUE,TriggerCounter)</f>
-        <v>8.5280794898554401E-3</v>
+        <v>8.5451557055484326E-3</v>
       </c>
       <c r="I49" s="39"/>
       <c r="J49" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D49,SettlementDays,Currency,Calendar,"6M",L49,M49,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0055d#0037</v>
+        <v>obj_00506#0000</v>
       </c>
       <c r="K49" s="34" t="s">
         <v>24</v>
@@ -12803,21 +12790,21 @@
         <v>162</v>
       </c>
       <c r="F50" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G50" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D50,"mf",TRUE,Trigger)</f>
-        <v>46937</v>
+        <v>46938</v>
       </c>
       <c r="H50" s="52">
         <f>_xll.qlIndexFixing(J50,F50,TRUE,TriggerCounter)</f>
-        <v>9.3880777162861466E-3</v>
+        <v>9.3828089799807522E-3</v>
       </c>
       <c r="I50" s="39"/>
       <c r="J50" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D50,SettlementDays,Currency,Calendar,"6M",L50,M50,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0056b#0037</v>
+        <v>obj_004cf#0000</v>
       </c>
       <c r="K50" s="34" t="s">
         <v>24</v>
@@ -12853,21 +12840,21 @@
         <v>162</v>
       </c>
       <c r="F51" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G51" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D51,"mf",TRUE,Trigger)</f>
-        <v>47302</v>
+        <v>47303</v>
       </c>
       <c r="H51" s="52">
         <f>_xll.qlIndexFixing(J51,F51,TRUE,TriggerCounter)</f>
-        <v>1.0205134212668689E-2</v>
+        <v>1.0179384468090164E-2</v>
       </c>
       <c r="I51" s="39"/>
       <c r="J51" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D51,SettlementDays,Currency,Calendar,"6M",L51,M51,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00539#0037</v>
+        <v>obj_004d9#0000</v>
       </c>
       <c r="K51" s="34" t="s">
         <v>24</v>
@@ -12903,21 +12890,21 @@
         <v>162</v>
       </c>
       <c r="F52" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G52" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D52,"mf",TRUE,Trigger)</f>
-        <v>47667</v>
+        <v>47668</v>
       </c>
       <c r="H52" s="52">
         <f>_xll.qlIndexFixing(J52,F52,TRUE,TriggerCounter)</f>
-        <v>1.0967500148008976E-2</v>
+        <v>1.0928659204585973E-2</v>
       </c>
       <c r="I52" s="39"/>
       <c r="J52" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D52,SettlementDays,Currency,Calendar,"6M",L52,M52,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00550#0037</v>
+        <v>obj_004e9#0000</v>
       </c>
       <c r="K52" s="34" t="s">
         <v>24</v>
@@ -12953,21 +12940,21 @@
         <v>162</v>
       </c>
       <c r="F53" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G53" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D53,"mf",TRUE,Trigger)</f>
-        <v>48032</v>
+        <v>48033</v>
       </c>
       <c r="H53" s="52">
         <f>_xll.qlIndexFixing(J53,F53,TRUE,TriggerCounter)</f>
-        <v>1.166921332041849E-2</v>
+        <v>1.1623154135961678E-2</v>
       </c>
       <c r="I53" s="39"/>
       <c r="J53" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D53,SettlementDays,Currency,Calendar,"6M",L53,M53,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0055e#0037</v>
+        <v>obj_004e1#0000</v>
       </c>
       <c r="K53" s="34" t="s">
         <v>24</v>
@@ -13003,8 +12990,8 @@
         <v>162</v>
       </c>
       <c r="F54" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G54" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D54,"mf",TRUE,Trigger)</f>
@@ -13012,12 +12999,12 @@
       </c>
       <c r="H54" s="52">
         <f>_xll.qlIndexFixing(J54,F54,TRUE,TriggerCounter)</f>
-        <v>1.231133038406268E-2</v>
+        <v>1.2260199968658857E-2</v>
       </c>
       <c r="I54" s="39"/>
       <c r="J54" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D54,SettlementDays,Currency,Calendar,"6M",L54,M54,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0056c#0037</v>
+        <v>obj_0050d#0000</v>
       </c>
       <c r="K54" s="34" t="s">
         <v>24</v>
@@ -13053,8 +13040,8 @@
         <v>162</v>
       </c>
       <c r="F55" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G55" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D55,"mf",TRUE,Trigger)</f>
@@ -13062,12 +13049,12 @@
       </c>
       <c r="H55" s="52">
         <f>_xll.qlIndexFixing(J55,F55,TRUE,TriggerCounter)</f>
-        <v>1.2879267877227431E-2</v>
+        <v>1.2827175186889861E-2</v>
       </c>
       <c r="I55" s="39"/>
       <c r="J55" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D55,SettlementDays,Currency,Calendar,"6M",L55,M55,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00541#0037</v>
+        <v>obj_004e0#0000</v>
       </c>
       <c r="K55" s="34" t="s">
         <v>24</v>
@@ -13103,21 +13090,21 @@
         <v>162</v>
       </c>
       <c r="F56" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G56" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D56,"mf",TRUE,Trigger)</f>
-        <v>49128</v>
+        <v>49129</v>
       </c>
       <c r="H56" s="52">
         <f>_xll.qlIndexFixing(J56,F56,TRUE,TriggerCounter)</f>
-        <v>1.3378849129812662E-2</v>
+        <v>1.3328080376919012E-2</v>
       </c>
       <c r="I56" s="39"/>
       <c r="J56" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D56,SettlementDays,Currency,Calendar,"6M",L56,M56,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00551#0037</v>
+        <v>obj_004ee#0000</v>
       </c>
       <c r="K56" s="34" t="s">
         <v>24</v>
@@ -13153,21 +13140,21 @@
         <v>162</v>
       </c>
       <c r="F57" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G57" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D57,"mf",TRUE,Trigger)</f>
-        <v>49493</v>
+        <v>49494</v>
       </c>
       <c r="H57" s="52">
         <f>_xll.qlIndexFixing(J57,F57,TRUE,TriggerCounter)</f>
-        <v>1.3812506688364127E-2</v>
+        <v>1.3761751564640498E-2</v>
       </c>
       <c r="I57" s="39"/>
       <c r="J57" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D57,SettlementDays,Currency,Calendar,"6M",L57,M57,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0055f#0037</v>
+        <v>obj_004f8#0000</v>
       </c>
       <c r="K57" s="34" t="s">
         <v>24</v>
@@ -13203,21 +13190,21 @@
         <v>162</v>
       </c>
       <c r="F58" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G58" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D58,"mf",TRUE,Trigger)</f>
-        <v>49859</v>
+        <v>49860</v>
       </c>
       <c r="H58" s="52">
         <f>_xll.qlIndexFixing(J58,F58,TRUE,TriggerCounter)</f>
-        <v>1.4189365085932578E-2</v>
+        <v>1.4138634910100515E-2</v>
       </c>
       <c r="I58" s="39"/>
       <c r="J58" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D58,SettlementDays,Currency,Calendar,"6M",L58,M58,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0056d#0037</v>
+        <v>obj_00503#0000</v>
       </c>
       <c r="K58" s="34" t="s">
         <v>24</v>
@@ -13253,21 +13240,21 @@
         <v>162</v>
       </c>
       <c r="F59" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G59" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D59,"mf",TRUE,Trigger)</f>
-        <v>50224</v>
+        <v>50227</v>
       </c>
       <c r="H59" s="52">
         <f>_xll.qlIndexFixing(J59,F59,TRUE,TriggerCounter)</f>
-        <v>1.4517199709752531E-2</v>
+        <v>1.446819747792479E-2</v>
       </c>
       <c r="I59" s="39"/>
       <c r="J59" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D59,SettlementDays,Currency,Calendar,"6M",L59,M59,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00538#0037</v>
+        <v>obj_004d2#0000</v>
       </c>
       <c r="K59" s="34" t="s">
         <v>24</v>
@@ -13303,8 +13290,8 @@
         <v>162</v>
       </c>
       <c r="F60" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G60" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D60,"mf",TRUE,Trigger)</f>
@@ -13312,12 +13299,12 @@
       </c>
       <c r="H60" s="52">
         <f>_xll.qlIndexFixing(J60,F60,TRUE,TriggerCounter)</f>
-        <v>1.4806669386085171E-2</v>
+        <v>1.4755261526666699E-2</v>
       </c>
       <c r="I60" s="39"/>
       <c r="J60" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D60,SettlementDays,Currency,Calendar,"6M",L60,M60,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00552#0037</v>
+        <v>obj_004f5#0000</v>
       </c>
       <c r="K60" s="34" t="s">
         <v>24</v>
@@ -13353,8 +13340,8 @@
         <v>162</v>
       </c>
       <c r="F61" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G61" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D61,"mf",TRUE,Trigger)</f>
@@ -13362,12 +13349,12 @@
       </c>
       <c r="H61" s="52">
         <f>_xll.qlIndexFixing(J61,F61,TRUE,TriggerCounter)</f>
-        <v>1.5060608167745475E-2</v>
+        <v>1.5009325585333834E-2</v>
       </c>
       <c r="I61" s="39"/>
       <c r="J61" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D61,SettlementDays,Currency,Calendar,"6M",L61,M61,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00560#0037</v>
+        <v>obj_004dd#0000</v>
       </c>
       <c r="K61" s="34" t="s">
         <v>24</v>
@@ -13403,21 +13390,21 @@
         <v>162</v>
       </c>
       <c r="F62" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G62" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D62,"mf",TRUE,Trigger)</f>
-        <v>51320</v>
+        <v>51321</v>
       </c>
       <c r="H62" s="52">
         <f>_xll.qlIndexFixing(J62,F62,TRUE,TriggerCounter)</f>
-        <v>1.5287650527315781E-2</v>
+        <v>1.523707878237901E-2</v>
       </c>
       <c r="I62" s="39"/>
       <c r="J62" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D62,SettlementDays,Currency,Calendar,"6M",L62,M62,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0056e#0037</v>
+        <v>obj_004eb#0000</v>
       </c>
       <c r="K62" s="34" t="s">
         <v>24</v>
@@ -13453,21 +13440,21 @@
         <v>162</v>
       </c>
       <c r="F63" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G63" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D63,"mf",TRUE,Trigger)</f>
-        <v>51685</v>
+        <v>51686</v>
       </c>
       <c r="H63" s="52">
         <f>_xll.qlIndexFixing(J63,F63,TRUE,TriggerCounter)</f>
-        <v>1.5491696660745706E-2</v>
+        <v>1.5441173658161014E-2</v>
       </c>
       <c r="I63" s="39"/>
       <c r="J63" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D63,SettlementDays,Currency,Calendar,"6M",L63,M63,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00540#0037</v>
+        <v>obj_004dc#0000</v>
       </c>
       <c r="K63" s="34" t="s">
         <v>24</v>
@@ -13503,21 +13490,21 @@
         <v>162</v>
       </c>
       <c r="F64" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G64" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D64,"mf",TRUE,Trigger)</f>
-        <v>52050</v>
+        <v>52051</v>
       </c>
       <c r="H64" s="52">
         <f>_xll.qlIndexFixing(J64,F64,TRUE,TriggerCounter)</f>
-        <v>1.5676666475744006E-2</v>
+        <v>1.5626194417041422E-2</v>
       </c>
       <c r="I64" s="39"/>
       <c r="J64" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D64,SettlementDays,Currency,Calendar,"6M",L64,M64,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00553#0037</v>
+        <v>obj_00500#0000</v>
       </c>
       <c r="K64" s="34" t="s">
         <v>24</v>
@@ -13553,21 +13540,21 @@
         <v>162</v>
       </c>
       <c r="F65" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G65" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D65,"mf",TRUE,Trigger)</f>
-        <v>52415</v>
+        <v>52418</v>
       </c>
       <c r="H65" s="52">
         <f>_xll.qlIndexFixing(J65,F65,TRUE,TriggerCounter)</f>
-        <v>1.5845882303287453E-2</v>
+        <v>1.5796364172192226E-2</v>
       </c>
       <c r="I65" s="39"/>
       <c r="J65" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D65,SettlementDays,Currency,Calendar,"6M",L65,M65,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00561#0037</v>
+        <v>obj_004f4#0000</v>
       </c>
       <c r="K65" s="34" t="s">
         <v>24</v>
@@ -13603,8 +13590,8 @@
         <v>162</v>
       </c>
       <c r="F66" s="53">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G66" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D66,"mf",TRUE,Trigger)</f>
@@ -13612,12 +13599,12 @@
       </c>
       <c r="H66" s="54">
         <f>_xll.qlIndexFixing(J66,F66,TRUE,TriggerCounter)</f>
-        <v>1.6003014725914335E-2</v>
+        <v>1.5952230419042042E-2</v>
       </c>
       <c r="I66" s="39"/>
       <c r="J66" s="58" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D66,SettlementDays,Currency,Calendar,"6M",L66,M66,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0056f#0037</v>
+        <v>obj_0050b#0000</v>
       </c>
       <c r="K66" s="35" t="s">
         <v>24</v>
@@ -14620,11 +14607,10 @@
     <col min="1" max="1" width="2.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="4" style="90" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="25" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="8" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="25" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="44" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="44" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" style="20" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="14.140625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -14710,11 +14696,11 @@
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlLibor(,Currency,CurveTenor,YieldCurve,,Trigger)</f>
-        <v>obj_00576#0010</v>
+        <v>obj_00486#0000</v>
       </c>
       <c r="G3" s="47" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_00599#0009</v>
+        <v>obj_0050f#0000</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="21"/>
@@ -14811,16 +14797,16 @@
         <v>165</v>
       </c>
       <c r="F6" s="36">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" ref="F6:F17" si="0">EvaluationDate</f>
+        <v>41822</v>
       </c>
       <c r="G6" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1D","f",TRUE,Trigger)</f>
-        <v>41822</v>
+        <v>41823</v>
       </c>
       <c r="H6" s="49">
         <f>_xll.qlInterpolationInterpolate(G3,-2,TRUE)</f>
-        <v>2.0241594847463552E-3</v>
+        <v>2.0179135513876622E-3</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="39"/>
@@ -14852,16 +14838,16 @@
         <v>165</v>
       </c>
       <c r="F7" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G7" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f",TRUE,Trigger)</f>
-        <v>41823</v>
+        <v>41824</v>
       </c>
       <c r="H7" s="50">
         <f>_xll.qlInterpolationInterpolate(G3,-1,TRUE)</f>
-        <v>2.023953610722818E-3</v>
+        <v>2.0174698522598283E-3</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="55" t="s">
@@ -14887,8 +14873,8 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="86">
-        <f>G8-SettlementDate</f>
-        <v>1</v>
+        <f t="shared" ref="B8:B17" si="1">G8-SettlementDate</f>
+        <v>3</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="64" t="s">
@@ -14898,21 +14884,21 @@
         <v>168</v>
       </c>
       <c r="F8" s="36">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G8" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"1D","f",TRUE,Trigger)</f>
-        <v>41824</v>
+        <v>41827</v>
       </c>
       <c r="H8" s="51">
         <f>_xll.qlIndexFixing(J8,F8,TRUE,TriggerCounter)</f>
-        <v>2.0236070763068881E-3</v>
+        <v>2.0162566863568543E-3</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="56" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_00574#0010</v>
+        <v>obj_0048a#0000</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
@@ -14934,7 +14920,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="87">
-        <f>G9-SettlementDate</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="60"/>
@@ -14945,21 +14931,21 @@
         <v>168</v>
       </c>
       <c r="F9" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G9" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"1W","f",TRUE,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H9" s="52">
         <f>_xll.qlIndexFixing(J9,F9,TRUE,TriggerCounter)</f>
-        <v>2.0221501058197739E-3</v>
+        <v>2.0150435204538803E-3</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_00577#0006</v>
+        <v>obj_00481#0000</v>
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -14981,7 +14967,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="87">
-        <f>G10-SettlementDate</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C10" s="60"/>
@@ -14992,21 +14978,21 @@
         <v>168</v>
       </c>
       <c r="F10" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G10" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D10,"f",TRUE,Trigger)</f>
-        <v>41837</v>
+        <v>41838</v>
       </c>
       <c r="H10" s="52">
         <f>_xll.qlIndexFixing(J10,F10,TRUE,TriggerCounter)</f>
-        <v>2.0176232013227996E-3</v>
+        <v>2.0105414344755751E-3</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_00571#0006</v>
+        <v>obj_00487#0000</v>
       </c>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -15028,7 +15014,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="87">
-        <f>G11-SettlementDate</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C11" s="60"/>
@@ -15039,21 +15025,21 @@
         <v>168</v>
       </c>
       <c r="F11" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G11" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D11,"f",TRUE,Trigger)</f>
-        <v>41844</v>
+        <v>41845</v>
       </c>
       <c r="H11" s="52">
         <f>_xll.qlIndexFixing(J11,F11,TRUE,TriggerCounter)</f>
-        <v>2.0100513825774663E-3</v>
+        <v>2.003011170164421E-3</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_00575#0006</v>
+        <v>obj_0047f#0000</v>
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
@@ -15075,8 +15061,8 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="87">
-        <f>G12-SettlementDate</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="65" t="s">
@@ -15086,8 +15072,8 @@
         <v>168</v>
       </c>
       <c r="F12" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G12" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D12,"mf",TRUE,Trigger)</f>
@@ -15095,12 +15081,12 @@
       </c>
       <c r="H12" s="52">
         <f>_xll.qlIndexFixing(J12,F12,TRUE,TriggerCounter)</f>
-        <v>1.9920000000006599E-3</v>
+        <v>1.9870000000024321E-3</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_00578#0006</v>
+        <v>obj_00484#0000</v>
       </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
@@ -15122,7 +15108,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="87">
-        <f>G13-SettlementDate</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C13" s="60"/>
@@ -15133,21 +15119,21 @@
         <v>168</v>
       </c>
       <c r="F13" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G13" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D13,"mf",TRUE,Trigger)</f>
-        <v>41885</v>
+        <v>41886</v>
       </c>
       <c r="H13" s="52">
         <f>_xll.qlIndexFixing(J13,F13,TRUE,TriggerCounter)</f>
-        <v>1.9319999999990421E-3</v>
+        <v>1.9270000000004919E-3</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D13,YieldCurve,,Trigger)</f>
-        <v>obj_00573#0006</v>
+        <v>obj_00489#0000</v>
       </c>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
@@ -15169,8 +15155,8 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="87">
-        <f>G14-SettlementDate</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="65" t="s">
@@ -15180,21 +15166,21 @@
         <v>168</v>
       </c>
       <c r="F14" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G14" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D14,"mf",TRUE,Trigger)</f>
-        <v>41915</v>
+        <v>41918</v>
       </c>
       <c r="H14" s="52">
         <f>_xll.qlIndexFixing(J14,F14,TRUE,TriggerCounter)</f>
-        <v>1.8849999999999243E-3</v>
+        <v>1.8780000000000745E-3</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D14,YieldCurve,,Trigger)</f>
-        <v>obj_00572#0006</v>
+        <v>obj_0048c#0000</v>
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
@@ -15216,8 +15202,8 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="87">
-        <f>G15-SettlementDate</f>
-        <v>124</v>
+        <f t="shared" si="1"/>
+        <v>123</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="65" t="s">
@@ -15227,8 +15213,8 @@
         <v>168</v>
       </c>
       <c r="F15" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G15" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D15,"mf",TRUE,Trigger)</f>
@@ -15236,12 +15222,12 @@
       </c>
       <c r="H15" s="52">
         <f>_xll.qlIndexFixing(J15,F15,TRUE,TriggerCounter)</f>
-        <v>1.8196363522830906E-3</v>
+        <v>1.8190000000000855E-3</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D15,YieldCurve,,Trigger)</f>
-        <v>obj_0059a#0005</v>
+        <v>obj_0047e#0000</v>
       </c>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
@@ -15263,7 +15249,7 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="87">
-        <f>G16-SettlementDate</f>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="C16" s="60"/>
@@ -15274,21 +15260,21 @@
         <v>168</v>
       </c>
       <c r="F16" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G16" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D16,"mf",TRUE,Trigger)</f>
-        <v>41976</v>
+        <v>41977</v>
       </c>
       <c r="H16" s="52">
         <f>_xll.qlIndexFixing(J16,F16,TRUE,TriggerCounter)</f>
-        <v>1.797999999999914E-3</v>
+        <v>1.7960000000000525E-3</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D16,YieldCurve,,Trigger)</f>
-        <v>obj_0059b#0005</v>
+        <v>obj_00480#0000</v>
       </c>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
@@ -15310,8 +15296,8 @@
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="87">
-        <f>G17-SettlementDate</f>
-        <v>186</v>
+        <f t="shared" si="1"/>
+        <v>185</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="65" t="s">
@@ -15321,8 +15307,8 @@
         <v>168</v>
       </c>
       <c r="F17" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>41822</v>
       </c>
       <c r="G17" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D17,"mf",TRUE,Trigger)</f>
@@ -15330,12 +15316,12 @@
       </c>
       <c r="H17" s="52">
         <f>_xll.qlIndexFixing(J17,F17,TRUE,TriggerCounter)</f>
-        <v>1.7840000000000147E-3</v>
+        <v>1.7829999999999823E-3</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D17,YieldCurve,,Trigger)</f>
-        <v>obj_0059c#0005</v>
+        <v>obj_00483#0000</v>
       </c>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
@@ -15371,15 +15357,15 @@
       </c>
       <c r="F18" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B18&amp;"M","Modified Following",TRUE)</f>
-        <v>41852</v>
+        <v>41855</v>
       </c>
       <c r="G18" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D18,"mf",TRUE,Trigger)</f>
-        <v>42038</v>
+        <v>42039</v>
       </c>
       <c r="H18" s="51">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,TriggerCounter)</f>
-        <v>1.749561358762055E-3</v>
+        <v>1.7498651555523878E-3</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="43"/>
@@ -15409,7 +15395,7 @@
         <v>169</v>
       </c>
       <c r="D19" s="65" t="str">
-        <f t="shared" ref="D19:D34" si="0">B19+6&amp;"M"</f>
+        <f t="shared" ref="D19:D34" si="2">B19+6&amp;"M"</f>
         <v>8M</v>
       </c>
       <c r="E19" s="34" t="s">
@@ -15417,15 +15403,15 @@
       </c>
       <c r="F19" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B19&amp;"M","Modified Following",TRUE)</f>
-        <v>41883</v>
+        <v>41884</v>
       </c>
       <c r="G19" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D19,"mf",TRUE,Trigger)</f>
-        <v>42066</v>
+        <v>42067</v>
       </c>
       <c r="H19" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,TriggerCounter)</f>
-        <v>1.7499999995209178E-3</v>
+        <v>1.7499999996017372E-3</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="39"/>
@@ -15455,7 +15441,7 @@
         <v>169</v>
       </c>
       <c r="D20" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9M</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -15463,7 +15449,7 @@
       </c>
       <c r="F20" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B20&amp;"M","Modified Following",TRUE)</f>
-        <v>41913</v>
+        <v>41914</v>
       </c>
       <c r="G20" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D20,"mf",TRUE,Trigger)</f>
@@ -15471,7 +15457,7 @@
       </c>
       <c r="H20" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,TriggerCounter)</f>
-        <v>1.7499999999992162E-3</v>
+        <v>1.6999999999999986E-3</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="39"/>
@@ -15501,7 +15487,7 @@
         <v>169</v>
       </c>
       <c r="D21" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10M</v>
       </c>
       <c r="E21" s="34" t="s">
@@ -15517,7 +15503,7 @@
       </c>
       <c r="H21" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,TriggerCounter)</f>
-        <v>1.700425426013695E-3</v>
+        <v>1.7005435106608104E-3</v>
       </c>
       <c r="I21" s="21"/>
       <c r="J21" s="39"/>
@@ -15547,7 +15533,7 @@
         <v>169</v>
       </c>
       <c r="D22" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11M</v>
       </c>
       <c r="E22" s="34" t="s">
@@ -15555,15 +15541,15 @@
       </c>
       <c r="F22" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B22&amp;"M","Modified Following",TRUE)</f>
-        <v>41974</v>
+        <v>41975</v>
       </c>
       <c r="G22" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D22,"mf",TRUE,Trigger)</f>
-        <v>42158</v>
+        <v>42159</v>
       </c>
       <c r="H22" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,TriggerCounter)</f>
-        <v>1.6999999999997176E-3</v>
+        <v>1.650000000000049E-3</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="39"/>
@@ -15593,7 +15579,7 @@
         <v>169</v>
       </c>
       <c r="D23" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12M</v>
       </c>
       <c r="E23" s="34" t="s">
@@ -15605,11 +15591,11 @@
       </c>
       <c r="G23" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D23,"mf",TRUE,Trigger)</f>
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="H23" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,TriggerCounter)</f>
-        <v>1.6991947273230477E-3</v>
+        <v>1.6499420972792497E-3</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="39"/>
@@ -15639,7 +15625,7 @@
         <v>169</v>
       </c>
       <c r="D24" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13M</v>
       </c>
       <c r="E24" s="34" t="s">
@@ -15651,11 +15637,11 @@
       </c>
       <c r="G24" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D24,"mf",TRUE,Trigger)</f>
-        <v>42219</v>
+        <v>42220</v>
       </c>
       <c r="H24" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F24,TRUE,TriggerCounter)</f>
-        <v>1.6716330422138193E-3</v>
+        <v>1.6418334759963208E-3</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15685,7 +15671,7 @@
         <v>169</v>
       </c>
       <c r="D25" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14M</v>
       </c>
       <c r="E25" s="34" t="s">
@@ -15697,11 +15683,11 @@
       </c>
       <c r="G25" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D25,"mf",TRUE,Trigger)</f>
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="H25" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F25,TRUE,TriggerCounter)</f>
-        <v>1.6214693153225543E-3</v>
+        <v>1.6067773297891708E-3</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="39"/>
@@ -15731,7 +15717,7 @@
         <v>169</v>
       </c>
       <c r="D26" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15M</v>
       </c>
       <c r="E26" s="34" t="s">
@@ -15739,7 +15725,7 @@
       </c>
       <c r="F26" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B26&amp;"M","Modified Following",TRUE)</f>
-        <v>42095</v>
+        <v>42096</v>
       </c>
       <c r="G26" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D26,"mf",TRUE,Trigger)</f>
@@ -15747,7 +15733,7 @@
       </c>
       <c r="H26" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F26,TRUE,TriggerCounter)</f>
-        <v>1.5747009455875081E-3</v>
+        <v>1.6186731790069891E-3</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="39"/>
@@ -15777,7 +15763,7 @@
         <v>169</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16M</v>
       </c>
       <c r="E27" s="34" t="s">
@@ -15785,7 +15771,7 @@
       </c>
       <c r="F27" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B27&amp;"M","Modified Following",TRUE)</f>
-        <v>42125</v>
+        <v>42131</v>
       </c>
       <c r="G27" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D27,"mf",TRUE,Trigger)</f>
@@ -15793,7 +15779,7 @@
       </c>
       <c r="H27" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F27,TRUE,TriggerCounter)</f>
-        <v>1.6041092486645194E-3</v>
+        <v>1.6047165077991566E-3</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="39"/>
@@ -15823,7 +15809,7 @@
         <v>169</v>
       </c>
       <c r="D28" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17M</v>
       </c>
       <c r="E28" s="34" t="s">
@@ -15831,15 +15817,15 @@
       </c>
       <c r="F28" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B28&amp;"M","Modified Following",TRUE)</f>
-        <v>42156</v>
+        <v>42157</v>
       </c>
       <c r="G28" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D28,"mf",TRUE,Trigger)</f>
-        <v>42341</v>
+        <v>42342</v>
       </c>
       <c r="H28" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F28,TRUE,TriggerCounter)</f>
-        <v>1.5768797981634663E-3</v>
+        <v>1.6261055497691071E-3</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="39"/>
@@ -15869,7 +15855,7 @@
         <v>169</v>
       </c>
       <c r="D29" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18M</v>
       </c>
       <c r="E29" s="34" t="s">
@@ -15877,7 +15863,7 @@
       </c>
       <c r="F29" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B29&amp;"M","Modified Following",TRUE)</f>
-        <v>42186</v>
+        <v>42187</v>
       </c>
       <c r="G29" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D29,"mf",TRUE,Trigger)</f>
@@ -15885,7 +15871,7 @@
       </c>
       <c r="H29" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F29,TRUE,TriggerCounter)</f>
-        <v>1.5456712436467419E-3</v>
+        <v>1.594978014973528E-3</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="39"/>
@@ -15915,7 +15901,7 @@
         <v>169</v>
       </c>
       <c r="D30" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19M</v>
       </c>
       <c r="E30" s="34" t="s">
@@ -15927,11 +15913,11 @@
       </c>
       <c r="G30" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D30,"mf",TRUE,Trigger)</f>
-        <v>42403</v>
+        <v>42404</v>
       </c>
       <c r="H30" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F30,TRUE,TriggerCounter)</f>
-        <v>1.5367122476074159E-3</v>
+        <v>1.569178810502935E-3</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="39"/>
@@ -15961,7 +15947,7 @@
         <v>169</v>
       </c>
       <c r="D31" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20M</v>
       </c>
       <c r="E31" s="34" t="s">
@@ -15969,15 +15955,15 @@
       </c>
       <c r="F31" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B31&amp;"M","Modified Following",TRUE)</f>
-        <v>42248</v>
+        <v>42249</v>
       </c>
       <c r="G31" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D31,"mf",TRUE,Trigger)</f>
-        <v>42432</v>
+        <v>42433</v>
       </c>
       <c r="H31" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F31,TRUE,TriggerCounter)</f>
-        <v>1.5446817778997667E-3</v>
+        <v>1.565110834851799E-3</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="39"/>
@@ -16007,7 +15993,7 @@
         <v>169</v>
       </c>
       <c r="D32" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21M</v>
       </c>
       <c r="E32" s="34" t="s">
@@ -16015,7 +16001,7 @@
       </c>
       <c r="F32" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B32&amp;"M","Modified Following",TRUE)</f>
-        <v>42278</v>
+        <v>42279</v>
       </c>
       <c r="G32" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D32,"mf",TRUE,Trigger)</f>
@@ -16023,7 +16009,7 @@
       </c>
       <c r="H32" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F32,TRUE,TriggerCounter)</f>
-        <v>1.5690356707218852E-3</v>
+        <v>1.5811092832124321E-3</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="39"/>
@@ -16053,7 +16039,7 @@
         <v>169</v>
       </c>
       <c r="D33" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22M</v>
       </c>
       <c r="E33" s="34" t="s">
@@ -16069,7 +16055,7 @@
       </c>
       <c r="H33" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F33,TRUE,TriggerCounter)</f>
-        <v>1.6014318604133358E-3</v>
+        <v>1.6077243779725242E-3</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="39"/>
@@ -16099,7 +16085,7 @@
         <v>169</v>
       </c>
       <c r="D34" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23M</v>
       </c>
       <c r="E34" s="34" t="s">
@@ -16107,15 +16093,15 @@
       </c>
       <c r="F34" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,B34&amp;"M","Modified Following",TRUE)</f>
-        <v>42339</v>
+        <v>42340</v>
       </c>
       <c r="G34" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"mf",TRUE,Trigger)</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="H34" s="52">
         <f>_xll.qlIndexFixing(IborIndex,F34,TRUE,TriggerCounter)</f>
-        <v>1.6364571863784238E-3</v>
+        <v>1.6419077481898505E-3</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="55" t="s">
@@ -16155,8 +16141,8 @@
         <v>167</v>
       </c>
       <c r="F35" s="36">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" ref="F35:F66" si="3">EvaluationDate</f>
+        <v>41822</v>
       </c>
       <c r="G35" s="36">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"mf",TRUE,Trigger)</f>
@@ -16164,12 +16150,12 @@
       </c>
       <c r="H35" s="51">
         <f>_xll.qlIndexFixing(J35,F35,TRUE,TriggerCounter)</f>
-        <v>1.7000000002390647E-3</v>
+        <v>1.699999999999962E-3</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="56" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,"6M",L35,M35,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00579#0007</v>
+        <v>obj_00501#0000</v>
       </c>
       <c r="K35" s="33" t="s">
         <v>24</v>
@@ -16205,21 +16191,21 @@
         <v>167</v>
       </c>
       <c r="F36" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G36" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"mf",TRUE,Trigger)</f>
-        <v>42646</v>
+        <v>42647</v>
       </c>
       <c r="H36" s="52">
         <f>_xll.qlIndexFixing(J36,F36,TRUE,TriggerCounter)</f>
-        <v>1.7175306934810728E-3</v>
+        <v>1.7154456703374211E-3</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,"6M",L36,M36,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00589#0007</v>
+        <v>obj_004ed#0000</v>
       </c>
       <c r="K36" s="34" t="s">
         <v>24</v>
@@ -16255,8 +16241,8 @@
         <v>167</v>
       </c>
       <c r="F37" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G37" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"mf",TRUE,Trigger)</f>
@@ -16264,12 +16250,12 @@
       </c>
       <c r="H37" s="52">
         <f>_xll.qlIndexFixing(J37,F37,TRUE,TriggerCounter)</f>
-        <v>1.7423984501647577E-3</v>
+        <v>1.7404054582492844E-3</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,"6M",L37,M37,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0057a#0007</v>
+        <v>obj_00504#0000</v>
       </c>
       <c r="K37" s="34" t="s">
         <v>24</v>
@@ -16305,21 +16291,21 @@
         <v>167</v>
       </c>
       <c r="F38" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G38" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE,Trigger)</f>
-        <v>42828</v>
+        <v>42829</v>
       </c>
       <c r="H38" s="52">
         <f>_xll.qlIndexFixing(J38,F38,TRUE,TriggerCounter)</f>
-        <v>1.7796203411043479E-3</v>
+        <v>1.7760480440984091E-3</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,"6M",L38,M38,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0058a#0007</v>
+        <v>obj_004f0#0000</v>
       </c>
       <c r="K38" s="34" t="s">
         <v>24</v>
@@ -16355,21 +16341,21 @@
         <v>167</v>
       </c>
       <c r="F39" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G39" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE,Trigger)</f>
-        <v>42919</v>
+        <v>42920</v>
       </c>
       <c r="H39" s="52">
         <f>_xll.qlIndexFixing(J39,F39,TRUE,TriggerCounter)</f>
-        <v>1.8250001984575393E-3</v>
+        <v>1.8250000000253873E-3</v>
       </c>
       <c r="I39" s="21"/>
       <c r="J39" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D39,SettlementDays,Currency,Calendar,"6M",L39,M39,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0057b#0007</v>
+        <v>obj_004d3#0000</v>
       </c>
       <c r="K39" s="34" t="s">
         <v>24</v>
@@ -16405,21 +16391,21 @@
         <v>167</v>
       </c>
       <c r="F40" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G40" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE,Trigger)</f>
-        <v>43284</v>
+        <v>43285</v>
       </c>
       <c r="H40" s="52">
         <f>_xll.qlIndexFixing(J40,F40,TRUE,TriggerCounter)</f>
-        <v>2.1250005433124152E-3</v>
+        <v>2.1499999996106556E-3</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D40,SettlementDays,Currency,Calendar,"6M",L40,M40,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0058b#0007</v>
+        <v>obj_004d5#0000</v>
       </c>
       <c r="K40" s="34" t="s">
         <v>24</v>
@@ -16455,21 +16441,21 @@
         <v>167</v>
       </c>
       <c r="F41" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G41" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE,Trigger)</f>
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="H41" s="52">
         <f>_xll.qlIndexFixing(J41,F41,TRUE,TriggerCounter)</f>
-        <v>2.6500007778094709E-3</v>
+        <v>2.6750000000025065E-3</v>
       </c>
       <c r="I41" s="21"/>
       <c r="J41" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D41,SettlementDays,Currency,Calendar,"6M",L41,M41,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0057c#0007</v>
+        <v>obj_004f2#0000</v>
       </c>
       <c r="K41" s="34" t="s">
         <v>24</v>
@@ -16505,21 +16491,21 @@
         <v>167</v>
       </c>
       <c r="F42" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G42" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE,Trigger)</f>
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="H42" s="52">
         <f>_xll.qlIndexFixing(J42,F42,TRUE,TriggerCounter)</f>
-        <v>3.3750018157944336E-3</v>
+        <v>3.4250000000000391E-3</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D42,SettlementDays,Currency,Calendar,"6M",L42,M42,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0058c#0007</v>
+        <v>obj_004db#0000</v>
       </c>
       <c r="K42" s="34" t="s">
         <v>24</v>
@@ -16555,8 +16541,8 @@
         <v>167</v>
       </c>
       <c r="F43" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G43" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE,Trigger)</f>
@@ -16564,12 +16550,12 @@
       </c>
       <c r="H43" s="52">
         <f>_xll.qlIndexFixing(J43,F43,TRUE,TriggerCounter)</f>
-        <v>4.2500015577829012E-3</v>
+        <v>4.2749999999951776E-3</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D43,SettlementDays,Currency,Calendar,"6M",L43,M43,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0057d#0007</v>
+        <v>obj_004de#0000</v>
       </c>
       <c r="K43" s="34" t="s">
         <v>24</v>
@@ -16605,8 +16591,8 @@
         <v>167</v>
       </c>
       <c r="F44" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G44" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE,Trigger)</f>
@@ -16614,12 +16600,12 @@
       </c>
       <c r="H44" s="52">
         <f>_xll.qlIndexFixing(J44,F44,TRUE,TriggerCounter)</f>
-        <v>5.150001366620297E-3</v>
+        <v>5.1999999999906409E-3</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D44,SettlementDays,Currency,Calendar,"6M",L44,M44,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0058d#0007</v>
+        <v>obj_004df#0000</v>
       </c>
       <c r="K44" s="34" t="s">
         <v>24</v>
@@ -16655,21 +16641,21 @@
         <v>167</v>
       </c>
       <c r="F45" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G45" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE,Trigger)</f>
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="H45" s="52">
         <f>_xll.qlIndexFixing(J45,F45,TRUE,TriggerCounter)</f>
-        <v>6.0750014938827967E-3</v>
+        <v>6.1250000000450579E-3</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D45,SettlementDays,Currency,Calendar,"6M",L45,M45,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0057e#0007</v>
+        <v>obj_004f9#0000</v>
       </c>
       <c r="K45" s="34" t="s">
         <v>24</v>
@@ -16705,21 +16691,21 @@
         <v>167</v>
       </c>
       <c r="F46" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G46" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE,Trigger)</f>
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="H46" s="52">
         <f>_xll.qlIndexFixing(J46,F46,TRUE,TriggerCounter)</f>
-        <v>7.0000014951463393E-3</v>
+        <v>7.0750000000799462E-3</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D46,SettlementDays,Currency,Calendar,"6M",L46,M46,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0058e#0007</v>
+        <v>obj_004fa#0000</v>
       </c>
       <c r="K46" s="34" t="s">
         <v>24</v>
@@ -16755,21 +16741,21 @@
         <v>167</v>
       </c>
       <c r="F47" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G47" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE,Trigger)</f>
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="H47" s="52">
         <f>_xll.qlIndexFixing(J47,F47,TRUE,TriggerCounter)</f>
-        <v>7.9482848309783763E-3</v>
+        <v>8.0027908208928182E-3</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D47,SettlementDays,Currency,Calendar,"6M",L47,M47,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0057f#0007</v>
+        <v>obj_004e6#0000</v>
       </c>
       <c r="K47" s="34" t="s">
         <v>24</v>
@@ -16805,21 +16791,21 @@
         <v>167</v>
       </c>
       <c r="F48" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G48" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE,Trigger)</f>
-        <v>46206</v>
+        <v>46209</v>
       </c>
       <c r="H48" s="52">
         <f>_xll.qlIndexFixing(J48,F48,TRUE,TriggerCounter)</f>
-        <v>8.9000010610866525E-3</v>
+        <v>8.9250000000165291E-3</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D48,SettlementDays,Currency,Calendar,"6M",L48,M48,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0058f#0007</v>
+        <v>obj_004fd#0000</v>
       </c>
       <c r="K48" s="34" t="s">
         <v>24</v>
@@ -16855,8 +16841,8 @@
         <v>167</v>
       </c>
       <c r="F49" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G49" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE,Trigger)</f>
@@ -16864,12 +16850,12 @@
       </c>
       <c r="H49" s="52">
         <f>_xll.qlIndexFixing(J49,F49,TRUE,TriggerCounter)</f>
-        <v>9.8318311797645584E-3</v>
+        <v>9.8397802219996802E-3</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D49,SettlementDays,Currency,Calendar,"6M",L49,M49,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00580#0007</v>
+        <v>obj_004fe#0000</v>
       </c>
       <c r="K49" s="34" t="s">
         <v>24</v>
@@ -16905,21 +16891,21 @@
         <v>167</v>
       </c>
       <c r="F50" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G50" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D50,"mf",TRUE,Trigger)</f>
-        <v>46937</v>
+        <v>46938</v>
       </c>
       <c r="H50" s="52">
         <f>_xll.qlIndexFixing(J50,F50,TRUE,TriggerCounter)</f>
-        <v>1.0715167443135094E-2</v>
+        <v>1.0732276887938073E-2</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D50,SettlementDays,Currency,Calendar,"6M",L50,M50,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00590#0007</v>
+        <v>obj_0050a#0000</v>
       </c>
       <c r="K50" s="34" t="s">
         <v>24</v>
@@ -16955,21 +16941,21 @@
         <v>167</v>
       </c>
       <c r="F51" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G51" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D51,"mf",TRUE,Trigger)</f>
-        <v>47302</v>
+        <v>47303</v>
       </c>
       <c r="H51" s="52">
         <f>_xll.qlIndexFixing(J51,F51,TRUE,TriggerCounter)</f>
-        <v>1.1550000768401937E-2</v>
+        <v>1.1574999999970888E-2</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D51,SettlementDays,Currency,Calendar,"6M",L51,M51,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00581#0007</v>
+        <v>obj_0050c#0000</v>
       </c>
       <c r="K51" s="34" t="s">
         <v>24</v>
@@ -17005,21 +16991,21 @@
         <v>167</v>
       </c>
       <c r="F52" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G52" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D52,"mf",TRUE,Trigger)</f>
-        <v>47667</v>
+        <v>47668</v>
       </c>
       <c r="H52" s="52">
         <f>_xll.qlIndexFixing(J52,F52,TRUE,TriggerCounter)</f>
-        <v>1.2326866251824043E-2</v>
+        <v>1.2352401332486366E-2</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D52,SettlementDays,Currency,Calendar,"6M",L52,M52,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00591#0007</v>
+        <v>obj_00502#0000</v>
       </c>
       <c r="K52" s="34" t="s">
         <v>24</v>
@@ -17055,21 +17041,21 @@
         <v>167</v>
       </c>
       <c r="F53" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G53" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D53,"mf",TRUE,Trigger)</f>
-        <v>48032</v>
+        <v>48033</v>
       </c>
       <c r="H53" s="52">
         <f>_xll.qlIndexFixing(J53,F53,TRUE,TriggerCounter)</f>
-        <v>1.3040603098089637E-2</v>
+        <v>1.3061062348463477E-2</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D53,SettlementDays,Currency,Calendar,"6M",L53,M53,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00582#0007</v>
+        <v>obj_0050e#0000</v>
       </c>
       <c r="K53" s="34" t="s">
         <v>24</v>
@@ -17105,8 +17091,8 @@
         <v>167</v>
       </c>
       <c r="F54" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G54" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D54,"mf",TRUE,Trigger)</f>
@@ -17114,12 +17100,12 @@
       </c>
       <c r="H54" s="52">
         <f>_xll.qlIndexFixing(J54,F54,TRUE,TriggerCounter)</f>
-        <v>1.3692743291026561E-2</v>
+        <v>1.3703986657693772E-2</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D54,SettlementDays,Currency,Calendar,"6M",L54,M54,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00592#0007</v>
+        <v>obj_00505#0000</v>
       </c>
       <c r="K54" s="34" t="s">
         <v>24</v>
@@ -17155,8 +17141,8 @@
         <v>167</v>
       </c>
       <c r="F55" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G55" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D55,"mf",TRUE,Trigger)</f>
@@ -17164,12 +17150,12 @@
       </c>
       <c r="H55" s="52">
         <f>_xll.qlIndexFixing(J55,F55,TRUE,TriggerCounter)</f>
-        <v>1.4268807933169309E-2</v>
+        <v>1.427282457423884E-2</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D55,SettlementDays,Currency,Calendar,"6M",L55,M55,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00583#0007</v>
+        <v>obj_004d4#0000</v>
       </c>
       <c r="K55" s="34" t="s">
         <v>24</v>
@@ -17205,21 +17191,21 @@
         <v>167</v>
       </c>
       <c r="F56" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G56" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D56,"mf",TRUE,Trigger)</f>
-        <v>49128</v>
+        <v>49129</v>
       </c>
       <c r="H56" s="52">
         <f>_xll.qlIndexFixing(J56,F56,TRUE,TriggerCounter)</f>
-        <v>1.477499982036074E-2</v>
+        <v>1.4774999999983815E-2</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D56,SettlementDays,Currency,Calendar,"6M",L56,M56,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00593#0007</v>
+        <v>obj_004d6#0000</v>
       </c>
       <c r="K56" s="34" t="s">
         <v>24</v>
@@ -17255,21 +17241,21 @@
         <v>167</v>
       </c>
       <c r="F57" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G57" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D57,"mf",TRUE,Trigger)</f>
-        <v>49493</v>
+        <v>49494</v>
       </c>
       <c r="H57" s="52">
         <f>_xll.qlIndexFixing(J57,F57,TRUE,TriggerCounter)</f>
-        <v>1.5213986743138725E-2</v>
+        <v>1.5211436083108914E-2</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D57,SettlementDays,Currency,Calendar,"6M",L57,M57,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00584#0007</v>
+        <v>obj_004da#0000</v>
       </c>
       <c r="K57" s="34" t="s">
         <v>24</v>
@@ -17305,21 +17291,21 @@
         <v>167</v>
       </c>
       <c r="F58" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G58" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D58,"mf",TRUE,Trigger)</f>
-        <v>49859</v>
+        <v>49860</v>
       </c>
       <c r="H58" s="52">
         <f>_xll.qlIndexFixing(J58,F58,TRUE,TriggerCounter)</f>
-        <v>1.5595139384236638E-2</v>
+        <v>1.5592261489143718E-2</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D58,SettlementDays,Currency,Calendar,"6M",L58,M58,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00594#0007</v>
+        <v>obj_004f3#0000</v>
       </c>
       <c r="K58" s="34" t="s">
         <v>24</v>
@@ -17355,21 +17341,21 @@
         <v>167</v>
       </c>
       <c r="F59" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G59" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D59,"mf",TRUE,Trigger)</f>
-        <v>50224</v>
+        <v>50227</v>
       </c>
       <c r="H59" s="52">
         <f>_xll.qlIndexFixing(J59,F59,TRUE,TriggerCounter)</f>
-        <v>1.5926431255998536E-2</v>
+        <v>1.5926204999518259E-2</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D59,SettlementDays,Currency,Calendar,"6M",L59,M59,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00585#0007</v>
+        <v>obj_004f6#0000</v>
       </c>
       <c r="K59" s="34" t="s">
         <v>24</v>
@@ -17405,8 +17391,8 @@
         <v>167</v>
       </c>
       <c r="F60" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G60" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D60,"mf",TRUE,Trigger)</f>
@@ -17414,12 +17400,12 @@
       </c>
       <c r="H60" s="52">
         <f>_xll.qlIndexFixing(J60,F60,TRUE,TriggerCounter)</f>
-        <v>1.6218738253193508E-2</v>
+        <v>1.621743155553329E-2</v>
       </c>
       <c r="I60" s="21"/>
       <c r="J60" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D60,SettlementDays,Currency,Calendar,"6M",L60,M60,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00595#0007</v>
+        <v>obj_004f7#0000</v>
       </c>
       <c r="K60" s="34" t="s">
         <v>24</v>
@@ -17455,8 +17441,8 @@
         <v>167</v>
       </c>
       <c r="F61" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G61" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D61,"mf",TRUE,Trigger)</f>
@@ -17464,12 +17450,12 @@
       </c>
       <c r="H61" s="52">
         <f>_xll.qlIndexFixing(J61,F61,TRUE,TriggerCounter)</f>
-        <v>1.6474999581329267E-2</v>
+        <v>1.6475000000036225E-2</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D61,SettlementDays,Currency,Calendar,"6M",L61,M61,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00586#0007</v>
+        <v>obj_004e3#0000</v>
       </c>
       <c r="K61" s="34" t="s">
         <v>24</v>
@@ -17505,21 +17491,21 @@
         <v>167</v>
       </c>
       <c r="F62" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G62" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D62,"mf",TRUE,Trigger)</f>
-        <v>51320</v>
+        <v>51321</v>
       </c>
       <c r="H62" s="52">
         <f>_xll.qlIndexFixing(J62,F62,TRUE,TriggerCounter)</f>
-        <v>1.6704007647557709E-2</v>
+        <v>1.6705324642372298E-2</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D62,SettlementDays,Currency,Calendar,"6M",L62,M62,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00596#0007</v>
+        <v>obj_004e4#0000</v>
       </c>
       <c r="K62" s="34" t="s">
         <v>24</v>
@@ -17555,21 +17541,21 @@
         <v>167</v>
       </c>
       <c r="F63" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G63" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D63,"mf",TRUE,Trigger)</f>
-        <v>51685</v>
+        <v>51686</v>
       </c>
       <c r="H63" s="52">
         <f>_xll.qlIndexFixing(J63,F63,TRUE,TriggerCounter)</f>
-        <v>1.690973541552241E-2</v>
+        <v>1.6911191320313188E-2</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D63,SettlementDays,Currency,Calendar,"6M",L63,M63,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00587#0007</v>
+        <v>obj_00507#0000</v>
       </c>
       <c r="K63" s="34" t="s">
         <v>24</v>
@@ -17605,21 +17591,21 @@
         <v>167</v>
       </c>
       <c r="F64" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G64" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D64,"mf",TRUE,Trigger)</f>
-        <v>52050</v>
+        <v>52051</v>
       </c>
       <c r="H64" s="52">
         <f>_xll.qlIndexFixing(J64,F64,TRUE,TriggerCounter)</f>
-        <v>1.7096167214392138E-2</v>
+        <v>1.7097429175042388E-2</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D64,SettlementDays,Currency,Calendar,"6M",L64,M64,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00597#0007</v>
+        <v>obj_004e7#0000</v>
       </c>
       <c r="K64" s="34" t="s">
         <v>24</v>
@@ -17655,21 +17641,21 @@
         <v>167</v>
       </c>
       <c r="F65" s="37">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G65" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D65,"mf",TRUE,Trigger)</f>
-        <v>52415</v>
+        <v>52418</v>
       </c>
       <c r="H65" s="52">
         <f>_xll.qlIndexFixing(J65,F65,TRUE,TriggerCounter)</f>
-        <v>1.7266679848078302E-2</v>
+        <v>1.7268466297958175E-2</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D65,SettlementDays,Currency,Calendar,"6M",L65,M65,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00588#0007</v>
+        <v>obj_004ea#0000</v>
       </c>
       <c r="K65" s="34" t="s">
         <v>24</v>
@@ -17705,8 +17691,8 @@
         <v>167</v>
       </c>
       <c r="F66" s="53">
-        <f>EvaluationDate</f>
-        <v>41821</v>
+        <f t="shared" si="3"/>
+        <v>41822</v>
       </c>
       <c r="G66" s="53">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D66,"mf",TRUE,Trigger)</f>
@@ -17714,12 +17700,12 @@
       </c>
       <c r="H66" s="54">
         <f>_xll.qlIndexFixing(J66,F66,TRUE,TriggerCounter)</f>
-        <v>1.7424999186379547E-2</v>
+        <v>1.7424999999999996E-2</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="58" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D66,SettlementDays,Currency,Calendar,"6M",L66,M66,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00598#0007</v>
+        <v>obj_004ff#0000</v>
       </c>
       <c r="K66" s="35" t="s">
         <v>24</v>

--- a/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="-15" windowWidth="19230" windowHeight="11190" activeTab="1"/>
+    <workbookView xWindow="6435" yWindow="0" windowWidth="7650" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="137">
   <si>
     <t>BID</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>RIC TONAR?!?</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1396,127 @@
     <cellStyle name="Valuta (0)_AZIONI" xfId="11"/>
     <cellStyle name="Valuta_AZIONI" xfId="12"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1455,260 +1578,472 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M9x12F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M9x12F=	838426624:21:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C22" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON1Y6MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON1Y6MD=	838426624:23:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B24" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON2MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON2MD=	838426624:11:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B12" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON6MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON6MD=	838426624:15:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B16" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON1MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON1MD=	838426624:10:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B11" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON3MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON3MD=	838426624:12:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B13" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON5MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON5MD=	838426624:14:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B15" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON9MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON9MD=	838426624:18:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B19" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON4MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON4MD=	838426624:13:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B14" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON6YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON6YD=	838426624:28:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B29" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON7YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON7YD=	838426624:29:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B30" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON4YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON4YD=	838426624:26:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B27" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON5YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON5YD=	838426624:27:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B28" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON1YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON1YD=	838426624:21:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B22" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON2YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON2YD=	838426624:24:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B25" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON3YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON3YD=	838426624:25:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B26" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON8YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON8YD=	838426624:30:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B31" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON9YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON9YD=	838426624:31:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B32" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M6x12F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M6x12F=	838426624:21:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D22" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M5x11F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M5x11F=	838426624:20:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D21" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M4x10F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M4x10F=	838426624:19:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D20" s="7"/>
+      </tp>
+    </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17499999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M2x8F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X18" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17499999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M3x9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X19" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17499999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M3x9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y19" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17499999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M2x8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y18" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4291653000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K7" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4341084000000007E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4284640000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K6" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4281134000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K5" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.25E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4620067000000003E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.7500000000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.5000000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4451937000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.5000000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K22" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.2175</v>
         <stp/>
         <stp xml:space="preserve">	JPYON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K16" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.15</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.25E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K15" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.10249999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.25E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>7.7499999999999999E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K19" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.36</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.30249999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPYON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.125</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M6x9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q19" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M5x8F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q18" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M5x8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R18" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.125</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M6x9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R19" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M3x6F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R16" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M2x5F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q15" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M4x7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R17" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M1x4F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M1x4F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M4x7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q17" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M2x5F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R15" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M3x6F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q16" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17499999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M1x7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y17" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17499999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M1x7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1716,51 +2051,205 @@
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.115</v>
         <stp/>
         <stp>_x000C_JPY3M12x15F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q23" s="7"/>
       </tp>
     </main>
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M4x7F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M4x7F=	838426624:16:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C17" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M5x8F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M5x8F=	838426624:17:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C18" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M6x9F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M6x9F=	838426624:18:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C19" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M1x4F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M1x4F=	838426624:13:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C14" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M2x5F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M2x5F=	838426624:14:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C15" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M3x6F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M3x6F=	838426624:15:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C16" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M1x7F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M1x7F=	838426624:16:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D17" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M2x8F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M2x8F=	838426624:17:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D18" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M3x9F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M3x9F=	838426624:18:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D19" s="7"/>
+      </tp>
+    </main>
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON20YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON20YD=	838426624:35:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B36" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON25YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON25YD=	838426624:36:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B37" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON30YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON30YD=	838426624:37:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B38" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON10YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON10YD=	838426624:32:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B33" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON12YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON12YD=	838426624:33:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B34" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON15YD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON15YD=	838426624:34:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B35" s="7"/>
+      </tp>
+    </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.3425</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.175</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.44</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.86</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.435</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.60499999999999998</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1768,177 +2257,177 @@
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4291653000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J7" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4341084000000007E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4284640000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J6" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4281134000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J5" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.25E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4620067000000003E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.7500000000000004E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.5000000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.4451937000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.5000000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J22" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.2175</v>
         <stp/>
         <stp xml:space="preserve">	JPYON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J16" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.15</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.25E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J15" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.10249999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>6.25E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>7.7499999999999999E-2</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J19" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.36</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.30249999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPYON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J31" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.86</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.435</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.60499999999999998</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.44</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.3425</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.175</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1946,698 +2435,1298 @@
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.115</v>
         <stp/>
         <stp>_x000C_JPY3M12x15F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R23" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.166713994</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X7" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.166818306</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.16670183299999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X6" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.16668877700000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X5" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17219999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.167656737</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.1721</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.167133384</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.16889999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17446463500000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X16" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.1759</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X15" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17430000000000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.48592052600000002</v>
         <stp/>
         <stp>_x0008_JPY3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.40107124999999999</v>
         <stp/>
         <stp>_x0008_JPY3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.121731336</v>
         <stp/>
         <stp>_x0008_JPY3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.12183666</v>
         <stp/>
         <stp>_x0008_JPY3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.18144808400000001</v>
         <stp/>
         <stp>_x0008_JPY3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.14159066100000001</v>
         <stp/>
         <stp>_x0008_JPY3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.31868819700000001</v>
         <stp/>
         <stp>_x0008_JPY3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.24130235799999999</v>
         <stp/>
         <stp>_x0008_JPY3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R29" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.5902603989999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.4952817430000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.3253840459999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.005475463</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.74881377100000002</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.57080119900000004</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R33" s="7"/>
       </tp>
     </main>
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON3WD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON3WD=	838426624:9:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B10" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYON2WD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYON2WD=	838426624:8:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B9" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYONSWD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYONSWD=	838426624:7:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B8" s="7"/>
+      </tp>
+    </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13716889700000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q7" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.137162161</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13717253500000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q6" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.137173924</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q5" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13200000000000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.137097999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13539999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13713855799999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13700000000000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.597496786</v>
         <stp/>
         <stp>_x0008_JPY6M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.50249639499999998</v>
         <stp/>
         <stp>_x0008_JPY6M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17749009299999999</v>
         <stp/>
         <stp>_x0008_JPY6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.16998517199999999</v>
         <stp/>
         <stp>_x0008_JPY6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.25749404799999998</v>
         <stp/>
         <stp>_x0008_JPY6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.20749256499999999</v>
         <stp/>
         <stp>_x0008_JPY6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.41249569800000002</v>
         <stp/>
         <stp>_x0008_JPY6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.32749503699999999</v>
         <stp/>
         <stp>_x0008_JPY6M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y29" s="7"/>
       </tp>
     </main>
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M2WD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M2WD=	838426624:8:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C9" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M3WD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M3WD=	838426624:9:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C10" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3MSWD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3MSWD=	838426624:7:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C8" s="7"/>
+      </tp>
+    </main>
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M2WD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M2WD=	838426624:8:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D9" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M3WD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M3WD=	838426624:9:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D10" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6MSWD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6MSWD=	838426624:7:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D8" s="7"/>
+      </tp>
+    </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.7349987950000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.634998639</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.4649984069999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.1424979820000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.87749753600000002</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.68999709899999995</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y33" s="7"/>
       </tp>
     </main>
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M2Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M2Y=	838426624:24:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D25" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M3Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M3Y=	838426624:25:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D26" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M4Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M4Y=	838426624:26:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D27" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M5Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M5Y=	838426624:27:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D28" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M6Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M6Y=	838426624:28:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D29" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M7Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M7Y=	838426624:29:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D30" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M8Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M8Y=	838426624:30:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D31" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M9Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M9Y=	838426624:31:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D32" s="7"/>
+      </tp>
+    </main>
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M8Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M8Y=	838426624:30:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C31" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M9Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M9Y=	838426624:31:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C32" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M2Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M2Y=	838426624:24:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C25" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M3Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M3Y=	838426624:25:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C26" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M4Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M4Y=	838426624:26:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C27" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M5Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M5Y=	838426624:27:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C28" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M6Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M6Y=	838426624:28:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C29" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M7Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M7Y=	838426624:29:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C30" s="7"/>
+      </tp>
+    </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.16966645399999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X24" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>0.50249639499999998</v>
         <stp/>
         <stp>_x0008_JPY6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.597496786</v>
         <stp/>
         <stp>_x0008_JPY6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.16998517199999999</v>
         <stp/>
         <stp>_x0008_JPY6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17749009299999999</v>
         <stp/>
         <stp>_x0008_JPY6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.32749503699999999</v>
         <stp/>
         <stp>_x0008_JPY6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.41249569800000002</v>
         <stp/>
         <stp>_x0008_JPY6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.20749256499999999</v>
         <stp/>
         <stp>_x0008_JPY6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.25749404799999998</v>
         <stp/>
         <stp>_x0008_JPY6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X28" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.123732843</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q24" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.40107124999999999</v>
         <stp/>
         <stp>_x0008_JPY3M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.48592052600000002</v>
         <stp/>
         <stp>_x0008_JPY3M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.12183666</v>
         <stp/>
         <stp>_x0008_JPY3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.121731336</v>
         <stp/>
         <stp>_x0008_JPY3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.24130235799999999</v>
         <stp/>
         <stp>_x0008_JPY3M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.31868819700000001</v>
         <stp/>
         <stp>_x0008_JPY3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.14159066100000001</v>
         <stp/>
         <stp>_x0008_JPY3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.18144808400000001</v>
         <stp/>
         <stp>_x0008_JPY3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q28" s="7"/>
       </tp>
+      <tp>
+        <v>0.16966645399999999</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y24" s="7"/>
+      </tp>
+      <tp>
+        <v>0.123732843</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY3M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="R24" s="7"/>
+      </tp>
+      <tp>
+        <v>1.5902603989999999</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Q38" s="7"/>
+      </tp>
+      <tp>
+        <v>1.4952817430000001</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Q37" s="7"/>
+      </tp>
+      <tp>
+        <v>1.3253840459999999</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Q36" s="7"/>
+      </tp>
+      <tp>
+        <v>1.005475463</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Q35" s="7"/>
+      </tp>
+      <tp>
+        <v>0.57080119900000004</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Q33" s="7"/>
+      </tp>
+      <tp>
+        <v>0.74881377100000002</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Q34" s="7"/>
+      </tp>
+      <tp>
+        <v>0.166713994</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y7" s="7"/>
+      </tp>
+      <tp>
+        <v>0.166818306</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y8" s="7"/>
+      </tp>
+      <tp>
+        <v>0.16670183299999999</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y6" s="7"/>
+      </tp>
+      <tp>
+        <v>0.16668877700000001</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y5" s="7"/>
+      </tp>
+      <tp>
+        <v>0.17219999999999999</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y13" s="7"/>
+      </tp>
+      <tp>
+        <v>0.167656737</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y10" s="7"/>
+      </tp>
+      <tp>
+        <v>0.1721</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y12" s="7"/>
+      </tp>
+      <tp>
+        <v>0.167133384</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y9" s="7"/>
+      </tp>
+      <tp>
+        <v>0.16889999999999999</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y11" s="7"/>
+      </tp>
+      <tp>
+        <v>0.17446463500000001</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y16" s="7"/>
+      </tp>
+      <tp>
+        <v>0.1759</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y15" s="7"/>
+      </tp>
+      <tp>
+        <v>0.17430000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	JPY6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="Y14" s="7"/>
+      </tp>
+    </main>
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYONSND= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYONSND=	838426624:6:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B7" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYONTND= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYONTND=	838426624:5:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B6" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPYONOND= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPYONOND=	838426624:4:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="B5" s="7"/>
+      </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y24" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY3M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="R24" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Q38" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Q37" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Q36" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Q35" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Q33" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Q34" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y7" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y8" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y5" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y13" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y10" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y12" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y9" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y11" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y16" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y15" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
-        <stp/>
-        <stp xml:space="preserve">	JPY6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="Y14" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.7349987950000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.634998639</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.4649984069999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>1.1424979820000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.68999709899999995</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.87749753600000002</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X34" s="7"/>
       </tp>
+    </main>
+    <main first="realtimexl.rtxlpubrtd.1">
       <tp t="s">
-        <v>#N/A Invalid source.</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6MOND= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6MOND=	838426624:4:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D5" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6MTND= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6MTND=	838426624:5:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D6" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6MSND= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6MSND=	838426624:6:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D7" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3MOND= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3MOND=	838426624:4:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C5" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3MTND= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3MTND=	838426624:5:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C6" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3MSND= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3MSND=	838426624:6:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C7" s="7"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>0.13716889700000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R7" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.137162161</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13717253500000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R6" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.137173924</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R5" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13200000000000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.137097999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13539999999999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13713855799999999</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.13700000000000001</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R11" s="7"/>
       </tp>
     </main>
+    <main first="realtimexl.rtxlpubrtd.1">
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M12x15F= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M12x15F=	838426624:22:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C23" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M12Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M12Y=	838426624:33:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D34" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M10Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M10Y=	838426624:32:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D33" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M20Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M20Y=	838426624:35:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D36" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M25Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M25Y=	838426624:36:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D37" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M30Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M30Y=	838426624:37:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D38" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M15Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M15Y=	838426624:34:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D35" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M12Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M12Y=	838426624:33:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C34" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M10Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M10Y=	838426624:32:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C33" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M20Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M20Y=	838426624:35:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C36" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M25Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M25Y=	838426624:36:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C37" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M30Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M30Y=	838426624:37:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C38" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M15Y= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M15Y=	838426624:34:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C35" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M2MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M2MD=	838426624:11:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C12" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M1MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M1MD=	838426624:10:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C11" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M3MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M3MD=	838426624:12:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C13" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M2MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M2MD=	838426624:11:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D12" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M6MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M6MD=	838426624:15:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D16" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M1MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M1MD=	838426624:10:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D11" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M3MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M3MD=	838426624:12:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D13" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M5MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M5MD=	838426624:14:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D15" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M4MD= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M4MD=	838426624:13:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D14" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M18M= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY3M18M=	838426624:23:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="C24" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M18M= at 18:17:37</v>
+        <stp/>
+        <stp>DTSIMI1</stp>
+        <stp>DTSIMI1|JPY6M18M=	838426624:23:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
+        <stp xml:space="preserve">	BID	ASK	</stp>
+        <stp>0</stp>
+        <stp/>
+        <tr r="D24" s="7"/>
+      </tp>
+    </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp>_x000B_JPYON1Y6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K24" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.06</v>
         <stp/>
         <stp>_x000B_JPYON1Y6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J24" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17</v>
         <stp/>
         <stp>_x000B_JPY6M5x11F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X21" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.16500000000000001</v>
         <stp/>
         <stp>_x000B_JPY6M6x12F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y22" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17</v>
         <stp/>
         <stp>_x000B_JPY6M4x10F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X20" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17</v>
         <stp/>
         <stp>_x000B_JPY6M4x10F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y20" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.16500000000000001</v>
         <stp/>
         <stp>_x000B_JPY6M6x12F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X22" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.17</v>
         <stp/>
         <stp>_x000B_JPY6M5x11F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y21" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.12</v>
         <stp/>
         <stp>_x000B_JPY3M9x12F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R22" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Invalid source.</v>
+      <tp>
+        <v>0.12</v>
         <stp/>
         <stp>_x000B_JPY3M9x12F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q22" s="7"/>
@@ -2680,7 +3769,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>25</v>
+            <v>2</v>
           </cell>
         </row>
       </sheetData>
@@ -3209,9 +4298,7 @@
       <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="35">
-        <v>41828.429618055554</v>
-      </c>
+      <c r="D4" s="35"/>
       <c r="E4" s="26"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -3276,7 +4363,7 @@
       </c>
       <c r="D6" s="29">
         <f>[1]!TriggerCounter</f>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="38"/>
@@ -6023,7 +7110,8 @@
     <col min="12" max="12" width="2.7109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2.7109375" style="5" customWidth="1"/>
@@ -6042,7 +7130,9 @@
       <c r="B1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="91"/>
+      <c r="C1" s="91" t="s">
+        <v>136</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="48" t="s">
@@ -6333,15 +7423,15 @@
       </c>
       <c r="B5" s="43" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G5,Fields,H5:I5,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H5:I5,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYONOND= at 18:17:37</v>
       </c>
       <c r="C5" s="43" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N5,Fields,O5:P5,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N5:P5,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3MOND= at 18:17:37</v>
       </c>
       <c r="D5" s="43" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U5,Fields,V5:W5,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U5:W5,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6MOND= at 18:17:37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>124</v>
@@ -6350,7 +7440,7 @@
         <v>62</v>
       </c>
       <c r="G5" s="17" t="str">
-        <f>Currency&amp;"ON"&amp;F5&amp;"="</f>
+        <f t="shared" ref="G5:G16" si="0">Currency&amp;"ON"&amp;F5&amp;"="</f>
         <v>JPYONOND=</v>
       </c>
       <c r="H5" s="18">
@@ -6361,13 +7451,13 @@
         <f>H5</f>
         <v>6.4281133595800455E-2</v>
       </c>
-      <c r="J5" s="18" t="e">
+      <c r="J5" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$G5,BID)-H5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="18" t="e">
+        <v>4.0419954883130771E-10</v>
+      </c>
+      <c r="K5" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$G5,ASK)-I5)</f>
-        <v>#VALUE!</v>
+        <v>4.0419954883130771E-10</v>
       </c>
       <c r="L5" s="89" t="s">
         <v>124</v>
@@ -6376,24 +7466,24 @@
         <v>62</v>
       </c>
       <c r="N5" s="17" t="str">
-        <f>Currency&amp;"3M"&amp;M5&amp;"="</f>
+        <f t="shared" ref="N5:N19" si="1">Currency&amp;"3M"&amp;M5&amp;"="</f>
         <v>JPY3MOND=</v>
       </c>
       <c r="O5" s="18">
         <f>'3M Pricing'!I5*100</f>
-        <v>0.13717392434119588</v>
+        <v>0.1371739243163079</v>
       </c>
       <c r="P5" s="18">
         <f>O5</f>
-        <v>0.13717392434119588</v>
-      </c>
-      <c r="Q5" s="18" t="e">
+        <v>0.1371739243163079</v>
+      </c>
+      <c r="Q5" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$N5,BID)-O5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R5" s="18" t="e">
+        <v>3.1630789654180091E-10</v>
+      </c>
+      <c r="R5" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$N5,ASK)-P5)</f>
-        <v>#VALUE!</v>
+        <v>3.1630789654180091E-10</v>
       </c>
       <c r="S5" s="89" t="s">
         <v>124</v>
@@ -6402,24 +7492,24 @@
         <v>62</v>
       </c>
       <c r="U5" s="17" t="str">
-        <f>Currency&amp;"6M"&amp;T5&amp;"="</f>
+        <f t="shared" ref="U5:U22" si="2">Currency&amp;"6M"&amp;T5&amp;"="</f>
         <v>JPY6MOND=</v>
       </c>
       <c r="V5" s="18">
         <f>'6M Pricing'!I5*100</f>
-        <v>0.16668877742354588</v>
+        <v>0.16668877720480482</v>
       </c>
       <c r="W5" s="18">
         <f>V5</f>
-        <v>0.16668877742354588</v>
-      </c>
-      <c r="X5" s="18" t="e">
+        <v>0.16668877720480482</v>
+      </c>
+      <c r="X5" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$U5,BID)-V5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y5" s="18" t="e">
+        <v>2.0480481199847134E-10</v>
+      </c>
+      <c r="Y5" s="18">
         <f>ABS(_xll.RtGet(SourceAlias,$U5,ASK)-W5)</f>
-        <v>#VALUE!</v>
+        <v>2.0480481199847134E-10</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -6455,15 +7545,15 @@
       </c>
       <c r="B6" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G6,Fields,H6:I6,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H6:I6,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYONTND= at 18:17:37</v>
       </c>
       <c r="C6" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N6,Fields,O6:P6,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N6:P6,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3MTND= at 18:17:37</v>
       </c>
       <c r="D6" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U6,Fields,V6:W6,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U6:W6,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6MTND= at 18:17:37</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>124</v>
@@ -6472,7 +7562,7 @@
         <v>63</v>
       </c>
       <c r="G6" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F6&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYONTND=</v>
       </c>
       <c r="H6" s="20">
@@ -6480,16 +7570,16 @@
         <v>6.4284640071243793E-2</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" ref="I6:I38" si="0">H6</f>
+        <f t="shared" ref="I6:I38" si="3">H6</f>
         <v>6.4284640071243793E-2</v>
       </c>
-      <c r="J6" s="20" t="e">
+      <c r="J6" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G6,BID)-H6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="20" t="e">
+        <v>7.1243788646313533E-11</v>
+      </c>
+      <c r="K6" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G6,ASK)-I6)</f>
-        <v>#VALUE!</v>
+        <v>7.1243788646313533E-11</v>
       </c>
       <c r="L6" s="89" t="s">
         <v>124</v>
@@ -6498,24 +7588,24 @@
         <v>63</v>
       </c>
       <c r="N6" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M6&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3MTND=</v>
       </c>
       <c r="O6" s="20">
         <f>'3M Pricing'!I6*100</f>
-        <v>0.13717253512899472</v>
+        <v>0.13717253510431729</v>
       </c>
       <c r="P6" s="20">
-        <f t="shared" ref="P6:P38" si="1">O6</f>
-        <v>0.13717253512899472</v>
-      </c>
-      <c r="Q6" s="20" t="e">
+        <f t="shared" ref="P6:P38" si="4">O6</f>
+        <v>0.13717253510431729</v>
+      </c>
+      <c r="Q6" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N6,BID)-O6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" s="20" t="e">
+        <v>1.0431727703874571E-10</v>
+      </c>
+      <c r="R6" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N6,ASK)-P6)</f>
-        <v>#VALUE!</v>
+        <v>1.0431727703874571E-10</v>
       </c>
       <c r="S6" s="89" t="s">
         <v>124</v>
@@ -6524,24 +7614,24 @@
         <v>63</v>
       </c>
       <c r="U6" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T6&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6MTND=</v>
       </c>
       <c r="V6" s="20">
         <f>'6M Pricing'!I6*100</f>
-        <v>0.16670183363537208</v>
+        <v>0.16670183341812972</v>
       </c>
       <c r="W6" s="20">
-        <f t="shared" ref="W6:W38" si="2">V6</f>
-        <v>0.16670183363537208</v>
-      </c>
-      <c r="X6" s="20" t="e">
+        <f t="shared" ref="W6:W38" si="5">V6</f>
+        <v>0.16670183341812972</v>
+      </c>
+      <c r="X6" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U6,BID)-V6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" s="20" t="e">
+        <v>4.1812972528809667E-10</v>
+      </c>
+      <c r="Y6" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U6,ASK)-W6)</f>
-        <v>#VALUE!</v>
+        <v>4.1812972528809667E-10</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -6577,15 +7667,15 @@
       </c>
       <c r="B7" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G7,Fields,H7:I7,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H7:I7,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYONSND= at 18:17:37</v>
       </c>
       <c r="C7" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N7,Fields,O7:P7,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N7:P7,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3MSND= at 18:17:37</v>
       </c>
       <c r="D7" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U7,Fields,V7:W7,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U7:W7,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6MSND= at 18:17:37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>124</v>
@@ -6594,7 +7684,7 @@
         <v>64</v>
       </c>
       <c r="G7" s="21" t="str">
-        <f>Currency&amp;"ON"&amp;F7&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYONSND=</v>
       </c>
       <c r="H7" s="22">
@@ -6602,16 +7692,16 @@
         <v>6.4291652989711956E-2</v>
       </c>
       <c r="I7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4291652989711956E-2</v>
       </c>
-      <c r="J7" s="22" t="e">
+      <c r="J7" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$G7,BID)-H7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="22" t="e">
+        <v>1.0288048191142707E-11</v>
+      </c>
+      <c r="K7" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$G7,ASK)-I7)</f>
-        <v>#VALUE!</v>
+        <v>1.0288048191142707E-11</v>
       </c>
       <c r="L7" s="89" t="s">
         <v>124</v>
@@ -6620,24 +7710,24 @@
         <v>64</v>
       </c>
       <c r="N7" s="21" t="str">
-        <f>Currency&amp;"3M"&amp;M7&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3MSND=</v>
       </c>
       <c r="O7" s="22">
         <f>'3M Pricing'!I7*100</f>
-        <v>0.13716889720072345</v>
+        <v>0.13716889717674263</v>
       </c>
       <c r="P7" s="22">
-        <f t="shared" si="1"/>
-        <v>0.13716889720072345</v>
-      </c>
-      <c r="Q7" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>0.13716889717674263</v>
+      </c>
+      <c r="Q7" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$N7,BID)-O7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" s="22" t="e">
+        <v>1.7674262053901657E-10</v>
+      </c>
+      <c r="R7" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$N7,ASK)-P7)</f>
-        <v>#VALUE!</v>
+        <v>1.7674262053901657E-10</v>
       </c>
       <c r="S7" s="89" t="s">
         <v>124</v>
@@ -6646,24 +7736,24 @@
         <v>64</v>
       </c>
       <c r="U7" s="21" t="str">
-        <f>Currency&amp;"6M"&amp;T7&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6MSND=</v>
       </c>
       <c r="V7" s="22">
         <f>'6M Pricing'!I7*100</f>
-        <v>0.16671399416967603</v>
+        <v>0.16671399395384867</v>
       </c>
       <c r="W7" s="22">
-        <f t="shared" si="2"/>
-        <v>0.16671399416967603</v>
-      </c>
-      <c r="X7" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>0.16671399395384867</v>
+      </c>
+      <c r="X7" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$U7,BID)-V7)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" s="22" t="e">
+        <v>4.6151332755428598E-11</v>
+      </c>
+      <c r="Y7" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$U7,ASK)-W7)</f>
-        <v>#VALUE!</v>
+        <v>4.6151332755428598E-11</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -6699,15 +7789,15 @@
       </c>
       <c r="B8" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G8,Fields,H8:I8,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H8:I8,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYONSWD= at 18:17:37</v>
       </c>
       <c r="C8" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N8,Fields,O8:P8,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N8:P8,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3MSWD= at 18:17:37</v>
       </c>
       <c r="D8" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U8,Fields,V8:W8,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U8:W8,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6MSWD= at 18:17:37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>124</v>
@@ -6716,7 +7806,7 @@
         <v>65</v>
       </c>
       <c r="G8" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F8&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYONSWD=</v>
       </c>
       <c r="H8" s="20">
@@ -6724,16 +7814,16 @@
         <v>6.4341083772845309E-2</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4341083772845309E-2</v>
       </c>
-      <c r="J8" s="20" t="e">
+      <c r="J8" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G8,BID)-H8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="20" t="e">
+        <v>2.2715469782941256E-10</v>
+      </c>
+      <c r="K8" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G8,ASK)-I8)</f>
-        <v>#VALUE!</v>
+        <v>2.2715469782941256E-10</v>
       </c>
       <c r="L8" s="89" t="s">
         <v>124</v>
@@ -6742,24 +7832,24 @@
         <v>65</v>
       </c>
       <c r="N8" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M8&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3MSWD=</v>
       </c>
       <c r="O8" s="20">
         <f>'3M Pricing'!I8*100</f>
-        <v>0.137162161027961</v>
+        <v>0.13716216100512213</v>
       </c>
       <c r="P8" s="20">
-        <f t="shared" si="1"/>
-        <v>0.137162161027961</v>
-      </c>
-      <c r="Q8" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.13716216100512213</v>
+      </c>
+      <c r="Q8" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N8,BID)-O8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R8" s="20" t="e">
+        <v>5.1221249464106222E-12</v>
+      </c>
+      <c r="R8" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N8,ASK)-P8)</f>
-        <v>#VALUE!</v>
+        <v>5.1221249464106222E-12</v>
       </c>
       <c r="S8" s="89" t="s">
         <v>124</v>
@@ -6768,24 +7858,24 @@
         <v>65</v>
       </c>
       <c r="U8" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T8&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6MSWD=</v>
       </c>
       <c r="V8" s="20">
         <f>'6M Pricing'!I8*100</f>
-        <v>0.16681830608877846</v>
+        <v>0.16681830588437052</v>
       </c>
       <c r="W8" s="20">
-        <f t="shared" si="2"/>
-        <v>0.16681830608877846</v>
-      </c>
-      <c r="X8" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.16681830588437052</v>
+      </c>
+      <c r="X8" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U8,BID)-V8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y8" s="20" t="e">
+        <v>1.1562947821452951E-10</v>
+      </c>
+      <c r="Y8" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U8,ASK)-W8)</f>
-        <v>#VALUE!</v>
+        <v>1.1562947821452951E-10</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -6821,15 +7911,15 @@
       </c>
       <c r="B9" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G9,Fields,H9:I9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H9:I9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON2WD= at 18:17:37</v>
       </c>
       <c r="C9" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N9,Fields,O9:P9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N9:P9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M2WD= at 18:17:37</v>
       </c>
       <c r="D9" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U9,Fields,V9:W9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U9:W9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M2WD= at 18:17:37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>124</v>
@@ -6838,7 +7928,7 @@
         <v>66</v>
       </c>
       <c r="G9" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F9&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYON2WD=</v>
       </c>
       <c r="H9" s="20">
@@ -6846,16 +7936,16 @@
         <v>6.4451936947976629E-2</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4451936947976629E-2</v>
       </c>
-      <c r="J9" s="20" t="e">
+      <c r="J9" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G9,BID)-H9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="20" t="e">
+        <v>5.202337172161009E-11</v>
+      </c>
+      <c r="K9" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G9,ASK)-I9)</f>
-        <v>#VALUE!</v>
+        <v>5.202337172161009E-11</v>
       </c>
       <c r="L9" s="89" t="s">
         <v>124</v>
@@ -6864,24 +7954,24 @@
         <v>66</v>
       </c>
       <c r="N9" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M9&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M2WD=</v>
       </c>
       <c r="O9" s="20">
         <f>'3M Pricing'!I9*100</f>
-        <v>0.13713855804839017</v>
+        <v>0.13713855802840616</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="1"/>
-        <v>0.13713855804839017</v>
-      </c>
-      <c r="Q9" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.13713855802840616</v>
+      </c>
+      <c r="Q9" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N9,BID)-O9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R9" s="20" t="e">
+        <v>2.8406166308059255E-11</v>
+      </c>
+      <c r="R9" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N9,ASK)-P9)</f>
-        <v>#VALUE!</v>
+        <v>2.8406166308059255E-11</v>
       </c>
       <c r="S9" s="89" t="s">
         <v>124</v>
@@ -6890,24 +7980,24 @@
         <v>66</v>
       </c>
       <c r="U9" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T9&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M2WD=</v>
       </c>
       <c r="V9" s="20">
         <f>'6M Pricing'!I9*100</f>
-        <v>0.16713338382182538</v>
+        <v>0.16713338364824992</v>
       </c>
       <c r="W9" s="20">
-        <f t="shared" si="2"/>
-        <v>0.16713338382182538</v>
-      </c>
-      <c r="X9" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.16713338364824992</v>
+      </c>
+      <c r="X9" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U9,BID)-V9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y9" s="20" t="e">
+        <v>3.5175007351284648E-10</v>
+      </c>
+      <c r="Y9" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U9,ASK)-W9)</f>
-        <v>#VALUE!</v>
+        <v>3.5175007351284648E-10</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -6943,15 +8033,15 @@
       </c>
       <c r="B10" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G10,Fields,H10:I10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H10:I10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON3WD= at 18:17:37</v>
       </c>
       <c r="C10" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N10,Fields,O10:P10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N10:P10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M3WD= at 18:17:37</v>
       </c>
       <c r="D10" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U10,Fields,V10:W10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U10:W10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M3WD= at 18:17:37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>124</v>
@@ -6960,7 +8050,7 @@
         <v>67</v>
       </c>
       <c r="G10" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F10&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYON3WD=</v>
       </c>
       <c r="H10" s="20">
@@ -6968,16 +8058,16 @@
         <v>6.4620067166110656E-2</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4620067166110656E-2</v>
       </c>
-      <c r="J10" s="20" t="e">
+      <c r="J10" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G10,BID)-H10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" s="20" t="e">
+        <v>1.6611065301042061E-10</v>
+      </c>
+      <c r="K10" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G10,ASK)-I10)</f>
-        <v>#VALUE!</v>
+        <v>1.6611065301042061E-10</v>
       </c>
       <c r="L10" s="89" t="s">
         <v>124</v>
@@ -6986,24 +8076,24 @@
         <v>67</v>
       </c>
       <c r="N10" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M10&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M3WD=</v>
       </c>
       <c r="O10" s="20">
         <f>'3M Pricing'!I10*100</f>
-        <v>0.13709799858231872</v>
+        <v>0.1370979985686154</v>
       </c>
       <c r="P10" s="20">
-        <f t="shared" si="1"/>
-        <v>0.13709799858231872</v>
-      </c>
-      <c r="Q10" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.1370979985686154</v>
+      </c>
+      <c r="Q10" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N10,BID)-O10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R10" s="20" t="e">
+        <v>4.3138459471236956E-10</v>
+      </c>
+      <c r="R10" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N10,ASK)-P10)</f>
-        <v>#VALUE!</v>
+        <v>4.3138459471236956E-10</v>
       </c>
       <c r="S10" s="89" t="s">
         <v>124</v>
@@ -7012,24 +8102,24 @@
         <v>67</v>
       </c>
       <c r="U10" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T10&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M3WD=</v>
       </c>
       <c r="V10" s="20">
         <f>'6M Pricing'!I10*100</f>
-        <v>0.16765673691754301</v>
+        <v>0.16765673679535503</v>
       </c>
       <c r="W10" s="20">
-        <f t="shared" si="2"/>
-        <v>0.16765673691754301</v>
-      </c>
-      <c r="X10" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.16765673679535503</v>
+      </c>
+      <c r="X10" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U10,BID)-V10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y10" s="20" t="e">
+        <v>2.0464496763850093E-10</v>
+      </c>
+      <c r="Y10" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U10,ASK)-W10)</f>
-        <v>#VALUE!</v>
+        <v>2.0464496763850093E-10</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -7065,15 +8155,15 @@
       </c>
       <c r="B11" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G11,Fields,H11:I11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H11:I11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON1MD= at 18:17:37</v>
       </c>
       <c r="C11" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N11,Fields,O11:P11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N11:P11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M1MD= at 18:17:37</v>
       </c>
       <c r="D11" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U11,Fields,V11:W11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U11:W11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M1MD= at 18:17:37</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>124</v>
@@ -7082,7 +8172,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F11&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYON1MD=</v>
       </c>
       <c r="H11" s="20">
@@ -7090,16 +8180,16 @@
         <v>6.4999999999863792E-2</v>
       </c>
       <c r="I11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4999999999863792E-2</v>
       </c>
-      <c r="J11" s="20" t="e">
+      <c r="J11" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G11,BID)-H11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="20" t="e">
+        <v>1.3621048733369889E-13</v>
+      </c>
+      <c r="K11" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G11,ASK)-I11)</f>
-        <v>#VALUE!</v>
+        <v>1.3621048733369889E-13</v>
       </c>
       <c r="L11" s="89" t="s">
         <v>124</v>
@@ -7108,7 +8198,7 @@
         <v>68</v>
       </c>
       <c r="N11" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M11&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M1MD=</v>
       </c>
       <c r="O11" s="20">
@@ -7116,16 +8206,16 @@
         <v>0.13699999999999823</v>
       </c>
       <c r="P11" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.13699999999999823</v>
       </c>
-      <c r="Q11" s="20" t="e">
+      <c r="Q11" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N11,BID)-O11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R11" s="20" t="e">
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="R11" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N11,ASK)-P11)</f>
-        <v>#VALUE!</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="S11" s="89" t="s">
         <v>124</v>
@@ -7134,24 +8224,24 @@
         <v>68</v>
       </c>
       <c r="U11" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T11&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M1MD=</v>
       </c>
       <c r="V11" s="20">
         <f>'6M Pricing'!I11*100</f>
-        <v>0.16889999999977756</v>
+        <v>0.16890000000002736</v>
       </c>
       <c r="W11" s="20">
-        <f t="shared" si="2"/>
-        <v>0.16889999999977756</v>
-      </c>
-      <c r="X11" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.16890000000002736</v>
+      </c>
+      <c r="X11" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U11,BID)-V11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y11" s="20" t="e">
+        <v>2.7366997557010109E-14</v>
+      </c>
+      <c r="Y11" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U11,ASK)-W11)</f>
-        <v>#VALUE!</v>
+        <v>2.7366997557010109E-14</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -7187,15 +8277,15 @@
       </c>
       <c r="B12" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G12,Fields,H12:I12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H12:I12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON2MD= at 18:17:37</v>
       </c>
       <c r="C12" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N12,Fields,O12:P12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N12:P12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M2MD= at 18:17:37</v>
       </c>
       <c r="D12" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U12,Fields,V12:W12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U12:W12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M2MD= at 18:17:37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>124</v>
@@ -7204,7 +8294,7 @@
         <v>69</v>
       </c>
       <c r="G12" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F12&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYON2MD=</v>
       </c>
       <c r="H12" s="20">
@@ -7212,16 +8302,16 @@
         <v>6.4999999999978159E-2</v>
       </c>
       <c r="I12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4999999999978159E-2</v>
       </c>
-      <c r="J12" s="20" t="e">
+      <c r="J12" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G12,BID)-H12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" s="20" t="e">
+        <v>2.1843638009499955E-14</v>
+      </c>
+      <c r="K12" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G12,ASK)-I12)</f>
-        <v>#VALUE!</v>
+        <v>2.1843638009499955E-14</v>
       </c>
       <c r="L12" s="89" t="s">
         <v>124</v>
@@ -7230,7 +8320,7 @@
         <v>69</v>
       </c>
       <c r="N12" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M12&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M2MD=</v>
       </c>
       <c r="O12" s="20">
@@ -7238,16 +8328,16 @@
         <v>0.13540000000000774</v>
       </c>
       <c r="P12" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.13540000000000774</v>
       </c>
-      <c r="Q12" s="20" t="e">
+      <c r="Q12" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N12,BID)-O12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R12" s="20" t="e">
+        <v>7.7438055967604669E-15</v>
+      </c>
+      <c r="R12" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N12,ASK)-P12)</f>
-        <v>#VALUE!</v>
+        <v>7.7438055967604669E-15</v>
       </c>
       <c r="S12" s="89" t="s">
         <v>124</v>
@@ -7256,24 +8346,24 @@
         <v>69</v>
       </c>
       <c r="U12" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T12&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M2MD=</v>
       </c>
       <c r="V12" s="20">
         <f>'6M Pricing'!I12*100</f>
-        <v>0.17209999999978273</v>
+        <v>0.17210000000004061</v>
       </c>
       <c r="W12" s="20">
-        <f t="shared" si="2"/>
-        <v>0.17209999999978273</v>
-      </c>
-      <c r="X12" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.17210000000004061</v>
+      </c>
+      <c r="X12" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U12,BID)-V12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y12" s="20" t="e">
+        <v>4.06064071256651E-14</v>
+      </c>
+      <c r="Y12" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U12,ASK)-W12)</f>
-        <v>#VALUE!</v>
+        <v>4.06064071256651E-14</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -7309,15 +8399,15 @@
       </c>
       <c r="B13" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G13,Fields,H13:I13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H13:I13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON3MD= at 18:17:37</v>
       </c>
       <c r="C13" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N13,Fields,O13:P13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N13:P13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M3MD= at 18:17:37</v>
       </c>
       <c r="D13" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U13,Fields,V13:W13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U13:W13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M3MD= at 18:17:37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>124</v>
@@ -7326,7 +8416,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F13&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYON3MD=</v>
       </c>
       <c r="H13" s="20">
@@ -7334,16 +8424,16 @@
         <v>6.2499999999929161E-2</v>
       </c>
       <c r="I13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2499999999929161E-2</v>
       </c>
-      <c r="J13" s="20" t="e">
+      <c r="J13" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G13,BID)-H13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="20" t="e">
+        <v>7.0839167864988895E-14</v>
+      </c>
+      <c r="K13" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G13,ASK)-I13)</f>
-        <v>#VALUE!</v>
+        <v>7.0839167864988895E-14</v>
       </c>
       <c r="L13" s="89" t="s">
         <v>124</v>
@@ -7352,7 +8442,7 @@
         <v>70</v>
       </c>
       <c r="N13" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M13&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M3MD=</v>
       </c>
       <c r="O13" s="20">
@@ -7360,16 +8450,16 @@
         <v>0.13199999996492828</v>
       </c>
       <c r="P13" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.13199999996492828</v>
       </c>
-      <c r="Q13" s="20" t="e">
+      <c r="Q13" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N13,BID)-O13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R13" s="20" t="e">
+        <v>3.507172330330377E-11</v>
+      </c>
+      <c r="R13" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N13,ASK)-P13)</f>
-        <v>#VALUE!</v>
+        <v>3.507172330330377E-11</v>
       </c>
       <c r="S13" s="89" t="s">
         <v>124</v>
@@ -7378,24 +8468,24 @@
         <v>70</v>
       </c>
       <c r="U13" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T13&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M3MD=</v>
       </c>
       <c r="V13" s="20">
         <f>'6M Pricing'!I13*100</f>
-        <v>0.17219999999981092</v>
+        <v>0.1721999999999847</v>
       </c>
       <c r="W13" s="20">
-        <f t="shared" si="2"/>
-        <v>0.17219999999981092</v>
-      </c>
-      <c r="X13" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.1721999999999847</v>
+      </c>
+      <c r="X13" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U13,BID)-V13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y13" s="20" t="e">
+        <v>1.5293322164211531E-14</v>
+      </c>
+      <c r="Y13" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U13,ASK)-W13)</f>
-        <v>#VALUE!</v>
+        <v>1.5293322164211531E-14</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -7431,15 +8521,15 @@
       </c>
       <c r="B14" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G14,Fields,H14:I14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H14:I14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON4MD= at 18:17:37</v>
       </c>
       <c r="C14" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N14,Fields,O14:P14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N14:P14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M1x4F= at 18:17:37</v>
       </c>
       <c r="D14" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U14,Fields,V14:W14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U14:W14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M4MD= at 18:17:37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>124</v>
@@ -7448,7 +8538,7 @@
         <v>71</v>
       </c>
       <c r="G14" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F14&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYON4MD=</v>
       </c>
       <c r="H14" s="20">
@@ -7456,16 +8546,16 @@
         <v>6.2500000000005079E-2</v>
       </c>
       <c r="I14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2500000000005079E-2</v>
       </c>
-      <c r="J14" s="20" t="e">
+      <c r="J14" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G14,BID)-H14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" s="20" t="e">
+        <v>5.0792703376600912E-15</v>
+      </c>
+      <c r="K14" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G14,ASK)-I14)</f>
-        <v>#VALUE!</v>
+        <v>5.0792703376600912E-15</v>
       </c>
       <c r="L14" s="89" t="s">
         <v>124</v>
@@ -7474,7 +8564,7 @@
         <v>105</v>
       </c>
       <c r="N14" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M14&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M1x4F=</v>
       </c>
       <c r="O14" s="20">
@@ -7482,16 +8572,16 @@
         <v>0.1299999999999828</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1299999999999828</v>
       </c>
-      <c r="Q14" s="20" t="e">
+      <c r="Q14" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N14,BID)-O14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R14" s="20" t="e">
+        <v>1.7208456881689926E-14</v>
+      </c>
+      <c r="R14" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N14,ASK)-P14)</f>
-        <v>#VALUE!</v>
+        <v>1.7208456881689926E-14</v>
       </c>
       <c r="S14" s="89" t="s">
         <v>124</v>
@@ -7500,24 +8590,24 @@
         <v>71</v>
       </c>
       <c r="U14" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T14&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M4MD=</v>
       </c>
       <c r="V14" s="20">
         <f>'6M Pricing'!I14*100</f>
-        <v>0.17429999999988205</v>
+        <v>0.17429999999994705</v>
       </c>
       <c r="W14" s="20">
-        <f t="shared" si="2"/>
-        <v>0.17429999999988205</v>
-      </c>
-      <c r="X14" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.17429999999994705</v>
+      </c>
+      <c r="X14" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U14,BID)-V14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y14" s="20" t="e">
+        <v>5.2957638274619967E-14</v>
+      </c>
+      <c r="Y14" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U14,ASK)-W14)</f>
-        <v>#VALUE!</v>
+        <v>5.2957638274619967E-14</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -7553,15 +8643,15 @@
       </c>
       <c r="B15" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G15,Fields,H15:I15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H15:I15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON5MD= at 18:17:37</v>
       </c>
       <c r="C15" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N15,Fields,O15:P15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N15:P15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M2x5F= at 18:17:37</v>
       </c>
       <c r="D15" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U15,Fields,V15:W15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U15:W15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M5MD= at 18:17:37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>124</v>
@@ -7570,7 +8660,7 @@
         <v>72</v>
       </c>
       <c r="G15" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F15&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYON5MD=</v>
       </c>
       <c r="H15" s="20">
@@ -7578,16 +8668,16 @@
         <v>6.2499999999974069E-2</v>
       </c>
       <c r="I15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2499999999974069E-2</v>
       </c>
-      <c r="J15" s="20" t="e">
+      <c r="J15" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G15,BID)-H15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" s="20" t="e">
+        <v>2.5930646518901312E-14</v>
+      </c>
+      <c r="K15" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G15,ASK)-I15)</f>
-        <v>#VALUE!</v>
+        <v>2.5930646518901312E-14</v>
       </c>
       <c r="L15" s="89" t="s">
         <v>124</v>
@@ -7596,7 +8686,7 @@
         <v>106</v>
       </c>
       <c r="N15" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M15&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M2x5F=</v>
       </c>
       <c r="O15" s="20">
@@ -7604,16 +8694,16 @@
         <v>0.12999999999992934</v>
       </c>
       <c r="P15" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12999999999992934</v>
       </c>
-      <c r="Q15" s="20" t="e">
+      <c r="Q15" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N15,BID)-O15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R15" s="20" t="e">
+        <v>7.0665695517391214E-14</v>
+      </c>
+      <c r="R15" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N15,ASK)-P15)</f>
-        <v>#VALUE!</v>
+        <v>7.0665695517391214E-14</v>
       </c>
       <c r="S15" s="89" t="s">
         <v>124</v>
@@ -7622,24 +8712,24 @@
         <v>72</v>
       </c>
       <c r="U15" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T15&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M5MD=</v>
       </c>
       <c r="V15" s="20">
         <f>'6M Pricing'!I15*100</f>
-        <v>0.17589999999997394</v>
+        <v>0.1758999999999217</v>
       </c>
       <c r="W15" s="20">
-        <f t="shared" si="2"/>
-        <v>0.17589999999997394</v>
-      </c>
-      <c r="X15" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.1758999999999217</v>
+      </c>
+      <c r="X15" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U15,BID)-V15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y15" s="20" t="e">
+        <v>7.8298478811689165E-14</v>
+      </c>
+      <c r="Y15" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U15,ASK)-W15)</f>
-        <v>#VALUE!</v>
+        <v>7.8298478811689165E-14</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -7675,15 +8765,15 @@
       </c>
       <c r="B16" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G16,Fields,H16:I16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H16:I16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON6MD= at 18:17:37</v>
       </c>
       <c r="C16" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N16,Fields,O16:P16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N16:P16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M3x6F= at 18:17:37</v>
       </c>
       <c r="D16" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U16,Fields,V16:W16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U16:W16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M6MD= at 18:17:37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>124</v>
@@ -7692,24 +8782,24 @@
         <v>73</v>
       </c>
       <c r="G16" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F16&amp;"="</f>
+        <f t="shared" si="0"/>
         <v>JPYON6MD=</v>
       </c>
       <c r="H16" s="20">
         <f>'ON Pricing'!I16*100</f>
-        <v>5.9999999999975115E-2</v>
+        <v>6.0000000000018455E-2</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="0"/>
-        <v>5.9999999999975115E-2</v>
-      </c>
-      <c r="J16" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>6.0000000000018455E-2</v>
+      </c>
+      <c r="J16" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G16,BID)-H16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" s="20" t="e">
+        <v>1.8457457784393227E-14</v>
+      </c>
+      <c r="K16" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G16,ASK)-I16)</f>
-        <v>#VALUE!</v>
+        <v>1.8457457784393227E-14</v>
       </c>
       <c r="L16" s="89" t="s">
         <v>124</v>
@@ -7718,7 +8808,7 @@
         <v>107</v>
       </c>
       <c r="N16" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M16&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M3x6F=</v>
       </c>
       <c r="O16" s="20">
@@ -7726,16 +8816,16 @@
         <v>0.1299999999613464</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1299999999613464</v>
       </c>
-      <c r="Q16" s="20" t="e">
+      <c r="Q16" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N16,BID)-O16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R16" s="20" t="e">
+        <v>3.8653608092076297E-11</v>
+      </c>
+      <c r="R16" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N16,ASK)-P16)</f>
-        <v>#VALUE!</v>
+        <v>3.8653608092076297E-11</v>
       </c>
       <c r="S16" s="89" t="s">
         <v>124</v>
@@ -7744,24 +8834,24 @@
         <v>73</v>
       </c>
       <c r="U16" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T16&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M6MD=</v>
       </c>
       <c r="V16" s="20">
         <f>'6M Pricing'!I16*100</f>
-        <v>0.17446463617073477</v>
+        <v>0.17446463451507518</v>
       </c>
       <c r="W16" s="20">
-        <f t="shared" si="2"/>
-        <v>0.17446463617073477</v>
-      </c>
-      <c r="X16" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.17446463451507518</v>
+      </c>
+      <c r="X16" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U16,BID)-V16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y16" s="20" t="e">
+        <v>4.8492482251916158E-10</v>
+      </c>
+      <c r="Y16" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U16,ASK)-W16)</f>
-        <v>#VALUE!</v>
+        <v>4.8492482251916158E-10</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -7798,11 +8888,11 @@
       <c r="B17" s="44"/>
       <c r="C17" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N17,Fields,O17:P17,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N17:P17,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M4x7F= at 18:17:37</v>
       </c>
       <c r="D17" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U17,Fields,V17:W17,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U17:W17,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M1x7F= at 18:17:37</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>124</v>
@@ -7820,24 +8910,24 @@
         <v>108</v>
       </c>
       <c r="N17" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M17&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M4x7F=</v>
       </c>
       <c r="O17" s="20">
         <f>'3M Pricing'!I17*100</f>
-        <v>0.13000000000302384</v>
+        <v>0.1300000000019812</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="1"/>
-        <v>0.13000000000302384</v>
-      </c>
-      <c r="Q17" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.1300000000019812</v>
+      </c>
+      <c r="Q17" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N17,BID)-O17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R17" s="20" t="e">
+        <v>1.9811929874435918E-12</v>
+      </c>
+      <c r="R17" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N17,ASK)-P17)</f>
-        <v>#VALUE!</v>
+        <v>1.9811929874435918E-12</v>
       </c>
       <c r="S17" s="89" t="s">
         <v>124</v>
@@ -7846,7 +8936,7 @@
         <v>109</v>
       </c>
       <c r="U17" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T17&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M1x7F=</v>
       </c>
       <c r="V17" s="20">
@@ -7854,16 +8944,16 @@
         <v>0.17499999999999064</v>
       </c>
       <c r="W17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17499999999999064</v>
       </c>
-      <c r="X17" s="20" t="e">
+      <c r="X17" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U17,BID)-V17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y17" s="20" t="e">
+        <v>9.3536289824669439E-15</v>
+      </c>
+      <c r="Y17" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U17,ASK)-W17)</f>
-        <v>#VALUE!</v>
+        <v>9.3536289824669439E-15</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -7902,11 +8992,11 @@
       </c>
       <c r="C18" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N18,Fields,O18:P18,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N18:P18,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M5x8F= at 18:17:37</v>
       </c>
       <c r="D18" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U18,Fields,V18:W18,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U18:W18,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M2x8F= at 18:17:37</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>124</v>
@@ -7924,24 +9014,24 @@
         <v>110</v>
       </c>
       <c r="N18" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M18&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M5x8F=</v>
       </c>
       <c r="O18" s="20">
         <f>'3M Pricing'!I18*100</f>
-        <v>0.1300000000000523</v>
+        <v>0.12999999999996348</v>
       </c>
       <c r="P18" s="20">
-        <f t="shared" si="1"/>
-        <v>0.1300000000000523</v>
-      </c>
-      <c r="Q18" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.12999999999996348</v>
+      </c>
+      <c r="Q18" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N18,BID)-O18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R18" s="20" t="e">
+        <v>3.652633751016765E-14</v>
+      </c>
+      <c r="R18" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N18,ASK)-P18)</f>
-        <v>#VALUE!</v>
+        <v>3.652633751016765E-14</v>
       </c>
       <c r="S18" s="89" t="s">
         <v>124</v>
@@ -7950,24 +9040,24 @@
         <v>111</v>
       </c>
       <c r="U18" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T18&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M2x8F=</v>
       </c>
       <c r="V18" s="20">
         <f>'6M Pricing'!I18*100</f>
-        <v>0.17499999999992091</v>
+        <v>0.1749999999999651</v>
       </c>
       <c r="W18" s="20">
-        <f t="shared" si="2"/>
-        <v>0.17499999999992091</v>
-      </c>
-      <c r="X18" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.1749999999999651</v>
+      </c>
+      <c r="X18" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U18,BID)-V18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y18" s="20" t="e">
+        <v>3.4888758548845544E-14</v>
+      </c>
+      <c r="Y18" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U18,ASK)-W18)</f>
-        <v>#VALUE!</v>
+        <v>3.4888758548845544E-14</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -8003,15 +9093,15 @@
       </c>
       <c r="B19" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G19,Fields,H19:I19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H19:I19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON9MD= at 18:17:37</v>
       </c>
       <c r="C19" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N19,Fields,O19:P19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N19:P19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M6x9F= at 18:17:37</v>
       </c>
       <c r="D19" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U19,Fields,V19:W19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U19:W19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M3x9F= at 18:17:37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>124</v>
@@ -8025,19 +9115,19 @@
       </c>
       <c r="H19" s="20">
         <f>'ON Pricing'!I19*100</f>
-        <v>5.999999999999598E-2</v>
+        <v>5.9999999999995973E-2</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" si="0"/>
-        <v>5.999999999999598E-2</v>
-      </c>
-      <c r="J19" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>5.9999999999995973E-2</v>
+      </c>
+      <c r="J19" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G19,BID)-H19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" s="20" t="e">
+        <v>4.0245584642661925E-15</v>
+      </c>
+      <c r="K19" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G19,ASK)-I19)</f>
-        <v>#VALUE!</v>
+        <v>4.0245584642661925E-15</v>
       </c>
       <c r="L19" s="89" t="s">
         <v>124</v>
@@ -8046,7 +9136,7 @@
         <v>112</v>
       </c>
       <c r="N19" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M19&amp;"="</f>
+        <f t="shared" si="1"/>
         <v>JPY3M6x9F=</v>
       </c>
       <c r="O19" s="20">
@@ -8054,16 +9144,16 @@
         <v>0.12499999995911892</v>
       </c>
       <c r="P19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12499999995911892</v>
       </c>
-      <c r="Q19" s="20" t="e">
+      <c r="Q19" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N19,BID)-O19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R19" s="20" t="e">
+        <v>4.0881076301957364E-11</v>
+      </c>
+      <c r="R19" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N19,ASK)-P19)</f>
-        <v>#VALUE!</v>
+        <v>4.0881076301957364E-11</v>
       </c>
       <c r="S19" s="89" t="s">
         <v>124</v>
@@ -8072,24 +9162,24 @@
         <v>113</v>
       </c>
       <c r="U19" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T19&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M3x9F=</v>
       </c>
       <c r="V19" s="20">
         <f>'6M Pricing'!I19*100</f>
-        <v>0.17499999999989474</v>
+        <v>0.17499999999998256</v>
       </c>
       <c r="W19" s="20">
-        <f t="shared" si="2"/>
-        <v>0.17499999999989474</v>
-      </c>
-      <c r="X19" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.17499999999998256</v>
+      </c>
+      <c r="X19" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U19,BID)-V19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y19" s="20" t="e">
+        <v>1.7430501486614958E-14</v>
+      </c>
+      <c r="Y19" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U19,ASK)-W19)</f>
-        <v>#VALUE!</v>
+        <v>1.7430501486614958E-14</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -8131,7 +9221,7 @@
       </c>
       <c r="D20" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U20,Fields,V20:W20,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U20:W20,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M4x10F= at 18:17:37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>124</v>
@@ -8158,7 +9248,7 @@
         <v>114</v>
       </c>
       <c r="U20" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T20&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M4x10F=</v>
       </c>
       <c r="V20" s="20">
@@ -8166,16 +9256,16 @@
         <v>0.16999999999992785</v>
       </c>
       <c r="W20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16999999999992785</v>
       </c>
-      <c r="X20" s="20" t="e">
+      <c r="X20" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U20,BID)-V20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y20" s="20" t="e">
+        <v>7.2164496600635175E-14</v>
+      </c>
+      <c r="Y20" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U20,ASK)-W20)</f>
-        <v>#VALUE!</v>
+        <v>7.2164496600635175E-14</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -8217,7 +9307,7 @@
       </c>
       <c r="D21" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U21,Fields,V21:W21,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U21:W21,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M5x11F= at 18:17:37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>124</v>
@@ -8244,7 +9334,7 @@
         <v>115</v>
       </c>
       <c r="U21" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T21&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M5x11F=</v>
       </c>
       <c r="V21" s="20">
@@ -8252,16 +9342,16 @@
         <v>0.16999999999997176</v>
       </c>
       <c r="W21" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16999999999997176</v>
       </c>
-      <c r="X21" s="20" t="e">
+      <c r="X21" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U21,BID)-V21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y21" s="20" t="e">
+        <v>2.8255175976710234E-14</v>
+      </c>
+      <c r="Y21" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U21,ASK)-W21)</f>
-        <v>#VALUE!</v>
+        <v>2.8255175976710234E-14</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -8297,15 +9387,15 @@
       </c>
       <c r="B22" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G22,Fields,H22:I22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H22:I22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON1YD= at 18:17:37</v>
       </c>
       <c r="C22" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N22,Fields,O22:P22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N22:P22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M9x12F= at 18:17:37</v>
       </c>
       <c r="D22" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U22,Fields,V22:W22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U22:W22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M6x12F= at 18:17:37</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>124</v>
@@ -8319,19 +9409,19 @@
       </c>
       <c r="H22" s="20">
         <f>'ON Pricing'!I22*100</f>
-        <v>5.9999999999993392E-2</v>
+        <v>6.0000000000015596E-2</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" si="0"/>
-        <v>5.9999999999993392E-2</v>
-      </c>
-      <c r="J22" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>6.0000000000015596E-2</v>
+      </c>
+      <c r="J22" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G22,BID)-H22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" s="20" t="e">
+        <v>1.5598633495983449E-14</v>
+      </c>
+      <c r="K22" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G22,ASK)-I22)</f>
-        <v>#VALUE!</v>
+        <v>1.5598633495983449E-14</v>
       </c>
       <c r="L22" s="89" t="s">
         <v>124</v>
@@ -8340,24 +9430,24 @@
         <v>116</v>
       </c>
       <c r="N22" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M22&amp;"="</f>
+        <f t="shared" ref="N22:N38" si="6">Currency&amp;"3M"&amp;M22&amp;"="</f>
         <v>JPY3M9x12F=</v>
       </c>
       <c r="O22" s="20">
         <f>'3M Pricing'!I22*100</f>
-        <v>0.12000000014827257</v>
+        <v>0.12000000000386062</v>
       </c>
       <c r="P22" s="20">
-        <f t="shared" si="1"/>
-        <v>0.12000000014827257</v>
-      </c>
-      <c r="Q22" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.12000000000386062</v>
+      </c>
+      <c r="Q22" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N22,BID)-O22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R22" s="20" t="e">
+        <v>3.8606201568924803E-12</v>
+      </c>
+      <c r="R22" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N22,ASK)-P22)</f>
-        <v>#VALUE!</v>
+        <v>3.8606201568924803E-12</v>
       </c>
       <c r="S22" s="89" t="s">
         <v>124</v>
@@ -8366,24 +9456,24 @@
         <v>117</v>
       </c>
       <c r="U22" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T22&amp;"="</f>
+        <f t="shared" si="2"/>
         <v>JPY6M6x12F=</v>
       </c>
       <c r="V22" s="20">
         <f>'6M Pricing'!I22*100</f>
-        <v>0.16500000001785206</v>
+        <v>0.16500000013899271</v>
       </c>
       <c r="W22" s="20">
-        <f t="shared" si="2"/>
-        <v>0.16500000001785206</v>
-      </c>
-      <c r="X22" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.16500000013899271</v>
+      </c>
+      <c r="X22" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U22,BID)-V22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y22" s="20" t="e">
+        <v>1.3899270623340954E-10</v>
+      </c>
+      <c r="Y22" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U22,ASK)-W22)</f>
-        <v>#VALUE!</v>
+        <v>1.3899270623340954E-10</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -8422,7 +9512,7 @@
       </c>
       <c r="C23" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N23,Fields,O23:P23,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N23:P23,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M12x15F= at 18:17:37</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>124</v>
@@ -8443,24 +9533,24 @@
         <v>118</v>
       </c>
       <c r="N23" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M23&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M12x15F=</v>
       </c>
       <c r="O23" s="20">
         <f>'3M Pricing'!I23*100</f>
-        <v>0.11500000018870829</v>
+        <v>0.11500000000005919</v>
       </c>
       <c r="P23" s="20">
-        <f t="shared" si="1"/>
-        <v>0.11500000018870829</v>
-      </c>
-      <c r="Q23" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.11500000000005919</v>
+      </c>
+      <c r="Q23" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N23,BID)-O23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R23" s="20" t="e">
+        <v>5.9188765000328658E-14</v>
+      </c>
+      <c r="R23" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N23,ASK)-P23)</f>
-        <v>#VALUE!</v>
+        <v>5.9188765000328658E-14</v>
       </c>
       <c r="S23" s="89" t="s">
         <v>124</v>
@@ -8505,15 +9595,15 @@
       </c>
       <c r="B24" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G24,Fields,H24:I24,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H24:I24,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON1Y6MD= at 18:17:37</v>
       </c>
       <c r="C24" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N24,Fields,O24:P24,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N24:P24,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M18M= at 18:17:37</v>
       </c>
       <c r="D24" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U24,Fields,V24:W24,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U24:W24,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M18M= at 18:17:37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>124</v>
@@ -8522,7 +9612,7 @@
         <v>123</v>
       </c>
       <c r="G24" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F24&amp;"="</f>
+        <f t="shared" ref="G24:G38" si="7">Currency&amp;"ON"&amp;F24&amp;"="</f>
         <v>JPYON1Y6MD=</v>
       </c>
       <c r="H24" s="20">
@@ -8530,16 +9620,16 @@
         <v>5.999999999999675E-2</v>
       </c>
       <c r="I24" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.999999999999675E-2</v>
       </c>
-      <c r="J24" s="20" t="e">
+      <c r="J24" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G24,BID)-H24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" s="20" t="e">
+        <v>3.2474023470285829E-15</v>
+      </c>
+      <c r="K24" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G24,ASK)-I24)</f>
-        <v>#VALUE!</v>
+        <v>3.2474023470285829E-15</v>
       </c>
       <c r="L24" s="89" t="s">
         <v>124</v>
@@ -8548,24 +9638,24 @@
         <v>119</v>
       </c>
       <c r="N24" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M24&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M18M=</v>
       </c>
       <c r="O24" s="20">
         <f>'3M Pricing'!I24*100</f>
-        <v>0.12358658528460789</v>
+        <v>0.12373284262500646</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="1"/>
-        <v>0.12358658528460789</v>
-      </c>
-      <c r="Q24" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.12373284262500646</v>
+      </c>
+      <c r="Q24" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N24,BID)-O24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R24" s="20" t="e">
+        <v>3.7499353622294507E-10</v>
+      </c>
+      <c r="R24" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N24,ASK)-P24)</f>
-        <v>#VALUE!</v>
+        <v>3.7499353622294507E-10</v>
       </c>
       <c r="S24" s="89" t="s">
         <v>124</v>
@@ -8574,24 +9664,24 @@
         <v>119</v>
       </c>
       <c r="U24" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T24&amp;"="</f>
+        <f t="shared" ref="U24:U38" si="8">Currency&amp;"6M"&amp;T24&amp;"="</f>
         <v>JPY6M18M=</v>
       </c>
       <c r="V24" s="20">
         <f>'6M Pricing'!I24*100</f>
-        <v>0.16968014667409803</v>
+        <v>0.16966645370560388</v>
       </c>
       <c r="W24" s="20">
-        <f t="shared" si="2"/>
-        <v>0.16968014667409803</v>
-      </c>
-      <c r="X24" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.16966645370560388</v>
+      </c>
+      <c r="X24" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U24,BID)-V24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y24" s="20" t="e">
+        <v>2.9439611859416459E-10</v>
+      </c>
+      <c r="Y24" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U24,ASK)-W24)</f>
-        <v>#VALUE!</v>
+        <v>2.9439611859416459E-10</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -8627,15 +9717,15 @@
       </c>
       <c r="B25" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G25,Fields,H25:I25,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H25:I25,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON2YD= at 18:17:37</v>
       </c>
       <c r="C25" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N25,Fields,O25:P25,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N25:P25,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M2Y= at 18:17:37</v>
       </c>
       <c r="D25" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U25,Fields,V25:W25,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U25:W25,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M2Y= at 18:17:37</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>124</v>
@@ -8644,24 +9734,24 @@
         <v>76</v>
       </c>
       <c r="G25" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F25&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON2YD=</v>
       </c>
       <c r="H25" s="20">
         <f>'ON Pricing'!I25*100</f>
-        <v>6.0000000000001164E-2</v>
+        <v>6.0000000000001177E-2</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" si="0"/>
-        <v>6.0000000000001164E-2</v>
-      </c>
-      <c r="J25" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>6.0000000000001177E-2</v>
+      </c>
+      <c r="J25" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G25,BID)-H25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K25" s="20" t="e">
+        <v>1.1796119636642288E-15</v>
+      </c>
+      <c r="K25" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G25,ASK)-I25)</f>
-        <v>#VALUE!</v>
+        <v>1.1796119636642288E-15</v>
       </c>
       <c r="L25" s="89" t="s">
         <v>124</v>
@@ -8670,24 +9760,24 @@
         <v>40</v>
       </c>
       <c r="N25" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M25&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M2Y=</v>
       </c>
       <c r="O25" s="20">
         <f>'3M Pricing'!I25*100</f>
-        <v>0.12183665977081437</v>
+        <v>0.12183665964504767</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" si="1"/>
-        <v>0.12183665977081437</v>
-      </c>
-      <c r="Q25" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.12183665964504767</v>
+      </c>
+      <c r="Q25" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N25,BID)-O25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R25" s="20" t="e">
+        <v>3.5495233141613625E-10</v>
+      </c>
+      <c r="R25" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N25,ASK)-P25)</f>
-        <v>#VALUE!</v>
+        <v>3.5495233141613625E-10</v>
       </c>
       <c r="S25" s="89" t="s">
         <v>124</v>
@@ -8696,24 +9786,24 @@
         <v>40</v>
       </c>
       <c r="U25" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T25&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M2Y=</v>
       </c>
       <c r="V25" s="20">
         <f>'6M Pricing'!I25*100</f>
-        <v>0.16999996987381608</v>
+        <v>0.16998517187517026</v>
       </c>
       <c r="W25" s="20">
-        <f t="shared" si="2"/>
-        <v>0.16999996987381608</v>
-      </c>
-      <c r="X25" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.16998517187517026</v>
+      </c>
+      <c r="X25" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U25,BID)-V25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y25" s="20" t="e">
+        <v>1.2482972988614449E-10</v>
+      </c>
+      <c r="Y25" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U25,ASK)-W25)</f>
-        <v>#VALUE!</v>
+        <v>1.2482972988614449E-10</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -8749,15 +9839,15 @@
       </c>
       <c r="B26" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G26,Fields,H26:I26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H26:I26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON3YD= at 18:17:37</v>
       </c>
       <c r="C26" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N26,Fields,O26:P26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N26:P26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M3Y= at 18:17:37</v>
       </c>
       <c r="D26" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U26,Fields,V26:W26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U26:W26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M3Y= at 18:17:37</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>124</v>
@@ -8766,7 +9856,7 @@
         <v>77</v>
       </c>
       <c r="G26" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F26&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON3YD=</v>
       </c>
       <c r="H26" s="20">
@@ -8774,16 +9864,16 @@
         <v>6.7499999999989305E-2</v>
       </c>
       <c r="I26" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.7499999999989305E-2</v>
       </c>
-      <c r="J26" s="20" t="e">
+      <c r="J26" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G26,BID)-H26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" s="20" t="e">
+        <v>1.0699774399824946E-14</v>
+      </c>
+      <c r="K26" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G26,ASK)-I26)</f>
-        <v>#VALUE!</v>
+        <v>1.0699774399824946E-14</v>
       </c>
       <c r="L26" s="89" t="s">
         <v>124</v>
@@ -8792,24 +9882,24 @@
         <v>41</v>
       </c>
       <c r="N26" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M26&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M3Y=</v>
       </c>
       <c r="O26" s="20">
         <f>'3M Pricing'!I26*100</f>
-        <v>0.12173133573195165</v>
+        <v>0.12173133571816933</v>
       </c>
       <c r="P26" s="20">
-        <f t="shared" si="1"/>
-        <v>0.12173133573195165</v>
-      </c>
-      <c r="Q26" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.12173133571816933</v>
+      </c>
+      <c r="Q26" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N26,BID)-O26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R26" s="20" t="e">
+        <v>2.818306699126083E-10</v>
+      </c>
+      <c r="R26" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N26,ASK)-P26)</f>
-        <v>#VALUE!</v>
+        <v>2.818306699126083E-10</v>
       </c>
       <c r="S26" s="89" t="s">
         <v>124</v>
@@ -8818,24 +9908,24 @@
         <v>41</v>
       </c>
       <c r="U26" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T26&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M3Y=</v>
       </c>
       <c r="V26" s="20">
         <f>'6M Pricing'!I26*100</f>
-        <v>0.17749997986771932</v>
+        <v>0.17749009309943534</v>
       </c>
       <c r="W26" s="20">
-        <f t="shared" si="2"/>
-        <v>0.17749997986771932</v>
-      </c>
-      <c r="X26" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.17749009309943534</v>
+      </c>
+      <c r="X26" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U26,BID)-V26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y26" s="20" t="e">
+        <v>9.9435348843712745E-11</v>
+      </c>
+      <c r="Y26" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U26,ASK)-W26)</f>
-        <v>#VALUE!</v>
+        <v>9.9435348843712745E-11</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -8871,15 +9961,15 @@
       </c>
       <c r="B27" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G27,Fields,H27:I27,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H27:I27,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON4YD= at 18:17:37</v>
       </c>
       <c r="C27" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N27,Fields,O27:P27,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N27:P27,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M4Y= at 18:17:37</v>
       </c>
       <c r="D27" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U27,Fields,V27:W27,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U27:W27,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M4Y= at 18:17:37</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>124</v>
@@ -8888,24 +9978,24 @@
         <v>78</v>
       </c>
       <c r="G27" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F27&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON4YD=</v>
       </c>
       <c r="H27" s="20">
         <f>'ON Pricing'!I27*100</f>
-        <v>7.7499999999996058E-2</v>
+        <v>7.7499999999996072E-2</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" si="0"/>
-        <v>7.7499999999996058E-2</v>
-      </c>
-      <c r="J27" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>7.7499999999996072E-2</v>
+      </c>
+      <c r="J27" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G27,BID)-H27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" s="20" t="e">
+        <v>3.9274139496114913E-15</v>
+      </c>
+      <c r="K27" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G27,ASK)-I27)</f>
-        <v>#VALUE!</v>
+        <v>3.9274139496114913E-15</v>
       </c>
       <c r="L27" s="89" t="s">
         <v>124</v>
@@ -8914,24 +10004,24 @@
         <v>42</v>
       </c>
       <c r="N27" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M27&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M4Y=</v>
       </c>
       <c r="O27" s="20">
         <f>'3M Pricing'!I27*100</f>
-        <v>0.14159066105381071</v>
+        <v>0.1415906610168787</v>
       </c>
       <c r="P27" s="20">
-        <f t="shared" si="1"/>
-        <v>0.14159066105381071</v>
-      </c>
-      <c r="Q27" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.1415906610168787</v>
+      </c>
+      <c r="Q27" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N27,BID)-O27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R27" s="20" t="e">
+        <v>1.6878692887800639E-11</v>
+      </c>
+      <c r="R27" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N27,ASK)-P27)</f>
-        <v>#VALUE!</v>
+        <v>1.6878692887800639E-11</v>
       </c>
       <c r="S27" s="89" t="s">
         <v>124</v>
@@ -8940,24 +10030,24 @@
         <v>42</v>
       </c>
       <c r="U27" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T27&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M4Y=</v>
       </c>
       <c r="V27" s="20">
         <f>'6M Pricing'!I27*100</f>
-        <v>0.20749998489120858</v>
+        <v>0.20749256497035723</v>
       </c>
       <c r="W27" s="20">
-        <f t="shared" si="2"/>
-        <v>0.20749998489120858</v>
-      </c>
-      <c r="X27" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.20749256497035723</v>
+      </c>
+      <c r="X27" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U27,BID)-V27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y27" s="20" t="e">
+        <v>2.964276046846237E-11</v>
+      </c>
+      <c r="Y27" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U27,ASK)-W27)</f>
-        <v>#VALUE!</v>
+        <v>2.964276046846237E-11</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -8993,15 +10083,15 @@
       </c>
       <c r="B28" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G28,Fields,H28:I28,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H28:I28,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON5YD= at 18:17:37</v>
       </c>
       <c r="C28" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N28,Fields,O28:P28,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N28:P28,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M5Y= at 18:17:37</v>
       </c>
       <c r="D28" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U28,Fields,V28:W28,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U28:W28,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M5Y= at 18:17:37</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>124</v>
@@ -9010,7 +10100,7 @@
         <v>79</v>
       </c>
       <c r="G28" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F28&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON5YD=</v>
       </c>
       <c r="H28" s="20">
@@ -9018,16 +10108,16 @@
         <v>0.10250000000000181</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.10250000000000181</v>
       </c>
-      <c r="J28" s="20" t="e">
+      <c r="J28" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G28,BID)-H28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="20" t="e">
+        <v>1.8179902028236938E-15</v>
+      </c>
+      <c r="K28" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G28,ASK)-I28)</f>
-        <v>#VALUE!</v>
+        <v>1.8179902028236938E-15</v>
       </c>
       <c r="L28" s="89" t="s">
         <v>124</v>
@@ -9036,24 +10126,24 @@
         <v>43</v>
       </c>
       <c r="N28" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M28&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M5Y=</v>
       </c>
       <c r="O28" s="20">
         <f>'3M Pricing'!I28*100</f>
-        <v>0.18144808414258465</v>
+        <v>0.18144808412981092</v>
       </c>
       <c r="P28" s="20">
-        <f t="shared" si="1"/>
-        <v>0.18144808414258465</v>
-      </c>
-      <c r="Q28" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.18144808412981092</v>
+      </c>
+      <c r="Q28" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N28,BID)-O28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R28" s="20" t="e">
+        <v>1.2981091201957895E-10</v>
+      </c>
+      <c r="R28" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N28,ASK)-P28)</f>
-        <v>#VALUE!</v>
+        <v>1.2981091201957895E-10</v>
       </c>
       <c r="S28" s="89" t="s">
         <v>124</v>
@@ -9062,24 +10152,24 @@
         <v>43</v>
       </c>
       <c r="U28" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T28&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M5Y=</v>
       </c>
       <c r="V28" s="20">
         <f>'6M Pricing'!I28*100</f>
-        <v>0.25749998789548822</v>
+        <v>0.2574940475940331</v>
       </c>
       <c r="W28" s="20">
-        <f t="shared" si="2"/>
-        <v>0.25749998789548822</v>
-      </c>
-      <c r="X28" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.2574940475940331</v>
+      </c>
+      <c r="X28" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U28,BID)-V28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y28" s="20" t="e">
+        <v>4.0596687123084507E-10</v>
+      </c>
+      <c r="Y28" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U28,ASK)-W28)</f>
-        <v>#VALUE!</v>
+        <v>4.0596687123084507E-10</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -9115,15 +10205,15 @@
       </c>
       <c r="B29" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G29,Fields,H29:I29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H29:I29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON6YD= at 18:17:37</v>
       </c>
       <c r="C29" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N29,Fields,O29:P29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N29:P29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M6Y= at 18:17:37</v>
       </c>
       <c r="D29" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U29,Fields,V29:W29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U29:W29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M6Y= at 18:17:37</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>124</v>
@@ -9132,7 +10222,7 @@
         <v>80</v>
       </c>
       <c r="G29" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F29&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON6YD=</v>
       </c>
       <c r="H29" s="20">
@@ -9140,16 +10230,16 @@
         <v>0.14999999999999464</v>
       </c>
       <c r="I29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.14999999999999464</v>
       </c>
-      <c r="J29" s="20" t="e">
+      <c r="J29" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G29,BID)-H29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="20" t="e">
+        <v>5.3568260938163803E-15</v>
+      </c>
+      <c r="K29" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G29,ASK)-I29)</f>
-        <v>#VALUE!</v>
+        <v>5.3568260938163803E-15</v>
       </c>
       <c r="L29" s="89" t="s">
         <v>124</v>
@@ -9158,24 +10248,24 @@
         <v>44</v>
       </c>
       <c r="N29" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M29&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M6Y=</v>
       </c>
       <c r="O29" s="20">
         <f>'3M Pricing'!I29*100</f>
-        <v>0.24130235795598526</v>
+        <v>0.2413023579473815</v>
       </c>
       <c r="P29" s="20">
-        <f t="shared" si="1"/>
-        <v>0.24130235795598526</v>
-      </c>
-      <c r="Q29" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.2413023579473815</v>
+      </c>
+      <c r="Q29" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N29,BID)-O29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R29" s="20" t="e">
+        <v>5.2618492896172597E-11</v>
+      </c>
+      <c r="R29" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N29,ASK)-P29)</f>
-        <v>#VALUE!</v>
+        <v>5.2618492896172597E-11</v>
       </c>
       <c r="S29" s="89" t="s">
         <v>124</v>
@@ -9184,24 +10274,24 @@
         <v>44</v>
       </c>
       <c r="U29" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T29&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M6Y=</v>
       </c>
       <c r="V29" s="20">
         <f>'6M Pricing'!I29*100</f>
-        <v>0.32749998991199558</v>
+        <v>0.32749503667469687</v>
       </c>
       <c r="W29" s="20">
-        <f t="shared" si="2"/>
-        <v>0.32749998991199558</v>
-      </c>
-      <c r="X29" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.32749503667469687</v>
+      </c>
+      <c r="X29" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U29,BID)-V29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y29" s="20" t="e">
+        <v>3.2530311777634324E-10</v>
+      </c>
+      <c r="Y29" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U29,ASK)-W29)</f>
-        <v>#VALUE!</v>
+        <v>3.2530311777634324E-10</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -9237,15 +10327,15 @@
       </c>
       <c r="B30" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G30,Fields,H30:I30,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H30:I30,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON7YD= at 18:17:37</v>
       </c>
       <c r="C30" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N30,Fields,O30:P30,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N30:P30,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M7Y= at 18:17:37</v>
       </c>
       <c r="D30" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U30,Fields,V30:W30,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U30:W30,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M7Y= at 18:17:37</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>124</v>
@@ -9254,7 +10344,7 @@
         <v>81</v>
       </c>
       <c r="G30" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F30&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON7YD=</v>
       </c>
       <c r="H30" s="20">
@@ -9262,16 +10352,16 @@
         <v>0.21749999999999989</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.21749999999999989</v>
       </c>
-      <c r="J30" s="20" t="e">
+      <c r="J30" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G30,BID)-H30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="20" t="e">
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="K30" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G30,ASK)-I30)</f>
-        <v>#VALUE!</v>
+        <v>1.1102230246251565E-16</v>
       </c>
       <c r="L30" s="89" t="s">
         <v>124</v>
@@ -9280,24 +10370,24 @@
         <v>45</v>
       </c>
       <c r="N30" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M30&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M7Y=</v>
       </c>
       <c r="O30" s="20">
         <f>'3M Pricing'!I30*100</f>
-        <v>0.31868819728672537</v>
+        <v>0.31868819726952768</v>
       </c>
       <c r="P30" s="20">
-        <f t="shared" si="1"/>
-        <v>0.31868819728672537</v>
-      </c>
-      <c r="Q30" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.31868819726952768</v>
+      </c>
+      <c r="Q30" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N30,BID)-O30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R30" s="20" t="e">
+        <v>2.695276779540734E-10</v>
+      </c>
+      <c r="R30" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N30,ASK)-P30)</f>
-        <v>#VALUE!</v>
+        <v>2.695276779540734E-10</v>
       </c>
       <c r="S30" s="89" t="s">
         <v>124</v>
@@ -9306,24 +10396,24 @@
         <v>45</v>
       </c>
       <c r="U30" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T30&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M7Y=</v>
       </c>
       <c r="V30" s="20">
         <f>'6M Pricing'!I30*100</f>
-        <v>0.41249994687752711</v>
+        <v>0.4124956976756608</v>
       </c>
       <c r="W30" s="20">
-        <f t="shared" si="2"/>
-        <v>0.41249994687752711</v>
-      </c>
-      <c r="X30" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.4124956976756608</v>
+      </c>
+      <c r="X30" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U30,BID)-V30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y30" s="20" t="e">
+        <v>3.2433922214636368E-10</v>
+      </c>
+      <c r="Y30" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U30,ASK)-W30)</f>
-        <v>#VALUE!</v>
+        <v>3.2433922214636368E-10</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -9359,15 +10449,15 @@
       </c>
       <c r="B31" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G31,Fields,H31:I31,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H31:I31,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON8YD= at 18:17:37</v>
       </c>
       <c r="C31" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N31,Fields,O31:P31,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N31:P31,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M8Y= at 18:17:37</v>
       </c>
       <c r="D31" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U31,Fields,V31:W31,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U31:W31,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M8Y= at 18:17:37</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>124</v>
@@ -9376,7 +10466,7 @@
         <v>82</v>
       </c>
       <c r="G31" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F31&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON8YD=</v>
       </c>
       <c r="H31" s="20">
@@ -9384,16 +10474,16 @@
         <v>0.30249999999999322</v>
       </c>
       <c r="I31" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.30249999999999322</v>
       </c>
-      <c r="J31" s="20" t="e">
+      <c r="J31" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G31,BID)-H31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="20" t="e">
+        <v>6.7723604502134549E-15</v>
+      </c>
+      <c r="K31" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G31,ASK)-I31)</f>
-        <v>#VALUE!</v>
+        <v>6.7723604502134549E-15</v>
       </c>
       <c r="L31" s="89" t="s">
         <v>124</v>
@@ -9402,24 +10492,24 @@
         <v>46</v>
       </c>
       <c r="N31" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M31&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M8Y=</v>
       </c>
       <c r="O31" s="20">
         <f>'3M Pricing'!I31*100</f>
-        <v>0.40107124964799618</v>
+        <v>0.40107124963320168</v>
       </c>
       <c r="P31" s="20">
-        <f t="shared" si="1"/>
-        <v>0.40107124964799618</v>
-      </c>
-      <c r="Q31" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.40107124963320168</v>
+      </c>
+      <c r="Q31" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N31,BID)-O31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R31" s="20" t="e">
+        <v>3.6679831394437201E-10</v>
+      </c>
+      <c r="R31" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N31,ASK)-P31)</f>
-        <v>#VALUE!</v>
+        <v>3.6679831394437201E-10</v>
       </c>
       <c r="S31" s="89" t="s">
         <v>124</v>
@@ -9428,24 +10518,24 @@
         <v>46</v>
       </c>
       <c r="U31" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T31&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M8Y=</v>
       </c>
       <c r="V31" s="20">
         <f>'6M Pricing'!I31*100</f>
-        <v>0.50250012316455772</v>
+        <v>0.50249639507925481</v>
       </c>
       <c r="W31" s="20">
-        <f t="shared" si="2"/>
-        <v>0.50250012316455772</v>
-      </c>
-      <c r="X31" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.50249639507925481</v>
+      </c>
+      <c r="X31" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U31,BID)-V31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y31" s="20" t="e">
+        <v>7.9254824925101275E-11</v>
+      </c>
+      <c r="Y31" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U31,ASK)-W31)</f>
-        <v>#VALUE!</v>
+        <v>7.9254824925101275E-11</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
@@ -9481,15 +10571,15 @@
       </c>
       <c r="B32" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G32,Fields,H32:I32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H32:I32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON9YD= at 18:17:37</v>
       </c>
       <c r="C32" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N32,Fields,O32:P32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N32:P32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M9Y= at 18:17:37</v>
       </c>
       <c r="D32" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U32,Fields,V32:W32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U32:W32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M9Y= at 18:17:37</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>124</v>
@@ -9498,7 +10588,7 @@
         <v>83</v>
       </c>
       <c r="G32" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F32&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON9YD=</v>
       </c>
       <c r="H32" s="20">
@@ -9506,16 +10596,16 @@
         <v>0.35999999999999888</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.35999999999999888</v>
       </c>
-      <c r="J32" s="20" t="e">
+      <c r="J32" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G32,BID)-H32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="20" t="e">
+        <v>1.1102230246251565E-15</v>
+      </c>
+      <c r="K32" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G32,ASK)-I32)</f>
-        <v>#VALUE!</v>
+        <v>1.1102230246251565E-15</v>
       </c>
       <c r="L32" s="89" t="s">
         <v>124</v>
@@ -9524,24 +10614,24 @@
         <v>47</v>
       </c>
       <c r="N32" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M32&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M9Y=</v>
       </c>
       <c r="O32" s="20">
         <f>'3M Pricing'!I32*100</f>
-        <v>0.48592052592433049</v>
+        <v>0.48592052590892165</v>
       </c>
       <c r="P32" s="20">
-        <f t="shared" si="1"/>
-        <v>0.48592052592433049</v>
-      </c>
-      <c r="Q32" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.48592052590892165</v>
+      </c>
+      <c r="Q32" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N32,BID)-O32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R32" s="20" t="e">
+        <v>9.1078367070451804E-11</v>
+      </c>
+      <c r="R32" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N32,ASK)-P32)</f>
-        <v>#VALUE!</v>
+        <v>9.1078367070451804E-11</v>
       </c>
       <c r="S32" s="89" t="s">
         <v>124</v>
@@ -9550,24 +10640,24 @@
         <v>47</v>
       </c>
       <c r="U32" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T32&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M9Y=</v>
       </c>
       <c r="V32" s="20">
         <f>'6M Pricing'!I32*100</f>
-        <v>0.59750010981100898</v>
+        <v>0.59749678594145728</v>
       </c>
       <c r="W32" s="20">
-        <f t="shared" si="2"/>
-        <v>0.59750010981100898</v>
-      </c>
-      <c r="X32" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.59749678594145728</v>
+      </c>
+      <c r="X32" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U32,BID)-V32)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y32" s="20" t="e">
+        <v>5.8542726222299279E-11</v>
+      </c>
+      <c r="Y32" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U32,ASK)-W32)</f>
-        <v>#VALUE!</v>
+        <v>5.8542726222299279E-11</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
@@ -9603,15 +10693,15 @@
       </c>
       <c r="B33" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G33,Fields,H33:I33,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H33:I33,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON10YD= at 18:17:37</v>
       </c>
       <c r="C33" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N33,Fields,O33:P33,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N33:P33,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M10Y= at 18:17:37</v>
       </c>
       <c r="D33" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U33,Fields,V33:W33,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U33:W33,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M10Y= at 18:17:37</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>124</v>
@@ -9620,24 +10710,24 @@
         <v>84</v>
       </c>
       <c r="G33" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F33&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON10YD=</v>
       </c>
       <c r="H33" s="20">
         <f>'ON Pricing'!I33*100</f>
-        <v>0.43499999999999384</v>
+        <v>0.43499999999999361</v>
       </c>
       <c r="I33" s="20">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999384</v>
-      </c>
-      <c r="J33" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>0.43499999999999361</v>
+      </c>
+      <c r="J33" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G33,BID)-H33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="20" t="e">
+        <v>6.3837823915946501E-15</v>
+      </c>
+      <c r="K33" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G33,ASK)-I33)</f>
-        <v>#VALUE!</v>
+        <v>6.3837823915946501E-15</v>
       </c>
       <c r="L33" s="89" t="s">
         <v>124</v>
@@ -9646,24 +10736,24 @@
         <v>48</v>
       </c>
       <c r="N33" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M33&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M10Y=</v>
       </c>
       <c r="O33" s="20">
         <f>'3M Pricing'!I33*100</f>
-        <v>0.57080119921278849</v>
+        <v>0.57080119919925376</v>
       </c>
       <c r="P33" s="20">
-        <f t="shared" si="1"/>
-        <v>0.57080119921278849</v>
-      </c>
-      <c r="Q33" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.57080119919925376</v>
+      </c>
+      <c r="Q33" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N33,BID)-O33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R33" s="20" t="e">
+        <v>1.9925372463092117E-10</v>
+      </c>
+      <c r="R33" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N33,ASK)-P33)</f>
-        <v>#VALUE!</v>
+        <v>1.9925372463092117E-10</v>
       </c>
       <c r="S33" s="89" t="s">
         <v>124</v>
@@ -9672,24 +10762,24 @@
         <v>48</v>
       </c>
       <c r="U33" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T33&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M10Y=</v>
       </c>
       <c r="V33" s="20">
         <f>'6M Pricing'!I33*100</f>
-        <v>0.69000009911657767</v>
+        <v>0.68999709892822303</v>
       </c>
       <c r="W33" s="20">
-        <f t="shared" si="2"/>
-        <v>0.69000009911657767</v>
-      </c>
-      <c r="X33" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.68999709892822303</v>
+      </c>
+      <c r="X33" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U33,BID)-V33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y33" s="20" t="e">
+        <v>7.1776917742738533E-11</v>
+      </c>
+      <c r="Y33" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U33,ASK)-W33)</f>
-        <v>#VALUE!</v>
+        <v>7.1776917742738533E-11</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
@@ -9725,15 +10815,15 @@
       </c>
       <c r="B34" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G34,Fields,H34:I34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H34:I34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON12YD= at 18:17:37</v>
       </c>
       <c r="C34" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N34,Fields,O34:P34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N34:P34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M12Y= at 18:17:37</v>
       </c>
       <c r="D34" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U34,Fields,V34:W34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U34:W34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M12Y= at 18:17:37</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>124</v>
@@ -9742,24 +10832,24 @@
         <v>85</v>
       </c>
       <c r="G34" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F34&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON12YD=</v>
       </c>
       <c r="H34" s="20">
         <f>'ON Pricing'!I34*100</f>
-        <v>0.60499999999999687</v>
+        <v>0.60499999999999665</v>
       </c>
       <c r="I34" s="20">
-        <f t="shared" si="0"/>
-        <v>0.60499999999999687</v>
-      </c>
-      <c r="J34" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>0.60499999999999665</v>
+      </c>
+      <c r="J34" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G34,BID)-H34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="20" t="e">
+        <v>3.3306690738754696E-15</v>
+      </c>
+      <c r="K34" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G34,ASK)-I34)</f>
-        <v>#VALUE!</v>
+        <v>3.3306690738754696E-15</v>
       </c>
       <c r="L34" s="89" t="s">
         <v>124</v>
@@ -9768,24 +10858,24 @@
         <v>49</v>
       </c>
       <c r="N34" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M34&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M12Y=</v>
       </c>
       <c r="O34" s="20">
         <f>'3M Pricing'!I34*100</f>
-        <v>0.74881377252415526</v>
+        <v>0.74881377127535409</v>
       </c>
       <c r="P34" s="20">
-        <f t="shared" si="1"/>
-        <v>0.74881377252415526</v>
-      </c>
-      <c r="Q34" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>0.74881377127535409</v>
+      </c>
+      <c r="Q34" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N34,BID)-O34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R34" s="20" t="e">
+        <v>2.7535407287615499E-10</v>
+      </c>
+      <c r="R34" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N34,ASK)-P34)</f>
-        <v>#VALUE!</v>
+        <v>2.7535407287615499E-10</v>
       </c>
       <c r="S34" s="89" t="s">
         <v>124</v>
@@ -9794,24 +10884,24 @@
         <v>49</v>
       </c>
       <c r="U34" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T34&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M12Y=</v>
       </c>
       <c r="V34" s="20">
         <f>'6M Pricing'!I34*100</f>
-        <v>0.87750005692088395</v>
+        <v>0.87749753621395676</v>
       </c>
       <c r="W34" s="20">
-        <f t="shared" si="2"/>
-        <v>0.87750005692088395</v>
-      </c>
-      <c r="X34" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>0.87749753621395676</v>
+      </c>
+      <c r="X34" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U34,BID)-V34)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y34" s="20" t="e">
+        <v>2.1395674121293951E-10</v>
+      </c>
+      <c r="Y34" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U34,ASK)-W34)</f>
-        <v>#VALUE!</v>
+        <v>2.1395674121293951E-10</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
@@ -9847,15 +10937,15 @@
       </c>
       <c r="B35" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G35,Fields,H35:I35,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H35:I35,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON15YD= at 18:17:37</v>
       </c>
       <c r="C35" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N35,Fields,O35:P35,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N35:P35,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M15Y= at 18:17:37</v>
       </c>
       <c r="D35" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U35,Fields,V35:W35,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U35:W35,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M15Y= at 18:17:37</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>124</v>
@@ -9864,24 +10954,24 @@
         <v>86</v>
       </c>
       <c r="G35" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F35&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON15YD=</v>
       </c>
       <c r="H35" s="20">
         <f>'ON Pricing'!I35*100</f>
-        <v>0.86000000000000087</v>
+        <v>0.86000000000000054</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="0"/>
-        <v>0.86000000000000087</v>
-      </c>
-      <c r="J35" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>0.86000000000000054</v>
+      </c>
+      <c r="J35" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G35,BID)-H35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" s="20" t="e">
+        <v>5.5511151231257827E-16</v>
+      </c>
+      <c r="K35" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G35,ASK)-I35)</f>
-        <v>#VALUE!</v>
+        <v>5.5511151231257827E-16</v>
       </c>
       <c r="L35" s="89" t="s">
         <v>124</v>
@@ -9890,24 +10980,24 @@
         <v>50</v>
       </c>
       <c r="N35" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M35&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M15Y=</v>
       </c>
       <c r="O35" s="20">
         <f>'3M Pricing'!I35*100</f>
-        <v>1.0054754627747613</v>
+        <v>1.0054754627590752</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" si="1"/>
-        <v>1.0054754627747613</v>
-      </c>
-      <c r="Q35" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>1.0054754627590752</v>
+      </c>
+      <c r="Q35" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N35,BID)-O35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R35" s="20" t="e">
+        <v>2.409248356372018E-10</v>
+      </c>
+      <c r="R35" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N35,ASK)-P35)</f>
-        <v>#VALUE!</v>
+        <v>2.409248356372018E-10</v>
       </c>
       <c r="S35" s="89" t="s">
         <v>124</v>
@@ -9916,24 +11006,24 @@
         <v>50</v>
       </c>
       <c r="U35" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T35&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M15Y=</v>
       </c>
       <c r="V35" s="20">
         <f>'6M Pricing'!I35*100</f>
-        <v>1.1425000326668289</v>
+        <v>1.1424979822909587</v>
       </c>
       <c r="W35" s="20">
-        <f t="shared" si="2"/>
-        <v>1.1425000326668289</v>
-      </c>
-      <c r="X35" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>1.1424979822909587</v>
+      </c>
+      <c r="X35" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U35,BID)-V35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y35" s="20" t="e">
+        <v>2.9095859055416895E-10</v>
+      </c>
+      <c r="Y35" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U35,ASK)-W35)</f>
-        <v>#VALUE!</v>
+        <v>2.9095859055416895E-10</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -9969,15 +11059,15 @@
       </c>
       <c r="B36" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G36,Fields,H36:I36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H36:I36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON20YD= at 18:17:37</v>
       </c>
       <c r="C36" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N36,Fields,O36:P36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N36:P36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M20Y= at 18:17:37</v>
       </c>
       <c r="D36" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U36,Fields,V36:W36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U36:W36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M20Y= at 18:17:37</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>124</v>
@@ -9986,24 +11076,24 @@
         <v>87</v>
       </c>
       <c r="G36" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F36&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON20YD=</v>
       </c>
       <c r="H36" s="20">
         <f>'ON Pricing'!I36*100</f>
-        <v>1.1750000000000074</v>
+        <v>1.1750000000000049</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="0"/>
-        <v>1.1750000000000074</v>
-      </c>
-      <c r="J36" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>1.1750000000000049</v>
+      </c>
+      <c r="J36" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G36,BID)-H36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="20" t="e">
+        <v>4.8849813083506888E-15</v>
+      </c>
+      <c r="K36" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G36,ASK)-I36)</f>
-        <v>#VALUE!</v>
+        <v>4.8849813083506888E-15</v>
       </c>
       <c r="L36" s="89" t="s">
         <v>124</v>
@@ -10012,24 +11102,24 @@
         <v>51</v>
       </c>
       <c r="N36" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M36&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M20Y=</v>
       </c>
       <c r="O36" s="20">
         <f>'3M Pricing'!I36*100</f>
-        <v>1.3253840459099995</v>
+        <v>1.3253840458939352</v>
       </c>
       <c r="P36" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3253840459099995</v>
-      </c>
-      <c r="Q36" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>1.3253840458939352</v>
+      </c>
+      <c r="Q36" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N36,BID)-O36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R36" s="20" t="e">
+        <v>1.0606471256835448E-10</v>
+      </c>
+      <c r="R36" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N36,ASK)-P36)</f>
-        <v>#VALUE!</v>
+        <v>1.0606471256835448E-10</v>
       </c>
       <c r="S36" s="89" t="s">
         <v>124</v>
@@ -10038,24 +11128,24 @@
         <v>51</v>
       </c>
       <c r="U36" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T36&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M20Y=</v>
       </c>
       <c r="V36" s="20">
         <f>'6M Pricing'!I36*100</f>
-        <v>1.4650000023070457</v>
+        <v>1.464998406669078</v>
       </c>
       <c r="W36" s="20">
-        <f t="shared" si="2"/>
-        <v>1.4650000023070457</v>
-      </c>
-      <c r="X36" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>1.464998406669078</v>
+      </c>
+      <c r="X36" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U36,BID)-V36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y36" s="20" t="e">
+        <v>3.3092195650397116E-10</v>
+      </c>
+      <c r="Y36" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U36,ASK)-W36)</f>
-        <v>#VALUE!</v>
+        <v>3.3092195650397116E-10</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -10091,15 +11181,15 @@
       </c>
       <c r="B37" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G37,Fields,H37:I37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H37:I37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON25YD= at 18:17:37</v>
       </c>
       <c r="C37" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N37,Fields,O37:P37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N37:P37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M25Y= at 18:17:37</v>
       </c>
       <c r="D37" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U37,Fields,V37:W37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U37:W37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M25Y= at 18:17:37</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>124</v>
@@ -10108,24 +11198,24 @@
         <v>88</v>
       </c>
       <c r="G37" s="19" t="str">
-        <f>Currency&amp;"ON"&amp;F37&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON25YD=</v>
       </c>
       <c r="H37" s="20">
         <f>'ON Pricing'!I37*100</f>
-        <v>1.3424999999999969</v>
+        <v>1.3425000000000025</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" si="0"/>
-        <v>1.3424999999999969</v>
-      </c>
-      <c r="J37" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>1.3425000000000025</v>
+      </c>
+      <c r="J37" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G37,BID)-H37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" s="20" t="e">
+        <v>2.4424906541753444E-15</v>
+      </c>
+      <c r="K37" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$G37,ASK)-I37)</f>
-        <v>#VALUE!</v>
+        <v>2.4424906541753444E-15</v>
       </c>
       <c r="L37" s="89" t="s">
         <v>124</v>
@@ -10134,24 +11224,24 @@
         <v>52</v>
       </c>
       <c r="N37" s="19" t="str">
-        <f>Currency&amp;"3M"&amp;M37&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M25Y=</v>
       </c>
       <c r="O37" s="20">
         <f>'3M Pricing'!I37*100</f>
-        <v>1.4952817434016754</v>
+        <v>1.4952817432717309</v>
       </c>
       <c r="P37" s="20">
-        <f t="shared" si="1"/>
-        <v>1.4952817434016754</v>
-      </c>
-      <c r="Q37" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>1.4952817432717309</v>
+      </c>
+      <c r="Q37" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N37,BID)-O37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R37" s="20" t="e">
+        <v>2.7173086003529079E-10</v>
+      </c>
+      <c r="R37" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$N37,ASK)-P37)</f>
-        <v>#VALUE!</v>
+        <v>2.7173086003529079E-10</v>
       </c>
       <c r="S37" s="89" t="s">
         <v>124</v>
@@ -10160,24 +11250,24 @@
         <v>52</v>
       </c>
       <c r="U37" s="19" t="str">
-        <f>Currency&amp;"6M"&amp;T37&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M25Y=</v>
       </c>
       <c r="V37" s="20">
         <f>'6M Pricing'!I37*100</f>
-        <v>1.6349999700466911</v>
+        <v>1.6349986386552586</v>
       </c>
       <c r="W37" s="20">
-        <f t="shared" si="2"/>
-        <v>1.6349999700466911</v>
-      </c>
-      <c r="X37" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>1.6349986386552586</v>
+      </c>
+      <c r="X37" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U37,BID)-V37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y37" s="20" t="e">
+        <v>3.4474134658069033E-10</v>
+      </c>
+      <c r="Y37" s="20">
         <f>ABS(_xll.RtGet(SourceAlias,$U37,ASK)-W37)</f>
-        <v>#VALUE!</v>
+        <v>3.4474134658069033E-10</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -10213,15 +11303,15 @@
       </c>
       <c r="B38" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G38,Fields,H38:I38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H38:I38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPYON30YD= at 18:17:37</v>
       </c>
       <c r="C38" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N38,Fields,O38:P38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N38:P38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY3M30Y= at 18:17:37</v>
       </c>
       <c r="D38" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U38,Fields,V38:W38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U38:W38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>stopped</v>
+        <v>Success: Insert Ack on DTSIMI1 for JPY6M30Y= at 18:17:37</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>124</v>
@@ -10230,7 +11320,7 @@
         <v>89</v>
       </c>
       <c r="G38" s="21" t="str">
-        <f>Currency&amp;"ON"&amp;F38&amp;"="</f>
+        <f t="shared" si="7"/>
         <v>JPYON30YD=</v>
       </c>
       <c r="H38" s="22">
@@ -10238,16 +11328,16 @@
         <v>1.4399999999999995</v>
       </c>
       <c r="I38" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4399999999999995</v>
       </c>
-      <c r="J38" s="22" t="e">
+      <c r="J38" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$G38,BID)-H38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K38" s="22" t="e">
+        <v>4.4408920985006262E-16</v>
+      </c>
+      <c r="K38" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$G38,ASK)-I38)</f>
-        <v>#VALUE!</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="L38" s="89" t="s">
         <v>124</v>
@@ -10256,24 +11346,24 @@
         <v>53</v>
       </c>
       <c r="N38" s="21" t="str">
-        <f>Currency&amp;"3M"&amp;M38&amp;"="</f>
+        <f t="shared" si="6"/>
         <v>JPY3M30Y=</v>
       </c>
       <c r="O38" s="22">
         <f>'3M Pricing'!I38*100</f>
-        <v>1.5902603989019315</v>
+        <v>1.5902603988943391</v>
       </c>
       <c r="P38" s="22">
-        <f t="shared" si="1"/>
-        <v>1.5902603989019315</v>
-      </c>
-      <c r="Q38" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>1.5902603988943391</v>
+      </c>
+      <c r="Q38" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$N38,BID)-O38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R38" s="22" t="e">
+        <v>1.0566081343199585E-10</v>
+      </c>
+      <c r="R38" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$N38,ASK)-P38)</f>
-        <v>#VALUE!</v>
+        <v>1.0566081343199585E-10</v>
       </c>
       <c r="S38" s="89" t="s">
         <v>124</v>
@@ -10282,24 +11372,24 @@
         <v>53</v>
       </c>
       <c r="U38" s="21" t="str">
-        <f>Currency&amp;"6M"&amp;T38&amp;"="</f>
+        <f t="shared" si="8"/>
         <v>JPY6M30Y=</v>
       </c>
       <c r="V38" s="22">
         <f>'6M Pricing'!I38*100</f>
-        <v>1.7349999537139653</v>
+        <v>1.7349987950193699</v>
       </c>
       <c r="W38" s="22">
-        <f t="shared" si="2"/>
-        <v>1.7349999537139653</v>
-      </c>
-      <c r="X38" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>1.7349987950193699</v>
+      </c>
+      <c r="X38" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$U38,BID)-V38)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y38" s="22" t="e">
+        <v>1.9369839066030181E-11</v>
+      </c>
+      <c r="Y38" s="22">
         <f>ABS(_xll.RtGet(SourceAlias,$U38,ASK)-W38)</f>
-        <v>#VALUE!</v>
+        <v>1.9369839066030181E-11</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -13625,38 +14715,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>"abcd"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K38">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K5">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:R38">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:R5">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X5:Y38">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X5:Y5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13866,7 +14926,7 @@
       <c r="L5" s="137"/>
       <c r="M5" s="104" t="str">
         <f>_xll.qlOvernightIndex(,"Tonar",0,Currency,Calendar2,"Actual/365 (Fixed)",YieldCurve,,Trigger)</f>
-        <v>obj_00518#0031</v>
+        <v>obj_00484#0001</v>
       </c>
       <c r="N5" s="89"/>
       <c r="O5" s="89"/>
@@ -14009,7 +15069,7 @@
       <c r="L8" s="137"/>
       <c r="M8" s="56" t="str">
         <f>_xll.qlMakeOIS(,"1W",OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0059f#0045</v>
+        <v>obj_0048f#0001</v>
       </c>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
@@ -14056,7 +15116,7 @@
       <c r="L9" s="137"/>
       <c r="M9" s="56" t="str">
         <f>_xll.qlMakeOIS(,D9,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005a0#0038</v>
+        <v>obj_0048c#0001</v>
       </c>
       <c r="N9" s="89"/>
       <c r="O9" s="89"/>
@@ -14103,7 +15163,7 @@
       <c r="L10" s="137"/>
       <c r="M10" s="56" t="str">
         <f>_xll.qlMakeOIS(,D10,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_005a1#0037</v>
+        <v>obj_0048a#0001</v>
       </c>
       <c r="N10" s="89"/>
       <c r="O10" s="89"/>
@@ -14147,13 +15207,13 @@
         <v>JPYON1MD=</v>
       </c>
       <c r="K11" s="86" t="str">
-        <f>Currency&amp;D11&amp;"OIS=ICAP"</f>
+        <f t="shared" ref="K11:K16" si="1">Currency&amp;D11&amp;"OIS=ICAP"</f>
         <v>JPY1MOIS=ICAP</v>
       </c>
       <c r="L11" s="137"/>
       <c r="M11" s="56" t="str">
         <f>_xll.qlMakeOIS(,D11,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00546#0039</v>
+        <v>obj_0048e#0001</v>
       </c>
       <c r="N11" s="89"/>
       <c r="O11" s="89"/>
@@ -14197,13 +15257,13 @@
         <v>JPYON2MD=</v>
       </c>
       <c r="K12" s="86" t="str">
-        <f>Currency&amp;D12&amp;"OIS=ICAP"</f>
+        <f t="shared" si="1"/>
         <v>JPY2MOIS=ICAP</v>
       </c>
       <c r="L12" s="137"/>
       <c r="M12" s="56" t="str">
         <f>_xll.qlMakeOIS(,D12,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00562#0033</v>
+        <v>obj_0048b#0001</v>
       </c>
       <c r="N12" s="89"/>
       <c r="O12" s="89"/>
@@ -14247,13 +15307,13 @@
         <v>JPYON3MD=</v>
       </c>
       <c r="K13" s="86" t="str">
-        <f>Currency&amp;D13&amp;"OIS=ICAP"</f>
+        <f t="shared" si="1"/>
         <v>JPY3MOIS=ICAP</v>
       </c>
       <c r="L13" s="137"/>
       <c r="M13" s="56" t="str">
         <f>_xll.qlMakeOIS(,D13,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00592#0033</v>
+        <v>obj_0048d#0001</v>
       </c>
       <c r="N13" s="89"/>
       <c r="O13" s="89"/>
@@ -14297,13 +15357,13 @@
         <v>JPYON4MD=</v>
       </c>
       <c r="K14" s="86" t="str">
-        <f>Currency&amp;D14&amp;"OIS=ICAP"</f>
+        <f t="shared" si="1"/>
         <v>JPY4MOIS=ICAP</v>
       </c>
       <c r="L14" s="137"/>
       <c r="M14" s="56" t="str">
         <f>_xll.qlMakeOIS(,D14,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0056b#0033</v>
+        <v>obj_00489#0001</v>
       </c>
       <c r="N14" s="89"/>
       <c r="O14" s="89"/>
@@ -14347,13 +15407,13 @@
         <v>JPYON5MD=</v>
       </c>
       <c r="K15" s="86" t="str">
-        <f>Currency&amp;D15&amp;"OIS=ICAP"</f>
+        <f t="shared" si="1"/>
         <v>JPY5MOIS=ICAP</v>
       </c>
       <c r="L15" s="137"/>
       <c r="M15" s="56" t="str">
         <f>_xll.qlMakeOIS(,D15,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0058e#0033</v>
+        <v>obj_00488#0001</v>
       </c>
       <c r="N15" s="89"/>
       <c r="O15" s="89"/>
@@ -14390,20 +15450,20 @@
       </c>
       <c r="I16" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M16,InterestRatesTrigger)</f>
-        <v>5.9999999999975112E-4</v>
+        <v>6.0000000000018459E-4</v>
       </c>
       <c r="J16" s="86" t="str">
         <f>Contribution!G16</f>
         <v>JPYON6MD=</v>
       </c>
       <c r="K16" s="86" t="str">
-        <f>Currency&amp;D16&amp;"OIS=ICAP"</f>
+        <f t="shared" si="1"/>
         <v>JPY6MOIS=ICAP</v>
       </c>
       <c r="L16" s="137"/>
       <c r="M16" s="56" t="str">
         <f>_xll.qlMakeOIS(,D16,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00590#0030</v>
+        <v>obj_004a7#0001</v>
       </c>
       <c r="N16" s="89"/>
       <c r="O16" s="89"/>
@@ -14440,14 +15500,14 @@
       </c>
       <c r="I17" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M17,InterestRatesTrigger)</f>
-        <v>5.9268347769482108E-4</v>
+        <v>5.9268347769519817E-4</v>
       </c>
       <c r="J17" s="86"/>
       <c r="K17" s="86"/>
       <c r="L17" s="137"/>
       <c r="M17" s="56" t="str">
         <f>_xll.qlMakeOIS(,D17,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00585#0030</v>
+        <v>obj_004ac#0001</v>
       </c>
       <c r="N17" s="89"/>
       <c r="O17" s="89"/>
@@ -14484,14 +15544,14 @@
       </c>
       <c r="I18" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M18,InterestRatesTrigger)</f>
-        <v>5.9527772864696336E-4</v>
+        <v>5.9527772864729708E-4</v>
       </c>
       <c r="J18" s="86"/>
       <c r="K18" s="86"/>
       <c r="L18" s="137"/>
       <c r="M18" s="56" t="str">
         <f>_xll.qlMakeOIS(,D18,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00574#0030</v>
+        <v>obj_0049e#0001</v>
       </c>
       <c r="N18" s="89"/>
       <c r="O18" s="89"/>
@@ -14528,7 +15588,7 @@
       </c>
       <c r="I19" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M19,InterestRatesTrigger)</f>
-        <v>5.9999999999995983E-4</v>
+        <v>5.9999999999995972E-4</v>
       </c>
       <c r="J19" s="86" t="str">
         <f>Contribution!G19</f>
@@ -14541,7 +15601,7 @@
       <c r="L19" s="137"/>
       <c r="M19" s="56" t="str">
         <f>_xll.qlMakeOIS(,D19,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00533#0031</v>
+        <v>obj_00499#0001</v>
       </c>
       <c r="N19" s="89"/>
       <c r="O19" s="89"/>
@@ -14585,7 +15645,7 @@
       <c r="L20" s="137"/>
       <c r="M20" s="56" t="str">
         <f>_xll.qlMakeOIS(,D20,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00524#0031</v>
+        <v>obj_0049c#0001</v>
       </c>
       <c r="N20" s="89"/>
       <c r="O20" s="89"/>
@@ -14629,7 +15689,7 @@
       <c r="L21" s="137"/>
       <c r="M21" s="56" t="str">
         <f>_xll.qlMakeOIS(,D21,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0053c#0031</v>
+        <v>obj_0049d#0001</v>
       </c>
       <c r="N21" s="89"/>
       <c r="O21" s="89"/>
@@ -14666,7 +15726,7 @@
       </c>
       <c r="I22" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M22,InterestRatesTrigger)</f>
-        <v>5.9999999999993392E-4</v>
+        <v>6.0000000000015596E-4</v>
       </c>
       <c r="J22" s="86" t="str">
         <f>Contribution!G22</f>
@@ -14679,7 +15739,7 @@
       <c r="L22" s="137"/>
       <c r="M22" s="56" t="str">
         <f>_xll.qlMakeOIS(,D22,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00544#0031</v>
+        <v>obj_0049a#0001</v>
       </c>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
@@ -14716,14 +15776,14 @@
       </c>
       <c r="I23" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M23,InterestRatesTrigger)</f>
-        <v>6.003727196651756E-4</v>
+        <v>6.00372719665352E-4</v>
       </c>
       <c r="J23" s="86"/>
       <c r="K23" s="86"/>
       <c r="L23" s="137"/>
       <c r="M23" s="56" t="str">
         <f>_xll.qlMakeOIS(,D23,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00535#0031</v>
+        <v>obj_004aa#0001</v>
       </c>
       <c r="N23" s="89"/>
       <c r="O23" s="89"/>
@@ -14767,13 +15827,13 @@
         <v>JPYON1Y6MD=</v>
       </c>
       <c r="K24" s="86" t="str">
-        <f>Currency&amp;D24&amp;"OIS=ICAP"</f>
+        <f t="shared" ref="K24:K38" si="2">Currency&amp;D24&amp;"OIS=ICAP"</f>
         <v>JPY18MOIS=ICAP</v>
       </c>
       <c r="L24" s="137"/>
       <c r="M24" s="56" t="str">
         <f>_xll.qlMakeOIS(,D24,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0057e#0032</v>
+        <v>obj_004a1#0001</v>
       </c>
       <c r="N24" s="89"/>
       <c r="O24" s="89"/>
@@ -14810,20 +15870,20 @@
       </c>
       <c r="I25" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M25,InterestRatesTrigger)</f>
-        <v>6.0000000000001166E-4</v>
+        <v>6.0000000000001177E-4</v>
       </c>
       <c r="J25" s="86" t="str">
         <f>Contribution!G25</f>
         <v>JPYON2YD=</v>
       </c>
       <c r="K25" s="86" t="str">
-        <f>Currency&amp;D25&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY2YOIS=ICAP</v>
       </c>
       <c r="L25" s="137"/>
       <c r="M25" s="56" t="str">
         <f>_xll.qlMakeOIS(,D25,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0058c#0030</v>
+        <v>obj_004a5#0001</v>
       </c>
       <c r="N25" s="89"/>
       <c r="O25" s="89"/>
@@ -14867,13 +15927,13 @@
         <v>JPYON3YD=</v>
       </c>
       <c r="K26" s="86" t="str">
-        <f>Currency&amp;D26&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY3YOIS=ICAP</v>
       </c>
       <c r="L26" s="137"/>
       <c r="M26" s="56" t="str">
         <f>_xll.qlMakeOIS(,D26,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00564#0031</v>
+        <v>obj_004a9#0001</v>
       </c>
       <c r="N26" s="89"/>
       <c r="O26" s="89"/>
@@ -14910,20 +15970,20 @@
       </c>
       <c r="I27" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M27,InterestRatesTrigger)</f>
-        <v>7.7499999999996062E-4</v>
+        <v>7.7499999999996072E-4</v>
       </c>
       <c r="J27" s="86" t="str">
         <f>Contribution!G27</f>
         <v>JPYON4YD=</v>
       </c>
       <c r="K27" s="86" t="str">
-        <f>Currency&amp;D27&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY4YOIS=ICAP</v>
       </c>
       <c r="L27" s="137"/>
       <c r="M27" s="56" t="str">
         <f>_xll.qlMakeOIS(,D27,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00566#0031</v>
+        <v>obj_00496#0001</v>
       </c>
       <c r="N27" s="89"/>
       <c r="O27" s="89"/>
@@ -14967,13 +16027,13 @@
         <v>JPYON5YD=</v>
       </c>
       <c r="K28" s="86" t="str">
-        <f>Currency&amp;D28&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY5YOIS=ICAP</v>
       </c>
       <c r="L28" s="137"/>
       <c r="M28" s="56" t="str">
         <f>_xll.qlMakeOIS(,D28,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00567#0030</v>
+        <v>obj_0049b#0001</v>
       </c>
       <c r="N28" s="89"/>
       <c r="O28" s="89"/>
@@ -15017,13 +16077,13 @@
         <v>JPYON6YD=</v>
       </c>
       <c r="K29" s="86" t="str">
-        <f>Currency&amp;D29&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY6YOIS=ICAP</v>
       </c>
       <c r="L29" s="137"/>
       <c r="M29" s="56" t="str">
         <f>_xll.qlMakeOIS(,D29,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00584#0030</v>
+        <v>obj_004ab#0001</v>
       </c>
       <c r="N29" s="89"/>
       <c r="O29" s="89"/>
@@ -15067,13 +16127,13 @@
         <v>JPYON7YD=</v>
       </c>
       <c r="K30" s="86" t="str">
-        <f>Currency&amp;D30&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY7YOIS=ICAP</v>
       </c>
       <c r="L30" s="137"/>
       <c r="M30" s="56" t="str">
         <f>_xll.qlMakeOIS(,D30,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00563#0031</v>
+        <v>obj_004a8#0001</v>
       </c>
       <c r="N30" s="89"/>
       <c r="O30" s="89"/>
@@ -15117,13 +16177,13 @@
         <v>JPYON8YD=</v>
       </c>
       <c r="K31" s="86" t="str">
-        <f>Currency&amp;D31&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY8YOIS=ICAP</v>
       </c>
       <c r="L31" s="137"/>
       <c r="M31" s="56" t="str">
         <f>_xll.qlMakeOIS(,D31,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0052b#0031</v>
+        <v>obj_0049f#0001</v>
       </c>
       <c r="N31" s="89"/>
       <c r="O31" s="89"/>
@@ -15167,13 +16227,13 @@
         <v>JPYON9YD=</v>
       </c>
       <c r="K32" s="86" t="str">
-        <f>Currency&amp;D32&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY9YOIS=ICAP</v>
       </c>
       <c r="L32" s="137"/>
       <c r="M32" s="56" t="str">
         <f>_xll.qlMakeOIS(,D32,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0054d#0031</v>
+        <v>obj_004a2#0001</v>
       </c>
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
@@ -15210,20 +16270,20 @@
       </c>
       <c r="I33" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M33,InterestRatesTrigger)</f>
-        <v>4.3499999999999381E-3</v>
+        <v>4.3499999999999364E-3</v>
       </c>
       <c r="J33" s="86" t="str">
         <f>Contribution!G33</f>
         <v>JPYON10YD=</v>
       </c>
       <c r="K33" s="86" t="str">
-        <f>Currency&amp;D33&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY10YOIS=ICAP</v>
       </c>
       <c r="L33" s="137"/>
       <c r="M33" s="56" t="str">
         <f>_xll.qlMakeOIS(,D33,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00577#0030</v>
+        <v>obj_00497#0001</v>
       </c>
       <c r="N33" s="89"/>
       <c r="O33" s="89"/>
@@ -15260,20 +16320,20 @@
       </c>
       <c r="I34" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M34,InterestRatesTrigger)</f>
-        <v>6.0499999999999686E-3</v>
+        <v>6.049999999999966E-3</v>
       </c>
       <c r="J34" s="86" t="str">
         <f>Contribution!G34</f>
         <v>JPYON12YD=</v>
       </c>
       <c r="K34" s="86" t="str">
-        <f>Currency&amp;D34&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY12YOIS=ICAP</v>
       </c>
       <c r="L34" s="137"/>
       <c r="M34" s="56" t="str">
         <f>_xll.qlMakeOIS(,D34,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00589#0030</v>
+        <v>obj_004a3#0001</v>
       </c>
       <c r="N34" s="89"/>
       <c r="O34" s="89"/>
@@ -15310,20 +16370,20 @@
       </c>
       <c r="I35" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M35,InterestRatesTrigger)</f>
-        <v>8.6000000000000087E-3</v>
+        <v>8.6000000000000052E-3</v>
       </c>
       <c r="J35" s="86" t="str">
         <f>Contribution!G35</f>
         <v>JPYON15YD=</v>
       </c>
       <c r="K35" s="86" t="str">
-        <f>Currency&amp;D35&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY15YOIS=ICAP</v>
       </c>
       <c r="L35" s="137"/>
       <c r="M35" s="56" t="str">
         <f>_xll.qlMakeOIS(,D35,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00557#0031</v>
+        <v>obj_004a4#0001</v>
       </c>
       <c r="N35" s="89"/>
       <c r="O35" s="89"/>
@@ -15360,20 +16420,20 @@
       </c>
       <c r="I36" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M36,InterestRatesTrigger)</f>
-        <v>1.1750000000000075E-2</v>
+        <v>1.175000000000005E-2</v>
       </c>
       <c r="J36" s="86" t="str">
         <f>Contribution!G36</f>
         <v>JPYON20YD=</v>
       </c>
       <c r="K36" s="86" t="str">
-        <f>Currency&amp;D36&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY20YOIS=ICAP</v>
       </c>
       <c r="L36" s="137"/>
       <c r="M36" s="56" t="str">
         <f>_xll.qlMakeOIS(,D36,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0052d#0031</v>
+        <v>obj_00498#0001</v>
       </c>
       <c r="N36" s="89"/>
       <c r="O36" s="89"/>
@@ -15410,20 +16470,20 @@
       </c>
       <c r="I37" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M37,InterestRatesTrigger)</f>
-        <v>1.3424999999999968E-2</v>
+        <v>1.3425000000000024E-2</v>
       </c>
       <c r="J37" s="86" t="str">
         <f>Contribution!G37</f>
         <v>JPYON25YD=</v>
       </c>
       <c r="K37" s="86" t="str">
-        <f>Currency&amp;D37&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY25YOIS=ICAP</v>
       </c>
       <c r="L37" s="137"/>
       <c r="M37" s="56" t="str">
         <f>_xll.qlMakeOIS(,D37,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00579#0030</v>
+        <v>obj_004a0#0001</v>
       </c>
       <c r="N37" s="89"/>
       <c r="O37" s="89"/>
@@ -15467,13 +16527,13 @@
         <v>JPYON30YD=</v>
       </c>
       <c r="K38" s="88" t="str">
-        <f>Currency&amp;D38&amp;"OIS=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY30YOIS=ICAP</v>
       </c>
       <c r="L38" s="137"/>
       <c r="M38" s="58" t="str">
         <f>_xll.qlMakeOIS(,D38,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0055d#0031</v>
+        <v>obj_004a6#0001</v>
       </c>
       <c r="N38" s="89"/>
       <c r="O38" s="89"/>
@@ -17404,7 +18464,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="133"/>
       <c r="B5" s="93">
-        <f>H5-EvaluationDate</f>
+        <f t="shared" ref="B5:B13" si="0">H5-EvaluationDate</f>
         <v>1</v>
       </c>
       <c r="C5" s="107"/>
@@ -17415,7 +18475,7 @@
         <v>97</v>
       </c>
       <c r="F5" s="98">
-        <f t="shared" ref="F5:G13" si="0">EvaluationDate</f>
+        <f t="shared" ref="F5:G13" si="1">EvaluationDate</f>
         <v>41828</v>
       </c>
       <c r="G5" s="98">
@@ -17428,7 +18488,7 @@
       </c>
       <c r="I5" s="108">
         <f>_xll.qlInterpolationInterpolate(M5,-2,TRUE)</f>
-        <v>1.3717392434119588E-3</v>
+        <v>1.3717392431630789E-3</v>
       </c>
       <c r="J5" s="127" t="str">
         <f>Contribution!N5</f>
@@ -17438,7 +18498,7 @@
       <c r="L5" s="133"/>
       <c r="M5" s="39" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B7:B13,I7:I13,,Trigger)</f>
-        <v>obj_0059a#0041</v>
+        <v>obj_004cb#0002</v>
       </c>
       <c r="N5" s="133"/>
       <c r="O5" s="133"/>
@@ -17457,7 +18517,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="133"/>
       <c r="B6" s="119">
-        <f>H6-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="109"/>
@@ -17468,11 +18528,11 @@
         <v>97</v>
       </c>
       <c r="F6" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G6" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="H6" s="101">
@@ -17481,7 +18541,7 @@
       </c>
       <c r="I6" s="106">
         <f>_xll.qlInterpolationInterpolate(M5,-1,TRUE)</f>
-        <v>1.3717253512899473E-3</v>
+        <v>1.3717253510431729E-3</v>
       </c>
       <c r="J6" s="129" t="str">
         <f>Contribution!N6</f>
@@ -17509,7 +18569,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="133"/>
       <c r="B7" s="120">
-        <f>H7-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="110"/>
@@ -17520,7 +18580,7 @@
         <v>99</v>
       </c>
       <c r="F7" s="98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G7" s="98">
@@ -17533,7 +18593,7 @@
       </c>
       <c r="I7" s="99">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,InterestRatesTrigger)</f>
-        <v>1.3716889720072345E-3</v>
+        <v>1.3716889717674263E-3</v>
       </c>
       <c r="J7" s="87" t="str">
         <f>Contribution!N7</f>
@@ -17543,7 +18603,7 @@
       <c r="L7" s="133"/>
       <c r="M7" s="54" t="str">
         <f>_xll.qlLibor(,Currency,D7,YieldCurve,,Trigger)</f>
-        <v>obj_0051e#0018</v>
+        <v>obj_00491#0001</v>
       </c>
       <c r="N7" s="133"/>
       <c r="O7" s="133"/>
@@ -17562,7 +18622,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="133"/>
       <c r="B8" s="119">
-        <f>H8-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C8" s="111"/>
@@ -17573,7 +18633,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G8" s="101">
@@ -17586,7 +18646,7 @@
       </c>
       <c r="I8" s="100">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,InterestRatesTrigger)</f>
-        <v>1.37162161027961E-3</v>
+        <v>1.3716216100512213E-3</v>
       </c>
       <c r="J8" s="86" t="str">
         <f>Contribution!N8</f>
@@ -17596,7 +18656,7 @@
       <c r="L8" s="133"/>
       <c r="M8" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_00522#0018</v>
+        <v>obj_00495#0001</v>
       </c>
       <c r="N8" s="133"/>
       <c r="O8" s="133"/>
@@ -17615,7 +18675,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="133"/>
       <c r="B9" s="119">
-        <f>H9-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C9" s="111"/>
@@ -17626,7 +18686,7 @@
         <v>99</v>
       </c>
       <c r="F9" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G9" s="101">
@@ -17639,7 +18699,7 @@
       </c>
       <c r="I9" s="100">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,InterestRatesTrigger)</f>
-        <v>1.3713855804839018E-3</v>
+        <v>1.3713855802840616E-3</v>
       </c>
       <c r="J9" s="86" t="str">
         <f>Contribution!N9</f>
@@ -17649,7 +18709,7 @@
       <c r="L9" s="133"/>
       <c r="M9" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_0051d#0018</v>
+        <v>obj_00490#0001</v>
       </c>
       <c r="N9" s="133"/>
       <c r="O9" s="133"/>
@@ -17668,7 +18728,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="133"/>
       <c r="B10" s="119">
-        <f>H10-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C10" s="111"/>
@@ -17679,7 +18739,7 @@
         <v>99</v>
       </c>
       <c r="F10" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G10" s="101">
@@ -17692,7 +18752,7 @@
       </c>
       <c r="I10" s="100">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,InterestRatesTrigger)</f>
-        <v>1.3709799858231872E-3</v>
+        <v>1.370979985686154E-3</v>
       </c>
       <c r="J10" s="86" t="str">
         <f>Contribution!N10</f>
@@ -17702,7 +18762,7 @@
       <c r="L10" s="133"/>
       <c r="M10" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_00520#0018</v>
+        <v>obj_00493#0001</v>
       </c>
       <c r="N10" s="133"/>
       <c r="O10" s="133"/>
@@ -17721,7 +18781,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="133"/>
       <c r="B11" s="119">
-        <f>H11-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C11" s="111"/>
@@ -17732,7 +18792,7 @@
         <v>99</v>
       </c>
       <c r="F11" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G11" s="101">
@@ -17755,7 +18815,7 @@
       <c r="L11" s="133"/>
       <c r="M11" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_00521#0018</v>
+        <v>obj_00494#0001</v>
       </c>
       <c r="N11" s="133"/>
       <c r="O11" s="133"/>
@@ -17774,7 +18834,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="133"/>
       <c r="B12" s="119">
-        <f>H12-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C12" s="111"/>
@@ -17785,7 +18845,7 @@
         <v>99</v>
       </c>
       <c r="F12" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G12" s="101">
@@ -17808,7 +18868,7 @@
       <c r="L12" s="133"/>
       <c r="M12" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_0051f#0018</v>
+        <v>obj_00492#0001</v>
       </c>
       <c r="N12" s="133"/>
       <c r="O12" s="133"/>
@@ -17827,7 +18887,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="133"/>
       <c r="B13" s="119">
-        <f>H13-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="C13" s="111"/>
@@ -17838,7 +18898,7 @@
         <v>99</v>
       </c>
       <c r="F13" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G13" s="101">
@@ -17913,7 +18973,7 @@
         <v>JPY3M1x4F=</v>
       </c>
       <c r="K14" s="87" t="str">
-        <f>Currency&amp;B14&amp;C14&amp;SUBSTITUTE(D14,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" ref="K14:K19" si="2">Currency&amp;B14&amp;C14&amp;SUBSTITUTE(D14,"M","F")&amp;"=ICAP"</f>
         <v>JPY1X4F=ICAP</v>
       </c>
       <c r="L14" s="133"/>
@@ -17941,7 +19001,7 @@
         <v>134</v>
       </c>
       <c r="D15" s="56" t="str">
-        <f t="shared" ref="D15:D23" si="1">B15+3&amp;"M"</f>
+        <f t="shared" ref="D15:D23" si="3">B15+3&amp;"M"</f>
         <v>5M</v>
       </c>
       <c r="E15" s="56" t="s">
@@ -17968,7 +19028,7 @@
         <v>JPY3M2x5F=</v>
       </c>
       <c r="K15" s="86" t="str">
-        <f>Currency&amp;B15&amp;C15&amp;SUBSTITUTE(D15,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY2X5F=ICAP</v>
       </c>
       <c r="L15" s="133"/>
@@ -17996,7 +19056,7 @@
         <v>134</v>
       </c>
       <c r="D16" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6M</v>
       </c>
       <c r="E16" s="56" t="s">
@@ -18023,7 +19083,7 @@
         <v>JPY3M3x6F=</v>
       </c>
       <c r="K16" s="86" t="str">
-        <f>Currency&amp;B16&amp;C16&amp;SUBSTITUTE(D16,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY3X6F=ICAP</v>
       </c>
       <c r="L16" s="133"/>
@@ -18051,7 +19111,7 @@
         <v>134</v>
       </c>
       <c r="D17" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7M</v>
       </c>
       <c r="E17" s="56" t="s">
@@ -18071,14 +19131,14 @@
       </c>
       <c r="I17" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F17,TRUE,InterestRatesTrigger)</f>
-        <v>1.3000000000302383E-3</v>
+        <v>1.300000000019812E-3</v>
       </c>
       <c r="J17" s="86" t="str">
         <f>Contribution!N17</f>
         <v>JPY3M4x7F=</v>
       </c>
       <c r="K17" s="86" t="str">
-        <f>Currency&amp;B17&amp;C17&amp;SUBSTITUTE(D17,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY4X7F=ICAP</v>
       </c>
       <c r="L17" s="133"/>
@@ -18106,7 +19166,7 @@
         <v>134</v>
       </c>
       <c r="D18" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8M</v>
       </c>
       <c r="E18" s="56" t="s">
@@ -18126,14 +19186,14 @@
       </c>
       <c r="I18" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,InterestRatesTrigger)</f>
-        <v>1.300000000000523E-3</v>
+        <v>1.2999999999996348E-3</v>
       </c>
       <c r="J18" s="86" t="str">
         <f>Contribution!N18</f>
         <v>JPY3M5x8F=</v>
       </c>
       <c r="K18" s="86" t="str">
-        <f>Currency&amp;B18&amp;C18&amp;SUBSTITUTE(D18,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY5X8F=ICAP</v>
       </c>
       <c r="L18" s="133"/>
@@ -18161,7 +19221,7 @@
         <v>134</v>
       </c>
       <c r="D19" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9M</v>
       </c>
       <c r="E19" s="56" t="s">
@@ -18188,7 +19248,7 @@
         <v>JPY3M6x9F=</v>
       </c>
       <c r="K19" s="86" t="str">
-        <f>Currency&amp;B19&amp;C19&amp;SUBSTITUTE(D19,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY6X9F=ICAP</v>
       </c>
       <c r="L19" s="133"/>
@@ -18216,7 +19276,7 @@
         <v>134</v>
       </c>
       <c r="D20" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10M</v>
       </c>
       <c r="E20" s="56" t="s">
@@ -18236,7 +19296,7 @@
       </c>
       <c r="I20" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,InterestRatesTrigger)</f>
-        <v>1.2004384120309908E-3</v>
+        <v>1.2004487982766321E-3</v>
       </c>
       <c r="J20" s="86"/>
       <c r="K20" s="86"/>
@@ -18265,7 +19325,7 @@
         <v>134</v>
       </c>
       <c r="D21" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11M</v>
       </c>
       <c r="E21" s="56" t="s">
@@ -18285,7 +19345,7 @@
       </c>
       <c r="I21" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,InterestRatesTrigger)</f>
-        <v>1.1646795468960207E-3</v>
+        <v>1.1646971533479692E-3</v>
       </c>
       <c r="J21" s="86"/>
       <c r="K21" s="86"/>
@@ -18314,7 +19374,7 @@
         <v>134</v>
       </c>
       <c r="D22" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12M</v>
       </c>
       <c r="E22" s="56" t="s">
@@ -18334,7 +19394,7 @@
       </c>
       <c r="I22" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,InterestRatesTrigger)</f>
-        <v>1.2000000014827257E-3</v>
+        <v>1.2000000000386062E-3</v>
       </c>
       <c r="J22" s="86" t="str">
         <f>Contribution!N22</f>
@@ -18369,7 +19429,7 @@
         <v>134</v>
       </c>
       <c r="D23" s="56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15M</v>
       </c>
       <c r="E23" s="56" t="s">
@@ -18389,7 +19449,7 @@
       </c>
       <c r="I23" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,InterestRatesTrigger)</f>
-        <v>1.1500000018870829E-3</v>
+        <v>1.150000000000592E-3</v>
       </c>
       <c r="J23" s="86" t="str">
         <f>Contribution!N23</f>
@@ -18434,7 +19494,7 @@
         <v>98</v>
       </c>
       <c r="F24" s="98">
-        <f t="shared" ref="F24" si="2">EvaluationDate</f>
+        <f t="shared" ref="F24" si="4">EvaluationDate</f>
         <v>41828</v>
       </c>
       <c r="G24" s="98">
@@ -18447,7 +19507,7 @@
       </c>
       <c r="I24" s="99">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,InterestRatesTrigger)</f>
-        <v>1.235865852846079E-3</v>
+        <v>1.2373284262500645E-3</v>
       </c>
       <c r="J24" s="87" t="str">
         <f>Contribution!N24</f>
@@ -18457,7 +19517,7 @@
       <c r="L24" s="133"/>
       <c r="M24" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0052c#0039</v>
+        <v>obj_004ba#0001</v>
       </c>
       <c r="N24" s="133"/>
       <c r="O24" s="57" t="s">
@@ -18490,7 +19550,7 @@
         <v>98</v>
       </c>
       <c r="F25" s="101">
-        <f t="shared" ref="F25:F38" si="3">EvaluationDate</f>
+        <f t="shared" ref="F25:F38" si="5">EvaluationDate</f>
         <v>41828</v>
       </c>
       <c r="G25" s="101">
@@ -18503,7 +19563,7 @@
       </c>
       <c r="I25" s="100">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,InterestRatesTrigger)</f>
-        <v>1.2183665977081436E-3</v>
+        <v>1.2183665964504767E-3</v>
       </c>
       <c r="J25" s="86" t="str">
         <f>Contribution!N25</f>
@@ -18513,7 +19573,7 @@
       <c r="L25" s="133"/>
       <c r="M25" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00578#0021</v>
+        <v>obj_004c4#0001</v>
       </c>
       <c r="N25" s="133"/>
       <c r="O25" s="134"/>
@@ -18540,7 +19600,7 @@
         <v>98</v>
       </c>
       <c r="F26" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G26" s="101">
@@ -18553,7 +19613,7 @@
       </c>
       <c r="I26" s="100">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,InterestRatesTrigger)</f>
-        <v>1.2173133573195165E-3</v>
+        <v>1.2173133571816933E-3</v>
       </c>
       <c r="J26" s="86" t="str">
         <f>Contribution!N26</f>
@@ -18563,7 +19623,7 @@
       <c r="L26" s="133"/>
       <c r="M26" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00576#0021</v>
+        <v>obj_004c6#0001</v>
       </c>
       <c r="N26" s="133"/>
       <c r="O26" s="133"/>
@@ -18590,7 +19650,7 @@
         <v>98</v>
       </c>
       <c r="F27" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G27" s="101">
@@ -18603,7 +19663,7 @@
       </c>
       <c r="I27" s="100">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,InterestRatesTrigger)</f>
-        <v>1.4159066105381072E-3</v>
+        <v>1.415906610168787E-3</v>
       </c>
       <c r="J27" s="86" t="str">
         <f>Contribution!N27</f>
@@ -18613,7 +19673,7 @@
       <c r="L27" s="133"/>
       <c r="M27" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0055a#0021</v>
+        <v>obj_004ca#0001</v>
       </c>
       <c r="N27" s="133"/>
       <c r="O27" s="133"/>
@@ -18640,7 +19700,7 @@
         <v>98</v>
       </c>
       <c r="F28" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G28" s="101">
@@ -18653,7 +19713,7 @@
       </c>
       <c r="I28" s="100">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,InterestRatesTrigger)</f>
-        <v>1.8144808414258464E-3</v>
+        <v>1.8144808412981093E-3</v>
       </c>
       <c r="J28" s="86" t="str">
         <f>Contribution!N28</f>
@@ -18663,7 +19723,7 @@
       <c r="L28" s="133"/>
       <c r="M28" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0054f#0021</v>
+        <v>obj_004ae#0001</v>
       </c>
       <c r="N28" s="133"/>
       <c r="O28" s="133"/>
@@ -18690,7 +19750,7 @@
         <v>98</v>
       </c>
       <c r="F29" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G29" s="101">
@@ -18703,7 +19763,7 @@
       </c>
       <c r="I29" s="100">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,InterestRatesTrigger)</f>
-        <v>2.4130235795598526E-3</v>
+        <v>2.4130235794738151E-3</v>
       </c>
       <c r="J29" s="86" t="str">
         <f>Contribution!N29</f>
@@ -18713,7 +19773,7 @@
       <c r="L29" s="133"/>
       <c r="M29" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00581#0021</v>
+        <v>obj_004c0#0001</v>
       </c>
       <c r="N29" s="133"/>
       <c r="O29" s="133"/>
@@ -18740,7 +19800,7 @@
         <v>98</v>
       </c>
       <c r="F30" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G30" s="101">
@@ -18753,7 +19813,7 @@
       </c>
       <c r="I30" s="100">
         <f>_xll.qlIndexFixing(M30,F30,TRUE,InterestRatesTrigger)</f>
-        <v>3.1868819728672537E-3</v>
+        <v>3.1868819726952771E-3</v>
       </c>
       <c r="J30" s="86" t="str">
         <f>Contribution!N30</f>
@@ -18763,7 +19823,7 @@
       <c r="L30" s="133"/>
       <c r="M30" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0052e#0022</v>
+        <v>obj_004b9#0001</v>
       </c>
       <c r="N30" s="133"/>
       <c r="O30" s="133"/>
@@ -18790,7 +19850,7 @@
         <v>98</v>
       </c>
       <c r="F31" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G31" s="101">
@@ -18803,7 +19863,7 @@
       </c>
       <c r="I31" s="100">
         <f>_xll.qlIndexFixing(M31,F31,TRUE,InterestRatesTrigger)</f>
-        <v>4.0107124964799618E-3</v>
+        <v>4.0107124963320168E-3</v>
       </c>
       <c r="J31" s="86" t="str">
         <f>Contribution!N31</f>
@@ -18813,7 +19873,7 @@
       <c r="L31" s="133"/>
       <c r="M31" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0057d#0021</v>
+        <v>obj_004b0#0001</v>
       </c>
       <c r="N31" s="133"/>
       <c r="O31" s="133"/>
@@ -18840,7 +19900,7 @@
         <v>98</v>
       </c>
       <c r="F32" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G32" s="101">
@@ -18853,7 +19913,7 @@
       </c>
       <c r="I32" s="100">
         <f>_xll.qlIndexFixing(M32,F32,TRUE,InterestRatesTrigger)</f>
-        <v>4.8592052592433049E-3</v>
+        <v>4.8592052590892163E-3</v>
       </c>
       <c r="J32" s="86" t="str">
         <f>Contribution!N32</f>
@@ -18863,7 +19923,7 @@
       <c r="L32" s="133"/>
       <c r="M32" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00529#0021</v>
+        <v>obj_004be#0001</v>
       </c>
       <c r="N32" s="133"/>
       <c r="O32" s="133"/>
@@ -18890,7 +19950,7 @@
         <v>98</v>
       </c>
       <c r="F33" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G33" s="101">
@@ -18903,7 +19963,7 @@
       </c>
       <c r="I33" s="100">
         <f>_xll.qlIndexFixing(M33,F33,TRUE,InterestRatesTrigger)</f>
-        <v>5.7080119921278849E-3</v>
+        <v>5.7080119919925374E-3</v>
       </c>
       <c r="J33" s="86" t="str">
         <f>Contribution!N33</f>
@@ -18913,7 +19973,7 @@
       <c r="L33" s="133"/>
       <c r="M33" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00539#0021</v>
+        <v>obj_004bf#0001</v>
       </c>
       <c r="N33" s="133"/>
       <c r="O33" s="133"/>
@@ -18940,7 +20000,7 @@
         <v>98</v>
       </c>
       <c r="F34" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G34" s="101">
@@ -18953,7 +20013,7 @@
       </c>
       <c r="I34" s="100">
         <f>_xll.qlIndexFixing(M34,F34,TRUE,InterestRatesTrigger)</f>
-        <v>7.4881377252415523E-3</v>
+        <v>7.4881377127535408E-3</v>
       </c>
       <c r="J34" s="86" t="str">
         <f>Contribution!N34</f>
@@ -18963,7 +20023,7 @@
       <c r="L34" s="133"/>
       <c r="M34" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00587#0021</v>
+        <v>obj_004b2#0001</v>
       </c>
       <c r="N34" s="133"/>
       <c r="O34" s="133"/>
@@ -18990,7 +20050,7 @@
         <v>98</v>
       </c>
       <c r="F35" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G35" s="101">
@@ -19003,7 +20063,7 @@
       </c>
       <c r="I35" s="100">
         <f>_xll.qlIndexFixing(M35,F35,TRUE,InterestRatesTrigger)</f>
-        <v>1.0054754627747613E-2</v>
+        <v>1.0054754627590753E-2</v>
       </c>
       <c r="J35" s="86" t="str">
         <f>Contribution!N35</f>
@@ -19013,7 +20073,7 @@
       <c r="L35" s="133"/>
       <c r="M35" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0054c#0021</v>
+        <v>obj_004bb#0001</v>
       </c>
       <c r="N35" s="133"/>
       <c r="O35" s="133"/>
@@ -19040,7 +20100,7 @@
         <v>98</v>
       </c>
       <c r="F36" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G36" s="101">
@@ -19053,7 +20113,7 @@
       </c>
       <c r="I36" s="100">
         <f>_xll.qlIndexFixing(M36,F36,TRUE,InterestRatesTrigger)</f>
-        <v>1.3253840459099995E-2</v>
+        <v>1.3253840458939351E-2</v>
       </c>
       <c r="J36" s="86" t="str">
         <f>Contribution!N36</f>
@@ -19063,7 +20123,7 @@
       <c r="L36" s="133"/>
       <c r="M36" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00542#0021</v>
+        <v>obj_004b4#0001</v>
       </c>
       <c r="N36" s="133"/>
       <c r="O36" s="133"/>
@@ -19090,7 +20150,7 @@
         <v>98</v>
       </c>
       <c r="F37" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G37" s="101">
@@ -19103,7 +20163,7 @@
       </c>
       <c r="I37" s="100">
         <f>_xll.qlIndexFixing(M37,F37,TRUE,InterestRatesTrigger)</f>
-        <v>1.4952817434016755E-2</v>
+        <v>1.4952817432717308E-2</v>
       </c>
       <c r="J37" s="86" t="str">
         <f>Contribution!N37</f>
@@ -19113,7 +20173,7 @@
       <c r="L37" s="133"/>
       <c r="M37" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00525#0021</v>
+        <v>obj_004af#0001</v>
       </c>
       <c r="N37" s="133"/>
       <c r="O37" s="133"/>
@@ -19140,7 +20200,7 @@
         <v>98</v>
       </c>
       <c r="F38" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41828</v>
       </c>
       <c r="G38" s="102">
@@ -19153,7 +20213,7 @@
       </c>
       <c r="I38" s="103">
         <f>_xll.qlIndexFixing(M38,F38,TRUE,InterestRatesTrigger)</f>
-        <v>1.5902603989019316E-2</v>
+        <v>1.590260398894339E-2</v>
       </c>
       <c r="J38" s="88" t="str">
         <f>Contribution!N38</f>
@@ -19163,7 +20223,7 @@
       <c r="L38" s="133"/>
       <c r="M38" s="59" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00599#0021</v>
+        <v>obj_004c8#0001</v>
       </c>
       <c r="N38" s="133"/>
       <c r="O38" s="133"/>
@@ -21100,7 +22160,7 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="94">
-        <f>H5-EvaluationDate</f>
+        <f t="shared" ref="B5:B16" si="0">H5-EvaluationDate</f>
         <v>1</v>
       </c>
       <c r="C5" s="62"/>
@@ -21111,7 +22171,7 @@
         <v>97</v>
       </c>
       <c r="F5" s="98">
-        <f t="shared" ref="F5:F16" si="0">EvaluationDate</f>
+        <f t="shared" ref="F5:F16" si="1">EvaluationDate</f>
         <v>41828</v>
       </c>
       <c r="G5" s="98">
@@ -21124,7 +22184,7 @@
       </c>
       <c r="I5" s="108">
         <f>_xll.qlInterpolationInterpolate($M$5,B5,TRUE)</f>
-        <v>1.6668877742354589E-3</v>
+        <v>1.6668877720480482E-3</v>
       </c>
       <c r="J5" s="124" t="str">
         <f>Contribution!U5</f>
@@ -21134,7 +22194,7 @@
       <c r="L5" s="89"/>
       <c r="M5" s="39" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B7:B16,I7:I16,,Trigger)</f>
-        <v>obj_0059b#0041</v>
+        <v>obj_004cc#0002</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="133"/>
@@ -21153,7 +22213,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="95">
-        <f>H6-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="64"/>
@@ -21164,7 +22224,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G6" s="101">
@@ -21177,7 +22237,7 @@
       </c>
       <c r="I6" s="106">
         <f>_xll.qlInterpolationInterpolate($M$5,B6,TRUE)</f>
-        <v>1.6670183363537208E-3</v>
+        <v>1.6670183341812971E-3</v>
       </c>
       <c r="J6" s="125" t="str">
         <f>Contribution!U6</f>
@@ -21205,7 +22265,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="94">
-        <f>H7-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="65"/>
@@ -21216,7 +22276,7 @@
         <v>99</v>
       </c>
       <c r="F7" s="98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G7" s="98">
@@ -21229,7 +22289,7 @@
       </c>
       <c r="I7" s="99">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,InterestRatesTrigger)</f>
-        <v>1.6671399416967603E-3</v>
+        <v>1.6671399395384867E-3</v>
       </c>
       <c r="J7" s="124" t="str">
         <f>Contribution!U7</f>
@@ -21239,7 +22299,7 @@
       <c r="L7" s="89"/>
       <c r="M7" s="54" t="str">
         <f>_xll.qlLibor(,Currency,D7,YieldCurve,,Trigger)</f>
-        <v>obj_0050f#0017</v>
+        <v>obj_00482#0001</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="133"/>
@@ -21258,7 +22318,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="95">
-        <f>H8-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C8" s="66"/>
@@ -21269,7 +22329,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G8" s="101">
@@ -21282,7 +22342,7 @@
       </c>
       <c r="I8" s="100">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,InterestRatesTrigger)</f>
-        <v>1.6681830608877846E-3</v>
+        <v>1.6681830588437052E-3</v>
       </c>
       <c r="J8" s="125" t="str">
         <f>Contribution!U8</f>
@@ -21292,7 +22352,7 @@
       <c r="L8" s="89"/>
       <c r="M8" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_00514#0017</v>
+        <v>obj_0047f#0001</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="133"/>
@@ -21311,7 +22371,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="95">
-        <f>H9-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C9" s="66"/>
@@ -21322,7 +22382,7 @@
         <v>99</v>
       </c>
       <c r="F9" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G9" s="101">
@@ -21335,7 +22395,7 @@
       </c>
       <c r="I9" s="100">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,InterestRatesTrigger)</f>
-        <v>1.6713338382182538E-3</v>
+        <v>1.6713338364824993E-3</v>
       </c>
       <c r="J9" s="125" t="str">
         <f>Contribution!U9</f>
@@ -21345,7 +22405,7 @@
       <c r="L9" s="89"/>
       <c r="M9" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_0051a#0017</v>
+        <v>obj_00486#0001</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="133"/>
@@ -21364,7 +22424,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="95">
-        <f>H10-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C10" s="66"/>
@@ -21375,7 +22435,7 @@
         <v>99</v>
       </c>
       <c r="F10" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G10" s="101">
@@ -21388,7 +22448,7 @@
       </c>
       <c r="I10" s="100">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,InterestRatesTrigger)</f>
-        <v>1.6765673691754301E-3</v>
+        <v>1.6765673679535503E-3</v>
       </c>
       <c r="J10" s="125" t="str">
         <f>Contribution!U10</f>
@@ -21398,7 +22458,7 @@
       <c r="L10" s="89"/>
       <c r="M10" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_00511#0017</v>
+        <v>obj_0047e#0001</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="133"/>
@@ -21417,7 +22477,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="95">
-        <f>H11-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C11" s="66"/>
@@ -21428,7 +22488,7 @@
         <v>99</v>
       </c>
       <c r="F11" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G11" s="101">
@@ -21441,7 +22501,7 @@
       </c>
       <c r="I11" s="100">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,InterestRatesTrigger)</f>
-        <v>1.6889999999977756E-3</v>
+        <v>1.6890000000002736E-3</v>
       </c>
       <c r="J11" s="125" t="str">
         <f>Contribution!U11</f>
@@ -21451,7 +22511,7 @@
       <c r="L11" s="89"/>
       <c r="M11" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_00517#0017</v>
+        <v>obj_00480#0001</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="133"/>
@@ -21470,7 +22530,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="95">
-        <f>H12-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C12" s="66"/>
@@ -21481,7 +22541,7 @@
         <v>99</v>
       </c>
       <c r="F12" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G12" s="101">
@@ -21494,7 +22554,7 @@
       </c>
       <c r="I12" s="100">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,InterestRatesTrigger)</f>
-        <v>1.7209999999978273E-3</v>
+        <v>1.721000000000406E-3</v>
       </c>
       <c r="J12" s="125" t="str">
         <f>Contribution!U12</f>
@@ -21504,7 +22564,7 @@
       <c r="L12" s="89"/>
       <c r="M12" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_00510#0017</v>
+        <v>obj_00485#0001</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="133"/>
@@ -21523,7 +22583,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="95">
-        <f>H13-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="C13" s="66"/>
@@ -21534,7 +22594,7 @@
         <v>99</v>
       </c>
       <c r="F13" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G13" s="101">
@@ -21547,7 +22607,7 @@
       </c>
       <c r="I13" s="100">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,InterestRatesTrigger)</f>
-        <v>1.7219999999981092E-3</v>
+        <v>1.7219999999998469E-3</v>
       </c>
       <c r="J13" s="125" t="str">
         <f>Contribution!U13</f>
@@ -21557,7 +22617,7 @@
       <c r="L13" s="89"/>
       <c r="M13" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D13,YieldCurve,,Trigger)</f>
-        <v>obj_0051c#0017</v>
+        <v>obj_00487#0001</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="133"/>
@@ -21576,7 +22636,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="95">
-        <f>H14-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="C14" s="66"/>
@@ -21587,7 +22647,7 @@
         <v>99</v>
       </c>
       <c r="F14" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G14" s="101">
@@ -21600,7 +22660,7 @@
       </c>
       <c r="I14" s="100">
         <f>_xll.qlIndexFixing(M14,F14,TRUE,InterestRatesTrigger)</f>
-        <v>1.7429999999988206E-3</v>
+        <v>1.7429999999994705E-3</v>
       </c>
       <c r="J14" s="125" t="str">
         <f>Contribution!U14</f>
@@ -21610,7 +22670,7 @@
       <c r="L14" s="89"/>
       <c r="M14" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D14,YieldCurve,,Trigger)</f>
-        <v>obj_00515#0017</v>
+        <v>obj_00481#0001</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="133"/>
@@ -21629,7 +22689,7 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="95">
-        <f>H15-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="C15" s="66"/>
@@ -21640,7 +22700,7 @@
         <v>99</v>
       </c>
       <c r="F15" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G15" s="101">
@@ -21653,7 +22713,7 @@
       </c>
       <c r="I15" s="100">
         <f>_xll.qlIndexFixing(M15,F15,TRUE,InterestRatesTrigger)</f>
-        <v>1.7589999999997395E-3</v>
+        <v>1.7589999999992171E-3</v>
       </c>
       <c r="J15" s="125" t="str">
         <f>Contribution!U15</f>
@@ -21663,7 +22723,7 @@
       <c r="L15" s="89"/>
       <c r="M15" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D15,YieldCurve,,Trigger)</f>
-        <v>obj_00512#0017</v>
+        <v>obj_00483#0001</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="133"/>
@@ -21682,7 +22742,7 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="95">
-        <f>H16-EvaluationDate</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="C16" s="66"/>
@@ -21693,7 +22753,7 @@
         <v>99</v>
       </c>
       <c r="F16" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41828</v>
       </c>
       <c r="G16" s="101">
@@ -21706,7 +22766,7 @@
       </c>
       <c r="I16" s="100">
         <f>_xll.qlIndexFixing(M16,F16,TRUE,InterestRatesTrigger)</f>
-        <v>1.7446463617073475E-3</v>
+        <v>1.7446463451507518E-3</v>
       </c>
       <c r="J16" s="125" t="str">
         <f>Contribution!U16</f>
@@ -21768,7 +22828,7 @@
         <v>JPY6M1x7F=</v>
       </c>
       <c r="K17" s="124" t="str">
-        <f>Currency&amp;B17&amp;C17&amp;SUBSTITUTE(D17,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" ref="K17:K22" si="2">Currency&amp;B17&amp;C17&amp;SUBSTITUTE(D17,"M","F")&amp;"=ICAP"</f>
         <v>JPY1X7F=ICAP</v>
       </c>
       <c r="L17" s="89"/>
@@ -21796,7 +22856,7 @@
         <v>134</v>
       </c>
       <c r="D18" s="44" t="str">
-        <f t="shared" ref="D18:D23" si="1">B18+6&amp;"M"</f>
+        <f t="shared" ref="D18:D23" si="3">B18+6&amp;"M"</f>
         <v>8M</v>
       </c>
       <c r="E18" s="56" t="s">
@@ -21816,14 +22876,14 @@
       </c>
       <c r="I18" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,InterestRatesTrigger)</f>
-        <v>1.7499999999992092E-3</v>
+        <v>1.7499999999996509E-3</v>
       </c>
       <c r="J18" s="125" t="str">
         <f>Contribution!U18</f>
         <v>JPY6M2x8F=</v>
       </c>
       <c r="K18" s="125" t="str">
-        <f>Currency&amp;B18&amp;C18&amp;SUBSTITUTE(D18,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY2X8F=ICAP</v>
       </c>
       <c r="L18" s="89"/>
@@ -21851,7 +22911,7 @@
         <v>134</v>
       </c>
       <c r="D19" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9M</v>
       </c>
       <c r="E19" s="56" t="s">
@@ -21871,14 +22931,14 @@
       </c>
       <c r="I19" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,InterestRatesTrigger)</f>
-        <v>1.7499999999989473E-3</v>
+        <v>1.7499999999998257E-3</v>
       </c>
       <c r="J19" s="125" t="str">
         <f>Contribution!U19</f>
         <v>JPY6M3x9F=</v>
       </c>
       <c r="K19" s="125" t="str">
-        <f>Currency&amp;B19&amp;C19&amp;SUBSTITUTE(D19,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY3X9F=ICAP</v>
       </c>
       <c r="L19" s="89"/>
@@ -21906,7 +22966,7 @@
         <v>134</v>
       </c>
       <c r="D20" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10M</v>
       </c>
       <c r="E20" s="56" t="s">
@@ -21933,7 +22993,7 @@
         <v>JPY6M4x10F=</v>
       </c>
       <c r="K20" s="125" t="str">
-        <f>Currency&amp;B20&amp;C20&amp;SUBSTITUTE(D20,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY4X10F=ICAP</v>
       </c>
       <c r="L20" s="89"/>
@@ -21961,7 +23021,7 @@
         <v>134</v>
       </c>
       <c r="D21" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11M</v>
       </c>
       <c r="E21" s="56" t="s">
@@ -21988,7 +23048,7 @@
         <v>JPY6M5x11F=</v>
       </c>
       <c r="K21" s="125" t="str">
-        <f>Currency&amp;B21&amp;C21&amp;SUBSTITUTE(D21,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY5X11F=ICAP</v>
       </c>
       <c r="L21" s="89"/>
@@ -22016,7 +23076,7 @@
         <v>134</v>
       </c>
       <c r="D22" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12M</v>
       </c>
       <c r="E22" s="56" t="s">
@@ -22036,14 +23096,14 @@
       </c>
       <c r="I22" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,InterestRatesTrigger)</f>
-        <v>1.6500000001785206E-3</v>
+        <v>1.6500000013899272E-3</v>
       </c>
       <c r="J22" s="125" t="str">
         <f>Contribution!U22</f>
         <v>JPY6M6x12F=</v>
       </c>
       <c r="K22" s="125" t="str">
-        <f>Currency&amp;B22&amp;C22&amp;SUBSTITUTE(D22,"M","F")&amp;"=ICAP"</f>
+        <f t="shared" si="2"/>
         <v>JPY6X12F=ICAP</v>
       </c>
       <c r="L22" s="89"/>
@@ -22071,7 +23131,7 @@
         <v>134</v>
       </c>
       <c r="D23" s="44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15M</v>
       </c>
       <c r="E23" s="56" t="s">
@@ -22091,7 +23151,7 @@
       </c>
       <c r="I23" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,InterestRatesTrigger)</f>
-        <v>1.5516167904370698E-3</v>
+        <v>1.533788915639138E-3</v>
       </c>
       <c r="J23" s="125"/>
       <c r="K23" s="125"/>
@@ -22130,7 +23190,7 @@
         <v>98</v>
       </c>
       <c r="F24" s="98">
-        <f t="shared" ref="F24" si="2">EvaluationDate</f>
+        <f t="shared" ref="F24" si="4">EvaluationDate</f>
         <v>41828</v>
       </c>
       <c r="G24" s="98">
@@ -22143,20 +23203,20 @@
       </c>
       <c r="I24" s="99">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,InterestRatesTrigger)</f>
-        <v>1.6968014667409802E-3</v>
+        <v>1.6966645370560388E-3</v>
       </c>
       <c r="J24" s="124" t="str">
         <f>Contribution!U24</f>
         <v>JPY6M18M=</v>
       </c>
       <c r="K24" s="124" t="str">
-        <f>Currency&amp;"SB6L"&amp;D24&amp;"=ICAP"</f>
+        <f t="shared" ref="K24:K38" si="5">Currency&amp;"SB6L"&amp;D24&amp;"=ICAP"</f>
         <v>JPYSB6L18M=ICAP</v>
       </c>
       <c r="L24" s="89"/>
       <c r="M24" s="118" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00598#0042</v>
+        <v>obj_004bc#0001</v>
       </c>
       <c r="N24" s="144"/>
       <c r="O24" s="54" t="s">
@@ -22189,7 +23249,7 @@
         <v>98</v>
       </c>
       <c r="F25" s="101">
-        <f t="shared" ref="F25:F38" si="3">EvaluationDate</f>
+        <f t="shared" ref="F25:F38" si="6">EvaluationDate</f>
         <v>41828</v>
       </c>
       <c r="G25" s="101">
@@ -22202,20 +23262,20 @@
       </c>
       <c r="I25" s="100">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,InterestRatesTrigger)</f>
-        <v>1.6999996987381606E-3</v>
+        <v>1.6998517187517027E-3</v>
       </c>
       <c r="J25" s="125" t="str">
         <f>Contribution!U25</f>
         <v>JPY6M2Y=</v>
       </c>
       <c r="K25" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D25&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L2Y=ICAP</v>
       </c>
       <c r="L25" s="89"/>
       <c r="M25" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0052f#0017</v>
+        <v>obj_004c9#0001</v>
       </c>
       <c r="N25" s="144"/>
       <c r="O25" s="134"/>
@@ -22242,7 +23302,7 @@
         <v>98</v>
       </c>
       <c r="F26" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G26" s="101">
@@ -22255,20 +23315,20 @@
       </c>
       <c r="I26" s="100">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,InterestRatesTrigger)</f>
-        <v>1.7749997986771932E-3</v>
+        <v>1.7749009309943535E-3</v>
       </c>
       <c r="J26" s="125" t="str">
         <f>Contribution!U26</f>
         <v>JPY6M3Y=</v>
       </c>
       <c r="K26" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D26&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L3Y=ICAP</v>
       </c>
       <c r="L26" s="89"/>
       <c r="M26" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0053f#0017</v>
+        <v>obj_004b7#0001</v>
       </c>
       <c r="N26" s="144"/>
       <c r="O26" s="133"/>
@@ -22295,7 +23355,7 @@
         <v>98</v>
       </c>
       <c r="F27" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G27" s="101">
@@ -22308,20 +23368,20 @@
       </c>
       <c r="I27" s="100">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,InterestRatesTrigger)</f>
-        <v>2.0749998489120857E-3</v>
+        <v>2.0749256497035722E-3</v>
       </c>
       <c r="J27" s="125" t="str">
         <f>Contribution!U27</f>
         <v>JPY6M4Y=</v>
       </c>
       <c r="K27" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D27&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L4Y=ICAP</v>
       </c>
       <c r="L27" s="89"/>
       <c r="M27" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00538#0017</v>
+        <v>obj_004b3#0001</v>
       </c>
       <c r="N27" s="144"/>
       <c r="O27" s="133"/>
@@ -22348,7 +23408,7 @@
         <v>98</v>
       </c>
       <c r="F28" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G28" s="101">
@@ -22361,20 +23421,20 @@
       </c>
       <c r="I28" s="100">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,InterestRatesTrigger)</f>
-        <v>2.5749998789548821E-3</v>
+        <v>2.5749404759403309E-3</v>
       </c>
       <c r="J28" s="125" t="str">
         <f>Contribution!U28</f>
         <v>JPY6M5Y=</v>
       </c>
       <c r="K28" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D28&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L5Y=ICAP</v>
       </c>
       <c r="L28" s="89"/>
       <c r="M28" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00528#0017</v>
+        <v>obj_004bd#0001</v>
       </c>
       <c r="N28" s="144"/>
       <c r="O28" s="133"/>
@@ -22401,7 +23461,7 @@
         <v>98</v>
       </c>
       <c r="F29" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G29" s="101">
@@ -22414,20 +23474,20 @@
       </c>
       <c r="I29" s="100">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,InterestRatesTrigger)</f>
-        <v>3.2749998991199558E-3</v>
+        <v>3.2749503667469687E-3</v>
       </c>
       <c r="J29" s="125" t="str">
         <f>Contribution!U29</f>
         <v>JPY6M6Y=</v>
       </c>
       <c r="K29" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D29&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L6Y=ICAP</v>
       </c>
       <c r="L29" s="89"/>
       <c r="M29" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00575#0017</v>
+        <v>obj_004c3#0001</v>
       </c>
       <c r="N29" s="144"/>
       <c r="O29" s="133"/>
@@ -22454,7 +23514,7 @@
         <v>98</v>
       </c>
       <c r="F30" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G30" s="101">
@@ -22467,20 +23527,20 @@
       </c>
       <c r="I30" s="100">
         <f>_xll.qlIndexFixing(M30,F30,TRUE,InterestRatesTrigger)</f>
-        <v>4.1249994687752711E-3</v>
+        <v>4.1249569767566078E-3</v>
       </c>
       <c r="J30" s="125" t="str">
         <f>Contribution!U30</f>
         <v>JPY6M7Y=</v>
       </c>
       <c r="K30" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D30&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L7Y=ICAP</v>
       </c>
       <c r="L30" s="89"/>
       <c r="M30" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00541#0017</v>
+        <v>obj_004c2#0001</v>
       </c>
       <c r="N30" s="144"/>
       <c r="O30" s="133"/>
@@ -22507,7 +23567,7 @@
         <v>98</v>
       </c>
       <c r="F31" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G31" s="101">
@@ -22520,20 +23580,20 @@
       </c>
       <c r="I31" s="100">
         <f>_xll.qlIndexFixing(M31,F31,TRUE,InterestRatesTrigger)</f>
-        <v>5.0250012316455771E-3</v>
+        <v>5.0249639507925483E-3</v>
       </c>
       <c r="J31" s="125" t="str">
         <f>Contribution!U31</f>
         <v>JPY6M8Y=</v>
       </c>
       <c r="K31" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D31&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L8Y=ICAP</v>
       </c>
       <c r="L31" s="89"/>
       <c r="M31" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00582#0017</v>
+        <v>obj_004c7#0001</v>
       </c>
       <c r="N31" s="144"/>
       <c r="O31" s="133"/>
@@ -22560,7 +23620,7 @@
         <v>98</v>
       </c>
       <c r="F32" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G32" s="101">
@@ -22573,20 +23633,20 @@
       </c>
       <c r="I32" s="100">
         <f>_xll.qlIndexFixing(M32,F32,TRUE,InterestRatesTrigger)</f>
-        <v>5.9750010981100901E-3</v>
+        <v>5.9749678594145728E-3</v>
       </c>
       <c r="J32" s="125" t="str">
         <f>Contribution!U32</f>
         <v>JPY6M9Y=</v>
       </c>
       <c r="K32" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D32&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L9Y=ICAP</v>
       </c>
       <c r="L32" s="89"/>
       <c r="M32" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00594#0017</v>
+        <v>obj_004b6#0001</v>
       </c>
       <c r="N32" s="144"/>
       <c r="O32" s="133"/>
@@ -22613,7 +23673,7 @@
         <v>98</v>
       </c>
       <c r="F33" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G33" s="101">
@@ -22626,20 +23686,20 @@
       </c>
       <c r="I33" s="100">
         <f>_xll.qlIndexFixing(M33,F33,TRUE,InterestRatesTrigger)</f>
-        <v>6.9000009911657769E-3</v>
+        <v>6.89997098928223E-3</v>
       </c>
       <c r="J33" s="125" t="str">
         <f>Contribution!U33</f>
         <v>JPY6M10Y=</v>
       </c>
       <c r="K33" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D33&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L10Y=ICAP</v>
       </c>
       <c r="L33" s="89"/>
       <c r="M33" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0053d#0017</v>
+        <v>obj_004ad#0001</v>
       </c>
       <c r="N33" s="144"/>
       <c r="O33" s="133"/>
@@ -22666,7 +23726,7 @@
         <v>98</v>
       </c>
       <c r="F34" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G34" s="101">
@@ -22679,20 +23739,20 @@
       </c>
       <c r="I34" s="100">
         <f>_xll.qlIndexFixing(M34,F34,TRUE,InterestRatesTrigger)</f>
-        <v>8.7750005692088396E-3</v>
+        <v>8.7749753621395674E-3</v>
       </c>
       <c r="J34" s="125" t="str">
         <f>Contribution!U34</f>
         <v>JPY6M12Y=</v>
       </c>
       <c r="K34" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D34&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L12Y=ICAP</v>
       </c>
       <c r="L34" s="89"/>
       <c r="M34" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00543#0017</v>
+        <v>obj_004c1#0001</v>
       </c>
       <c r="N34" s="144"/>
       <c r="O34" s="133"/>
@@ -22719,7 +23779,7 @@
         <v>98</v>
       </c>
       <c r="F35" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G35" s="101">
@@ -22732,20 +23792,20 @@
       </c>
       <c r="I35" s="100">
         <f>_xll.qlIndexFixing(M35,F35,TRUE,InterestRatesTrigger)</f>
-        <v>1.1425000326668289E-2</v>
+        <v>1.1424979822909588E-2</v>
       </c>
       <c r="J35" s="125" t="str">
         <f>Contribution!U35</f>
         <v>JPY6M15Y=</v>
       </c>
       <c r="K35" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D35&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L15Y=ICAP</v>
       </c>
       <c r="L35" s="89"/>
       <c r="M35" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0056f#0017</v>
+        <v>obj_004b8#0001</v>
       </c>
       <c r="N35" s="144"/>
       <c r="O35" s="133"/>
@@ -22772,7 +23832,7 @@
         <v>98</v>
       </c>
       <c r="F36" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G36" s="101">
@@ -22785,20 +23845,20 @@
       </c>
       <c r="I36" s="100">
         <f>_xll.qlIndexFixing(M36,F36,TRUE,InterestRatesTrigger)</f>
-        <v>1.4650000023070457E-2</v>
+        <v>1.4649984066690779E-2</v>
       </c>
       <c r="J36" s="125" t="str">
         <f>Contribution!U36</f>
         <v>JPY6M20Y=</v>
       </c>
       <c r="K36" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D36&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L20Y=ICAP</v>
       </c>
       <c r="L36" s="89"/>
       <c r="M36" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00593#0017</v>
+        <v>obj_004b5#0001</v>
       </c>
       <c r="N36" s="144"/>
       <c r="O36" s="133"/>
@@ -22825,7 +23885,7 @@
         <v>98</v>
       </c>
       <c r="F37" s="101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G37" s="101">
@@ -22838,20 +23898,20 @@
       </c>
       <c r="I37" s="100">
         <f>_xll.qlIndexFixing(M37,F37,TRUE,InterestRatesTrigger)</f>
-        <v>1.6349999700466911E-2</v>
+        <v>1.6349986386552585E-2</v>
       </c>
       <c r="J37" s="125" t="str">
         <f>Contribution!U37</f>
         <v>JPY6M25Y=</v>
       </c>
       <c r="K37" s="125" t="str">
-        <f>Currency&amp;"SB6L"&amp;D37&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L25Y=ICAP</v>
       </c>
       <c r="L37" s="89"/>
       <c r="M37" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_00588#0017</v>
+        <v>obj_004c5#0001</v>
       </c>
       <c r="N37" s="144"/>
       <c r="O37" s="133"/>
@@ -22878,7 +23938,7 @@
         <v>98</v>
       </c>
       <c r="F38" s="102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41828</v>
       </c>
       <c r="G38" s="102">
@@ -22891,20 +23951,20 @@
       </c>
       <c r="I38" s="103">
         <f>_xll.qlIndexFixing(M38,F38,TRUE,InterestRatesTrigger)</f>
-        <v>1.7349999537139654E-2</v>
+        <v>1.7349987950193699E-2</v>
       </c>
       <c r="J38" s="126" t="str">
         <f>Contribution!U38</f>
         <v>JPY6M30Y=</v>
       </c>
       <c r="K38" s="126" t="str">
-        <f>Currency&amp;"SB6L"&amp;D38&amp;"=ICAP"</f>
+        <f t="shared" si="5"/>
         <v>JPYSB6L30Y=ICAP</v>
       </c>
       <c r="L38" s="89"/>
       <c r="M38" s="132" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_0058a#0017</v>
+        <v>obj_004b1#0001</v>
       </c>
       <c r="N38" s="144"/>
       <c r="O38" s="133"/>

--- a/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="136">
   <si>
     <t>BID</t>
   </si>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>RIC TONAR?!?</t>
-  </si>
-  <si>
-    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -1396,157 +1393,7 @@
     <cellStyle name="Valuta (0)_AZIONI" xfId="11"/>
     <cellStyle name="Valuta_AZIONI" xfId="12"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1578,472 +1425,268 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="realtimexl.rtxlpubrtd.1">
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M9x12F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M9x12F=	838426624:21:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C22" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON1Y6MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON1Y6MD=	838426624:23:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B24" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON2MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON2MD=	838426624:11:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B12" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON6MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON6MD=	838426624:15:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B16" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON1MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON1MD=	838426624:10:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B11" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON3MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON3MD=	838426624:12:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B13" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON5MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON5MD=	838426624:14:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B15" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON9MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON9MD=	838426624:18:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B19" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON4MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON4MD=	838426624:13:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B14" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON6YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON6YD=	838426624:28:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B29" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON7YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON7YD=	838426624:29:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B30" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON4YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON4YD=	838426624:26:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B27" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON5YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON5YD=	838426624:27:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B28" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON1YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON1YD=	838426624:21:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B22" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON2YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON2YD=	838426624:24:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B25" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON3YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON3YD=	838426624:25:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B26" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON8YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON8YD=	838426624:30:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B31" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON9YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON9YD=	838426624:31:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B32" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M6x12F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M6x12F=	838426624:21:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D22" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M5x11F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M5x11F=	838426624:20:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D21" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M4x10F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M4x10F=	838426624:19:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D20" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.17499999999999999</v>
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M2x8F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X18" s="7"/>
       </tp>
-      <tp>
-        <v>0.17499999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M3x9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X19" s="7"/>
       </tp>
-      <tp>
-        <v>0.17499999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M3x9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y19" s="7"/>
       </tp>
-      <tp>
-        <v>0.17499999999999999</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M2x8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y18" s="7"/>
       </tp>
-      <tp>
-        <v>6.4291653000000004E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K7" s="7"/>
       </tp>
-      <tp>
-        <v>6.4341084000000007E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K8" s="7"/>
       </tp>
-      <tp>
-        <v>6.4284640000000004E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K6" s="7"/>
       </tp>
-      <tp>
-        <v>6.4281134000000004E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K5" s="7"/>
       </tp>
-      <tp>
-        <v>6.25E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K13" s="7"/>
       </tp>
-      <tp>
-        <v>6.4620067000000003E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K10" s="7"/>
       </tp>
-      <tp>
-        <v>6.7500000000000004E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K26" s="7"/>
       </tp>
-      <tp>
-        <v>6.5000000000000002E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K12" s="7"/>
       </tp>
-      <tp>
-        <v>6.4451937000000001E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K9" s="7"/>
       </tp>
-      <tp>
-        <v>0.06</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K25" s="7"/>
       </tp>
-      <tp>
-        <v>6.5000000000000002E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K11" s="7"/>
       </tp>
-      <tp>
-        <v>0.06</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K22" s="7"/>
       </tp>
-      <tp>
-        <v>0.2175</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K30" s="7"/>
       </tp>
-      <tp>
-        <v>0.06</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K16" s="7"/>
       </tp>
-      <tp>
-        <v>0.15</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K29" s="7"/>
       </tp>
-      <tp>
-        <v>6.25E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K15" s="7"/>
       </tp>
-      <tp>
-        <v>0.10249999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K28" s="7"/>
       </tp>
-      <tp>
-        <v>6.25E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K14" s="7"/>
       </tp>
-      <tp>
-        <v>7.7499999999999999E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K27" s="7"/>
       </tp>
-      <tp>
-        <v>0.06</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K19" s="7"/>
       </tp>
-      <tp>
-        <v>0.36</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K32" s="7"/>
       </tp>
-      <tp>
-        <v>0.30249999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K31" s="7"/>
       </tp>
-      <tp>
-        <v>0.125</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M6x9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q19" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M5x8F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q18" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M5x8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R18" s="7"/>
       </tp>
-      <tp>
-        <v>0.125</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M6x9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R19" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M3x6F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R16" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M2x5F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q15" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M4x7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R17" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M1x4F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q14" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M1x4F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R14" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M4x7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q17" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M2x5F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R15" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M3x6F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q16" s="7"/>
       </tp>
-      <tp>
-        <v>0.17499999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M1x7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y17" s="7"/>
       </tp>
-      <tp>
-        <v>0.17499999999999999</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M1x7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2051,1682 +1694,924 @@
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.115</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000C_JPY3M12x15F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q23" s="7"/>
       </tp>
     </main>
-    <main first="realtimexl.rtxlpubrtd.1">
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M4x7F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M4x7F=	838426624:16:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C17" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M5x8F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M5x8F=	838426624:17:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C18" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M6x9F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M6x9F=	838426624:18:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C19" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M1x4F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M1x4F=	838426624:13:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C14" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M2x5F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M2x5F=	838426624:14:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C15" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M3x6F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M3x6F=	838426624:15:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C16" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M1x7F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M1x7F=	838426624:16:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D17" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M2x8F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M2x8F=	838426624:17:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D18" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M3x9F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M3x9F=	838426624:18:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D19" s="7"/>
-      </tp>
-    </main>
-    <main first="realtimexl.rtxlpubrtd.1">
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON20YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON20YD=	838426624:35:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B36" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON25YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON25YD=	838426624:36:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B37" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON30YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON30YD=	838426624:37:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B38" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON10YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON10YD=	838426624:32:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B33" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON12YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON12YD=	838426624:33:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B34" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON15YD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON15YD=	838426624:34:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B35" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>1.3425</v>
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J37" s="7"/>
       </tp>
-      <tp>
-        <v>1.175</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J36" s="7"/>
       </tp>
-      <tp>
-        <v>1.44</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J38" s="7"/>
       </tp>
-      <tp>
-        <v>0.86</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J35" s="7"/>
       </tp>
-      <tp>
-        <v>0.435</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J33" s="7"/>
       </tp>
-      <tp>
-        <v>0.60499999999999998</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J34" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>6.4291653000000004E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J7" s="7"/>
       </tp>
-      <tp>
-        <v>6.4341084000000007E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J8" s="7"/>
       </tp>
-      <tp>
-        <v>6.4284640000000004E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J6" s="7"/>
       </tp>
-      <tp>
-        <v>6.4281134000000004E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J5" s="7"/>
       </tp>
-      <tp>
-        <v>6.25E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J13" s="7"/>
       </tp>
-      <tp>
-        <v>6.4620067000000003E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J10" s="7"/>
       </tp>
-      <tp>
-        <v>6.7500000000000004E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J26" s="7"/>
       </tp>
-      <tp>
-        <v>6.5000000000000002E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J12" s="7"/>
       </tp>
-      <tp>
-        <v>6.4451937000000001E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J9" s="7"/>
       </tp>
-      <tp>
-        <v>0.06</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J25" s="7"/>
       </tp>
-      <tp>
-        <v>6.5000000000000002E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J11" s="7"/>
       </tp>
-      <tp>
-        <v>0.06</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J22" s="7"/>
       </tp>
-      <tp>
-        <v>0.2175</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J30" s="7"/>
       </tp>
-      <tp>
-        <v>0.06</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J16" s="7"/>
       </tp>
-      <tp>
-        <v>0.15</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J29" s="7"/>
       </tp>
-      <tp>
-        <v>6.25E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J15" s="7"/>
       </tp>
-      <tp>
-        <v>0.10249999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J28" s="7"/>
       </tp>
-      <tp>
-        <v>6.25E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J14" s="7"/>
       </tp>
-      <tp>
-        <v>7.7499999999999999E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J27" s="7"/>
       </tp>
-      <tp>
-        <v>0.06</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J19" s="7"/>
       </tp>
-      <tp>
-        <v>0.36</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J32" s="7"/>
       </tp>
-      <tp>
-        <v>0.30249999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J31" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.86</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K35" s="7"/>
       </tp>
-      <tp>
-        <v>0.435</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K33" s="7"/>
       </tp>
-      <tp>
-        <v>0.60499999999999998</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K34" s="7"/>
       </tp>
-      <tp>
-        <v>1.44</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K38" s="7"/>
       </tp>
-      <tp>
-        <v>1.3425</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K37" s="7"/>
       </tp>
-      <tp>
-        <v>1.175</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K36" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.115</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000C_JPY3M12x15F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R23" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.166713994</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X7" s="7"/>
       </tp>
-      <tp>
-        <v>0.166818306</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X8" s="7"/>
       </tp>
-      <tp>
-        <v>0.16670183299999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X6" s="7"/>
       </tp>
-      <tp>
-        <v>0.16668877700000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X5" s="7"/>
       </tp>
-      <tp>
-        <v>0.17219999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X13" s="7"/>
       </tp>
-      <tp>
-        <v>0.167656737</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X10" s="7"/>
       </tp>
-      <tp>
-        <v>0.1721</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X12" s="7"/>
       </tp>
-      <tp>
-        <v>0.167133384</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X9" s="7"/>
       </tp>
-      <tp>
-        <v>0.16889999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X11" s="7"/>
       </tp>
-      <tp>
-        <v>0.17446463500000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X16" s="7"/>
       </tp>
-      <tp>
-        <v>0.1759</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X15" s="7"/>
       </tp>
-      <tp>
-        <v>0.17430000000000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X14" s="7"/>
       </tp>
-      <tp>
-        <v>0.48592052600000002</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R32" s="7"/>
       </tp>
-      <tp>
-        <v>0.40107124999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R31" s="7"/>
       </tp>
-      <tp>
-        <v>0.121731336</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R26" s="7"/>
       </tp>
-      <tp>
-        <v>0.12183666</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R25" s="7"/>
       </tp>
-      <tp>
-        <v>0.18144808400000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R28" s="7"/>
       </tp>
-      <tp>
-        <v>0.14159066100000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R27" s="7"/>
       </tp>
-      <tp>
-        <v>0.31868819700000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R30" s="7"/>
       </tp>
-      <tp>
-        <v>0.24130235799999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R29" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>1.5902603989999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R38" s="7"/>
       </tp>
-      <tp>
-        <v>1.4952817430000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R37" s="7"/>
       </tp>
-      <tp>
-        <v>1.3253840459999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R36" s="7"/>
       </tp>
-      <tp>
-        <v>1.005475463</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R35" s="7"/>
       </tp>
-      <tp>
-        <v>0.74881377100000002</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R34" s="7"/>
       </tp>
-      <tp>
-        <v>0.57080119900000004</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R33" s="7"/>
       </tp>
     </main>
-    <main first="realtimexl.rtxlpubrtd.1">
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON3WD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON3WD=	838426624:9:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B10" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYON2WD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYON2WD=	838426624:8:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B9" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYONSWD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYONSWD=	838426624:7:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B8" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.13716889700000001</v>
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q7" s="7"/>
       </tp>
-      <tp>
-        <v>0.137162161</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q8" s="7"/>
       </tp>
-      <tp>
-        <v>0.13717253500000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q6" s="7"/>
       </tp>
-      <tp>
-        <v>0.137173924</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q5" s="7"/>
       </tp>
-      <tp>
-        <v>0.13200000000000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q13" s="7"/>
       </tp>
-      <tp>
-        <v>0.137097999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q10" s="7"/>
       </tp>
-      <tp>
-        <v>0.13539999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q12" s="7"/>
       </tp>
-      <tp>
-        <v>0.13713855799999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q9" s="7"/>
       </tp>
-      <tp>
-        <v>0.13700000000000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q11" s="7"/>
       </tp>
-      <tp>
-        <v>0.597496786</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y32" s="7"/>
       </tp>
-      <tp>
-        <v>0.50249639499999998</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y31" s="7"/>
       </tp>
-      <tp>
-        <v>0.17749009299999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y26" s="7"/>
       </tp>
-      <tp>
-        <v>0.16998517199999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y25" s="7"/>
       </tp>
-      <tp>
-        <v>0.25749404799999998</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y28" s="7"/>
       </tp>
-      <tp>
-        <v>0.20749256499999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y27" s="7"/>
       </tp>
-      <tp>
-        <v>0.41249569800000002</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y30" s="7"/>
       </tp>
-      <tp>
-        <v>0.32749503699999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y29" s="7"/>
       </tp>
     </main>
-    <main first="realtimexl.rtxlpubrtd.1">
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M2WD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M2WD=	838426624:8:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C9" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M3WD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M3WD=	838426624:9:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C10" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3MSWD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3MSWD=	838426624:7:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C8" s="7"/>
-      </tp>
-    </main>
-    <main first="realtimexl.rtxlpubrtd.1">
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M2WD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M2WD=	838426624:8:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D9" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M3WD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M3WD=	838426624:9:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D10" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6MSWD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6MSWD=	838426624:7:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D8" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>1.7349987950000001</v>
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y38" s="7"/>
       </tp>
-      <tp>
-        <v>1.634998639</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y37" s="7"/>
       </tp>
-      <tp>
-        <v>1.4649984069999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y36" s="7"/>
       </tp>
-      <tp>
-        <v>1.1424979820000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y35" s="7"/>
       </tp>
-      <tp>
-        <v>0.87749753600000002</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y34" s="7"/>
       </tp>
-      <tp>
-        <v>0.68999709899999995</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y33" s="7"/>
       </tp>
     </main>
-    <main first="realtimexl.rtxlpubrtd.1">
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M2Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M2Y=	838426624:24:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D25" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M3Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M3Y=	838426624:25:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D26" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M4Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M4Y=	838426624:26:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D27" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M5Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M5Y=	838426624:27:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D28" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M6Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M6Y=	838426624:28:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D29" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M7Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M7Y=	838426624:29:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D30" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M8Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M8Y=	838426624:30:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D31" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M9Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M9Y=	838426624:31:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D32" s="7"/>
-      </tp>
-    </main>
-    <main first="realtimexl.rtxlpubrtd.1">
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M8Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M8Y=	838426624:30:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C31" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M9Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M9Y=	838426624:31:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C32" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M2Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M2Y=	838426624:24:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C25" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M3Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M3Y=	838426624:25:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C26" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M4Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M4Y=	838426624:26:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C27" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M5Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M5Y=	838426624:27:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C28" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M6Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M6Y=	838426624:28:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C29" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M7Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M7Y=	838426624:29:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C30" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.16966645399999999</v>
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X24" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.50249639499999998</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X31" s="7"/>
       </tp>
-      <tp>
-        <v>0.597496786</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X32" s="7"/>
       </tp>
-      <tp>
-        <v>0.16998517199999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X25" s="7"/>
       </tp>
-      <tp>
-        <v>0.17749009299999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X26" s="7"/>
       </tp>
-      <tp>
-        <v>0.32749503699999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X29" s="7"/>
       </tp>
-      <tp>
-        <v>0.41249569800000002</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X30" s="7"/>
       </tp>
-      <tp>
-        <v>0.20749256499999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X27" s="7"/>
       </tp>
-      <tp>
-        <v>0.25749404799999998</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X28" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.123732843</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q24" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.40107124999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q31" s="7"/>
       </tp>
-      <tp>
-        <v>0.48592052600000002</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q32" s="7"/>
       </tp>
-      <tp>
-        <v>0.12183666</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q25" s="7"/>
       </tp>
-      <tp>
-        <v>0.121731336</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q26" s="7"/>
       </tp>
-      <tp>
-        <v>0.24130235799999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q29" s="7"/>
       </tp>
-      <tp>
-        <v>0.31868819700000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q30" s="7"/>
       </tp>
-      <tp>
-        <v>0.14159066100000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q27" s="7"/>
       </tp>
-      <tp>
-        <v>0.18144808400000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q28" s="7"/>
       </tp>
-      <tp>
-        <v>0.16966645399999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y24" s="7"/>
       </tp>
-      <tp>
-        <v>0.123732843</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R24" s="7"/>
       </tp>
-      <tp>
-        <v>1.5902603989999999</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q38" s="7"/>
       </tp>
-      <tp>
-        <v>1.4952817430000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q37" s="7"/>
       </tp>
-      <tp>
-        <v>1.3253840459999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q36" s="7"/>
       </tp>
-      <tp>
-        <v>1.005475463</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q35" s="7"/>
       </tp>
-      <tp>
-        <v>0.57080119900000004</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q33" s="7"/>
       </tp>
-      <tp>
-        <v>0.74881377100000002</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q34" s="7"/>
       </tp>
-      <tp>
-        <v>0.166713994</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y7" s="7"/>
       </tp>
-      <tp>
-        <v>0.166818306</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y8" s="7"/>
       </tp>
-      <tp>
-        <v>0.16670183299999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y6" s="7"/>
       </tp>
-      <tp>
-        <v>0.16668877700000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y5" s="7"/>
       </tp>
-      <tp>
-        <v>0.17219999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y13" s="7"/>
       </tp>
-      <tp>
-        <v>0.167656737</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y10" s="7"/>
       </tp>
-      <tp>
-        <v>0.1721</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y12" s="7"/>
       </tp>
-      <tp>
-        <v>0.167133384</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y9" s="7"/>
       </tp>
-      <tp>
-        <v>0.16889999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y11" s="7"/>
       </tp>
-      <tp>
-        <v>0.17446463500000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y16" s="7"/>
       </tp>
-      <tp>
-        <v>0.1759</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y15" s="7"/>
       </tp>
-      <tp>
-        <v>0.17430000000000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y14" s="7"/>
       </tp>
     </main>
-    <main first="realtimexl.rtxlpubrtd.1">
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYONSND= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYONSND=	838426624:6:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B7" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYONTND= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYONTND=	838426624:5:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPYONOND= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPYONOND=	838426624:4:1	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="B5" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>1.7349987950000001</v>
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X38" s="7"/>
       </tp>
-      <tp>
-        <v>1.634998639</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X37" s="7"/>
       </tp>
-      <tp>
-        <v>1.4649984069999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X36" s="7"/>
       </tp>
-      <tp>
-        <v>1.1424979820000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X35" s="7"/>
       </tp>
-      <tp>
-        <v>0.68999709899999995</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X33" s="7"/>
       </tp>
-      <tp>
-        <v>0.87749753600000002</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X34" s="7"/>
       </tp>
     </main>
-    <main first="realtimexl.rtxlpubrtd.1">
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6MOND= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6MOND=	838426624:4:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D5" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6MTND= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6MTND=	838426624:5:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6MSND= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6MSND=	838426624:6:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D7" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3MOND= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3MOND=	838426624:4:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C5" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3MTND= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3MTND=	838426624:5:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3MSND= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3MSND=	838426624:6:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C7" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.13716889700000001</v>
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R7" s="7"/>
       </tp>
-      <tp>
-        <v>0.137162161</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R8" s="7"/>
       </tp>
-      <tp>
-        <v>0.13717253500000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R6" s="7"/>
       </tp>
-      <tp>
-        <v>0.137173924</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3MOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R5" s="7"/>
       </tp>
-      <tp>
-        <v>0.13200000000000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R13" s="7"/>
       </tp>
-      <tp>
-        <v>0.137097999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R10" s="7"/>
       </tp>
-      <tp>
-        <v>0.13539999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R12" s="7"/>
       </tp>
-      <tp>
-        <v>0.13713855799999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R9" s="7"/>
       </tp>
-      <tp>
-        <v>0.13700000000000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R11" s="7"/>
       </tp>
     </main>
-    <main first="realtimexl.rtxlpubrtd.1">
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M12x15F= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M12x15F=	838426624:22:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C23" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M12Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M12Y=	838426624:33:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D34" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M10Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M10Y=	838426624:32:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D33" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M20Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M20Y=	838426624:35:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D36" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M25Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M25Y=	838426624:36:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D37" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M30Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M30Y=	838426624:37:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D38" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M15Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M15Y=	838426624:34:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D35" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M12Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M12Y=	838426624:33:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C34" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M10Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M10Y=	838426624:32:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C33" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M20Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M20Y=	838426624:35:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C36" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M25Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M25Y=	838426624:36:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C37" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M30Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M30Y=	838426624:37:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C38" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M15Y= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M15Y=	838426624:34:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C35" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M2MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M2MD=	838426624:11:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C12" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M1MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M1MD=	838426624:10:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C11" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M3MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M3MD=	838426624:12:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C13" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M2MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M2MD=	838426624:11:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D12" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M6MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M6MD=	838426624:15:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D16" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M1MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M1MD=	838426624:10:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D11" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M3MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M3MD=	838426624:12:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D13" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M5MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M5MD=	838426624:14:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D15" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M4MD= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M4MD=	838426624:13:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D14" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M18M= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY3M18M=	838426624:23:2	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="C24" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M18M= at 18:17:37</v>
-        <stp/>
-        <stp>DTSIMI1</stp>
-        <stp>DTSIMI1|JPY6M18M=	838426624:23:3	5b399260-97fc-4ee8-90dd-f4c376a382c6</stp>
-        <stp xml:space="preserve">	BID	ASK	</stp>
-        <stp>0</stp>
-        <stp/>
-        <tr r="D24" s="7"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.06</v>
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPYON1Y6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K24" s="7"/>
       </tp>
-      <tp>
-        <v>0.06</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPYON1Y6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J24" s="7"/>
       </tp>
-      <tp>
-        <v>0.17</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPY6M5x11F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X21" s="7"/>
       </tp>
-      <tp>
-        <v>0.16500000000000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPY6M6x12F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y22" s="7"/>
       </tp>
-      <tp>
-        <v>0.17</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPY6M4x10F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X20" s="7"/>
       </tp>
-      <tp>
-        <v>0.17</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPY6M4x10F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y20" s="7"/>
       </tp>
-      <tp>
-        <v>0.16500000000000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPY6M6x12F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X22" s="7"/>
       </tp>
-      <tp>
-        <v>0.17</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPY6M5x11F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y21" s="7"/>
       </tp>
-      <tp>
-        <v>0.12</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPY3M9x12F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R22" s="7"/>
       </tp>
-      <tp>
-        <v>0.12</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000B_JPY3M9x12F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q22" s="7"/>
@@ -3761,6 +2646,7 @@
       <sheetName val="ON"/>
       <sheetName val="1M (2)"/>
       <sheetName val="3M (2)"/>
+      <sheetName val="JPY_Market"/>
     </sheetNames>
     <definedNames>
       <definedName name="TriggerCounter" refersTo="='General Settings'!$D$7"/>
@@ -3895,6 +2781,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7130,9 +6017,7 @@
       <c r="B1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="91" t="s">
-        <v>136</v>
-      </c>
+      <c r="C1" s="91"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="48" t="s">
@@ -7423,15 +6308,15 @@
       </c>
       <c r="B5" s="43" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G5,Fields,H5:I5,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H5:I5,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYONOND= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C5" s="43" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N5,Fields,O5:P5,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N5:P5,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3MOND= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D5" s="43" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U5,Fields,V5:W5,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U5:W5,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6MOND= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>124</v>
@@ -7451,13 +6336,13 @@
         <f>H5</f>
         <v>6.4281133595800455E-2</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G5,BID)-H5)</f>
-        <v>4.0419954883130771E-10</v>
-      </c>
-      <c r="K5" s="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G5,ASK)-I5)</f>
-        <v>4.0419954883130771E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L5" s="89" t="s">
         <v>124</v>
@@ -7477,13 +6362,13 @@
         <f>O5</f>
         <v>0.1371739243163079</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N5,BID)-O5)</f>
-        <v>3.1630789654180091E-10</v>
-      </c>
-      <c r="R5" s="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N5,ASK)-P5)</f>
-        <v>3.1630789654180091E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S5" s="89" t="s">
         <v>124</v>
@@ -7503,13 +6388,13 @@
         <f>V5</f>
         <v>0.16668877720480482</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U5,BID)-V5)</f>
-        <v>2.0480481199847134E-10</v>
-      </c>
-      <c r="Y5" s="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U5,ASK)-W5)</f>
-        <v>2.0480481199847134E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -7545,15 +6430,15 @@
       </c>
       <c r="B6" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G6,Fields,H6:I6,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H6:I6,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYONTND= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C6" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N6,Fields,O6:P6,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N6:P6,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3MTND= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D6" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U6,Fields,V6:W6,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U6:W6,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6MTND= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>124</v>
@@ -7573,13 +6458,13 @@
         <f t="shared" ref="I6:I38" si="3">H6</f>
         <v>6.4284640071243793E-2</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G6,BID)-H6)</f>
-        <v>7.1243788646313533E-11</v>
-      </c>
-      <c r="K6" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G6,ASK)-I6)</f>
-        <v>7.1243788646313533E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L6" s="89" t="s">
         <v>124</v>
@@ -7599,13 +6484,13 @@
         <f t="shared" ref="P6:P38" si="4">O6</f>
         <v>0.13717253510431729</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N6,BID)-O6)</f>
-        <v>1.0431727703874571E-10</v>
-      </c>
-      <c r="R6" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N6,ASK)-P6)</f>
-        <v>1.0431727703874571E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S6" s="89" t="s">
         <v>124</v>
@@ -7625,13 +6510,13 @@
         <f t="shared" ref="W6:W38" si="5">V6</f>
         <v>0.16670183341812972</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U6,BID)-V6)</f>
-        <v>4.1812972528809667E-10</v>
-      </c>
-      <c r="Y6" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U6,ASK)-W6)</f>
-        <v>4.1812972528809667E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -7667,15 +6552,15 @@
       </c>
       <c r="B7" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G7,Fields,H7:I7,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H7:I7,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYONSND= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C7" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N7,Fields,O7:P7,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N7:P7,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3MSND= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D7" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U7,Fields,V7:W7,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U7:W7,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6MSND= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>124</v>
@@ -7695,13 +6580,13 @@
         <f t="shared" si="3"/>
         <v>6.4291652989711956E-2</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G7,BID)-H7)</f>
-        <v>1.0288048191142707E-11</v>
-      </c>
-      <c r="K7" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G7,ASK)-I7)</f>
-        <v>1.0288048191142707E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L7" s="89" t="s">
         <v>124</v>
@@ -7721,13 +6606,13 @@
         <f t="shared" si="4"/>
         <v>0.13716889717674263</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N7,BID)-O7)</f>
-        <v>1.7674262053901657E-10</v>
-      </c>
-      <c r="R7" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N7,ASK)-P7)</f>
-        <v>1.7674262053901657E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S7" s="89" t="s">
         <v>124</v>
@@ -7747,13 +6632,13 @@
         <f t="shared" si="5"/>
         <v>0.16671399395384867</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U7,BID)-V7)</f>
-        <v>4.6151332755428598E-11</v>
-      </c>
-      <c r="Y7" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U7,ASK)-W7)</f>
-        <v>4.6151332755428598E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
@@ -7789,15 +6674,15 @@
       </c>
       <c r="B8" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G8,Fields,H8:I8,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H8:I8,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYONSWD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C8" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N8,Fields,O8:P8,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N8:P8,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3MSWD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D8" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U8,Fields,V8:W8,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U8:W8,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6MSWD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>124</v>
@@ -7817,13 +6702,13 @@
         <f t="shared" si="3"/>
         <v>6.4341083772845309E-2</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G8,BID)-H8)</f>
-        <v>2.2715469782941256E-10</v>
-      </c>
-      <c r="K8" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G8,ASK)-I8)</f>
-        <v>2.2715469782941256E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="89" t="s">
         <v>124</v>
@@ -7843,13 +6728,13 @@
         <f t="shared" si="4"/>
         <v>0.13716216100512213</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N8,BID)-O8)</f>
-        <v>5.1221249464106222E-12</v>
-      </c>
-      <c r="R8" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N8,ASK)-P8)</f>
-        <v>5.1221249464106222E-12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S8" s="89" t="s">
         <v>124</v>
@@ -7869,13 +6754,13 @@
         <f t="shared" si="5"/>
         <v>0.16681830588437052</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U8,BID)-V8)</f>
-        <v>1.1562947821452951E-10</v>
-      </c>
-      <c r="Y8" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U8,ASK)-W8)</f>
-        <v>1.1562947821452951E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -7911,15 +6796,15 @@
       </c>
       <c r="B9" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G9,Fields,H9:I9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H9:I9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON2WD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C9" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N9,Fields,O9:P9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N9:P9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M2WD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D9" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U9,Fields,V9:W9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U9:W9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M2WD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>124</v>
@@ -7939,13 +6824,13 @@
         <f t="shared" si="3"/>
         <v>6.4451936947976629E-2</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G9,BID)-H9)</f>
-        <v>5.202337172161009E-11</v>
-      </c>
-      <c r="K9" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G9,ASK)-I9)</f>
-        <v>5.202337172161009E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L9" s="89" t="s">
         <v>124</v>
@@ -7965,13 +6850,13 @@
         <f t="shared" si="4"/>
         <v>0.13713855802840616</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N9,BID)-O9)</f>
-        <v>2.8406166308059255E-11</v>
-      </c>
-      <c r="R9" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N9,ASK)-P9)</f>
-        <v>2.8406166308059255E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S9" s="89" t="s">
         <v>124</v>
@@ -7991,13 +6876,13 @@
         <f t="shared" si="5"/>
         <v>0.16713338364824992</v>
       </c>
-      <c r="X9" s="20">
+      <c r="X9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U9,BID)-V9)</f>
-        <v>3.5175007351284648E-10</v>
-      </c>
-      <c r="Y9" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U9,ASK)-W9)</f>
-        <v>3.5175007351284648E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -8033,15 +6918,15 @@
       </c>
       <c r="B10" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G10,Fields,H10:I10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H10:I10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON3WD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C10" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N10,Fields,O10:P10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N10:P10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M3WD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D10" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U10,Fields,V10:W10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U10:W10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M3WD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>124</v>
@@ -8061,13 +6946,13 @@
         <f t="shared" si="3"/>
         <v>6.4620067166110656E-2</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G10,BID)-H10)</f>
-        <v>1.6611065301042061E-10</v>
-      </c>
-      <c r="K10" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G10,ASK)-I10)</f>
-        <v>1.6611065301042061E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L10" s="89" t="s">
         <v>124</v>
@@ -8087,13 +6972,13 @@
         <f t="shared" si="4"/>
         <v>0.1370979985686154</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N10,BID)-O10)</f>
-        <v>4.3138459471236956E-10</v>
-      </c>
-      <c r="R10" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N10,ASK)-P10)</f>
-        <v>4.3138459471236956E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S10" s="89" t="s">
         <v>124</v>
@@ -8113,13 +6998,13 @@
         <f t="shared" si="5"/>
         <v>0.16765673679535503</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U10,BID)-V10)</f>
-        <v>2.0464496763850093E-10</v>
-      </c>
-      <c r="Y10" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U10,ASK)-W10)</f>
-        <v>2.0464496763850093E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -8155,15 +7040,15 @@
       </c>
       <c r="B11" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G11,Fields,H11:I11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H11:I11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON1MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C11" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N11,Fields,O11:P11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N11:P11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M1MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D11" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U11,Fields,V11:W11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U11:W11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M1MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>124</v>
@@ -8183,13 +7068,13 @@
         <f t="shared" si="3"/>
         <v>6.4999999999863792E-2</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G11,BID)-H11)</f>
-        <v>1.3621048733369889E-13</v>
-      </c>
-      <c r="K11" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G11,ASK)-I11)</f>
-        <v>1.3621048733369889E-13</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L11" s="89" t="s">
         <v>124</v>
@@ -8209,13 +7094,13 @@
         <f t="shared" si="4"/>
         <v>0.13699999999999823</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N11,BID)-O11)</f>
-        <v>1.7763568394002505E-15</v>
-      </c>
-      <c r="R11" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N11,ASK)-P11)</f>
-        <v>1.7763568394002505E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S11" s="89" t="s">
         <v>124</v>
@@ -8235,13 +7120,13 @@
         <f t="shared" si="5"/>
         <v>0.16890000000002736</v>
       </c>
-      <c r="X11" s="20">
+      <c r="X11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U11,BID)-V11)</f>
-        <v>2.7366997557010109E-14</v>
-      </c>
-      <c r="Y11" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U11,ASK)-W11)</f>
-        <v>2.7366997557010109E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -8277,15 +7162,15 @@
       </c>
       <c r="B12" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G12,Fields,H12:I12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H12:I12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON2MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C12" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N12,Fields,O12:P12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N12:P12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M2MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D12" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U12,Fields,V12:W12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U12:W12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M2MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>124</v>
@@ -8305,13 +7190,13 @@
         <f t="shared" si="3"/>
         <v>6.4999999999978159E-2</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G12,BID)-H12)</f>
-        <v>2.1843638009499955E-14</v>
-      </c>
-      <c r="K12" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G12,ASK)-I12)</f>
-        <v>2.1843638009499955E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L12" s="89" t="s">
         <v>124</v>
@@ -8331,13 +7216,13 @@
         <f t="shared" si="4"/>
         <v>0.13540000000000774</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N12,BID)-O12)</f>
-        <v>7.7438055967604669E-15</v>
-      </c>
-      <c r="R12" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N12,ASK)-P12)</f>
-        <v>7.7438055967604669E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S12" s="89" t="s">
         <v>124</v>
@@ -8357,13 +7242,13 @@
         <f t="shared" si="5"/>
         <v>0.17210000000004061</v>
       </c>
-      <c r="X12" s="20">
+      <c r="X12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U12,BID)-V12)</f>
-        <v>4.06064071256651E-14</v>
-      </c>
-      <c r="Y12" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U12,ASK)-W12)</f>
-        <v>4.06064071256651E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -8399,15 +7284,15 @@
       </c>
       <c r="B13" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G13,Fields,H13:I13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H13:I13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON3MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C13" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N13,Fields,O13:P13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N13:P13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M3MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D13" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U13,Fields,V13:W13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U13:W13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M3MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>124</v>
@@ -8427,13 +7312,13 @@
         <f t="shared" si="3"/>
         <v>6.2499999999929161E-2</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G13,BID)-H13)</f>
-        <v>7.0839167864988895E-14</v>
-      </c>
-      <c r="K13" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G13,ASK)-I13)</f>
-        <v>7.0839167864988895E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L13" s="89" t="s">
         <v>124</v>
@@ -8453,13 +7338,13 @@
         <f t="shared" si="4"/>
         <v>0.13199999996492828</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N13,BID)-O13)</f>
-        <v>3.507172330330377E-11</v>
-      </c>
-      <c r="R13" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N13,ASK)-P13)</f>
-        <v>3.507172330330377E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S13" s="89" t="s">
         <v>124</v>
@@ -8479,13 +7364,13 @@
         <f t="shared" si="5"/>
         <v>0.1721999999999847</v>
       </c>
-      <c r="X13" s="20">
+      <c r="X13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U13,BID)-V13)</f>
-        <v>1.5293322164211531E-14</v>
-      </c>
-      <c r="Y13" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U13,ASK)-W13)</f>
-        <v>1.5293322164211531E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
@@ -8521,15 +7406,15 @@
       </c>
       <c r="B14" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G14,Fields,H14:I14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H14:I14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON4MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C14" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N14,Fields,O14:P14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N14:P14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M1x4F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D14" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U14,Fields,V14:W14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U14:W14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M4MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>124</v>
@@ -8549,13 +7434,13 @@
         <f t="shared" si="3"/>
         <v>6.2500000000005079E-2</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G14,BID)-H14)</f>
-        <v>5.0792703376600912E-15</v>
-      </c>
-      <c r="K14" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G14,ASK)-I14)</f>
-        <v>5.0792703376600912E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L14" s="89" t="s">
         <v>124</v>
@@ -8575,13 +7460,13 @@
         <f t="shared" si="4"/>
         <v>0.1299999999999828</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N14,BID)-O14)</f>
-        <v>1.7208456881689926E-14</v>
-      </c>
-      <c r="R14" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N14,ASK)-P14)</f>
-        <v>1.7208456881689926E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S14" s="89" t="s">
         <v>124</v>
@@ -8601,13 +7486,13 @@
         <f t="shared" si="5"/>
         <v>0.17429999999994705</v>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U14,BID)-V14)</f>
-        <v>5.2957638274619967E-14</v>
-      </c>
-      <c r="Y14" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U14,ASK)-W14)</f>
-        <v>5.2957638274619967E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -8643,15 +7528,15 @@
       </c>
       <c r="B15" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G15,Fields,H15:I15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H15:I15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON5MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C15" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N15,Fields,O15:P15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N15:P15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M2x5F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D15" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U15,Fields,V15:W15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U15:W15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M5MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>124</v>
@@ -8671,13 +7556,13 @@
         <f t="shared" si="3"/>
         <v>6.2499999999974069E-2</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G15,BID)-H15)</f>
-        <v>2.5930646518901312E-14</v>
-      </c>
-      <c r="K15" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G15,ASK)-I15)</f>
-        <v>2.5930646518901312E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L15" s="89" t="s">
         <v>124</v>
@@ -8697,13 +7582,13 @@
         <f t="shared" si="4"/>
         <v>0.12999999999992934</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N15,BID)-O15)</f>
-        <v>7.0665695517391214E-14</v>
-      </c>
-      <c r="R15" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N15,ASK)-P15)</f>
-        <v>7.0665695517391214E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S15" s="89" t="s">
         <v>124</v>
@@ -8723,13 +7608,13 @@
         <f t="shared" si="5"/>
         <v>0.1758999999999217</v>
       </c>
-      <c r="X15" s="20">
+      <c r="X15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U15,BID)-V15)</f>
-        <v>7.8298478811689165E-14</v>
-      </c>
-      <c r="Y15" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U15,ASK)-W15)</f>
-        <v>7.8298478811689165E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
@@ -8765,15 +7650,15 @@
       </c>
       <c r="B16" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G16,Fields,H16:I16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H16:I16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON6MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C16" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N16,Fields,O16:P16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N16:P16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M3x6F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D16" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U16,Fields,V16:W16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U16:W16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M6MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>124</v>
@@ -8793,13 +7678,13 @@
         <f t="shared" si="3"/>
         <v>6.0000000000018455E-2</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G16,BID)-H16)</f>
-        <v>1.8457457784393227E-14</v>
-      </c>
-      <c r="K16" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G16,ASK)-I16)</f>
-        <v>1.8457457784393227E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L16" s="89" t="s">
         <v>124</v>
@@ -8819,13 +7704,13 @@
         <f t="shared" si="4"/>
         <v>0.1299999999613464</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N16,BID)-O16)</f>
-        <v>3.8653608092076297E-11</v>
-      </c>
-      <c r="R16" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N16,ASK)-P16)</f>
-        <v>3.8653608092076297E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S16" s="89" t="s">
         <v>124</v>
@@ -8845,13 +7730,13 @@
         <f t="shared" si="5"/>
         <v>0.17446463451507518</v>
       </c>
-      <c r="X16" s="20">
+      <c r="X16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U16,BID)-V16)</f>
-        <v>4.8492482251916158E-10</v>
-      </c>
-      <c r="Y16" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U16,ASK)-W16)</f>
-        <v>4.8492482251916158E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -8888,11 +7773,11 @@
       <c r="B17" s="44"/>
       <c r="C17" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N17,Fields,O17:P17,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N17:P17,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M4x7F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D17" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U17,Fields,V17:W17,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U17:W17,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M1x7F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>124</v>
@@ -8921,13 +7806,13 @@
         <f t="shared" si="4"/>
         <v>0.1300000000019812</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N17,BID)-O17)</f>
-        <v>1.9811929874435918E-12</v>
-      </c>
-      <c r="R17" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R17" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N17,ASK)-P17)</f>
-        <v>1.9811929874435918E-12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S17" s="89" t="s">
         <v>124</v>
@@ -8947,13 +7832,13 @@
         <f t="shared" si="5"/>
         <v>0.17499999999999064</v>
       </c>
-      <c r="X17" s="20">
+      <c r="X17" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U17,BID)-V17)</f>
-        <v>9.3536289824669439E-15</v>
-      </c>
-      <c r="Y17" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y17" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U17,ASK)-W17)</f>
-        <v>9.3536289824669439E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
@@ -8992,11 +7877,11 @@
       </c>
       <c r="C18" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N18,Fields,O18:P18,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N18:P18,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M5x8F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D18" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U18,Fields,V18:W18,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U18:W18,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M2x8F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>124</v>
@@ -9025,13 +7910,13 @@
         <f t="shared" si="4"/>
         <v>0.12999999999996348</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N18,BID)-O18)</f>
-        <v>3.652633751016765E-14</v>
-      </c>
-      <c r="R18" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R18" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N18,ASK)-P18)</f>
-        <v>3.652633751016765E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S18" s="89" t="s">
         <v>124</v>
@@ -9051,13 +7936,13 @@
         <f t="shared" si="5"/>
         <v>0.1749999999999651</v>
       </c>
-      <c r="X18" s="20">
+      <c r="X18" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U18,BID)-V18)</f>
-        <v>3.4888758548845544E-14</v>
-      </c>
-      <c r="Y18" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y18" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U18,ASK)-W18)</f>
-        <v>3.4888758548845544E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -9093,15 +7978,15 @@
       </c>
       <c r="B19" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G19,Fields,H19:I19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H19:I19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON9MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C19" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N19,Fields,O19:P19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N19:P19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M6x9F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D19" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U19,Fields,V19:W19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U19:W19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M3x9F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>124</v>
@@ -9121,13 +8006,13 @@
         <f t="shared" si="3"/>
         <v>5.9999999999995973E-2</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G19,BID)-H19)</f>
-        <v>4.0245584642661925E-15</v>
-      </c>
-      <c r="K19" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G19,ASK)-I19)</f>
-        <v>4.0245584642661925E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L19" s="89" t="s">
         <v>124</v>
@@ -9147,13 +8032,13 @@
         <f t="shared" si="4"/>
         <v>0.12499999995911892</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N19,BID)-O19)</f>
-        <v>4.0881076301957364E-11</v>
-      </c>
-      <c r="R19" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N19,ASK)-P19)</f>
-        <v>4.0881076301957364E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S19" s="89" t="s">
         <v>124</v>
@@ -9173,13 +8058,13 @@
         <f t="shared" si="5"/>
         <v>0.17499999999998256</v>
       </c>
-      <c r="X19" s="20">
+      <c r="X19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U19,BID)-V19)</f>
-        <v>1.7430501486614958E-14</v>
-      </c>
-      <c r="Y19" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U19,ASK)-W19)</f>
-        <v>1.7430501486614958E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -9221,7 +8106,7 @@
       </c>
       <c r="D20" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U20,Fields,V20:W20,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U20:W20,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M4x10F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>124</v>
@@ -9259,13 +8144,13 @@
         <f t="shared" si="5"/>
         <v>0.16999999999992785</v>
       </c>
-      <c r="X20" s="20">
+      <c r="X20" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U20,BID)-V20)</f>
-        <v>7.2164496600635175E-14</v>
-      </c>
-      <c r="Y20" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y20" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U20,ASK)-W20)</f>
-        <v>7.2164496600635175E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -9307,7 +8192,7 @@
       </c>
       <c r="D21" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U21,Fields,V21:W21,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U21:W21,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M5x11F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>124</v>
@@ -9345,13 +8230,13 @@
         <f t="shared" si="5"/>
         <v>0.16999999999997176</v>
       </c>
-      <c r="X21" s="20">
+      <c r="X21" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U21,BID)-V21)</f>
-        <v>2.8255175976710234E-14</v>
-      </c>
-      <c r="Y21" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y21" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U21,ASK)-W21)</f>
-        <v>2.8255175976710234E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -9387,15 +8272,15 @@
       </c>
       <c r="B22" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G22,Fields,H22:I22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H22:I22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON1YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C22" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N22,Fields,O22:P22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N22:P22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M9x12F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D22" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U22,Fields,V22:W22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U22:W22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M6x12F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>124</v>
@@ -9415,13 +8300,13 @@
         <f t="shared" si="3"/>
         <v>6.0000000000015596E-2</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G22,BID)-H22)</f>
-        <v>1.5598633495983449E-14</v>
-      </c>
-      <c r="K22" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G22,ASK)-I22)</f>
-        <v>1.5598633495983449E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L22" s="89" t="s">
         <v>124</v>
@@ -9441,13 +8326,13 @@
         <f t="shared" si="4"/>
         <v>0.12000000000386062</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N22,BID)-O22)</f>
-        <v>3.8606201568924803E-12</v>
-      </c>
-      <c r="R22" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N22,ASK)-P22)</f>
-        <v>3.8606201568924803E-12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S22" s="89" t="s">
         <v>124</v>
@@ -9467,13 +8352,13 @@
         <f t="shared" si="5"/>
         <v>0.16500000013899271</v>
       </c>
-      <c r="X22" s="20">
+      <c r="X22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U22,BID)-V22)</f>
-        <v>1.3899270623340954E-10</v>
-      </c>
-      <c r="Y22" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U22,ASK)-W22)</f>
-        <v>1.3899270623340954E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -9512,7 +8397,7 @@
       </c>
       <c r="C23" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N23,Fields,O23:P23,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N23:P23,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M12x15F= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>124</v>
@@ -9544,13 +8429,13 @@
         <f t="shared" si="4"/>
         <v>0.11500000000005919</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N23,BID)-O23)</f>
-        <v>5.9188765000328658E-14</v>
-      </c>
-      <c r="R23" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R23" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N23,ASK)-P23)</f>
-        <v>5.9188765000328658E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S23" s="89" t="s">
         <v>124</v>
@@ -9595,15 +8480,15 @@
       </c>
       <c r="B24" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G24,Fields,H24:I24,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H24:I24,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON1Y6MD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C24" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N24,Fields,O24:P24,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N24:P24,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M18M= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D24" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U24,Fields,V24:W24,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U24:W24,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M18M= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>124</v>
@@ -9623,13 +8508,13 @@
         <f t="shared" si="3"/>
         <v>5.999999999999675E-2</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G24,BID)-H24)</f>
-        <v>3.2474023470285829E-15</v>
-      </c>
-      <c r="K24" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G24,ASK)-I24)</f>
-        <v>3.2474023470285829E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L24" s="89" t="s">
         <v>124</v>
@@ -9649,13 +8534,13 @@
         <f t="shared" si="4"/>
         <v>0.12373284262500646</v>
       </c>
-      <c r="Q24" s="20">
+      <c r="Q24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N24,BID)-O24)</f>
-        <v>3.7499353622294507E-10</v>
-      </c>
-      <c r="R24" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N24,ASK)-P24)</f>
-        <v>3.7499353622294507E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S24" s="89" t="s">
         <v>124</v>
@@ -9675,13 +8560,13 @@
         <f t="shared" si="5"/>
         <v>0.16966645370560388</v>
       </c>
-      <c r="X24" s="20">
+      <c r="X24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U24,BID)-V24)</f>
-        <v>2.9439611859416459E-10</v>
-      </c>
-      <c r="Y24" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U24,ASK)-W24)</f>
-        <v>2.9439611859416459E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -9717,15 +8602,15 @@
       </c>
       <c r="B25" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G25,Fields,H25:I25,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H25:I25,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON2YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C25" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N25,Fields,O25:P25,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N25:P25,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M2Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D25" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U25,Fields,V25:W25,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U25:W25,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M2Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>124</v>
@@ -9745,13 +8630,13 @@
         <f t="shared" si="3"/>
         <v>6.0000000000001177E-2</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G25,BID)-H25)</f>
-        <v>1.1796119636642288E-15</v>
-      </c>
-      <c r="K25" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G25,ASK)-I25)</f>
-        <v>1.1796119636642288E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L25" s="89" t="s">
         <v>124</v>
@@ -9771,13 +8656,13 @@
         <f t="shared" si="4"/>
         <v>0.12183665964504767</v>
       </c>
-      <c r="Q25" s="20">
+      <c r="Q25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N25,BID)-O25)</f>
-        <v>3.5495233141613625E-10</v>
-      </c>
-      <c r="R25" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N25,ASK)-P25)</f>
-        <v>3.5495233141613625E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S25" s="89" t="s">
         <v>124</v>
@@ -9797,13 +8682,13 @@
         <f t="shared" si="5"/>
         <v>0.16998517187517026</v>
       </c>
-      <c r="X25" s="20">
+      <c r="X25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U25,BID)-V25)</f>
-        <v>1.2482972988614449E-10</v>
-      </c>
-      <c r="Y25" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U25,ASK)-W25)</f>
-        <v>1.2482972988614449E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
@@ -9839,15 +8724,15 @@
       </c>
       <c r="B26" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G26,Fields,H26:I26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H26:I26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON3YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C26" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N26,Fields,O26:P26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N26:P26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M3Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D26" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U26,Fields,V26:W26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U26:W26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M3Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>124</v>
@@ -9867,13 +8752,13 @@
         <f t="shared" si="3"/>
         <v>6.7499999999989305E-2</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G26,BID)-H26)</f>
-        <v>1.0699774399824946E-14</v>
-      </c>
-      <c r="K26" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G26,ASK)-I26)</f>
-        <v>1.0699774399824946E-14</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L26" s="89" t="s">
         <v>124</v>
@@ -9893,13 +8778,13 @@
         <f t="shared" si="4"/>
         <v>0.12173133571816933</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="Q26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N26,BID)-O26)</f>
-        <v>2.818306699126083E-10</v>
-      </c>
-      <c r="R26" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N26,ASK)-P26)</f>
-        <v>2.818306699126083E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S26" s="89" t="s">
         <v>124</v>
@@ -9919,13 +8804,13 @@
         <f t="shared" si="5"/>
         <v>0.17749009309943534</v>
       </c>
-      <c r="X26" s="20">
+      <c r="X26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U26,BID)-V26)</f>
-        <v>9.9435348843712745E-11</v>
-      </c>
-      <c r="Y26" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U26,ASK)-W26)</f>
-        <v>9.9435348843712745E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -9961,15 +8846,15 @@
       </c>
       <c r="B27" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G27,Fields,H27:I27,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H27:I27,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON4YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C27" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N27,Fields,O27:P27,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N27:P27,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M4Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D27" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U27,Fields,V27:W27,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U27:W27,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M4Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>124</v>
@@ -9989,13 +8874,13 @@
         <f t="shared" si="3"/>
         <v>7.7499999999996072E-2</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G27,BID)-H27)</f>
-        <v>3.9274139496114913E-15</v>
-      </c>
-      <c r="K27" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G27,ASK)-I27)</f>
-        <v>3.9274139496114913E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L27" s="89" t="s">
         <v>124</v>
@@ -10015,13 +8900,13 @@
         <f t="shared" si="4"/>
         <v>0.1415906610168787</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N27,BID)-O27)</f>
-        <v>1.6878692887800639E-11</v>
-      </c>
-      <c r="R27" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N27,ASK)-P27)</f>
-        <v>1.6878692887800639E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S27" s="89" t="s">
         <v>124</v>
@@ -10041,13 +8926,13 @@
         <f t="shared" si="5"/>
         <v>0.20749256497035723</v>
       </c>
-      <c r="X27" s="20">
+      <c r="X27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U27,BID)-V27)</f>
-        <v>2.964276046846237E-11</v>
-      </c>
-      <c r="Y27" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U27,ASK)-W27)</f>
-        <v>2.964276046846237E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -10083,15 +8968,15 @@
       </c>
       <c r="B28" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G28,Fields,H28:I28,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H28:I28,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON5YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C28" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N28,Fields,O28:P28,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N28:P28,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M5Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D28" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U28,Fields,V28:W28,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U28:W28,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M5Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>124</v>
@@ -10111,13 +8996,13 @@
         <f t="shared" si="3"/>
         <v>0.10250000000000181</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G28,BID)-H28)</f>
-        <v>1.8179902028236938E-15</v>
-      </c>
-      <c r="K28" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G28,ASK)-I28)</f>
-        <v>1.8179902028236938E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L28" s="89" t="s">
         <v>124</v>
@@ -10137,13 +9022,13 @@
         <f t="shared" si="4"/>
         <v>0.18144808412981092</v>
       </c>
-      <c r="Q28" s="20">
+      <c r="Q28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N28,BID)-O28)</f>
-        <v>1.2981091201957895E-10</v>
-      </c>
-      <c r="R28" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N28,ASK)-P28)</f>
-        <v>1.2981091201957895E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S28" s="89" t="s">
         <v>124</v>
@@ -10163,13 +9048,13 @@
         <f t="shared" si="5"/>
         <v>0.2574940475940331</v>
       </c>
-      <c r="X28" s="20">
+      <c r="X28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U28,BID)-V28)</f>
-        <v>4.0596687123084507E-10</v>
-      </c>
-      <c r="Y28" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U28,ASK)-W28)</f>
-        <v>4.0596687123084507E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -10205,15 +9090,15 @@
       </c>
       <c r="B29" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G29,Fields,H29:I29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H29:I29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON6YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C29" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N29,Fields,O29:P29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N29:P29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M6Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D29" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U29,Fields,V29:W29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U29:W29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M6Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>124</v>
@@ -10233,13 +9118,13 @@
         <f t="shared" si="3"/>
         <v>0.14999999999999464</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G29,BID)-H29)</f>
-        <v>5.3568260938163803E-15</v>
-      </c>
-      <c r="K29" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G29,ASK)-I29)</f>
-        <v>5.3568260938163803E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L29" s="89" t="s">
         <v>124</v>
@@ -10259,13 +9144,13 @@
         <f t="shared" si="4"/>
         <v>0.2413023579473815</v>
       </c>
-      <c r="Q29" s="20">
+      <c r="Q29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N29,BID)-O29)</f>
-        <v>5.2618492896172597E-11</v>
-      </c>
-      <c r="R29" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N29,ASK)-P29)</f>
-        <v>5.2618492896172597E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S29" s="89" t="s">
         <v>124</v>
@@ -10285,13 +9170,13 @@
         <f t="shared" si="5"/>
         <v>0.32749503667469687</v>
       </c>
-      <c r="X29" s="20">
+      <c r="X29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U29,BID)-V29)</f>
-        <v>3.2530311777634324E-10</v>
-      </c>
-      <c r="Y29" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U29,ASK)-W29)</f>
-        <v>3.2530311777634324E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -10327,15 +9212,15 @@
       </c>
       <c r="B30" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G30,Fields,H30:I30,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H30:I30,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON7YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C30" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N30,Fields,O30:P30,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N30:P30,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M7Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D30" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U30,Fields,V30:W30,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U30:W30,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M7Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>124</v>
@@ -10355,13 +9240,13 @@
         <f t="shared" si="3"/>
         <v>0.21749999999999989</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G30,BID)-H30)</f>
-        <v>1.1102230246251565E-16</v>
-      </c>
-      <c r="K30" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G30,ASK)-I30)</f>
-        <v>1.1102230246251565E-16</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L30" s="89" t="s">
         <v>124</v>
@@ -10381,13 +9266,13 @@
         <f t="shared" si="4"/>
         <v>0.31868819726952768</v>
       </c>
-      <c r="Q30" s="20">
+      <c r="Q30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N30,BID)-O30)</f>
-        <v>2.695276779540734E-10</v>
-      </c>
-      <c r="R30" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N30,ASK)-P30)</f>
-        <v>2.695276779540734E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S30" s="89" t="s">
         <v>124</v>
@@ -10407,13 +9292,13 @@
         <f t="shared" si="5"/>
         <v>0.4124956976756608</v>
       </c>
-      <c r="X30" s="20">
+      <c r="X30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U30,BID)-V30)</f>
-        <v>3.2433922214636368E-10</v>
-      </c>
-      <c r="Y30" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U30,ASK)-W30)</f>
-        <v>3.2433922214636368E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -10449,15 +9334,15 @@
       </c>
       <c r="B31" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G31,Fields,H31:I31,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H31:I31,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON8YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C31" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N31,Fields,O31:P31,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N31:P31,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M8Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D31" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U31,Fields,V31:W31,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U31:W31,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M8Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>124</v>
@@ -10477,13 +9362,13 @@
         <f t="shared" si="3"/>
         <v>0.30249999999999322</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G31,BID)-H31)</f>
-        <v>6.7723604502134549E-15</v>
-      </c>
-      <c r="K31" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G31,ASK)-I31)</f>
-        <v>6.7723604502134549E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L31" s="89" t="s">
         <v>124</v>
@@ -10503,13 +9388,13 @@
         <f t="shared" si="4"/>
         <v>0.40107124963320168</v>
       </c>
-      <c r="Q31" s="20">
+      <c r="Q31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N31,BID)-O31)</f>
-        <v>3.6679831394437201E-10</v>
-      </c>
-      <c r="R31" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N31,ASK)-P31)</f>
-        <v>3.6679831394437201E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S31" s="89" t="s">
         <v>124</v>
@@ -10529,13 +9414,13 @@
         <f t="shared" si="5"/>
         <v>0.50249639507925481</v>
       </c>
-      <c r="X31" s="20">
+      <c r="X31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U31,BID)-V31)</f>
-        <v>7.9254824925101275E-11</v>
-      </c>
-      <c r="Y31" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U31,ASK)-W31)</f>
-        <v>7.9254824925101275E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
@@ -10571,15 +9456,15 @@
       </c>
       <c r="B32" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G32,Fields,H32:I32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H32:I32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON9YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C32" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N32,Fields,O32:P32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N32:P32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M9Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D32" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U32,Fields,V32:W32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U32:W32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M9Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>124</v>
@@ -10599,13 +9484,13 @@
         <f t="shared" si="3"/>
         <v>0.35999999999999888</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G32,BID)-H32)</f>
-        <v>1.1102230246251565E-15</v>
-      </c>
-      <c r="K32" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G32,ASK)-I32)</f>
-        <v>1.1102230246251565E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L32" s="89" t="s">
         <v>124</v>
@@ -10625,13 +9510,13 @@
         <f t="shared" si="4"/>
         <v>0.48592052590892165</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N32,BID)-O32)</f>
-        <v>9.1078367070451804E-11</v>
-      </c>
-      <c r="R32" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N32,ASK)-P32)</f>
-        <v>9.1078367070451804E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S32" s="89" t="s">
         <v>124</v>
@@ -10651,13 +9536,13 @@
         <f t="shared" si="5"/>
         <v>0.59749678594145728</v>
       </c>
-      <c r="X32" s="20">
+      <c r="X32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U32,BID)-V32)</f>
-        <v>5.8542726222299279E-11</v>
-      </c>
-      <c r="Y32" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U32,ASK)-W32)</f>
-        <v>5.8542726222299279E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
@@ -10693,15 +9578,15 @@
       </c>
       <c r="B33" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G33,Fields,H33:I33,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H33:I33,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON10YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C33" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N33,Fields,O33:P33,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N33:P33,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M10Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D33" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U33,Fields,V33:W33,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U33:W33,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M10Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>124</v>
@@ -10721,13 +9606,13 @@
         <f t="shared" si="3"/>
         <v>0.43499999999999361</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G33,BID)-H33)</f>
-        <v>6.3837823915946501E-15</v>
-      </c>
-      <c r="K33" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G33,ASK)-I33)</f>
-        <v>6.3837823915946501E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L33" s="89" t="s">
         <v>124</v>
@@ -10747,13 +9632,13 @@
         <f t="shared" si="4"/>
         <v>0.57080119919925376</v>
       </c>
-      <c r="Q33" s="20">
+      <c r="Q33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N33,BID)-O33)</f>
-        <v>1.9925372463092117E-10</v>
-      </c>
-      <c r="R33" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N33,ASK)-P33)</f>
-        <v>1.9925372463092117E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S33" s="89" t="s">
         <v>124</v>
@@ -10773,13 +9658,13 @@
         <f t="shared" si="5"/>
         <v>0.68999709892822303</v>
       </c>
-      <c r="X33" s="20">
+      <c r="X33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U33,BID)-V33)</f>
-        <v>7.1776917742738533E-11</v>
-      </c>
-      <c r="Y33" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U33,ASK)-W33)</f>
-        <v>7.1776917742738533E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
@@ -10815,15 +9700,15 @@
       </c>
       <c r="B34" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G34,Fields,H34:I34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H34:I34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON12YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C34" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N34,Fields,O34:P34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N34:P34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M12Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D34" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U34,Fields,V34:W34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U34:W34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M12Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>124</v>
@@ -10843,13 +9728,13 @@
         <f t="shared" si="3"/>
         <v>0.60499999999999665</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G34,BID)-H34)</f>
-        <v>3.3306690738754696E-15</v>
-      </c>
-      <c r="K34" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G34,ASK)-I34)</f>
-        <v>3.3306690738754696E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L34" s="89" t="s">
         <v>124</v>
@@ -10869,13 +9754,13 @@
         <f t="shared" si="4"/>
         <v>0.74881377127535409</v>
       </c>
-      <c r="Q34" s="20">
+      <c r="Q34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N34,BID)-O34)</f>
-        <v>2.7535407287615499E-10</v>
-      </c>
-      <c r="R34" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N34,ASK)-P34)</f>
-        <v>2.7535407287615499E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S34" s="89" t="s">
         <v>124</v>
@@ -10895,13 +9780,13 @@
         <f t="shared" si="5"/>
         <v>0.87749753621395676</v>
       </c>
-      <c r="X34" s="20">
+      <c r="X34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U34,BID)-V34)</f>
-        <v>2.1395674121293951E-10</v>
-      </c>
-      <c r="Y34" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U34,ASK)-W34)</f>
-        <v>2.1395674121293951E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
@@ -10937,15 +9822,15 @@
       </c>
       <c r="B35" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G35,Fields,H35:I35,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H35:I35,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON15YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C35" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N35,Fields,O35:P35,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N35:P35,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M15Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D35" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U35,Fields,V35:W35,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U35:W35,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M15Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>124</v>
@@ -10965,13 +9850,13 @@
         <f t="shared" si="3"/>
         <v>0.86000000000000054</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G35,BID)-H35)</f>
-        <v>5.5511151231257827E-16</v>
-      </c>
-      <c r="K35" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G35,ASK)-I35)</f>
-        <v>5.5511151231257827E-16</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L35" s="89" t="s">
         <v>124</v>
@@ -10991,13 +9876,13 @@
         <f t="shared" si="4"/>
         <v>1.0054754627590752</v>
       </c>
-      <c r="Q35" s="20">
+      <c r="Q35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N35,BID)-O35)</f>
-        <v>2.409248356372018E-10</v>
-      </c>
-      <c r="R35" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N35,ASK)-P35)</f>
-        <v>2.409248356372018E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S35" s="89" t="s">
         <v>124</v>
@@ -11017,13 +9902,13 @@
         <f t="shared" si="5"/>
         <v>1.1424979822909587</v>
       </c>
-      <c r="X35" s="20">
+      <c r="X35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U35,BID)-V35)</f>
-        <v>2.9095859055416895E-10</v>
-      </c>
-      <c r="Y35" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U35,ASK)-W35)</f>
-        <v>2.9095859055416895E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -11059,15 +9944,15 @@
       </c>
       <c r="B36" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G36,Fields,H36:I36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H36:I36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON20YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C36" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N36,Fields,O36:P36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N36:P36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M20Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D36" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U36,Fields,V36:W36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U36:W36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M20Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>124</v>
@@ -11087,13 +9972,13 @@
         <f t="shared" si="3"/>
         <v>1.1750000000000049</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G36,BID)-H36)</f>
-        <v>4.8849813083506888E-15</v>
-      </c>
-      <c r="K36" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G36,ASK)-I36)</f>
-        <v>4.8849813083506888E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L36" s="89" t="s">
         <v>124</v>
@@ -11113,13 +9998,13 @@
         <f t="shared" si="4"/>
         <v>1.3253840458939352</v>
       </c>
-      <c r="Q36" s="20">
+      <c r="Q36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N36,BID)-O36)</f>
-        <v>1.0606471256835448E-10</v>
-      </c>
-      <c r="R36" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N36,ASK)-P36)</f>
-        <v>1.0606471256835448E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S36" s="89" t="s">
         <v>124</v>
@@ -11139,13 +10024,13 @@
         <f t="shared" si="5"/>
         <v>1.464998406669078</v>
       </c>
-      <c r="X36" s="20">
+      <c r="X36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U36,BID)-V36)</f>
-        <v>3.3092195650397116E-10</v>
-      </c>
-      <c r="Y36" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U36,ASK)-W36)</f>
-        <v>3.3092195650397116E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -11181,15 +10066,15 @@
       </c>
       <c r="B37" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G37,Fields,H37:I37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H37:I37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON25YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C37" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N37,Fields,O37:P37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N37:P37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M25Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D37" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U37,Fields,V37:W37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U37:W37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M25Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>124</v>
@@ -11209,13 +10094,13 @@
         <f t="shared" si="3"/>
         <v>1.3425000000000025</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G37,BID)-H37)</f>
-        <v>2.4424906541753444E-15</v>
-      </c>
-      <c r="K37" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G37,ASK)-I37)</f>
-        <v>2.4424906541753444E-15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L37" s="89" t="s">
         <v>124</v>
@@ -11235,13 +10120,13 @@
         <f t="shared" si="4"/>
         <v>1.4952817432717309</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="Q37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N37,BID)-O37)</f>
-        <v>2.7173086003529079E-10</v>
-      </c>
-      <c r="R37" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N37,ASK)-P37)</f>
-        <v>2.7173086003529079E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S37" s="89" t="s">
         <v>124</v>
@@ -11261,13 +10146,13 @@
         <f t="shared" si="5"/>
         <v>1.6349986386552586</v>
       </c>
-      <c r="X37" s="20">
+      <c r="X37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U37,BID)-V37)</f>
-        <v>3.4474134658069033E-10</v>
-      </c>
-      <c r="Y37" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U37,ASK)-W37)</f>
-        <v>3.4474134658069033E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -11303,15 +10188,15 @@
       </c>
       <c r="B38" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G38,Fields,H38:I38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H38:I38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPYON30YD= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="C38" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N38,Fields,O38:P38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N38:P38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY3M30Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="D38" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U38,Fields,V38:W38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U38:W38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
-        <v>Success: Insert Ack on DTSIMI1 for JPY6M30Y= at 18:17:37</v>
+        <v>stopped</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>124</v>
@@ -11331,13 +10216,13 @@
         <f t="shared" si="3"/>
         <v>1.4399999999999995</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G38,BID)-H38)</f>
-        <v>4.4408920985006262E-16</v>
-      </c>
-      <c r="K38" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G38,ASK)-I38)</f>
-        <v>4.4408920985006262E-16</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L38" s="89" t="s">
         <v>124</v>
@@ -11357,13 +10242,13 @@
         <f t="shared" si="4"/>
         <v>1.5902603988943391</v>
       </c>
-      <c r="Q38" s="22">
+      <c r="Q38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N38,BID)-O38)</f>
-        <v>1.0566081343199585E-10</v>
-      </c>
-      <c r="R38" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N38,ASK)-P38)</f>
-        <v>1.0566081343199585E-10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S38" s="89" t="s">
         <v>124</v>
@@ -11383,13 +10268,13 @@
         <f t="shared" si="5"/>
         <v>1.7349987950193699</v>
       </c>
-      <c r="X38" s="22">
+      <c r="X38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U38,BID)-V38)</f>
-        <v>1.9369839066030181E-11</v>
-      </c>
-      <c r="Y38" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U38,ASK)-W38)</f>
-        <v>1.9369839066030181E-11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -14715,7 +13600,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"abcd"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14735,7 +13620,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" style="1"/>
+    <col min="1" max="2" width="2.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
@@ -18304,9 +17189,9 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2" style="7" customWidth="1"/>
-    <col min="4" max="4" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="17.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="8" style="7" bestFit="1" customWidth="1"/>
@@ -21985,6 +20870,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21999,8 +20885,8 @@
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="17.28515625" style="7" bestFit="1" customWidth="1"/>

--- a/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="0" windowWidth="7650" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="18855" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Contribution!$A$4:$AE$4</definedName>
     <definedName name="ASK">Contribution!$I$1</definedName>
     <definedName name="BID">Contribution!$H$1</definedName>
-    <definedName name="Calendar">'General Settings'!$D$17</definedName>
+    <definedName name="Calendar">'General Settings'!$D$18</definedName>
     <definedName name="Calendar1">'General Settings'!$D$15</definedName>
     <definedName name="Calendar2">'General Settings'!$D$16</definedName>
     <definedName name="Contribute">Contribution!$C$1</definedName>
@@ -44,7 +44,7 @@
     <definedName name="MainTenor">'General Settings'!$D$13</definedName>
     <definedName name="OvernightIndex" localSheetId="2">'ON Pricing'!$M$5</definedName>
     <definedName name="SettlementDate">'General Settings'!$D$19</definedName>
-    <definedName name="SettlementDays">'General Settings'!$D$18</definedName>
+    <definedName name="SettlementDays">'General Settings'!$D$14</definedName>
     <definedName name="SourceAlias">Contribution!$F$1</definedName>
     <definedName name="Trigger">'General Settings'!$D$4</definedName>
     <definedName name="YieldCurve" localSheetId="3">'3M Pricing'!$H$2</definedName>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="135">
   <si>
     <t>BID</t>
   </si>
@@ -137,16 +137,10 @@
     <t>JPY</t>
   </si>
   <si>
-    <t>JoinCalendarRule</t>
-  </si>
-  <si>
     <t>Calendar1</t>
   </si>
   <si>
     <t>Calendar2</t>
-  </si>
-  <si>
-    <t>JoinHolidays</t>
   </si>
   <si>
     <t>UnitedKingdom::Exchange</t>
@@ -498,6 +492,9 @@
   </si>
   <si>
     <t>RIC TONAR?!?</t>
+  </si>
+  <si>
+    <t>HolidayCheck</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1444,6 @@
 JPY6M3x9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y19" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -1609,8 +1604,6 @@
 JPY3M5x8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R18" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -1646,8 +1639,6 @@
 JPY3M1x4F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q14" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -1683,8 +1674,6 @@
 JPY6M1x7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y17" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -1744,6 +1733,8 @@
 JPYON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J34" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -1876,8 +1867,6 @@
         <stp xml:space="preserve">	JPYON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J31" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -1920,6 +1909,8 @@
 JPYON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K36" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -2048,6 +2039,8 @@
         <stp>_x0008_JPY3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R29" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -2234,6 +2227,8 @@
         <stp xml:space="preserve">	JPY6M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X24" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -2282,12 +2277,16 @@
         <stp>_x0008_JPY6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X28" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY3M18M=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q24" s="7"/>
       </tp>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -2348,8 +2347,6 @@
         <stp xml:space="preserve">	JPY3M18M=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R24" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -2386,8 +2383,6 @@
         <stp xml:space="preserve">	JPY3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q34" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -2460,8 +2455,6 @@
         <stp xml:space="preserve">	JPY6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y14" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -2498,8 +2491,6 @@
         <stp xml:space="preserve">	JPY6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X34" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -2554,8 +2545,6 @@
         <stp xml:space="preserve">	JPY3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R11" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
       <tp t="s">
         <v>#N/A Invalid source.</v>
         <stp/>
@@ -2646,7 +2635,6 @@
       <sheetName val="ON"/>
       <sheetName val="1M (2)"/>
       <sheetName val="3M (2)"/>
-      <sheetName val="JPY_Market"/>
     </sheetNames>
     <definedNames>
       <definedName name="TriggerCounter" refersTo="='General Settings'!$D$7"/>
@@ -2655,7 +2643,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>2</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -2781,7 +2769,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3185,7 +3172,9 @@
       <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="35">
+        <v>41829.722870370373</v>
+      </c>
       <c r="E4" s="26"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -3217,7 +3206,7 @@
       </c>
       <c r="D5" s="35">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="38"/>
@@ -3246,11 +3235,11 @@
       <c r="A6" s="38"/>
       <c r="B6" s="24"/>
       <c r="C6" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="29">
         <f>[1]!TriggerCounter</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="38"/>
@@ -3458,10 +3447,10 @@
       <c r="A13" s="38"/>
       <c r="B13" s="24"/>
       <c r="C13" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="38"/>
@@ -3490,10 +3479,11 @@
       <c r="A14" s="38"/>
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="36">
+        <f>_xll.qlInterestRateIndexFixingDays(IborIndexFamily&amp;D13)</f>
+        <v>2</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="38"/>
@@ -3522,10 +3512,10 @@
       <c r="A15" s="38"/>
       <c r="B15" s="24"/>
       <c r="C15" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="38"/>
@@ -3554,10 +3544,10 @@
       <c r="A16" s="38"/>
       <c r="B16" s="24"/>
       <c r="C16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>17</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>20</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="38"/>
@@ -3586,11 +3576,11 @@
       <c r="A17" s="38"/>
       <c r="B17" s="24"/>
       <c r="C17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="34" t="str">
-        <f>D14&amp;"("&amp;D15&amp;","&amp;D16&amp;")"</f>
-        <v>JoinHolidays(UnitedKingdom::Exchange,Japan)</v>
+        <v>134</v>
+      </c>
+      <c r="D17" s="34" t="b">
+        <f>_xll.qlCalendarIsHoliday(Calendar1,_xll.qlCalendarAdvance(Calendar2,EvaluationDate,SettlementDays&amp;"D","f",FALSE,Trigger))</f>
+        <v>0</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="38"/>
@@ -3619,11 +3609,11 @@
       <c r="A18" s="38"/>
       <c r="B18" s="24"/>
       <c r="C18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="36">
-        <f>_xll.qlInterestRateIndexFixingDays(IborIndexFamily&amp;D13)</f>
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D18" s="34" t="str">
+        <f>IF(D17,Calendar1,Calendar2)</f>
+        <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="38"/>
@@ -3656,7 +3646,7 @@
       </c>
       <c r="D19" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="38"/>
@@ -3685,10 +3675,10 @@
       <c r="A20" s="38"/>
       <c r="B20" s="24"/>
       <c r="C20" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="38"/>
@@ -5954,7 +5944,7 @@
       <c r="Z100" s="23"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D16">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar,Australia,China,HongKong::HKEx"</formula1>
     </dataValidation>
@@ -5964,14 +5954,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
       <formula1>"BackwardFlat,ForwardFlat,Linear,Parabolic,MonotonicParabolic,CubicNaturalSpline,MonotonicCubicNaturalSpline,KrugerCubic,FritschButlandCubic,Abcd"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"JoinBusinessDays,JoinHolidays"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D12 D6 D17 D19" unlockedFormula="1"/>
+    <ignoredError sqref="D12 D6 D18:D19 D17" unlockedFormula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6138,10 +6125,10 @@
       <c r="C3" s="79"/>
       <c r="D3" s="80"/>
       <c r="E3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -6149,10 +6136,10 @@
       <c r="J3" s="77"/>
       <c r="K3" s="16"/>
       <c r="L3" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -6160,10 +6147,10 @@
       <c r="Q3" s="77"/>
       <c r="R3" s="16"/>
       <c r="S3" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
@@ -6200,25 +6187,25 @@
     </row>
     <row r="4" spans="1:52" s="83" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>0</v>
@@ -6227,19 +6214,19 @@
         <v>1</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K4" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N4" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O4" s="51" t="s">
         <v>0</v>
@@ -6248,19 +6235,19 @@
         <v>1</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S4" s="90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U4" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V4" s="51" t="s">
         <v>0</v>
@@ -6269,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="X4" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y4" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Z4" s="81"/>
       <c r="AA4" s="81"/>
@@ -6304,7 +6291,7 @@
     </row>
     <row r="5" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="43" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G5,Fields,H5:I5,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H5:I5,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6319,10 +6306,10 @@
         <v>stopped</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="17" t="str">
         <f t="shared" ref="G5:G16" si="0">Currency&amp;"ON"&amp;F5&amp;"="</f>
@@ -6330,11 +6317,11 @@
       </c>
       <c r="H5" s="18">
         <f>'ON Pricing'!I5*100</f>
-        <v>6.4281133595800455E-2</v>
+        <v>6.4355657782511067E-2</v>
       </c>
       <c r="I5" s="18">
         <f>H5</f>
-        <v>6.4281133595800455E-2</v>
+        <v>6.4355657782511067E-2</v>
       </c>
       <c r="J5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G5,BID)-H5)</f>
@@ -6345,10 +6332,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L5" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:N19" si="1">Currency&amp;"3M"&amp;M5&amp;"="</f>
@@ -6356,11 +6343,11 @@
       </c>
       <c r="O5" s="18">
         <f>'3M Pricing'!I5*100</f>
-        <v>0.1371739243163079</v>
+        <v>0.13169175923951118</v>
       </c>
       <c r="P5" s="18">
         <f>O5</f>
-        <v>0.1371739243163079</v>
+        <v>0.13169175923951118</v>
       </c>
       <c r="Q5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N5,BID)-O5)</f>
@@ -6371,10 +6358,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S5" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U5" s="17" t="str">
         <f t="shared" ref="U5:U22" si="2">Currency&amp;"6M"&amp;T5&amp;"="</f>
@@ -6382,11 +6369,11 @@
       </c>
       <c r="V5" s="18">
         <f>'6M Pricing'!I5*100</f>
-        <v>0.16668877720480482</v>
+        <v>0.15083802883797404</v>
       </c>
       <c r="W5" s="18">
         <f>V5</f>
-        <v>0.16668877720480482</v>
+        <v>0.15083802883797404</v>
       </c>
       <c r="X5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U5,BID)-V5)</f>
@@ -6426,7 +6413,7 @@
     </row>
     <row r="6" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G6,Fields,H6:I6,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H6:I6,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6441,10 +6428,10 @@
         <v>stopped</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6452,11 +6439,11 @@
       </c>
       <c r="H6" s="20">
         <f>'ON Pricing'!I6*100</f>
-        <v>6.4284640071243793E-2</v>
+        <v>6.4358987342028051E-2</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" ref="I6:I38" si="3">H6</f>
-        <v>6.4284640071243793E-2</v>
+        <v>6.4358987342028051E-2</v>
       </c>
       <c r="J6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G6,BID)-H6)</f>
@@ -6467,10 +6454,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L6" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N6" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6478,11 +6465,11 @@
       </c>
       <c r="O6" s="20">
         <f>'3M Pricing'!I6*100</f>
-        <v>0.13717253510431729</v>
+        <v>0.13168977641110866</v>
       </c>
       <c r="P6" s="20">
         <f t="shared" ref="P6:P38" si="4">O6</f>
-        <v>0.13717253510431729</v>
+        <v>0.13168977641110866</v>
       </c>
       <c r="Q6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N6,BID)-O6)</f>
@@ -6493,10 +6480,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S6" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T6" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U6" s="19" t="str">
         <f t="shared" si="2"/>
@@ -6504,11 +6491,11 @@
       </c>
       <c r="V6" s="20">
         <f>'6M Pricing'!I6*100</f>
-        <v>0.16670183341812972</v>
+        <v>0.15087191954883333</v>
       </c>
       <c r="W6" s="20">
         <f t="shared" ref="W6:W38" si="5">V6</f>
-        <v>0.16670183341812972</v>
+        <v>0.15087191954883333</v>
       </c>
       <c r="X6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U6,BID)-V6)</f>
@@ -6548,7 +6535,7 @@
     </row>
     <row r="7" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G7,Fields,H7:I7,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H7:I7,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6563,10 +6550,10 @@
         <v>stopped</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6574,11 +6561,11 @@
       </c>
       <c r="H7" s="22">
         <f>'ON Pricing'!I7*100</f>
-        <v>6.4291652989711956E-2</v>
+        <v>6.4376858568341674E-2</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="3"/>
-        <v>6.4291652989711956E-2</v>
+        <v>6.4376858568341674E-2</v>
       </c>
       <c r="J7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G7,BID)-H7)</f>
@@ -6589,10 +6576,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L7" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N7" s="21" t="str">
         <f t="shared" si="1"/>
@@ -6600,11 +6587,11 @@
       </c>
       <c r="O7" s="22">
         <f>'3M Pricing'!I7*100</f>
-        <v>0.13716889717674263</v>
+        <v>0.13168412289399356</v>
       </c>
       <c r="P7" s="22">
         <f t="shared" si="4"/>
-        <v>0.13716889717674263</v>
+        <v>0.13168412289399356</v>
       </c>
       <c r="Q7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N7,BID)-O7)</f>
@@ -6615,10 +6602,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S7" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U7" s="21" t="str">
         <f t="shared" si="2"/>
@@ -6626,11 +6613,11 @@
       </c>
       <c r="V7" s="22">
         <f>'6M Pricing'!I7*100</f>
-        <v>0.16671399395384867</v>
+        <v>0.15095024533273715</v>
       </c>
       <c r="W7" s="22">
         <f t="shared" si="5"/>
-        <v>0.16671399395384867</v>
+        <v>0.15095024533273715</v>
       </c>
       <c r="X7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U7,BID)-V7)</f>
@@ -6670,7 +6657,7 @@
     </row>
     <row r="8" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G8,Fields,H8:I8,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H8:I8,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6685,10 +6672,10 @@
         <v>stopped</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6696,11 +6683,11 @@
       </c>
       <c r="H8" s="20">
         <f>'ON Pricing'!I8*100</f>
-        <v>6.4341083772845309E-2</v>
+        <v>6.4412601390308383E-2</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="3"/>
-        <v>6.4341083772845309E-2</v>
+        <v>6.4412601390308383E-2</v>
       </c>
       <c r="J8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G8,BID)-H8)</f>
@@ -6711,10 +6698,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L8" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N8" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6722,11 +6709,11 @@
       </c>
       <c r="O8" s="20">
         <f>'3M Pricing'!I8*100</f>
-        <v>0.13716216100512213</v>
+        <v>0.13168126867427585</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="4"/>
-        <v>0.13716216100512213</v>
+        <v>0.13168126867427585</v>
       </c>
       <c r="Q8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N8,BID)-O8)</f>
@@ -6737,10 +6724,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S8" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T8" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U8" s="19" t="str">
         <f t="shared" si="2"/>
@@ -6748,11 +6735,11 @@
       </c>
       <c r="V8" s="20">
         <f>'6M Pricing'!I8*100</f>
-        <v>0.16681830588437052</v>
+        <v>0.15106246182750027</v>
       </c>
       <c r="W8" s="20">
         <f t="shared" si="5"/>
-        <v>0.16681830588437052</v>
+        <v>0.15106246182750027</v>
       </c>
       <c r="X8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U8,BID)-V8)</f>
@@ -6792,7 +6779,7 @@
     </row>
     <row r="9" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G9,Fields,H9:I9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H9:I9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6807,10 +6794,10 @@
         <v>stopped</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6818,11 +6805,11 @@
       </c>
       <c r="H9" s="20">
         <f>'ON Pricing'!I9*100</f>
-        <v>6.4451936947976629E-2</v>
+        <v>6.4517882931769424E-2</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="3"/>
-        <v>6.4451936947976629E-2</v>
+        <v>6.4517882931769424E-2</v>
       </c>
       <c r="J9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G9,BID)-H9)</f>
@@ -6833,10 +6820,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L9" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N9" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6844,11 +6831,11 @@
       </c>
       <c r="O9" s="20">
         <f>'3M Pricing'!I9*100</f>
-        <v>0.13713855802840616</v>
+        <v>0.13166892448688927</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="4"/>
-        <v>0.13713855802840616</v>
+        <v>0.13166892448688927</v>
       </c>
       <c r="Q9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N9,BID)-O9)</f>
@@ -6859,10 +6846,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S9" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U9" s="19" t="str">
         <f t="shared" si="2"/>
@@ -6870,11 +6857,11 @@
       </c>
       <c r="V9" s="20">
         <f>'6M Pricing'!I9*100</f>
-        <v>0.16713338364824992</v>
+        <v>0.15147243591646337</v>
       </c>
       <c r="W9" s="20">
         <f t="shared" si="5"/>
-        <v>0.16713338364824992</v>
+        <v>0.15147243591646337</v>
       </c>
       <c r="X9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U9,BID)-V9)</f>
@@ -6914,7 +6901,7 @@
     </row>
     <row r="10" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G10,Fields,H10:I10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H10:I10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6929,10 +6916,10 @@
         <v>stopped</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6940,11 +6927,11 @@
       </c>
       <c r="H10" s="20">
         <f>'ON Pricing'!I10*100</f>
-        <v>6.4620067166110656E-2</v>
+        <v>6.4677551893295368E-2</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="3"/>
-        <v>6.4620067166110656E-2</v>
+        <v>6.4677551893295368E-2</v>
       </c>
       <c r="J10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G10,BID)-H10)</f>
@@ -6955,10 +6942,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L10" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N10" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6966,11 +6953,11 @@
       </c>
       <c r="O10" s="20">
         <f>'3M Pricing'!I10*100</f>
-        <v>0.1370979985686154</v>
+        <v>0.13164722602557585</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="4"/>
-        <v>0.1370979985686154</v>
+        <v>0.13164722602557585</v>
       </c>
       <c r="Q10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N10,BID)-O10)</f>
@@ -6981,10 +6968,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S10" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T10" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U10" s="19" t="str">
         <f t="shared" si="2"/>
@@ -6992,11 +6979,11 @@
       </c>
       <c r="V10" s="20">
         <f>'6M Pricing'!I10*100</f>
-        <v>0.16765673679535503</v>
+        <v>0.15215427924036057</v>
       </c>
       <c r="W10" s="20">
         <f t="shared" si="5"/>
-        <v>0.16765673679535503</v>
+        <v>0.15215427924036057</v>
       </c>
       <c r="X10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U10,BID)-V10)</f>
@@ -7036,7 +7023,7 @@
     </row>
     <row r="11" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G11,Fields,H11:I11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H11:I11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7051,10 +7038,10 @@
         <v>stopped</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7062,11 +7049,11 @@
       </c>
       <c r="H11" s="20">
         <f>'ON Pricing'!I11*100</f>
-        <v>6.4999999999863792E-2</v>
+        <v>6.4999999999716729E-2</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="3"/>
-        <v>6.4999999999863792E-2</v>
+        <v>6.4999999999716729E-2</v>
       </c>
       <c r="J11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G11,BID)-H11)</f>
@@ -7077,10 +7064,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L11" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7088,11 +7075,11 @@
       </c>
       <c r="O11" s="20">
         <f>'3M Pricing'!I11*100</f>
-        <v>0.13699999999999823</v>
+        <v>0.13160000000005245</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="4"/>
-        <v>0.13699999999999823</v>
+        <v>0.13160000000005245</v>
       </c>
       <c r="Q11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N11,BID)-O11)</f>
@@ -7103,10 +7090,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S11" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T11" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U11" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7114,11 +7101,11 @@
       </c>
       <c r="V11" s="20">
         <f>'6M Pricing'!I11*100</f>
-        <v>0.16890000000002736</v>
+        <v>0.15359999999986138</v>
       </c>
       <c r="W11" s="20">
         <f t="shared" si="5"/>
-        <v>0.16890000000002736</v>
+        <v>0.15359999999986138</v>
       </c>
       <c r="X11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U11,BID)-V11)</f>
@@ -7158,7 +7145,7 @@
     </row>
     <row r="12" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G12,Fields,H12:I12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H12:I12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7173,10 +7160,10 @@
         <v>stopped</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7199,10 +7186,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L12" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M12" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N12" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7210,11 +7197,11 @@
       </c>
       <c r="O12" s="20">
         <f>'3M Pricing'!I12*100</f>
-        <v>0.13540000000000774</v>
+        <v>0.1320000000016899</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="4"/>
-        <v>0.13540000000000774</v>
+        <v>0.1320000000016899</v>
       </c>
       <c r="Q12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N12,BID)-O12)</f>
@@ -7225,10 +7212,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S12" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T12" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U12" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7236,11 +7223,11 @@
       </c>
       <c r="V12" s="20">
         <f>'6M Pricing'!I12*100</f>
-        <v>0.17210000000004061</v>
+        <v>0.1602000000000619</v>
       </c>
       <c r="W12" s="20">
         <f t="shared" si="5"/>
-        <v>0.17210000000004061</v>
+        <v>0.1602000000000619</v>
       </c>
       <c r="X12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U12,BID)-V12)</f>
@@ -7280,7 +7267,7 @@
     </row>
     <row r="13" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G13,Fields,H13:I13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H13:I13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7295,10 +7282,10 @@
         <v>stopped</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7306,11 +7293,11 @@
       </c>
       <c r="H13" s="20">
         <f>'ON Pricing'!I13*100</f>
-        <v>6.2499999999929161E-2</v>
+        <v>6.2499999999960698E-2</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="3"/>
-        <v>6.2499999999929161E-2</v>
+        <v>6.2499999999960698E-2</v>
       </c>
       <c r="J13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G13,BID)-H13)</f>
@@ -7321,10 +7308,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L13" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7332,11 +7319,11 @@
       </c>
       <c r="O13" s="20">
         <f>'3M Pricing'!I13*100</f>
-        <v>0.13199999996492828</v>
+        <v>0.13244490113667051</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="4"/>
-        <v>0.13199999996492828</v>
+        <v>0.13244490113667051</v>
       </c>
       <c r="Q13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N13,BID)-O13)</f>
@@ -7347,10 +7334,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S13" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T13" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U13" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7358,11 +7345,11 @@
       </c>
       <c r="V13" s="20">
         <f>'6M Pricing'!I13*100</f>
-        <v>0.1721999999999847</v>
+        <v>0.16587424459142291</v>
       </c>
       <c r="W13" s="20">
         <f t="shared" si="5"/>
-        <v>0.1721999999999847</v>
+        <v>0.16587424459142291</v>
       </c>
       <c r="X13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U13,BID)-V13)</f>
@@ -7402,7 +7389,7 @@
     </row>
     <row r="14" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G14,Fields,H14:I14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H14:I14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7417,10 +7404,10 @@
         <v>stopped</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7428,11 +7415,11 @@
       </c>
       <c r="H14" s="20">
         <f>'ON Pricing'!I14*100</f>
-        <v>6.2500000000005079E-2</v>
+        <v>6.2499999999939188E-2</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="3"/>
-        <v>6.2500000000005079E-2</v>
+        <v>6.2499999999939188E-2</v>
       </c>
       <c r="J14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G14,BID)-H14)</f>
@@ -7443,10 +7430,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L14" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N14" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7469,10 +7456,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S14" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T14" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U14" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7480,11 +7467,11 @@
       </c>
       <c r="V14" s="20">
         <f>'6M Pricing'!I14*100</f>
-        <v>0.17429999999994705</v>
+        <v>0.1671000000329817</v>
       </c>
       <c r="W14" s="20">
         <f t="shared" si="5"/>
-        <v>0.17429999999994705</v>
+        <v>0.1671000000329817</v>
       </c>
       <c r="X14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U14,BID)-V14)</f>
@@ -7524,7 +7511,7 @@
     </row>
     <row r="15" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G15,Fields,H15:I15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H15:I15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7539,10 +7526,10 @@
         <v>stopped</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7550,11 +7537,11 @@
       </c>
       <c r="H15" s="20">
         <f>'ON Pricing'!I15*100</f>
-        <v>6.2499999999974069E-2</v>
+        <v>6.2500000000027048E-2</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="3"/>
-        <v>6.2499999999974069E-2</v>
+        <v>6.2500000000027048E-2</v>
       </c>
       <c r="J15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G15,BID)-H15)</f>
@@ -7565,10 +7552,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L15" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M15" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N15" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7576,11 +7563,11 @@
       </c>
       <c r="O15" s="20">
         <f>'3M Pricing'!I15*100</f>
-        <v>0.12999999999992934</v>
+        <v>0.13000000000001716</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="4"/>
-        <v>0.12999999999992934</v>
+        <v>0.13000000000001716</v>
       </c>
       <c r="Q15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N15,BID)-O15)</f>
@@ -7591,10 +7578,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S15" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T15" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U15" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7602,11 +7589,11 @@
       </c>
       <c r="V15" s="20">
         <f>'6M Pricing'!I15*100</f>
-        <v>0.1758999999999217</v>
+        <v>0.16989999999997121</v>
       </c>
       <c r="W15" s="20">
         <f t="shared" si="5"/>
-        <v>0.1758999999999217</v>
+        <v>0.16989999999997121</v>
       </c>
       <c r="X15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U15,BID)-V15)</f>
@@ -7646,7 +7633,7 @@
     </row>
     <row r="16" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G16,Fields,H16:I16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H16:I16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7661,10 +7648,10 @@
         <v>stopped</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7672,11 +7659,11 @@
       </c>
       <c r="H16" s="20">
         <f>'ON Pricing'!I16*100</f>
-        <v>6.0000000000018455E-2</v>
+        <v>6.0000000000003315E-2</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="3"/>
-        <v>6.0000000000018455E-2</v>
+        <v>6.0000000000003315E-2</v>
       </c>
       <c r="J16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G16,BID)-H16)</f>
@@ -7687,10 +7674,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L16" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M16" s="44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N16" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7698,11 +7685,11 @@
       </c>
       <c r="O16" s="20">
         <f>'3M Pricing'!I16*100</f>
-        <v>0.1299999999613464</v>
+        <v>0.13000000006645138</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="4"/>
-        <v>0.1299999999613464</v>
+        <v>0.13000000006645138</v>
       </c>
       <c r="Q16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N16,BID)-O16)</f>
@@ -7713,10 +7700,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S16" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T16" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U16" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7724,11 +7711,11 @@
       </c>
       <c r="V16" s="20">
         <f>'6M Pricing'!I16*100</f>
-        <v>0.17446463451507518</v>
+        <v>0.17156750778773808</v>
       </c>
       <c r="W16" s="20">
         <f t="shared" si="5"/>
-        <v>0.17446463451507518</v>
+        <v>0.17156750778773808</v>
       </c>
       <c r="X16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U16,BID)-V16)</f>
@@ -7768,7 +7755,7 @@
     </row>
     <row r="17" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44" t="str">
@@ -7780,7 +7767,7 @@
         <v>stopped</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="19"/>
@@ -7789,10 +7776,10 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M17" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N17" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7800,11 +7787,11 @@
       </c>
       <c r="O17" s="20">
         <f>'3M Pricing'!I17*100</f>
-        <v>0.1300000000019812</v>
+        <v>0.12500000000002384</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="4"/>
-        <v>0.1300000000019812</v>
+        <v>0.12500000000002384</v>
       </c>
       <c r="Q17" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N17,BID)-O17)</f>
@@ -7815,10 +7802,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S17" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T17" s="44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U17" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7826,11 +7813,11 @@
       </c>
       <c r="V17" s="20">
         <f>'6M Pricing'!I17*100</f>
-        <v>0.17499999999999064</v>
+        <v>0.17499999999977459</v>
       </c>
       <c r="W17" s="20">
         <f t="shared" si="5"/>
-        <v>0.17499999999999064</v>
+        <v>0.17499999999977459</v>
       </c>
       <c r="X17" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U17,BID)-V17)</f>
@@ -7870,10 +7857,10 @@
     </row>
     <row r="18" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C18" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N18,Fields,O18:P18,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N18:P18,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7884,7 +7871,7 @@
         <v>stopped</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="19"/>
@@ -7893,10 +7880,10 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N18" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7904,11 +7891,11 @@
       </c>
       <c r="O18" s="20">
         <f>'3M Pricing'!I18*100</f>
-        <v>0.12999999999996348</v>
+        <v>0.12499999999997513</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="4"/>
-        <v>0.12999999999996348</v>
+        <v>0.12499999999997513</v>
       </c>
       <c r="Q18" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N18,BID)-O18)</f>
@@ -7919,10 +7906,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S18" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T18" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U18" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7930,11 +7917,11 @@
       </c>
       <c r="V18" s="20">
         <f>'6M Pricing'!I18*100</f>
-        <v>0.1749999999999651</v>
+        <v>0.16999999999923676</v>
       </c>
       <c r="W18" s="20">
         <f t="shared" si="5"/>
-        <v>0.1749999999999651</v>
+        <v>0.16999999999923676</v>
       </c>
       <c r="X18" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U18,BID)-V18)</f>
@@ -7974,7 +7961,7 @@
     </row>
     <row r="19" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G19,Fields,H19:I19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H19:I19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7989,10 +7976,10 @@
         <v>stopped</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="19" t="str">
         <f>Currency&amp;"ON"&amp;F19&amp;"="</f>
@@ -8000,11 +7987,11 @@
       </c>
       <c r="H19" s="20">
         <f>'ON Pricing'!I19*100</f>
-        <v>5.9999999999995973E-2</v>
+        <v>6.0000000000016575E-2</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="3"/>
-        <v>5.9999999999995973E-2</v>
+        <v>6.0000000000016575E-2</v>
       </c>
       <c r="J19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G19,BID)-H19)</f>
@@ -8015,10 +8002,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L19" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N19" s="19" t="str">
         <f t="shared" si="1"/>
@@ -8026,11 +8013,11 @@
       </c>
       <c r="O19" s="20">
         <f>'3M Pricing'!I19*100</f>
-        <v>0.12499999995911892</v>
+        <v>0.12499999999997513</v>
       </c>
       <c r="P19" s="20">
         <f t="shared" si="4"/>
-        <v>0.12499999995911892</v>
+        <v>0.12499999999997513</v>
       </c>
       <c r="Q19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N19,BID)-O19)</f>
@@ -8041,10 +8028,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S19" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T19" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U19" s="19" t="str">
         <f t="shared" si="2"/>
@@ -8052,11 +8039,11 @@
       </c>
       <c r="V19" s="20">
         <f>'6M Pricing'!I19*100</f>
-        <v>0.17499999999998256</v>
+        <v>0.17000000012136915</v>
       </c>
       <c r="W19" s="20">
         <f t="shared" si="5"/>
-        <v>0.17499999999998256</v>
+        <v>0.17000000012136915</v>
       </c>
       <c r="X19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U19,BID)-V19)</f>
@@ -8096,20 +8083,20 @@
     </row>
     <row r="20" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U20,Fields,V20:W20,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U20:W20,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
         <v>stopped</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="19"/>
@@ -8118,7 +8105,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M20" s="44"/>
       <c r="N20" s="19"/>
@@ -8127,10 +8114,10 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T20" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U20" s="19" t="str">
         <f t="shared" si="2"/>
@@ -8138,11 +8125,11 @@
       </c>
       <c r="V20" s="20">
         <f>'6M Pricing'!I20*100</f>
-        <v>0.16999999999992785</v>
+        <v>0.16999999999888346</v>
       </c>
       <c r="W20" s="20">
         <f t="shared" si="5"/>
-        <v>0.16999999999992785</v>
+        <v>0.16999999999888346</v>
       </c>
       <c r="X20" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U20,BID)-V20)</f>
@@ -8182,20 +8169,20 @@
     </row>
     <row r="21" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D21" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U21,Fields,V21:W21,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U21:W21,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
         <v>stopped</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="19"/>
@@ -8204,7 +8191,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M21" s="44"/>
       <c r="N21" s="19"/>
@@ -8213,10 +8200,10 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T21" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U21" s="19" t="str">
         <f t="shared" si="2"/>
@@ -8224,11 +8211,11 @@
       </c>
       <c r="V21" s="20">
         <f>'6M Pricing'!I21*100</f>
-        <v>0.16999999999997176</v>
+        <v>0.16499999999895079</v>
       </c>
       <c r="W21" s="20">
         <f t="shared" si="5"/>
-        <v>0.16999999999997176</v>
+        <v>0.16499999999895079</v>
       </c>
       <c r="X21" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U21,BID)-V21)</f>
@@ -8268,7 +8255,7 @@
     </row>
     <row r="22" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G22,Fields,H22:I22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H22:I22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8283,10 +8270,10 @@
         <v>stopped</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" s="19" t="str">
         <f>Currency&amp;"ON"&amp;F22&amp;"="</f>
@@ -8294,11 +8281,11 @@
       </c>
       <c r="H22" s="20">
         <f>'ON Pricing'!I22*100</f>
-        <v>6.0000000000015596E-2</v>
+        <v>5.9999999999986814E-2</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="3"/>
-        <v>6.0000000000015596E-2</v>
+        <v>5.9999999999986814E-2</v>
       </c>
       <c r="J22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G22,BID)-H22)</f>
@@ -8309,10 +8296,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L22" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M22" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N22" s="19" t="str">
         <f t="shared" ref="N22:N38" si="6">Currency&amp;"3M"&amp;M22&amp;"="</f>
@@ -8320,11 +8307,11 @@
       </c>
       <c r="O22" s="20">
         <f>'3M Pricing'!I22*100</f>
-        <v>0.12000000000386062</v>
+        <v>0.11999999999999557</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="4"/>
-        <v>0.12000000000386062</v>
+        <v>0.11999999999999557</v>
       </c>
       <c r="Q22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N22,BID)-O22)</f>
@@ -8335,10 +8322,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S22" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T22" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U22" s="19" t="str">
         <f t="shared" si="2"/>
@@ -8346,11 +8333,11 @@
       </c>
       <c r="V22" s="20">
         <f>'6M Pricing'!I22*100</f>
-        <v>0.16500000013899271</v>
+        <v>0.16499999999731602</v>
       </c>
       <c r="W22" s="20">
         <f t="shared" si="5"/>
-        <v>0.16500000013899271</v>
+        <v>0.16499999999731602</v>
       </c>
       <c r="X22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U22,BID)-V22)</f>
@@ -8390,20 +8377,20 @@
     </row>
     <row r="23" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C23" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N23,Fields,O23:P23,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N23:P23,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
         <v>stopped</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="19"/>
@@ -8412,10 +8399,10 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8423,11 +8410,11 @@
       </c>
       <c r="O23" s="20">
         <f>'3M Pricing'!I23*100</f>
-        <v>0.11500000000005919</v>
+        <v>0.11499999999997142</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="4"/>
-        <v>0.11500000000005919</v>
+        <v>0.11499999999997142</v>
       </c>
       <c r="Q23" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N23,BID)-O23)</f>
@@ -8438,7 +8425,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="S23" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T23" s="44"/>
       <c r="U23" s="19"/>
@@ -8476,7 +8463,7 @@
     </row>
     <row r="24" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G24,Fields,H24:I24,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H24:I24,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8491,10 +8478,10 @@
         <v>stopped</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G24" s="19" t="str">
         <f t="shared" ref="G24:G38" si="7">Currency&amp;"ON"&amp;F24&amp;"="</f>
@@ -8502,11 +8489,11 @@
       </c>
       <c r="H24" s="20">
         <f>'ON Pricing'!I24*100</f>
-        <v>5.999999999999675E-2</v>
+        <v>5.9999999999991269E-2</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="3"/>
-        <v>5.999999999999675E-2</v>
+        <v>5.9999999999991269E-2</v>
       </c>
       <c r="J24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G24,BID)-H24)</f>
@@ -8517,10 +8504,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L24" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M24" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8528,11 +8515,11 @@
       </c>
       <c r="O24" s="20">
         <f>'3M Pricing'!I24*100</f>
-        <v>0.12373284262500646</v>
+        <v>0.12466872626720005</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="4"/>
-        <v>0.12373284262500646</v>
+        <v>0.12466872626720005</v>
       </c>
       <c r="Q24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N24,BID)-O24)</f>
@@ -8543,10 +8530,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S24" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T24" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U24" s="19" t="str">
         <f t="shared" ref="U24:U38" si="8">Currency&amp;"6M"&amp;T24&amp;"="</f>
@@ -8554,11 +8541,11 @@
       </c>
       <c r="V24" s="20">
         <f>'6M Pricing'!I24*100</f>
-        <v>0.16966645370560388</v>
+        <v>0.17000000000001009</v>
       </c>
       <c r="W24" s="20">
         <f t="shared" si="5"/>
-        <v>0.16966645370560388</v>
+        <v>0.17000000000001009</v>
       </c>
       <c r="X24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U24,BID)-V24)</f>
@@ -8598,7 +8585,7 @@
     </row>
     <row r="25" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G25,Fields,H25:I25,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H25:I25,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8613,10 +8600,10 @@
         <v>stopped</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G25" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8624,11 +8611,11 @@
       </c>
       <c r="H25" s="20">
         <f>'ON Pricing'!I25*100</f>
-        <v>6.0000000000001177E-2</v>
+        <v>5.9999999999997569E-2</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="3"/>
-        <v>6.0000000000001177E-2</v>
+        <v>5.9999999999997569E-2</v>
       </c>
       <c r="J25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G25,BID)-H25)</f>
@@ -8639,10 +8626,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L25" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M25" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8650,11 +8637,11 @@
       </c>
       <c r="O25" s="20">
         <f>'3M Pricing'!I25*100</f>
-        <v>0.12183665964504767</v>
+        <v>0.12183668100508491</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="4"/>
-        <v>0.12183665964504767</v>
+        <v>0.12183668100508491</v>
       </c>
       <c r="Q25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N25,BID)-O25)</f>
@@ -8665,10 +8652,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S25" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T25" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U25" s="19" t="str">
         <f t="shared" si="8"/>
@@ -8676,11 +8663,11 @@
       </c>
       <c r="V25" s="20">
         <f>'6M Pricing'!I25*100</f>
-        <v>0.16998517187517026</v>
+        <v>0.17000000000000481</v>
       </c>
       <c r="W25" s="20">
         <f t="shared" si="5"/>
-        <v>0.16998517187517026</v>
+        <v>0.17000000000000481</v>
       </c>
       <c r="X25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U25,BID)-V25)</f>
@@ -8720,7 +8707,7 @@
     </row>
     <row r="26" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G26,Fields,H26:I26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H26:I26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8735,10 +8722,10 @@
         <v>stopped</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G26" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8746,11 +8733,11 @@
       </c>
       <c r="H26" s="20">
         <f>'ON Pricing'!I26*100</f>
-        <v>6.7499999999989305E-2</v>
+        <v>6.4999999999992369E-2</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="3"/>
-        <v>6.7499999999989305E-2</v>
+        <v>6.4999999999992369E-2</v>
       </c>
       <c r="J26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G26,BID)-H26)</f>
@@ -8761,10 +8748,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L26" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N26" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8772,11 +8759,11 @@
       </c>
       <c r="O26" s="20">
         <f>'3M Pricing'!I26*100</f>
-        <v>0.12173133571816933</v>
+        <v>0.1217315454906757</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="4"/>
-        <v>0.12173133571816933</v>
+        <v>0.1217315454906757</v>
       </c>
       <c r="Q26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N26,BID)-O26)</f>
@@ -8787,10 +8774,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S26" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T26" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U26" s="19" t="str">
         <f t="shared" si="8"/>
@@ -8798,11 +8785,11 @@
       </c>
       <c r="V26" s="20">
         <f>'6M Pricing'!I26*100</f>
-        <v>0.17749009309943534</v>
+        <v>0.17750000000000457</v>
       </c>
       <c r="W26" s="20">
         <f t="shared" si="5"/>
-        <v>0.17749009309943534</v>
+        <v>0.17750000000000457</v>
       </c>
       <c r="X26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U26,BID)-V26)</f>
@@ -8842,7 +8829,7 @@
     </row>
     <row r="27" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G27,Fields,H27:I27,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H27:I27,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8857,10 +8844,10 @@
         <v>stopped</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G27" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8868,11 +8855,11 @@
       </c>
       <c r="H27" s="20">
         <f>'ON Pricing'!I27*100</f>
-        <v>7.7499999999996072E-2</v>
+        <v>7.2500000000007905E-2</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="3"/>
-        <v>7.7499999999996072E-2</v>
+        <v>7.2500000000007905E-2</v>
       </c>
       <c r="J27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G27,BID)-H27)</f>
@@ -8883,10 +8870,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L27" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N27" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8894,11 +8881,11 @@
       </c>
       <c r="O27" s="20">
         <f>'3M Pricing'!I27*100</f>
-        <v>0.1415906610168787</v>
+        <v>0.13909111352062209</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="4"/>
-        <v>0.1415906610168787</v>
+        <v>0.13909111352062209</v>
       </c>
       <c r="Q27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N27,BID)-O27)</f>
@@ -8909,10 +8896,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S27" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T27" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U27" s="19" t="str">
         <f t="shared" si="8"/>
@@ -8920,11 +8907,11 @@
       </c>
       <c r="V27" s="20">
         <f>'6M Pricing'!I27*100</f>
-        <v>0.20749256497035723</v>
+        <v>0.20499999998052831</v>
       </c>
       <c r="W27" s="20">
         <f t="shared" si="5"/>
-        <v>0.20749256497035723</v>
+        <v>0.20499999998052831</v>
       </c>
       <c r="X27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U27,BID)-V27)</f>
@@ -8964,7 +8951,7 @@
     </row>
     <row r="28" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G28,Fields,H28:I28,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H28:I28,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8979,10 +8966,10 @@
         <v>stopped</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G28" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8990,11 +8977,11 @@
       </c>
       <c r="H28" s="20">
         <f>'ON Pricing'!I28*100</f>
-        <v>0.10250000000000181</v>
+        <v>9.4999999999995213E-2</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="3"/>
-        <v>0.10250000000000181</v>
+        <v>9.4999999999995213E-2</v>
       </c>
       <c r="J28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G28,BID)-H28)</f>
@@ -9005,10 +8992,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L28" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M28" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N28" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9016,11 +9003,11 @@
       </c>
       <c r="O28" s="20">
         <f>'3M Pricing'!I28*100</f>
-        <v>0.18144808412981092</v>
+        <v>0.1789488452395645</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="4"/>
-        <v>0.18144808412981092</v>
+        <v>0.1789488452395645</v>
       </c>
       <c r="Q28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N28,BID)-O28)</f>
@@ -9031,10 +9018,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S28" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T28" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U28" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9042,11 +9029,11 @@
       </c>
       <c r="V28" s="20">
         <f>'6M Pricing'!I28*100</f>
-        <v>0.2574940475940331</v>
+        <v>0.25500000000002099</v>
       </c>
       <c r="W28" s="20">
         <f t="shared" si="5"/>
-        <v>0.2574940475940331</v>
+        <v>0.25500000000002099</v>
       </c>
       <c r="X28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U28,BID)-V28)</f>
@@ -9086,7 +9073,7 @@
     </row>
     <row r="29" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G29,Fields,H29:I29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H29:I29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9101,10 +9088,10 @@
         <v>stopped</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G29" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9112,11 +9099,11 @@
       </c>
       <c r="H29" s="20">
         <f>'ON Pricing'!I29*100</f>
-        <v>0.14999999999999464</v>
+        <v>0.1425000000000054</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="3"/>
-        <v>0.14999999999999464</v>
+        <v>0.1425000000000054</v>
       </c>
       <c r="J29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G29,BID)-H29)</f>
@@ -9127,10 +9114,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L29" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N29" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9138,11 +9125,11 @@
       </c>
       <c r="O29" s="20">
         <f>'3M Pricing'!I29*100</f>
-        <v>0.2413023579473815</v>
+        <v>0.23880309928379931</v>
       </c>
       <c r="P29" s="20">
         <f t="shared" si="4"/>
-        <v>0.2413023579473815</v>
+        <v>0.23880309928379931</v>
       </c>
       <c r="Q29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N29,BID)-O29)</f>
@@ -9153,10 +9140,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T29" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U29" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9164,11 +9151,11 @@
       </c>
       <c r="V29" s="20">
         <f>'6M Pricing'!I29*100</f>
-        <v>0.32749503667469687</v>
+        <v>0.32500000000005669</v>
       </c>
       <c r="W29" s="20">
         <f t="shared" si="5"/>
-        <v>0.32749503667469687</v>
+        <v>0.32500000000005669</v>
       </c>
       <c r="X29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U29,BID)-V29)</f>
@@ -9208,7 +9195,7 @@
     </row>
     <row r="30" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G30,Fields,H30:I30,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H30:I30,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9223,10 +9210,10 @@
         <v>stopped</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G30" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9234,11 +9221,11 @@
       </c>
       <c r="H30" s="20">
         <f>'ON Pricing'!I30*100</f>
-        <v>0.21749999999999989</v>
+        <v>0.20750000000000576</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="3"/>
-        <v>0.21749999999999989</v>
+        <v>0.20750000000000576</v>
       </c>
       <c r="J30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G30,BID)-H30)</f>
@@ -9249,10 +9236,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L30" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M30" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N30" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9260,11 +9247,11 @@
       </c>
       <c r="O30" s="20">
         <f>'3M Pricing'!I30*100</f>
-        <v>0.31868819726952768</v>
+        <v>0.31368968737145358</v>
       </c>
       <c r="P30" s="20">
         <f t="shared" si="4"/>
-        <v>0.31868819726952768</v>
+        <v>0.31368968737145358</v>
       </c>
       <c r="Q30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N30,BID)-O30)</f>
@@ -9275,10 +9262,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T30" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U30" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9286,11 +9273,11 @@
       </c>
       <c r="V30" s="20">
         <f>'6M Pricing'!I30*100</f>
-        <v>0.4124956976756608</v>
+        <v>0.40749999998895975</v>
       </c>
       <c r="W30" s="20">
         <f t="shared" si="5"/>
-        <v>0.4124956976756608</v>
+        <v>0.40749999998895975</v>
       </c>
       <c r="X30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U30,BID)-V30)</f>
@@ -9330,7 +9317,7 @@
     </row>
     <row r="31" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G31,Fields,H31:I31,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H31:I31,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9345,10 +9332,10 @@
         <v>stopped</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G31" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9356,11 +9343,11 @@
       </c>
       <c r="H31" s="20">
         <f>'ON Pricing'!I31*100</f>
-        <v>0.30249999999999322</v>
+        <v>0.27499999999999913</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="3"/>
-        <v>0.30249999999999322</v>
+        <v>0.27499999999999913</v>
       </c>
       <c r="J31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G31,BID)-H31)</f>
@@ -9371,10 +9358,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L31" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M31" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N31" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9382,11 +9369,11 @@
       </c>
       <c r="O31" s="20">
         <f>'3M Pricing'!I31*100</f>
-        <v>0.40107124963320168</v>
+        <v>0.39607480700405134</v>
       </c>
       <c r="P31" s="20">
         <f t="shared" si="4"/>
-        <v>0.40107124963320168</v>
+        <v>0.39607480700405134</v>
       </c>
       <c r="Q31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N31,BID)-O31)</f>
@@ -9397,10 +9384,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T31" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U31" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9408,11 +9395,11 @@
       </c>
       <c r="V31" s="20">
         <f>'6M Pricing'!I31*100</f>
-        <v>0.50249639507925481</v>
+        <v>0.49750000000010314</v>
       </c>
       <c r="W31" s="20">
         <f t="shared" si="5"/>
-        <v>0.50249639507925481</v>
+        <v>0.49750000000010314</v>
       </c>
       <c r="X31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U31,BID)-V31)</f>
@@ -9452,7 +9439,7 @@
     </row>
     <row r="32" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G32,Fields,H32:I32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H32:I32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9467,10 +9454,10 @@
         <v>stopped</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9478,11 +9465,11 @@
       </c>
       <c r="H32" s="20">
         <f>'ON Pricing'!I32*100</f>
-        <v>0.35999999999999888</v>
+        <v>0.34750000000000092</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="3"/>
-        <v>0.35999999999999888</v>
+        <v>0.34750000000000092</v>
       </c>
       <c r="J32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G32,BID)-H32)</f>
@@ -9493,10 +9480,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L32" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M32" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N32" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9504,11 +9491,11 @@
       </c>
       <c r="O32" s="20">
         <f>'3M Pricing'!I32*100</f>
-        <v>0.48592052590892165</v>
+        <v>0.47842205594920667</v>
       </c>
       <c r="P32" s="20">
         <f t="shared" si="4"/>
-        <v>0.48592052590892165</v>
+        <v>0.47842205594920667</v>
       </c>
       <c r="Q32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N32,BID)-O32)</f>
@@ -9519,10 +9506,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T32" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U32" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9530,11 +9517,11 @@
       </c>
       <c r="V32" s="20">
         <f>'6M Pricing'!I32*100</f>
-        <v>0.59749678594145728</v>
+        <v>0.59000000000005115</v>
       </c>
       <c r="W32" s="20">
         <f t="shared" si="5"/>
-        <v>0.59749678594145728</v>
+        <v>0.59000000000005115</v>
       </c>
       <c r="X32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U32,BID)-V32)</f>
@@ -9574,7 +9561,7 @@
     </row>
     <row r="33" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G33,Fields,H33:I33,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H33:I33,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9589,10 +9576,10 @@
         <v>stopped</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G33" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9600,11 +9587,11 @@
       </c>
       <c r="H33" s="20">
         <f>'ON Pricing'!I33*100</f>
-        <v>0.43499999999999361</v>
+        <v>0.42250000000000554</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="3"/>
-        <v>0.43499999999999361</v>
+        <v>0.42250000000000554</v>
       </c>
       <c r="J33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G33,BID)-H33)</f>
@@ -9615,10 +9602,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L33" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M33" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N33" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9626,11 +9613,11 @@
       </c>
       <c r="O33" s="20">
         <f>'3M Pricing'!I33*100</f>
-        <v>0.57080119919925376</v>
+        <v>0.56580312879349703</v>
       </c>
       <c r="P33" s="20">
         <f t="shared" si="4"/>
-        <v>0.57080119919925376</v>
+        <v>0.56580312879349703</v>
       </c>
       <c r="Q33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N33,BID)-O33)</f>
@@ -9641,10 +9628,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T33" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U33" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9652,11 +9639,11 @@
       </c>
       <c r="V33" s="20">
         <f>'6M Pricing'!I33*100</f>
-        <v>0.68999709892822303</v>
+        <v>0.68500000000006789</v>
       </c>
       <c r="W33" s="20">
         <f t="shared" si="5"/>
-        <v>0.68999709892822303</v>
+        <v>0.68500000000006789</v>
       </c>
       <c r="X33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U33,BID)-V33)</f>
@@ -9696,7 +9683,7 @@
     </row>
     <row r="34" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G34,Fields,H34:I34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H34:I34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9711,10 +9698,10 @@
         <v>stopped</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G34" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9722,11 +9709,11 @@
       </c>
       <c r="H34" s="20">
         <f>'ON Pricing'!I34*100</f>
-        <v>0.60499999999999665</v>
+        <v>0.59000000000000674</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="3"/>
-        <v>0.60499999999999665</v>
+        <v>0.59000000000000674</v>
       </c>
       <c r="J34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G34,BID)-H34)</f>
@@ -9737,10 +9724,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L34" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M34" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N34" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9748,11 +9735,11 @@
       </c>
       <c r="O34" s="20">
         <f>'3M Pricing'!I34*100</f>
-        <v>0.74881377127535409</v>
+        <v>0.74629029575319861</v>
       </c>
       <c r="P34" s="20">
         <f t="shared" si="4"/>
-        <v>0.74881377127535409</v>
+        <v>0.74629029575319861</v>
       </c>
       <c r="Q34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N34,BID)-O34)</f>
@@ -9763,10 +9750,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S34" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T34" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U34" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9774,11 +9761,11 @@
       </c>
       <c r="V34" s="20">
         <f>'6M Pricing'!I34*100</f>
-        <v>0.87749753621395676</v>
+        <v>0.87250000000028438</v>
       </c>
       <c r="W34" s="20">
         <f t="shared" si="5"/>
-        <v>0.87749753621395676</v>
+        <v>0.87250000000028438</v>
       </c>
       <c r="X34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U34,BID)-V34)</f>
@@ -9818,7 +9805,7 @@
     </row>
     <row r="35" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G35,Fields,H35:I35,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H35:I35,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9833,10 +9820,10 @@
         <v>stopped</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G35" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9844,11 +9831,11 @@
       </c>
       <c r="H35" s="20">
         <f>'ON Pricing'!I35*100</f>
-        <v>0.86000000000000054</v>
+        <v>0.84999999999999987</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="3"/>
-        <v>0.86000000000000054</v>
+        <v>0.84999999999999987</v>
       </c>
       <c r="J35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G35,BID)-H35)</f>
@@ -9859,10 +9846,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L35" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M35" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N35" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9870,11 +9857,11 @@
       </c>
       <c r="O35" s="20">
         <f>'3M Pricing'!I35*100</f>
-        <v>1.0054754627590752</v>
+        <v>1.0004771232663732</v>
       </c>
       <c r="P35" s="20">
         <f t="shared" si="4"/>
-        <v>1.0054754627590752</v>
+        <v>1.0004771232663732</v>
       </c>
       <c r="Q35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N35,BID)-O35)</f>
@@ -9885,10 +9872,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S35" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T35" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U35" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9896,11 +9883,11 @@
       </c>
       <c r="V35" s="20">
         <f>'6M Pricing'!I35*100</f>
-        <v>1.1424979822909587</v>
+        <v>1.137500000003197</v>
       </c>
       <c r="W35" s="20">
         <f t="shared" si="5"/>
-        <v>1.1424979822909587</v>
+        <v>1.137500000003197</v>
       </c>
       <c r="X35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U35,BID)-V35)</f>
@@ -9940,7 +9927,7 @@
     </row>
     <row r="36" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G36,Fields,H36:I36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H36:I36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9955,10 +9942,10 @@
         <v>stopped</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9966,11 +9953,11 @@
       </c>
       <c r="H36" s="20">
         <f>'ON Pricing'!I36*100</f>
-        <v>1.1750000000000049</v>
+        <v>1.1749999999999967</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="3"/>
-        <v>1.1750000000000049</v>
+        <v>1.1749999999999967</v>
       </c>
       <c r="J36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G36,BID)-H36)</f>
@@ -9981,10 +9968,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L36" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M36" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N36" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9992,11 +9979,11 @@
       </c>
       <c r="O36" s="20">
         <f>'3M Pricing'!I36*100</f>
-        <v>1.3253840458939352</v>
+        <v>1.3228840645289823</v>
       </c>
       <c r="P36" s="20">
         <f t="shared" si="4"/>
-        <v>1.3253840458939352</v>
+        <v>1.3228840645289823</v>
       </c>
       <c r="Q36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N36,BID)-O36)</f>
@@ -10007,10 +9994,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S36" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T36" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U36" s="19" t="str">
         <f t="shared" si="8"/>
@@ -10018,11 +10005,11 @@
       </c>
       <c r="V36" s="20">
         <f>'6M Pricing'!I36*100</f>
-        <v>1.464998406669078</v>
+        <v>1.4625000000050035</v>
       </c>
       <c r="W36" s="20">
         <f t="shared" si="5"/>
-        <v>1.464998406669078</v>
+        <v>1.4625000000050035</v>
       </c>
       <c r="X36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U36,BID)-V36)</f>
@@ -10062,7 +10049,7 @@
     </row>
     <row r="37" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G37,Fields,H37:I37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H37:I37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -10077,10 +10064,10 @@
         <v>stopped</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G37" s="19" t="str">
         <f t="shared" si="7"/>
@@ -10088,11 +10075,11 @@
       </c>
       <c r="H37" s="20">
         <f>'ON Pricing'!I37*100</f>
-        <v>1.3425000000000025</v>
+        <v>1.3375000000000021</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="3"/>
-        <v>1.3425000000000025</v>
+        <v>1.3375000000000021</v>
       </c>
       <c r="J37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G37,BID)-H37)</f>
@@ -10103,10 +10090,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L37" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M37" s="44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N37" s="19" t="str">
         <f t="shared" si="6"/>
@@ -10114,11 +10101,11 @@
       </c>
       <c r="O37" s="20">
         <f>'3M Pricing'!I37*100</f>
-        <v>1.4952817432717309</v>
+        <v>1.4968138947167944</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="4"/>
-        <v>1.4952817432717309</v>
+        <v>1.4968138947167944</v>
       </c>
       <c r="Q37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N37,BID)-O37)</f>
@@ -10129,10 +10116,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S37" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T37" s="44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U37" s="19" t="str">
         <f t="shared" si="8"/>
@@ -10140,11 +10127,11 @@
       </c>
       <c r="V37" s="20">
         <f>'6M Pricing'!I37*100</f>
-        <v>1.6349986386552586</v>
+        <v>1.6349999999993154</v>
       </c>
       <c r="W37" s="20">
         <f t="shared" si="5"/>
-        <v>1.6349986386552586</v>
+        <v>1.6349999999993154</v>
       </c>
       <c r="X37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U37,BID)-V37)</f>
@@ -10184,7 +10171,7 @@
     </row>
     <row r="38" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G38,Fields,H38:I38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H38:I38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -10199,10 +10186,10 @@
         <v>stopped</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G38" s="21" t="str">
         <f t="shared" si="7"/>
@@ -10210,11 +10197,11 @@
       </c>
       <c r="H38" s="22">
         <f>'ON Pricing'!I38*100</f>
-        <v>1.4399999999999995</v>
+        <v>1.4375000000000016</v>
       </c>
       <c r="I38" s="22">
         <f t="shared" si="3"/>
-        <v>1.4399999999999995</v>
+        <v>1.4375000000000016</v>
       </c>
       <c r="J38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G38,BID)-H38)</f>
@@ -10225,10 +10212,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L38" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M38" s="45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N38" s="21" t="str">
         <f t="shared" si="6"/>
@@ -10236,11 +10223,11 @@
       </c>
       <c r="O38" s="22">
         <f>'3M Pricing'!I38*100</f>
-        <v>1.5902603988943391</v>
+        <v>1.5952609078236764</v>
       </c>
       <c r="P38" s="22">
         <f t="shared" si="4"/>
-        <v>1.5902603988943391</v>
+        <v>1.5952609078236764</v>
       </c>
       <c r="Q38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N38,BID)-O38)</f>
@@ -10251,10 +10238,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S38" s="89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T38" s="45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U38" s="21" t="str">
         <f t="shared" si="8"/>
@@ -10262,11 +10249,11 @@
       </c>
       <c r="V38" s="22">
         <f>'6M Pricing'!I38*100</f>
-        <v>1.7349987950193699</v>
+        <v>1.7399999999999995</v>
       </c>
       <c r="W38" s="22">
         <f t="shared" si="5"/>
-        <v>1.7349987950193699</v>
+        <v>1.7399999999999995</v>
       </c>
       <c r="X38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U38,BID)-V38)</f>
@@ -13672,13 +13659,13 @@
       <c r="C2" s="133"/>
       <c r="D2" s="6"/>
       <c r="E2" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="105" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="39" t="str">
         <f>Currency&amp;CurveTenor</f>
@@ -13737,29 +13724,29 @@
       <c r="C4" s="133"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>129</v>
-      </c>
       <c r="K4" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L4" s="137"/>
       <c r="M4" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N4" s="89"/>
       <c r="O4" s="89"/>
@@ -13780,38 +13767,38 @@
       <c r="B5" s="2"/>
       <c r="C5" s="133"/>
       <c r="D5" s="53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="98">
         <f t="shared" ref="F5" si="0">EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G5" s="98">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,F5)</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="H5" s="98">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,G5)</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="I5" s="99">
         <f>_xll.qlIndexFixing(OvernightIndex,F5,TRUE,InterestRatesTrigger)</f>
-        <v>6.4281133595800455E-4</v>
+        <v>6.4355657782511067E-4</v>
       </c>
       <c r="J5" s="86" t="str">
         <f>Contribution!G5</f>
         <v>JPYONOND=</v>
       </c>
       <c r="K5" s="130" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L5" s="137"/>
       <c r="M5" s="104" t="str">
-        <f>_xll.qlOvernightIndex(,"Tonar",0,Currency,Calendar2,"Actual/365 (Fixed)",YieldCurve,,Trigger)</f>
-        <v>obj_00484#0001</v>
+        <f>_xll.qlOvernightIndex(,"Tonar",0,Currency,Calendar1,"Actual/365 (Fixed)",YieldCurve,,Trigger)</f>
+        <v>obj_00486#0000</v>
       </c>
       <c r="N5" s="89"/>
       <c r="O5" s="89"/>
@@ -13832,26 +13819,26 @@
       <c r="B6" s="2"/>
       <c r="C6" s="133"/>
       <c r="D6" s="56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F6" s="101">
         <f>H5</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G6" s="101">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,F6)</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="H6" s="101">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,G6)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="I6" s="100">
         <f>_xll.qlIndexFixing(OvernightIndex,F6,TRUE,InterestRatesTrigger)</f>
-        <v>6.4284640071243793E-4</v>
+        <v>6.4358987342028051E-4</v>
       </c>
       <c r="J6" s="86" t="str">
         <f>Contribution!G6</f>
@@ -13879,26 +13866,26 @@
       <c r="B7" s="2"/>
       <c r="C7" s="133"/>
       <c r="D7" s="58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="102">
         <f>H6</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="G7" s="102">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,F7)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H7" s="102">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,G7)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="I7" s="103">
         <f>_xll.qlIndexFixing(OvernightIndex,F7,TRUE,InterestRatesTrigger)</f>
-        <v>6.4291652989711956E-4</v>
+        <v>6.4376858568341677E-4</v>
       </c>
       <c r="J7" s="86" t="str">
         <f>Contribution!G7</f>
@@ -13907,7 +13894,7 @@
       <c r="K7" s="86"/>
       <c r="L7" s="137"/>
       <c r="M7" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N7" s="89"/>
       <c r="O7" s="89"/>
@@ -13928,23 +13915,23 @@
       <c r="B8" s="2"/>
       <c r="C8" s="133"/>
       <c r="D8" s="56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" s="101"/>
       <c r="G8" s="101">
         <f>_xll.qlSwapStartDate(M8)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H8" s="101">
         <f>_xll.qlSwapMaturityDate(M8)</f>
-        <v>41837</v>
+        <v>41838</v>
       </c>
       <c r="I8" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M8,InterestRatesTrigger)</f>
-        <v>6.4341083772845309E-4</v>
+        <v>6.4412601390308384E-4</v>
       </c>
       <c r="J8" s="87" t="str">
         <f>Contribution!G8</f>
@@ -13954,7 +13941,7 @@
       <c r="L8" s="137"/>
       <c r="M8" s="56" t="str">
         <f>_xll.qlMakeOIS(,"1W",OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0048f#0001</v>
+        <v>obj_0049b#0000</v>
       </c>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
@@ -13975,23 +13962,23 @@
       <c r="B9" s="2"/>
       <c r="C9" s="133"/>
       <c r="D9" s="56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="101"/>
       <c r="G9" s="101">
         <f>_xll.qlSwapStartDate(M9)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H9" s="101">
         <f>_xll.qlSwapMaturityDate(M9)</f>
-        <v>41844</v>
+        <v>41845</v>
       </c>
       <c r="I9" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M9,InterestRatesTrigger)</f>
-        <v>6.4451936947976631E-4</v>
+        <v>6.4517882931769421E-4</v>
       </c>
       <c r="J9" s="86" t="str">
         <f>Contribution!G9</f>
@@ -14001,7 +13988,7 @@
       <c r="L9" s="137"/>
       <c r="M9" s="56" t="str">
         <f>_xll.qlMakeOIS(,D9,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0048c#0001</v>
+        <v>obj_0048b#0000</v>
       </c>
       <c r="N9" s="89"/>
       <c r="O9" s="89"/>
@@ -14022,23 +14009,23 @@
       <c r="B10" s="2"/>
       <c r="C10" s="133"/>
       <c r="D10" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="101">
         <f>_xll.qlSwapStartDate(M10)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H10" s="101">
         <f>_xll.qlSwapMaturityDate(M10)</f>
-        <v>41851</v>
+        <v>41852</v>
       </c>
       <c r="I10" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M10,InterestRatesTrigger)</f>
-        <v>6.4620067166110649E-4</v>
+        <v>6.4677551893295372E-4</v>
       </c>
       <c r="J10" s="86" t="str">
         <f>Contribution!G10</f>
@@ -14048,7 +14035,7 @@
       <c r="L10" s="137"/>
       <c r="M10" s="56" t="str">
         <f>_xll.qlMakeOIS(,D10,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0048a#0001</v>
+        <v>obj_00491#0000</v>
       </c>
       <c r="N10" s="89"/>
       <c r="O10" s="89"/>
@@ -14069,15 +14056,15 @@
       <c r="B11" s="2"/>
       <c r="C11" s="133"/>
       <c r="D11" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="101"/>
       <c r="G11" s="101">
         <f>_xll.qlSwapStartDate(M11)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H11" s="101">
         <f>_xll.qlSwapMaturityDate(M11)</f>
@@ -14085,7 +14072,7 @@
       </c>
       <c r="I11" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M11,InterestRatesTrigger)</f>
-        <v>6.4999999999863789E-4</v>
+        <v>6.4999999999716728E-4</v>
       </c>
       <c r="J11" s="86" t="str">
         <f>Contribution!G11</f>
@@ -14098,7 +14085,7 @@
       <c r="L11" s="137"/>
       <c r="M11" s="56" t="str">
         <f>_xll.qlMakeOIS(,D11,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0048e#0001</v>
+        <v>obj_00494#0000</v>
       </c>
       <c r="N11" s="89"/>
       <c r="O11" s="89"/>
@@ -14119,19 +14106,19 @@
       <c r="B12" s="2"/>
       <c r="C12" s="133"/>
       <c r="D12" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="101"/>
       <c r="G12" s="101">
         <f>_xll.qlSwapStartDate(M12)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H12" s="101">
         <f>_xll.qlSwapMaturityDate(M12)</f>
-        <v>41892</v>
+        <v>41893</v>
       </c>
       <c r="I12" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M12,InterestRatesTrigger)</f>
@@ -14148,7 +14135,7 @@
       <c r="L12" s="137"/>
       <c r="M12" s="56" t="str">
         <f>_xll.qlMakeOIS(,D12,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0048b#0001</v>
+        <v>obj_00489#0000</v>
       </c>
       <c r="N12" s="89"/>
       <c r="O12" s="89"/>
@@ -14169,23 +14156,23 @@
       <c r="B13" s="2"/>
       <c r="C13" s="133"/>
       <c r="D13" s="56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13" s="101"/>
       <c r="G13" s="101">
         <f>_xll.qlSwapStartDate(M13)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H13" s="101">
         <f>_xll.qlSwapMaturityDate(M13)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I13" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M13,InterestRatesTrigger)</f>
-        <v>6.249999999992916E-4</v>
+        <v>6.2499999999960699E-4</v>
       </c>
       <c r="J13" s="86" t="str">
         <f>Contribution!G13</f>
@@ -14198,7 +14185,7 @@
       <c r="L13" s="137"/>
       <c r="M13" s="56" t="str">
         <f>_xll.qlMakeOIS(,D13,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0048d#0001</v>
+        <v>obj_0048f#0000</v>
       </c>
       <c r="N13" s="89"/>
       <c r="O13" s="89"/>
@@ -14219,23 +14206,23 @@
       <c r="B14" s="2"/>
       <c r="C14" s="133"/>
       <c r="D14" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" s="101"/>
       <c r="G14" s="101">
         <f>_xll.qlSwapStartDate(M14)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H14" s="101">
         <f>_xll.qlSwapMaturityDate(M14)</f>
-        <v>41953</v>
+        <v>41954</v>
       </c>
       <c r="I14" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M14,InterestRatesTrigger)</f>
-        <v>6.2500000000005075E-4</v>
+        <v>6.2499999999939188E-4</v>
       </c>
       <c r="J14" s="86" t="str">
         <f>Contribution!G14</f>
@@ -14248,7 +14235,7 @@
       <c r="L14" s="137"/>
       <c r="M14" s="56" t="str">
         <f>_xll.qlMakeOIS(,D14,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00489#0001</v>
+        <v>obj_00488#0000</v>
       </c>
       <c r="N14" s="89"/>
       <c r="O14" s="89"/>
@@ -14269,23 +14256,23 @@
       <c r="B15" s="2"/>
       <c r="C15" s="133"/>
       <c r="D15" s="56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="101"/>
       <c r="G15" s="101">
         <f>_xll.qlSwapStartDate(M15)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H15" s="101">
         <f>_xll.qlSwapMaturityDate(M15)</f>
-        <v>41983</v>
+        <v>41984</v>
       </c>
       <c r="I15" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M15,InterestRatesTrigger)</f>
-        <v>6.2499999999974067E-4</v>
+        <v>6.2500000000027041E-4</v>
       </c>
       <c r="J15" s="86" t="str">
         <f>Contribution!G15</f>
@@ -14298,7 +14285,7 @@
       <c r="L15" s="137"/>
       <c r="M15" s="56" t="str">
         <f>_xll.qlMakeOIS(,D15,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00488#0001</v>
+        <v>obj_00490#0000</v>
       </c>
       <c r="N15" s="89"/>
       <c r="O15" s="89"/>
@@ -14319,15 +14306,15 @@
       <c r="B16" s="2"/>
       <c r="C16" s="133"/>
       <c r="D16" s="56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="101"/>
       <c r="G16" s="101">
         <f>_xll.qlSwapStartDate(M16)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H16" s="101">
         <f>_xll.qlSwapMaturityDate(M16)</f>
@@ -14335,7 +14322,7 @@
       </c>
       <c r="I16" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M16,InterestRatesTrigger)</f>
-        <v>6.0000000000018459E-4</v>
+        <v>6.0000000000003312E-4</v>
       </c>
       <c r="J16" s="86" t="str">
         <f>Contribution!G16</f>
@@ -14348,7 +14335,7 @@
       <c r="L16" s="137"/>
       <c r="M16" s="56" t="str">
         <f>_xll.qlMakeOIS(,D16,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a7#0001</v>
+        <v>obj_004a3#0000</v>
       </c>
       <c r="N16" s="89"/>
       <c r="O16" s="89"/>
@@ -14369,30 +14356,30 @@
       <c r="B17" s="2"/>
       <c r="C17" s="133"/>
       <c r="D17" s="56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="101"/>
       <c r="G17" s="101">
         <f>_xll.qlSwapStartDate(M17)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H17" s="101">
         <f>_xll.qlSwapMaturityDate(M17)</f>
-        <v>42045</v>
+        <v>42047</v>
       </c>
       <c r="I17" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M17,InterestRatesTrigger)</f>
-        <v>5.9268347769519817E-4</v>
+        <v>5.9207864414939236E-4</v>
       </c>
       <c r="J17" s="86"/>
       <c r="K17" s="86"/>
       <c r="L17" s="137"/>
       <c r="M17" s="56" t="str">
         <f>_xll.qlMakeOIS(,D17,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004ac#0001</v>
+        <v>obj_004a7#0000</v>
       </c>
       <c r="N17" s="89"/>
       <c r="O17" s="89"/>
@@ -14413,30 +14400,30 @@
       <c r="B18" s="2"/>
       <c r="C18" s="133"/>
       <c r="D18" s="56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="101"/>
       <c r="G18" s="101">
         <f>_xll.qlSwapStartDate(M18)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H18" s="101">
         <f>_xll.qlSwapMaturityDate(M18)</f>
-        <v>42073</v>
+        <v>42074</v>
       </c>
       <c r="I18" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M18,InterestRatesTrigger)</f>
-        <v>5.9527772864729708E-4</v>
+        <v>5.9476978383267854E-4</v>
       </c>
       <c r="J18" s="86"/>
       <c r="K18" s="86"/>
       <c r="L18" s="137"/>
       <c r="M18" s="56" t="str">
         <f>_xll.qlMakeOIS(,D18,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0049e#0001</v>
+        <v>obj_004b3#0000</v>
       </c>
       <c r="N18" s="89"/>
       <c r="O18" s="89"/>
@@ -14457,23 +14444,23 @@
       <c r="B19" s="2"/>
       <c r="C19" s="133"/>
       <c r="D19" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="101"/>
       <c r="G19" s="101">
         <f>_xll.qlSwapStartDate(M19)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H19" s="101">
         <f>_xll.qlSwapMaturityDate(M19)</f>
-        <v>42104</v>
+        <v>42107</v>
       </c>
       <c r="I19" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M19,InterestRatesTrigger)</f>
-        <v>5.9999999999995972E-4</v>
+        <v>6.0000000000016572E-4</v>
       </c>
       <c r="J19" s="86" t="str">
         <f>Contribution!G19</f>
@@ -14486,7 +14473,7 @@
       <c r="L19" s="137"/>
       <c r="M19" s="56" t="str">
         <f>_xll.qlMakeOIS(,D19,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00499#0001</v>
+        <v>obj_004ae#0000</v>
       </c>
       <c r="N19" s="89"/>
       <c r="O19" s="89"/>
@@ -14507,15 +14494,15 @@
       <c r="B20" s="2"/>
       <c r="C20" s="133"/>
       <c r="D20" s="56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F20" s="101"/>
       <c r="G20" s="101">
         <f>_xll.qlSwapStartDate(M20)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H20" s="101">
         <f>_xll.qlSwapMaturityDate(M20)</f>
@@ -14523,14 +14510,14 @@
       </c>
       <c r="I20" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M20,InterestRatesTrigger)</f>
-        <v>6.0146983184850196E-4</v>
+        <v>6.0151927079952518E-4</v>
       </c>
       <c r="J20" s="86"/>
       <c r="K20" s="86"/>
       <c r="L20" s="137"/>
       <c r="M20" s="56" t="str">
         <f>_xll.qlMakeOIS(,D20,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0049c#0001</v>
+        <v>obj_004a9#0000</v>
       </c>
       <c r="N20" s="89"/>
       <c r="O20" s="89"/>
@@ -14551,30 +14538,30 @@
       <c r="B21" s="2"/>
       <c r="C21" s="133"/>
       <c r="D21" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" s="101"/>
       <c r="G21" s="101">
         <f>_xll.qlSwapStartDate(M21)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H21" s="101">
         <f>_xll.qlSwapMaturityDate(M21)</f>
-        <v>42165</v>
+        <v>42166</v>
       </c>
       <c r="I21" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M21,InterestRatesTrigger)</f>
-        <v>6.008795291157341E-4</v>
+        <v>6.0101313862458714E-4</v>
       </c>
       <c r="J21" s="86"/>
       <c r="K21" s="86"/>
       <c r="L21" s="137"/>
       <c r="M21" s="56" t="str">
         <f>_xll.qlMakeOIS(,D21,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0049d#0001</v>
+        <v>obj_004b2#0000</v>
       </c>
       <c r="N21" s="89"/>
       <c r="O21" s="89"/>
@@ -14595,23 +14582,23 @@
       <c r="B22" s="2"/>
       <c r="C22" s="133"/>
       <c r="D22" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F22" s="101"/>
       <c r="G22" s="101">
         <f>_xll.qlSwapStartDate(M22)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H22" s="101">
         <f>_xll.qlSwapMaturityDate(M22)</f>
-        <v>42195</v>
+        <v>42198</v>
       </c>
       <c r="I22" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M22,InterestRatesTrigger)</f>
-        <v>6.0000000000015596E-4</v>
+        <v>5.9999999999986811E-4</v>
       </c>
       <c r="J22" s="86" t="str">
         <f>Contribution!G22</f>
@@ -14624,7 +14611,7 @@
       <c r="L22" s="137"/>
       <c r="M22" s="56" t="str">
         <f>_xll.qlMakeOIS(,D22,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0049a#0001</v>
+        <v>obj_004a8#0000</v>
       </c>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
@@ -14645,15 +14632,15 @@
       <c r="B23" s="2"/>
       <c r="C23" s="133"/>
       <c r="D23" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F23" s="101"/>
       <c r="G23" s="101">
         <f>_xll.qlSwapStartDate(M23)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H23" s="101">
         <f>_xll.qlSwapMaturityDate(M23)</f>
@@ -14661,14 +14648,14 @@
       </c>
       <c r="I23" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M23,InterestRatesTrigger)</f>
-        <v>6.00372719665352E-4</v>
+        <v>5.9998781856021436E-4</v>
       </c>
       <c r="J23" s="86"/>
       <c r="K23" s="86"/>
       <c r="L23" s="137"/>
       <c r="M23" s="56" t="str">
         <f>_xll.qlMakeOIS(,D23,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004aa#0001</v>
+        <v>obj_004b1#0000</v>
       </c>
       <c r="N23" s="89"/>
       <c r="O23" s="89"/>
@@ -14689,15 +14676,15 @@
       <c r="B24" s="2"/>
       <c r="C24" s="133"/>
       <c r="D24" s="44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F24" s="101"/>
       <c r="G24" s="101">
         <f>_xll.qlSwapStartDate(M24)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H24" s="101">
         <f>_xll.qlSwapMaturityDate(M24)</f>
@@ -14705,7 +14692,7 @@
       </c>
       <c r="I24" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M24,InterestRatesTrigger)</f>
-        <v>5.9999999999996753E-4</v>
+        <v>5.9999999999991267E-4</v>
       </c>
       <c r="J24" s="86" t="str">
         <f>Contribution!G24</f>
@@ -14718,7 +14705,7 @@
       <c r="L24" s="137"/>
       <c r="M24" s="56" t="str">
         <f>_xll.qlMakeOIS(,D24,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a1#0001</v>
+        <v>obj_004ac#0000</v>
       </c>
       <c r="N24" s="89"/>
       <c r="O24" s="89"/>
@@ -14739,15 +14726,15 @@
       <c r="B25" s="2"/>
       <c r="C25" s="133"/>
       <c r="D25" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F25" s="101"/>
       <c r="G25" s="101">
         <f>_xll.qlSwapStartDate(M25)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H25" s="101">
         <f>_xll.qlSwapMaturityDate(M25)</f>
@@ -14755,7 +14742,7 @@
       </c>
       <c r="I25" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M25,InterestRatesTrigger)</f>
-        <v>6.0000000000001177E-4</v>
+        <v>5.9999999999997566E-4</v>
       </c>
       <c r="J25" s="86" t="str">
         <f>Contribution!G25</f>
@@ -14768,7 +14755,7 @@
       <c r="L25" s="137"/>
       <c r="M25" s="56" t="str">
         <f>_xll.qlMakeOIS(,D25,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a5#0001</v>
+        <v>obj_004ab#0000</v>
       </c>
       <c r="N25" s="89"/>
       <c r="O25" s="89"/>
@@ -14789,23 +14776,23 @@
       <c r="B26" s="2"/>
       <c r="C26" s="133"/>
       <c r="D26" s="56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="101">
         <f>_xll.qlSwapStartDate(M26)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H26" s="101">
         <f>_xll.qlSwapMaturityDate(M26)</f>
-        <v>42926</v>
+        <v>42927</v>
       </c>
       <c r="I26" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M26,InterestRatesTrigger)</f>
-        <v>6.7499999999989302E-4</v>
+        <v>6.4999999999992364E-4</v>
       </c>
       <c r="J26" s="86" t="str">
         <f>Contribution!G26</f>
@@ -14818,7 +14805,7 @@
       <c r="L26" s="137"/>
       <c r="M26" s="56" t="str">
         <f>_xll.qlMakeOIS(,D26,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a9#0001</v>
+        <v>obj_004a4#0000</v>
       </c>
       <c r="N26" s="89"/>
       <c r="O26" s="89"/>
@@ -14839,23 +14826,23 @@
       <c r="B27" s="2"/>
       <c r="C27" s="133"/>
       <c r="D27" s="56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F27" s="101"/>
       <c r="G27" s="101">
         <f>_xll.qlSwapStartDate(M27)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H27" s="101">
         <f>_xll.qlSwapMaturityDate(M27)</f>
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="I27" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M27,InterestRatesTrigger)</f>
-        <v>7.7499999999996072E-4</v>
+        <v>7.2500000000007899E-4</v>
       </c>
       <c r="J27" s="86" t="str">
         <f>Contribution!G27</f>
@@ -14868,7 +14855,7 @@
       <c r="L27" s="137"/>
       <c r="M27" s="56" t="str">
         <f>_xll.qlMakeOIS(,D27,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00496#0001</v>
+        <v>obj_004a6#0000</v>
       </c>
       <c r="N27" s="89"/>
       <c r="O27" s="89"/>
@@ -14889,23 +14876,23 @@
       <c r="B28" s="2"/>
       <c r="C28" s="133"/>
       <c r="D28" s="56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F28" s="101"/>
       <c r="G28" s="101">
         <f>_xll.qlSwapStartDate(M28)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H28" s="101">
         <f>_xll.qlSwapMaturityDate(M28)</f>
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="I28" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M28,InterestRatesTrigger)</f>
-        <v>1.0250000000000181E-3</v>
+        <v>9.4999999999995218E-4</v>
       </c>
       <c r="J28" s="86" t="str">
         <f>Contribution!G28</f>
@@ -14918,7 +14905,7 @@
       <c r="L28" s="137"/>
       <c r="M28" s="56" t="str">
         <f>_xll.qlMakeOIS(,D28,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0049b#0001</v>
+        <v>obj_004b0#0000</v>
       </c>
       <c r="N28" s="89"/>
       <c r="O28" s="89"/>
@@ -14939,23 +14926,23 @@
       <c r="B29" s="2"/>
       <c r="C29" s="133"/>
       <c r="D29" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F29" s="101"/>
       <c r="G29" s="101">
         <f>_xll.qlSwapStartDate(M29)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H29" s="101">
         <f>_xll.qlSwapMaturityDate(M29)</f>
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="I29" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M29,InterestRatesTrigger)</f>
-        <v>1.4999999999999465E-3</v>
+        <v>1.425000000000054E-3</v>
       </c>
       <c r="J29" s="86" t="str">
         <f>Contribution!G29</f>
@@ -14968,7 +14955,7 @@
       <c r="L29" s="137"/>
       <c r="M29" s="56" t="str">
         <f>_xll.qlMakeOIS(,D29,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004ab#0001</v>
+        <v>obj_004aa#0000</v>
       </c>
       <c r="N29" s="89"/>
       <c r="O29" s="89"/>
@@ -14989,15 +14976,15 @@
       <c r="B30" s="2"/>
       <c r="C30" s="133"/>
       <c r="D30" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" s="101"/>
       <c r="G30" s="101">
         <f>_xll.qlSwapStartDate(M30)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H30" s="101">
         <f>_xll.qlSwapMaturityDate(M30)</f>
@@ -15005,7 +14992,7 @@
       </c>
       <c r="I30" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M30,InterestRatesTrigger)</f>
-        <v>2.174999999999999E-3</v>
+        <v>2.0750000000000577E-3</v>
       </c>
       <c r="J30" s="86" t="str">
         <f>Contribution!G30</f>
@@ -15018,7 +15005,7 @@
       <c r="L30" s="137"/>
       <c r="M30" s="56" t="str">
         <f>_xll.qlMakeOIS(,D30,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a8#0001</v>
+        <v>obj_004a5#0000</v>
       </c>
       <c r="N30" s="89"/>
       <c r="O30" s="89"/>
@@ -15039,15 +15026,15 @@
       <c r="B31" s="2"/>
       <c r="C31" s="133"/>
       <c r="D31" s="56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F31" s="101"/>
       <c r="G31" s="101">
         <f>_xll.qlSwapStartDate(M31)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H31" s="101">
         <f>_xll.qlSwapMaturityDate(M31)</f>
@@ -15055,7 +15042,7 @@
       </c>
       <c r="I31" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M31,InterestRatesTrigger)</f>
-        <v>3.0249999999999323E-3</v>
+        <v>2.7499999999999916E-3</v>
       </c>
       <c r="J31" s="86" t="str">
         <f>Contribution!G31</f>
@@ -15068,7 +15055,7 @@
       <c r="L31" s="137"/>
       <c r="M31" s="56" t="str">
         <f>_xll.qlMakeOIS(,D31,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0049f#0001</v>
+        <v>obj_004af#0000</v>
       </c>
       <c r="N31" s="89"/>
       <c r="O31" s="89"/>
@@ -15089,23 +15076,23 @@
       <c r="B32" s="2"/>
       <c r="C32" s="133"/>
       <c r="D32" s="56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F32" s="101"/>
       <c r="G32" s="101">
         <f>_xll.qlSwapStartDate(M32)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H32" s="101">
         <f>_xll.qlSwapMaturityDate(M32)</f>
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="I32" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M32,InterestRatesTrigger)</f>
-        <v>3.5999999999999886E-3</v>
+        <v>3.4750000000000093E-3</v>
       </c>
       <c r="J32" s="86" t="str">
         <f>Contribution!G32</f>
@@ -15118,7 +15105,7 @@
       <c r="L32" s="137"/>
       <c r="M32" s="56" t="str">
         <f>_xll.qlMakeOIS(,D32,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a2#0001</v>
+        <v>obj_004a1#0000</v>
       </c>
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
@@ -15139,23 +15126,23 @@
       <c r="B33" s="2"/>
       <c r="C33" s="133"/>
       <c r="D33" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F33" s="101"/>
       <c r="G33" s="101">
         <f>_xll.qlSwapStartDate(M33)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H33" s="101">
         <f>_xll.qlSwapMaturityDate(M33)</f>
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="I33" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M33,InterestRatesTrigger)</f>
-        <v>4.3499999999999364E-3</v>
+        <v>4.2250000000000551E-3</v>
       </c>
       <c r="J33" s="86" t="str">
         <f>Contribution!G33</f>
@@ -15168,7 +15155,7 @@
       <c r="L33" s="137"/>
       <c r="M33" s="56" t="str">
         <f>_xll.qlMakeOIS(,D33,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00497#0001</v>
+        <v>obj_0049f#0000</v>
       </c>
       <c r="N33" s="89"/>
       <c r="O33" s="89"/>
@@ -15189,23 +15176,23 @@
       <c r="B34" s="2"/>
       <c r="C34" s="133"/>
       <c r="D34" s="56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F34" s="101"/>
       <c r="G34" s="101">
         <f>_xll.qlSwapStartDate(M34)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H34" s="101">
         <f>_xll.qlSwapMaturityDate(M34)</f>
-        <v>46213</v>
+        <v>46216</v>
       </c>
       <c r="I34" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M34,InterestRatesTrigger)</f>
-        <v>6.049999999999966E-3</v>
+        <v>5.9000000000000675E-3</v>
       </c>
       <c r="J34" s="86" t="str">
         <f>Contribution!G34</f>
@@ -15218,7 +15205,7 @@
       <c r="L34" s="137"/>
       <c r="M34" s="56" t="str">
         <f>_xll.qlMakeOIS(,D34,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a3#0001</v>
+        <v>obj_004a0#0000</v>
       </c>
       <c r="N34" s="89"/>
       <c r="O34" s="89"/>
@@ -15239,23 +15226,23 @@
       <c r="B35" s="2"/>
       <c r="C35" s="133"/>
       <c r="D35" s="56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F35" s="101"/>
       <c r="G35" s="101">
         <f>_xll.qlSwapStartDate(M35)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H35" s="101">
         <f>_xll.qlSwapMaturityDate(M35)</f>
-        <v>47309</v>
+        <v>47310</v>
       </c>
       <c r="I35" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M35,InterestRatesTrigger)</f>
-        <v>8.6000000000000052E-3</v>
+        <v>8.4999999999999989E-3</v>
       </c>
       <c r="J35" s="86" t="str">
         <f>Contribution!G35</f>
@@ -15268,7 +15255,7 @@
       <c r="L35" s="137"/>
       <c r="M35" s="56" t="str">
         <f>_xll.qlMakeOIS(,D35,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a4#0001</v>
+        <v>obj_004b4#0000</v>
       </c>
       <c r="N35" s="89"/>
       <c r="O35" s="89"/>
@@ -15289,23 +15276,23 @@
       <c r="B36" s="2"/>
       <c r="C36" s="133"/>
       <c r="D36" s="56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F36" s="101"/>
       <c r="G36" s="101">
         <f>_xll.qlSwapStartDate(M36)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H36" s="101">
         <f>_xll.qlSwapMaturityDate(M36)</f>
-        <v>49135</v>
+        <v>49136</v>
       </c>
       <c r="I36" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M36,InterestRatesTrigger)</f>
-        <v>1.175000000000005E-2</v>
+        <v>1.1749999999999967E-2</v>
       </c>
       <c r="J36" s="86" t="str">
         <f>Contribution!G36</f>
@@ -15318,7 +15305,7 @@
       <c r="L36" s="137"/>
       <c r="M36" s="56" t="str">
         <f>_xll.qlMakeOIS(,D36,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00498#0001</v>
+        <v>obj_004ad#0000</v>
       </c>
       <c r="N36" s="89"/>
       <c r="O36" s="89"/>
@@ -15339,15 +15326,15 @@
       <c r="B37" s="2"/>
       <c r="C37" s="133"/>
       <c r="D37" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F37" s="101"/>
       <c r="G37" s="101">
         <f>_xll.qlSwapStartDate(M37)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H37" s="101">
         <f>_xll.qlSwapMaturityDate(M37)</f>
@@ -15355,7 +15342,7 @@
       </c>
       <c r="I37" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M37,InterestRatesTrigger)</f>
-        <v>1.3425000000000024E-2</v>
+        <v>1.3375000000000021E-2</v>
       </c>
       <c r="J37" s="86" t="str">
         <f>Contribution!G37</f>
@@ -15368,7 +15355,7 @@
       <c r="L37" s="137"/>
       <c r="M37" s="56" t="str">
         <f>_xll.qlMakeOIS(,D37,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a0#0001</v>
+        <v>obj_0049e#0000</v>
       </c>
       <c r="N37" s="89"/>
       <c r="O37" s="89"/>
@@ -15389,15 +15376,15 @@
       <c r="B38" s="2"/>
       <c r="C38" s="133"/>
       <c r="D38" s="56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F38" s="101"/>
       <c r="G38" s="101">
         <f>_xll.qlSwapStartDate(M38)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H38" s="101">
         <f>_xll.qlSwapMaturityDate(M38)</f>
@@ -15405,7 +15392,7 @@
       </c>
       <c r="I38" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M38,InterestRatesTrigger)</f>
-        <v>1.4399999999999994E-2</v>
+        <v>1.4375000000000015E-2</v>
       </c>
       <c r="J38" s="88" t="str">
         <f>Contribution!G38</f>
@@ -15418,7 +15405,7 @@
       <c r="L38" s="137"/>
       <c r="M38" s="58" t="str">
         <f>_xll.qlMakeOIS(,D38,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a6#0001</v>
+        <v>obj_004a2#0000</v>
       </c>
       <c r="N38" s="89"/>
       <c r="O38" s="89"/>
@@ -17243,13 +17230,13 @@
       <c r="C2" s="133"/>
       <c r="D2" s="6"/>
       <c r="E2" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="39" t="str">
         <f>Currency&amp;CurveTenor</f>
@@ -17308,29 +17295,29 @@
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
       <c r="E4" s="50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>129</v>
-      </c>
       <c r="K4" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L4" s="133"/>
       <c r="M4" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N4" s="133"/>
       <c r="O4" s="133"/>
@@ -17354,26 +17341,26 @@
       </c>
       <c r="C5" s="107"/>
       <c r="D5" s="53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="98">
         <f t="shared" ref="F5:G13" si="1">EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G5" s="98">
         <f>EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="H5" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1D","f",TRUE,Trigger)</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="I5" s="108">
         <f>_xll.qlInterpolationInterpolate(M5,-2,TRUE)</f>
-        <v>1.3717392431630789E-3</v>
+        <v>1.3169175923951118E-3</v>
       </c>
       <c r="J5" s="127" t="str">
         <f>Contribution!N5</f>
@@ -17383,7 +17370,7 @@
       <c r="L5" s="133"/>
       <c r="M5" s="39" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B7:B13,I7:I13,,Trigger)</f>
-        <v>obj_004cb#0002</v>
+        <v>obj_004d4#0002</v>
       </c>
       <c r="N5" s="133"/>
       <c r="O5" s="133"/>
@@ -17407,26 +17394,26 @@
       </c>
       <c r="C6" s="109"/>
       <c r="D6" s="56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G6" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="H6" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f",TRUE,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="I6" s="106">
         <f>_xll.qlInterpolationInterpolate(M5,-1,TRUE)</f>
-        <v>1.3717253510431729E-3</v>
+        <v>1.3168977641110865E-3</v>
       </c>
       <c r="J6" s="129" t="str">
         <f>Contribution!N6</f>
@@ -17435,7 +17422,7 @@
       <c r="K6" s="130"/>
       <c r="L6" s="133"/>
       <c r="M6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6" s="133"/>
       <c r="O6" s="133"/>
@@ -17455,30 +17442,30 @@
       <c r="A7" s="133"/>
       <c r="B7" s="120">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="110"/>
       <c r="D7" s="53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="98">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G7" s="98">
         <f>_xll.qlInterestRateIndexValueDate(M7,F7,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H7" s="98">
         <f>_xll.qlInterestRateIndexMaturity(M7,G7,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="I7" s="99">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,InterestRatesTrigger)</f>
-        <v>1.3716889717674263E-3</v>
+        <v>1.3168412289399356E-3</v>
       </c>
       <c r="J7" s="87" t="str">
         <f>Contribution!N7</f>
@@ -17488,7 +17475,7 @@
       <c r="L7" s="133"/>
       <c r="M7" s="54" t="str">
         <f>_xll.qlLibor(,Currency,D7,YieldCurve,,Trigger)</f>
-        <v>obj_00491#0001</v>
+        <v>obj_0049d#0000</v>
       </c>
       <c r="N7" s="133"/>
       <c r="O7" s="133"/>
@@ -17512,26 +17499,26 @@
       </c>
       <c r="C8" s="111"/>
       <c r="D8" s="56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G8" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H8" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>41837</v>
+        <v>41838</v>
       </c>
       <c r="I8" s="100">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,InterestRatesTrigger)</f>
-        <v>1.3716216100512213E-3</v>
+        <v>1.3168126867427585E-3</v>
       </c>
       <c r="J8" s="86" t="str">
         <f>Contribution!N8</f>
@@ -17541,7 +17528,7 @@
       <c r="L8" s="133"/>
       <c r="M8" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_00495#0001</v>
+        <v>obj_0049a#0000</v>
       </c>
       <c r="N8" s="133"/>
       <c r="O8" s="133"/>
@@ -17565,26 +17552,26 @@
       </c>
       <c r="C9" s="111"/>
       <c r="D9" s="56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G9" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H9" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>41844</v>
+        <v>41845</v>
       </c>
       <c r="I9" s="100">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,InterestRatesTrigger)</f>
-        <v>1.3713855802840616E-3</v>
+        <v>1.3166892448688928E-3</v>
       </c>
       <c r="J9" s="86" t="str">
         <f>Contribution!N9</f>
@@ -17594,7 +17581,7 @@
       <c r="L9" s="133"/>
       <c r="M9" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_00490#0001</v>
+        <v>obj_0049c#0000</v>
       </c>
       <c r="N9" s="133"/>
       <c r="O9" s="133"/>
@@ -17618,26 +17605,26 @@
       </c>
       <c r="C10" s="111"/>
       <c r="D10" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G10" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M10,F10,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H10" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M10,G10,Trigger)</f>
-        <v>41851</v>
+        <v>41852</v>
       </c>
       <c r="I10" s="100">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,InterestRatesTrigger)</f>
-        <v>1.370979985686154E-3</v>
+        <v>1.3164722602557585E-3</v>
       </c>
       <c r="J10" s="86" t="str">
         <f>Contribution!N10</f>
@@ -17647,7 +17634,7 @@
       <c r="L10" s="133"/>
       <c r="M10" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_00493#0001</v>
+        <v>obj_00498#0000</v>
       </c>
       <c r="N10" s="133"/>
       <c r="O10" s="133"/>
@@ -17667,22 +17654,22 @@
       <c r="A11" s="133"/>
       <c r="B11" s="119">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="111"/>
       <c r="D11" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G11" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H11" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
@@ -17690,7 +17677,7 @@
       </c>
       <c r="I11" s="100">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,InterestRatesTrigger)</f>
-        <v>1.3699999999999823E-3</v>
+        <v>1.3160000000005246E-3</v>
       </c>
       <c r="J11" s="86" t="str">
         <f>Contribution!N11</f>
@@ -17700,7 +17687,7 @@
       <c r="L11" s="133"/>
       <c r="M11" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_00494#0001</v>
+        <v>obj_00499#0000</v>
       </c>
       <c r="N11" s="133"/>
       <c r="O11" s="133"/>
@@ -17724,26 +17711,26 @@
       </c>
       <c r="C12" s="111"/>
       <c r="D12" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G12" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H12" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M12,G12,Trigger)</f>
-        <v>41892</v>
+        <v>41893</v>
       </c>
       <c r="I12" s="100">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,InterestRatesTrigger)</f>
-        <v>1.3540000000000774E-3</v>
+        <v>1.320000000016899E-3</v>
       </c>
       <c r="J12" s="86" t="str">
         <f>Contribution!N12</f>
@@ -17753,7 +17740,7 @@
       <c r="L12" s="133"/>
       <c r="M12" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_00492#0001</v>
+        <v>obj_00497#0000</v>
       </c>
       <c r="N12" s="133"/>
       <c r="O12" s="133"/>
@@ -17773,30 +17760,30 @@
       <c r="A13" s="133"/>
       <c r="B13" s="119">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C13" s="111"/>
       <c r="D13" s="56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G13" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H13" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M13,G13,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I13" s="100">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,InterestRatesTrigger)</f>
-        <v>1.3199999996492829E-3</v>
+        <v>1.3244490113667052E-3</v>
       </c>
       <c r="J13" s="86" t="str">
         <f>Contribution!N13</f>
@@ -17828,14 +17815,14 @@
         <v>1</v>
       </c>
       <c r="C14" s="121" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="53" t="str">
         <f>B14+3&amp;"M"</f>
         <v>4M</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="98">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G14)</f>
@@ -17883,30 +17870,30 @@
         <v>2</v>
       </c>
       <c r="C15" s="122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="56" t="str">
         <f t="shared" ref="D15:D23" si="3">B15+3&amp;"M"</f>
         <v>5M</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G15)</f>
-        <v>41890</v>
+        <v>41891</v>
       </c>
       <c r="G15" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B15&amp;"M","mf",TRUE)</f>
-        <v>41892</v>
+        <v>41893</v>
       </c>
       <c r="H15" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G15,Trigger)</f>
-        <v>41983</v>
+        <v>41984</v>
       </c>
       <c r="I15" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F15,TRUE,InterestRatesTrigger)</f>
-        <v>1.2999999999992933E-3</v>
+        <v>1.3000000000001717E-3</v>
       </c>
       <c r="J15" s="86" t="str">
         <f>Contribution!N15</f>
@@ -17938,22 +17925,22 @@
         <v>3</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16" s="56" t="str">
         <f t="shared" si="3"/>
         <v>6M</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G16)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="G16" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B16&amp;"M","mf",TRUE)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="H16" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G16,Trigger)</f>
@@ -17961,7 +17948,7 @@
       </c>
       <c r="I16" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F16,TRUE,InterestRatesTrigger)</f>
-        <v>1.2999999996134641E-3</v>
+        <v>1.3000000006645137E-3</v>
       </c>
       <c r="J16" s="86" t="str">
         <f>Contribution!N16</f>
@@ -17993,30 +17980,30 @@
         <v>4</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="56" t="str">
         <f t="shared" si="3"/>
         <v>7M</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G17)</f>
-        <v>41949</v>
+        <v>41950</v>
       </c>
       <c r="G17" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B17&amp;"M","mf",TRUE)</f>
-        <v>41953</v>
+        <v>41954</v>
       </c>
       <c r="H17" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G17,Trigger)</f>
-        <v>42045</v>
+        <v>42047</v>
       </c>
       <c r="I17" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F17,TRUE,InterestRatesTrigger)</f>
-        <v>1.300000000019812E-3</v>
+        <v>1.2500000000002383E-3</v>
       </c>
       <c r="J17" s="86" t="str">
         <f>Contribution!N17</f>
@@ -18048,30 +18035,30 @@
         <v>5</v>
       </c>
       <c r="C18" s="122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" s="56" t="str">
         <f t="shared" si="3"/>
         <v>8M</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F18" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18)</f>
-        <v>41981</v>
+        <v>41982</v>
       </c>
       <c r="G18" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B18&amp;"M","mf",TRUE)</f>
-        <v>41983</v>
+        <v>41984</v>
       </c>
       <c r="H18" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G18,Trigger)</f>
-        <v>42073</v>
+        <v>42074</v>
       </c>
       <c r="I18" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,InterestRatesTrigger)</f>
-        <v>1.2999999999996348E-3</v>
+        <v>1.2499999999997513E-3</v>
       </c>
       <c r="J18" s="86" t="str">
         <f>Contribution!N18</f>
@@ -18103,22 +18090,22 @@
         <v>6</v>
       </c>
       <c r="C19" s="122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="56" t="str">
         <f t="shared" si="3"/>
         <v>9M</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19)</f>
-        <v>42013</v>
+        <v>42012</v>
       </c>
       <c r="G19" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B19&amp;"M","mf",TRUE)</f>
-        <v>42017</v>
+        <v>42016</v>
       </c>
       <c r="H19" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G19,Trigger)</f>
@@ -18126,7 +18113,7 @@
       </c>
       <c r="I19" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,InterestRatesTrigger)</f>
-        <v>1.2499999995911892E-3</v>
+        <v>1.2499999999997513E-3</v>
       </c>
       <c r="J19" s="86" t="str">
         <f>Contribution!N19</f>
@@ -18158,22 +18145,22 @@
         <v>7</v>
       </c>
       <c r="C20" s="122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="56" t="str">
         <f t="shared" si="3"/>
         <v>10M</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F20" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G20)</f>
-        <v>42041</v>
+        <v>42044</v>
       </c>
       <c r="G20" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B20&amp;"M","mf",TRUE)</f>
-        <v>42045</v>
+        <v>42046</v>
       </c>
       <c r="H20" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G20,Trigger)</f>
@@ -18181,7 +18168,7 @@
       </c>
       <c r="I20" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,InterestRatesTrigger)</f>
-        <v>1.2004487982766321E-3</v>
+        <v>1.2717059438682482E-3</v>
       </c>
       <c r="J20" s="86"/>
       <c r="K20" s="86"/>
@@ -18207,30 +18194,30 @@
         <v>8</v>
       </c>
       <c r="C21" s="122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="56" t="str">
         <f t="shared" si="3"/>
         <v>11M</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G21)</f>
-        <v>42069</v>
+        <v>42072</v>
       </c>
       <c r="G21" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B21&amp;"M","mf",TRUE)</f>
-        <v>42073</v>
+        <v>42074</v>
       </c>
       <c r="H21" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G21,Trigger)</f>
-        <v>42165</v>
+        <v>42166</v>
       </c>
       <c r="I21" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,InterestRatesTrigger)</f>
-        <v>1.1646971533479692E-3</v>
+        <v>1.2263885527369104E-3</v>
       </c>
       <c r="J21" s="86"/>
       <c r="K21" s="86"/>
@@ -18256,30 +18243,30 @@
         <v>9</v>
       </c>
       <c r="C22" s="122" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" s="56" t="str">
         <f t="shared" si="3"/>
         <v>12M</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G22)</f>
-        <v>42102</v>
+        <v>42103</v>
       </c>
       <c r="G22" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B22&amp;"M","mf",TRUE)</f>
-        <v>42104</v>
+        <v>42107</v>
       </c>
       <c r="H22" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G22,Trigger)</f>
-        <v>42195</v>
+        <v>42198</v>
       </c>
       <c r="I22" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,InterestRatesTrigger)</f>
-        <v>1.2000000000386062E-3</v>
+        <v>1.1999999999999557E-3</v>
       </c>
       <c r="J22" s="86" t="str">
         <f>Contribution!N22</f>
@@ -18311,22 +18298,22 @@
         <v>12</v>
       </c>
       <c r="C23" s="123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" s="56" t="str">
         <f t="shared" si="3"/>
         <v>15M</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G23)</f>
-        <v>42193</v>
+        <v>42194</v>
       </c>
       <c r="G23" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B23&amp;"M","mf",TRUE)</f>
-        <v>42195</v>
+        <v>42198</v>
       </c>
       <c r="H23" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G23,Trigger)</f>
@@ -18334,7 +18321,7 @@
       </c>
       <c r="I23" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,InterestRatesTrigger)</f>
-        <v>1.150000000000592E-3</v>
+        <v>1.1499999999997142E-3</v>
       </c>
       <c r="J23" s="86" t="str">
         <f>Contribution!N23</f>
@@ -18346,17 +18333,17 @@
       </c>
       <c r="L23" s="133"/>
       <c r="M23" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N23" s="133"/>
       <c r="O23" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R23" s="89"/>
       <c r="S23" s="89"/>
@@ -18373,26 +18360,26 @@
       <c r="B24" s="112"/>
       <c r="C24" s="114"/>
       <c r="D24" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F24" s="98">
         <f t="shared" ref="F24" si="4">EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G24" s="98">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H24" s="98">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
-        <v>42381</v>
+        <v>42380</v>
       </c>
       <c r="I24" s="99">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,InterestRatesTrigger)</f>
-        <v>1.2373284262500645E-3</v>
+        <v>1.2466872626720005E-3</v>
       </c>
       <c r="J24" s="87" t="str">
         <f>Contribution!N24</f>
@@ -18402,17 +18389,17 @@
       <c r="L24" s="133"/>
       <c r="M24" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ba#0001</v>
+        <v>obj_004c6#0001</v>
       </c>
       <c r="N24" s="133"/>
       <c r="O24" s="57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P24" s="57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R24" s="89"/>
       <c r="S24" s="89"/>
@@ -18429,18 +18416,18 @@
       <c r="B25" s="113"/>
       <c r="C25" s="115"/>
       <c r="D25" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F25" s="101">
         <f t="shared" ref="F25:F38" si="5">EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G25" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H25" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
@@ -18448,7 +18435,7 @@
       </c>
       <c r="I25" s="100">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,InterestRatesTrigger)</f>
-        <v>1.2183665964504767E-3</v>
+        <v>1.2183668100508491E-3</v>
       </c>
       <c r="J25" s="86" t="str">
         <f>Contribution!N25</f>
@@ -18458,7 +18445,7 @@
       <c r="L25" s="133"/>
       <c r="M25" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c4#0001</v>
+        <v>obj_004c2#0001</v>
       </c>
       <c r="N25" s="133"/>
       <c r="O25" s="134"/>
@@ -18479,26 +18466,26 @@
       <c r="B26" s="113"/>
       <c r="C26" s="109"/>
       <c r="D26" s="56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F26" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G26" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H26" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>42926</v>
+        <v>42927</v>
       </c>
       <c r="I26" s="100">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,InterestRatesTrigger)</f>
-        <v>1.2173133571816933E-3</v>
+        <v>1.2173154549067571E-3</v>
       </c>
       <c r="J26" s="86" t="str">
         <f>Contribution!N26</f>
@@ -18508,7 +18495,7 @@
       <c r="L26" s="133"/>
       <c r="M26" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c6#0001</v>
+        <v>obj_004be#0001</v>
       </c>
       <c r="N26" s="133"/>
       <c r="O26" s="133"/>
@@ -18529,26 +18516,26 @@
       <c r="B27" s="113"/>
       <c r="C27" s="109"/>
       <c r="D27" s="56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F27" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G27" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H27" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="I27" s="100">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,InterestRatesTrigger)</f>
-        <v>1.415906610168787E-3</v>
+        <v>1.3909111352062209E-3</v>
       </c>
       <c r="J27" s="86" t="str">
         <f>Contribution!N27</f>
@@ -18558,7 +18545,7 @@
       <c r="L27" s="133"/>
       <c r="M27" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ca#0001</v>
+        <v>obj_004c5#0001</v>
       </c>
       <c r="N27" s="133"/>
       <c r="O27" s="133"/>
@@ -18579,26 +18566,26 @@
       <c r="B28" s="113"/>
       <c r="C28" s="109"/>
       <c r="D28" s="56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F28" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G28" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H28" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="I28" s="100">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,InterestRatesTrigger)</f>
-        <v>1.8144808412981093E-3</v>
+        <v>1.7894884523956449E-3</v>
       </c>
       <c r="J28" s="86" t="str">
         <f>Contribution!N28</f>
@@ -18608,7 +18595,7 @@
       <c r="L28" s="133"/>
       <c r="M28" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ae#0001</v>
+        <v>obj_004c8#0001</v>
       </c>
       <c r="N28" s="133"/>
       <c r="O28" s="133"/>
@@ -18629,26 +18616,26 @@
       <c r="B29" s="113"/>
       <c r="C29" s="109"/>
       <c r="D29" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G29" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H29" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="I29" s="100">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,InterestRatesTrigger)</f>
-        <v>2.4130235794738151E-3</v>
+        <v>2.388030992837993E-3</v>
       </c>
       <c r="J29" s="86" t="str">
         <f>Contribution!N29</f>
@@ -18658,7 +18645,7 @@
       <c r="L29" s="133"/>
       <c r="M29" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c0#0001</v>
+        <v>obj_004d1#0001</v>
       </c>
       <c r="N29" s="133"/>
       <c r="O29" s="133"/>
@@ -18679,18 +18666,18 @@
       <c r="B30" s="113"/>
       <c r="C30" s="109"/>
       <c r="D30" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F30" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G30" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M30,F30,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H30" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M30,G30,Trigger)</f>
@@ -18698,7 +18685,7 @@
       </c>
       <c r="I30" s="100">
         <f>_xll.qlIndexFixing(M30,F30,TRUE,InterestRatesTrigger)</f>
-        <v>3.1868819726952771E-3</v>
+        <v>3.1368968737145357E-3</v>
       </c>
       <c r="J30" s="86" t="str">
         <f>Contribution!N30</f>
@@ -18708,7 +18695,7 @@
       <c r="L30" s="133"/>
       <c r="M30" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b9#0001</v>
+        <v>obj_004bf#0001</v>
       </c>
       <c r="N30" s="133"/>
       <c r="O30" s="133"/>
@@ -18729,18 +18716,18 @@
       <c r="B31" s="113"/>
       <c r="C31" s="109"/>
       <c r="D31" s="56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F31" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G31" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M31,F31,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H31" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M31,G31,Trigger)</f>
@@ -18748,7 +18735,7 @@
       </c>
       <c r="I31" s="100">
         <f>_xll.qlIndexFixing(M31,F31,TRUE,InterestRatesTrigger)</f>
-        <v>4.0107124963320168E-3</v>
+        <v>3.9607480700405134E-3</v>
       </c>
       <c r="J31" s="86" t="str">
         <f>Contribution!N31</f>
@@ -18758,7 +18745,7 @@
       <c r="L31" s="133"/>
       <c r="M31" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b0#0001</v>
+        <v>obj_004ce#0001</v>
       </c>
       <c r="N31" s="133"/>
       <c r="O31" s="133"/>
@@ -18779,26 +18766,26 @@
       <c r="B32" s="113"/>
       <c r="C32" s="109"/>
       <c r="D32" s="56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F32" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G32" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M32,F32,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H32" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M32,G32,Trigger)</f>
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="I32" s="100">
         <f>_xll.qlIndexFixing(M32,F32,TRUE,InterestRatesTrigger)</f>
-        <v>4.8592052590892163E-3</v>
+        <v>4.7842205594920669E-3</v>
       </c>
       <c r="J32" s="86" t="str">
         <f>Contribution!N32</f>
@@ -18808,7 +18795,7 @@
       <c r="L32" s="133"/>
       <c r="M32" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004be#0001</v>
+        <v>obj_004cb#0001</v>
       </c>
       <c r="N32" s="133"/>
       <c r="O32" s="133"/>
@@ -18829,26 +18816,26 @@
       <c r="B33" s="113"/>
       <c r="C33" s="109"/>
       <c r="D33" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F33" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G33" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M33,F33,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H33" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M33,G33,Trigger)</f>
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="I33" s="100">
         <f>_xll.qlIndexFixing(M33,F33,TRUE,InterestRatesTrigger)</f>
-        <v>5.7080119919925374E-3</v>
+        <v>5.6580312879349701E-3</v>
       </c>
       <c r="J33" s="86" t="str">
         <f>Contribution!N33</f>
@@ -18858,7 +18845,7 @@
       <c r="L33" s="133"/>
       <c r="M33" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bf#0001</v>
+        <v>obj_004bb#0001</v>
       </c>
       <c r="N33" s="133"/>
       <c r="O33" s="133"/>
@@ -18879,26 +18866,26 @@
       <c r="B34" s="113"/>
       <c r="C34" s="109"/>
       <c r="D34" s="56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F34" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G34" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M34,F34,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H34" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M34,G34,Trigger)</f>
-        <v>46213</v>
+        <v>46216</v>
       </c>
       <c r="I34" s="100">
         <f>_xll.qlIndexFixing(M34,F34,TRUE,InterestRatesTrigger)</f>
-        <v>7.4881377127535408E-3</v>
+        <v>7.4629029575319864E-3</v>
       </c>
       <c r="J34" s="86" t="str">
         <f>Contribution!N34</f>
@@ -18908,7 +18895,7 @@
       <c r="L34" s="133"/>
       <c r="M34" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b2#0001</v>
+        <v>obj_004c0#0001</v>
       </c>
       <c r="N34" s="133"/>
       <c r="O34" s="133"/>
@@ -18929,26 +18916,26 @@
       <c r="B35" s="113"/>
       <c r="C35" s="109"/>
       <c r="D35" s="56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F35" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G35" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M35,F35,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H35" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M35,G35,Trigger)</f>
-        <v>47309</v>
+        <v>47310</v>
       </c>
       <c r="I35" s="100">
         <f>_xll.qlIndexFixing(M35,F35,TRUE,InterestRatesTrigger)</f>
-        <v>1.0054754627590753E-2</v>
+        <v>1.0004771232663731E-2</v>
       </c>
       <c r="J35" s="86" t="str">
         <f>Contribution!N35</f>
@@ -18958,7 +18945,7 @@
       <c r="L35" s="133"/>
       <c r="M35" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bb#0001</v>
+        <v>obj_004ba#0001</v>
       </c>
       <c r="N35" s="133"/>
       <c r="O35" s="133"/>
@@ -18979,26 +18966,26 @@
       <c r="B36" s="113"/>
       <c r="C36" s="109"/>
       <c r="D36" s="56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F36" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G36" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M36,F36,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H36" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M36,G36,Trigger)</f>
-        <v>49135</v>
+        <v>49136</v>
       </c>
       <c r="I36" s="100">
         <f>_xll.qlIndexFixing(M36,F36,TRUE,InterestRatesTrigger)</f>
-        <v>1.3253840458939351E-2</v>
+        <v>1.3228840645289824E-2</v>
       </c>
       <c r="J36" s="86" t="str">
         <f>Contribution!N36</f>
@@ -19008,7 +18995,7 @@
       <c r="L36" s="133"/>
       <c r="M36" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b4#0001</v>
+        <v>obj_004cd#0001</v>
       </c>
       <c r="N36" s="133"/>
       <c r="O36" s="133"/>
@@ -19029,18 +19016,18 @@
       <c r="B37" s="113"/>
       <c r="C37" s="109"/>
       <c r="D37" s="56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F37" s="101">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G37" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M37,F37,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H37" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M37,G37,Trigger)</f>
@@ -19048,7 +19035,7 @@
       </c>
       <c r="I37" s="100">
         <f>_xll.qlIndexFixing(M37,F37,TRUE,InterestRatesTrigger)</f>
-        <v>1.4952817432717308E-2</v>
+        <v>1.4968138947167944E-2</v>
       </c>
       <c r="J37" s="86" t="str">
         <f>Contribution!N37</f>
@@ -19058,7 +19045,7 @@
       <c r="L37" s="133"/>
       <c r="M37" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004af#0001</v>
+        <v>obj_004b6#0001</v>
       </c>
       <c r="N37" s="133"/>
       <c r="O37" s="133"/>
@@ -19079,18 +19066,18 @@
       <c r="B38" s="116"/>
       <c r="C38" s="117"/>
       <c r="D38" s="58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F38" s="102">
         <f t="shared" si="5"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G38" s="102">
         <f>_xll.qlInterestRateIndexValueDate(M38,F38,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H38" s="102">
         <f>_xll.qlInterestRateIndexMaturity(M38,G38,Trigger)</f>
@@ -19098,7 +19085,7 @@
       </c>
       <c r="I38" s="103">
         <f>_xll.qlIndexFixing(M38,F38,TRUE,InterestRatesTrigger)</f>
-        <v>1.590260398894339E-2</v>
+        <v>1.5952609078236764E-2</v>
       </c>
       <c r="J38" s="88" t="str">
         <f>Contribution!N38</f>
@@ -19108,7 +19095,7 @@
       <c r="L38" s="133"/>
       <c r="M38" s="59" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c8#0001</v>
+        <v>obj_004b9#0001</v>
       </c>
       <c r="N38" s="133"/>
       <c r="O38" s="133"/>
@@ -20940,13 +20927,13 @@
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="39" t="str">
         <f>Currency&amp;CurveTenor</f>
@@ -21005,29 +20992,29 @@
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
       <c r="E4" s="50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G4" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>129</v>
-      </c>
       <c r="K4" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L4" s="89"/>
       <c r="M4" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="133"/>
@@ -21051,26 +21038,26 @@
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="98">
         <f t="shared" ref="F5:F16" si="1">EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G5" s="98">
         <f>EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="H5" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1D","f",TRUE,Trigger)</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="I5" s="108">
         <f>_xll.qlInterpolationInterpolate($M$5,B5,TRUE)</f>
-        <v>1.6668877720480482E-3</v>
+        <v>1.5083802883797404E-3</v>
       </c>
       <c r="J5" s="124" t="str">
         <f>Contribution!U5</f>
@@ -21080,7 +21067,7 @@
       <c r="L5" s="89"/>
       <c r="M5" s="39" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B7:B16,I7:I16,,Trigger)</f>
-        <v>obj_004cc#0002</v>
+        <v>obj_004d3#0002</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="133"/>
@@ -21104,26 +21091,26 @@
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G6" s="101">
         <f>EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="H6" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f",TRUE,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="I6" s="106">
         <f>_xll.qlInterpolationInterpolate($M$5,B6,TRUE)</f>
-        <v>1.6670183341812971E-3</v>
+        <v>1.5087191954883334E-3</v>
       </c>
       <c r="J6" s="125" t="str">
         <f>Contribution!U6</f>
@@ -21132,7 +21119,7 @@
       <c r="K6" s="125"/>
       <c r="L6" s="89"/>
       <c r="M6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="133"/>
@@ -21152,30 +21139,30 @@
       <c r="A7" s="4"/>
       <c r="B7" s="94">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="98">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G7" s="98">
         <f>_xll.qlInterestRateIndexValueDate(M7,F7,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H7" s="98">
         <f>_xll.qlInterestRateIndexMaturity(M7,G7,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="I7" s="99">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,InterestRatesTrigger)</f>
-        <v>1.6671399395384867E-3</v>
+        <v>1.5095024533273715E-3</v>
       </c>
       <c r="J7" s="124" t="str">
         <f>Contribution!U7</f>
@@ -21185,7 +21172,7 @@
       <c r="L7" s="89"/>
       <c r="M7" s="54" t="str">
         <f>_xll.qlLibor(,Currency,D7,YieldCurve,,Trigger)</f>
-        <v>obj_00482#0001</v>
+        <v>obj_0048e#0000</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="133"/>
@@ -21209,26 +21196,26 @@
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G8" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H8" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>41837</v>
+        <v>41838</v>
       </c>
       <c r="I8" s="100">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,InterestRatesTrigger)</f>
-        <v>1.6681830588437052E-3</v>
+        <v>1.5106246182750027E-3</v>
       </c>
       <c r="J8" s="125" t="str">
         <f>Contribution!U8</f>
@@ -21238,7 +21225,7 @@
       <c r="L8" s="89"/>
       <c r="M8" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_0047f#0001</v>
+        <v>obj_00487#0000</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="133"/>
@@ -21262,26 +21249,26 @@
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F9" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G9" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H9" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>41844</v>
+        <v>41845</v>
       </c>
       <c r="I9" s="100">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,InterestRatesTrigger)</f>
-        <v>1.6713338364824993E-3</v>
+        <v>1.5147243591646336E-3</v>
       </c>
       <c r="J9" s="125" t="str">
         <f>Contribution!U9</f>
@@ -21291,7 +21278,7 @@
       <c r="L9" s="89"/>
       <c r="M9" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_00486#0001</v>
+        <v>obj_00493#0000</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="133"/>
@@ -21315,26 +21302,26 @@
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G10" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M10,F10,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H10" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M10,G10,Trigger)</f>
-        <v>41851</v>
+        <v>41852</v>
       </c>
       <c r="I10" s="100">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,InterestRatesTrigger)</f>
-        <v>1.6765673679535503E-3</v>
+        <v>1.5215427924036057E-3</v>
       </c>
       <c r="J10" s="125" t="str">
         <f>Contribution!U10</f>
@@ -21344,7 +21331,7 @@
       <c r="L10" s="89"/>
       <c r="M10" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_0047e#0001</v>
+        <v>obj_00492#0000</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="133"/>
@@ -21364,22 +21351,22 @@
       <c r="A11" s="4"/>
       <c r="B11" s="95">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G11" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H11" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
@@ -21387,7 +21374,7 @@
       </c>
       <c r="I11" s="100">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,InterestRatesTrigger)</f>
-        <v>1.6890000000002736E-3</v>
+        <v>1.5359999999986138E-3</v>
       </c>
       <c r="J11" s="125" t="str">
         <f>Contribution!U11</f>
@@ -21397,7 +21384,7 @@
       <c r="L11" s="89"/>
       <c r="M11" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_00480#0001</v>
+        <v>obj_0048d#0000</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="133"/>
@@ -21421,26 +21408,26 @@
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G12" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H12" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M12,G12,Trigger)</f>
-        <v>41892</v>
+        <v>41893</v>
       </c>
       <c r="I12" s="100">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,InterestRatesTrigger)</f>
-        <v>1.721000000000406E-3</v>
+        <v>1.602000000000619E-3</v>
       </c>
       <c r="J12" s="125" t="str">
         <f>Contribution!U12</f>
@@ -21450,7 +21437,7 @@
       <c r="L12" s="89"/>
       <c r="M12" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_00485#0001</v>
+        <v>obj_0048c#0000</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="133"/>
@@ -21470,30 +21457,30 @@
       <c r="A13" s="4"/>
       <c r="B13" s="95">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F13" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G13" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H13" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M13,G13,Trigger)</f>
-        <v>41922</v>
+        <v>41926</v>
       </c>
       <c r="I13" s="100">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,InterestRatesTrigger)</f>
-        <v>1.7219999999998469E-3</v>
+        <v>1.6587424459142291E-3</v>
       </c>
       <c r="J13" s="125" t="str">
         <f>Contribution!U13</f>
@@ -21503,7 +21490,7 @@
       <c r="L13" s="89"/>
       <c r="M13" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D13,YieldCurve,,Trigger)</f>
-        <v>obj_00487#0001</v>
+        <v>obj_0048a#0000</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="133"/>
@@ -21527,26 +21514,26 @@
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F14" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G14" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M14,F14,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H14" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M14,G14,Trigger)</f>
-        <v>41953</v>
+        <v>41954</v>
       </c>
       <c r="I14" s="100">
         <f>_xll.qlIndexFixing(M14,F14,TRUE,InterestRatesTrigger)</f>
-        <v>1.7429999999994705E-3</v>
+        <v>1.6710000003298171E-3</v>
       </c>
       <c r="J14" s="125" t="str">
         <f>Contribution!U14</f>
@@ -21556,7 +21543,7 @@
       <c r="L14" s="89"/>
       <c r="M14" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D14,YieldCurve,,Trigger)</f>
-        <v>obj_00481#0001</v>
+        <v>obj_00496#0000</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="133"/>
@@ -21580,26 +21567,26 @@
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G15" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M15,F15,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H15" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M15,G15,Trigger)</f>
-        <v>41983</v>
+        <v>41984</v>
       </c>
       <c r="I15" s="100">
         <f>_xll.qlIndexFixing(M15,F15,TRUE,InterestRatesTrigger)</f>
-        <v>1.7589999999992171E-3</v>
+        <v>1.6989999999997122E-3</v>
       </c>
       <c r="J15" s="125" t="str">
         <f>Contribution!U15</f>
@@ -21609,7 +21596,7 @@
       <c r="L15" s="89"/>
       <c r="M15" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D15,YieldCurve,,Trigger)</f>
-        <v>obj_00483#0001</v>
+        <v>obj_00495#0000</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="133"/>
@@ -21629,22 +21616,22 @@
       <c r="A16" s="4"/>
       <c r="B16" s="95">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="101">
         <f t="shared" si="1"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G16" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M16,F16,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H16" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M16,G16,Trigger)</f>
@@ -21652,7 +21639,7 @@
       </c>
       <c r="I16" s="100">
         <f>_xll.qlIndexFixing(M16,F16,TRUE,InterestRatesTrigger)</f>
-        <v>1.7446463451507518E-3</v>
+        <v>1.7156750778773808E-3</v>
       </c>
       <c r="J16" s="125" t="str">
         <f>Contribution!U16</f>
@@ -21684,14 +21671,14 @@
         <v>1</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="43" t="str">
         <f>B17+6&amp;"M"</f>
         <v>7M</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="98">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G17,Trigger)</f>
@@ -21707,7 +21694,7 @@
       </c>
       <c r="I17" s="99">
         <f>_xll.qlIndexFixing(IborIndex,F17,TRUE,InterestRatesTrigger)</f>
-        <v>1.7499999999999064E-3</v>
+        <v>1.749999999997746E-3</v>
       </c>
       <c r="J17" s="124" t="str">
         <f>Contribution!U17</f>
@@ -21739,30 +21726,30 @@
         <v>2</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" s="44" t="str">
         <f t="shared" ref="D18:D23" si="3">B18+6&amp;"M"</f>
         <v>8M</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F18" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18,Trigger)</f>
-        <v>41890</v>
+        <v>41891</v>
       </c>
       <c r="G18" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B18&amp;"M","mf",TRUE)</f>
-        <v>41892</v>
+        <v>41893</v>
       </c>
       <c r="H18" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G18,Trigger)</f>
-        <v>42073</v>
+        <v>42074</v>
       </c>
       <c r="I18" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,InterestRatesTrigger)</f>
-        <v>1.7499999999996509E-3</v>
+        <v>1.6999999999923676E-3</v>
       </c>
       <c r="J18" s="125" t="str">
         <f>Contribution!U18</f>
@@ -21794,30 +21781,30 @@
         <v>3</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="44" t="str">
         <f t="shared" si="3"/>
         <v>9M</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19,Trigger)</f>
-        <v>41920</v>
+        <v>41921</v>
       </c>
       <c r="G19" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B19&amp;"M","mf",TRUE)</f>
-        <v>41922</v>
+        <v>41925</v>
       </c>
       <c r="H19" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G19,Trigger)</f>
-        <v>42104</v>
+        <v>42107</v>
       </c>
       <c r="I19" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,InterestRatesTrigger)</f>
-        <v>1.7499999999998257E-3</v>
+        <v>1.7000000012136916E-3</v>
       </c>
       <c r="J19" s="125" t="str">
         <f>Contribution!U19</f>
@@ -21849,22 +21836,22 @@
         <v>4</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="44" t="str">
         <f t="shared" si="3"/>
         <v>10M</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F20" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G20,Trigger)</f>
-        <v>41949</v>
+        <v>41950</v>
       </c>
       <c r="G20" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B20&amp;"M","mf",TRUE)</f>
-        <v>41953</v>
+        <v>41954</v>
       </c>
       <c r="H20" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G20,Trigger)</f>
@@ -21872,7 +21859,7 @@
       </c>
       <c r="I20" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,InterestRatesTrigger)</f>
-        <v>1.6999999999992785E-3</v>
+        <v>1.6999999999888346E-3</v>
       </c>
       <c r="J20" s="125" t="str">
         <f>Contribution!U20</f>
@@ -21904,30 +21891,30 @@
         <v>5</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="44" t="str">
         <f t="shared" si="3"/>
         <v>11M</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G21,Trigger)</f>
-        <v>41981</v>
+        <v>41982</v>
       </c>
       <c r="G21" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B21&amp;"M","mf",TRUE)</f>
-        <v>41983</v>
+        <v>41984</v>
       </c>
       <c r="H21" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G21,Trigger)</f>
-        <v>42165</v>
+        <v>42166</v>
       </c>
       <c r="I21" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,InterestRatesTrigger)</f>
-        <v>1.6999999999997176E-3</v>
+        <v>1.6499999999895079E-3</v>
       </c>
       <c r="J21" s="125" t="str">
         <f>Contribution!U21</f>
@@ -21959,22 +21946,22 @@
         <v>6</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" s="44" t="str">
         <f t="shared" si="3"/>
         <v>12M</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G22,Trigger)</f>
-        <v>42013</v>
+        <v>42012</v>
       </c>
       <c r="G22" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B22&amp;"M","mf",TRUE)</f>
-        <v>42017</v>
+        <v>42016</v>
       </c>
       <c r="H22" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G22,Trigger)</f>
@@ -21982,7 +21969,7 @@
       </c>
       <c r="I22" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,InterestRatesTrigger)</f>
-        <v>1.6500000013899272E-3</v>
+        <v>1.6499999999731601E-3</v>
       </c>
       <c r="J22" s="125" t="str">
         <f>Contribution!U22</f>
@@ -22014,22 +22001,22 @@
         <v>9</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" s="44" t="str">
         <f t="shared" si="3"/>
         <v>15M</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G23,Trigger)</f>
-        <v>42102</v>
+        <v>42103</v>
       </c>
       <c r="G23" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B23&amp;"M","mf",TRUE)</f>
-        <v>42104</v>
+        <v>42107</v>
       </c>
       <c r="H23" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G23,Trigger)</f>
@@ -22037,23 +22024,23 @@
       </c>
       <c r="I23" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,InterestRatesTrigger)</f>
-        <v>1.533788915639138E-3</v>
+        <v>1.555757673468052E-3</v>
       </c>
       <c r="J23" s="125"/>
       <c r="K23" s="125"/>
       <c r="L23" s="89"/>
       <c r="M23" s="131" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N23" s="144"/>
       <c r="O23" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R23" s="89"/>
       <c r="S23" s="89"/>
@@ -22070,26 +22057,26 @@
       <c r="B24" s="61"/>
       <c r="C24" s="67"/>
       <c r="D24" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F24" s="98">
         <f t="shared" ref="F24" si="4">EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G24" s="98">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H24" s="98">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
-        <v>42381</v>
+        <v>42380</v>
       </c>
       <c r="I24" s="99">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,InterestRatesTrigger)</f>
-        <v>1.6966645370560388E-3</v>
+        <v>1.700000000000101E-3</v>
       </c>
       <c r="J24" s="124" t="str">
         <f>Contribution!U24</f>
@@ -22102,17 +22089,17 @@
       <c r="L24" s="89"/>
       <c r="M24" s="118" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bc#0001</v>
+        <v>obj_004ca#0001</v>
       </c>
       <c r="N24" s="144"/>
       <c r="O24" s="54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P24" s="54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q24" s="54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R24" s="89"/>
       <c r="S24" s="89"/>
@@ -22129,18 +22116,18 @@
       <c r="B25" s="63"/>
       <c r="C25" s="68"/>
       <c r="D25" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F25" s="101">
         <f t="shared" ref="F25:F38" si="6">EvaluationDate</f>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G25" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H25" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
@@ -22148,7 +22135,7 @@
       </c>
       <c r="I25" s="100">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,InterestRatesTrigger)</f>
-        <v>1.6998517187517027E-3</v>
+        <v>1.7000000000000483E-3</v>
       </c>
       <c r="J25" s="125" t="str">
         <f>Contribution!U25</f>
@@ -22161,7 +22148,7 @@
       <c r="L25" s="89"/>
       <c r="M25" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c9#0001</v>
+        <v>obj_004b7#0001</v>
       </c>
       <c r="N25" s="144"/>
       <c r="O25" s="134"/>
@@ -22182,26 +22169,26 @@
       <c r="B26" s="63"/>
       <c r="C26" s="64"/>
       <c r="D26" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F26" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G26" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H26" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>42926</v>
+        <v>42927</v>
       </c>
       <c r="I26" s="100">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,InterestRatesTrigger)</f>
-        <v>1.7749009309943535E-3</v>
+        <v>1.7750000000000456E-3</v>
       </c>
       <c r="J26" s="125" t="str">
         <f>Contribution!U26</f>
@@ -22214,7 +22201,7 @@
       <c r="L26" s="89"/>
       <c r="M26" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b7#0001</v>
+        <v>obj_004b8#0001</v>
       </c>
       <c r="N26" s="144"/>
       <c r="O26" s="133"/>
@@ -22235,26 +22222,26 @@
       <c r="B27" s="63"/>
       <c r="C27" s="64"/>
       <c r="D27" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F27" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G27" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H27" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="I27" s="100">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,InterestRatesTrigger)</f>
-        <v>2.0749256497035722E-3</v>
+        <v>2.0499999998052831E-3</v>
       </c>
       <c r="J27" s="125" t="str">
         <f>Contribution!U27</f>
@@ -22267,7 +22254,7 @@
       <c r="L27" s="89"/>
       <c r="M27" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b3#0001</v>
+        <v>obj_004d2#0001</v>
       </c>
       <c r="N27" s="144"/>
       <c r="O27" s="133"/>
@@ -22288,26 +22275,26 @@
       <c r="B28" s="63"/>
       <c r="C28" s="64"/>
       <c r="D28" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F28" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G28" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H28" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="I28" s="100">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,InterestRatesTrigger)</f>
-        <v>2.5749404759403309E-3</v>
+        <v>2.5500000000002097E-3</v>
       </c>
       <c r="J28" s="125" t="str">
         <f>Contribution!U28</f>
@@ -22341,26 +22328,26 @@
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
       <c r="D29" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G29" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H29" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="I29" s="100">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,InterestRatesTrigger)</f>
-        <v>3.2749503667469687E-3</v>
+        <v>3.2500000000005671E-3</v>
       </c>
       <c r="J29" s="125" t="str">
         <f>Contribution!U29</f>
@@ -22373,7 +22360,7 @@
       <c r="L29" s="89"/>
       <c r="M29" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c3#0001</v>
+        <v>obj_004b5#0001</v>
       </c>
       <c r="N29" s="144"/>
       <c r="O29" s="133"/>
@@ -22394,18 +22381,18 @@
       <c r="B30" s="63"/>
       <c r="C30" s="64"/>
       <c r="D30" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F30" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G30" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M30,F30,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H30" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M30,G30,Trigger)</f>
@@ -22413,7 +22400,7 @@
       </c>
       <c r="I30" s="100">
         <f>_xll.qlIndexFixing(M30,F30,TRUE,InterestRatesTrigger)</f>
-        <v>4.1249569767566078E-3</v>
+        <v>4.0749999998895975E-3</v>
       </c>
       <c r="J30" s="125" t="str">
         <f>Contribution!U30</f>
@@ -22426,7 +22413,7 @@
       <c r="L30" s="89"/>
       <c r="M30" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c2#0001</v>
+        <v>obj_004c7#0001</v>
       </c>
       <c r="N30" s="144"/>
       <c r="O30" s="133"/>
@@ -22447,18 +22434,18 @@
       <c r="B31" s="63"/>
       <c r="C31" s="64"/>
       <c r="D31" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F31" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G31" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M31,F31,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H31" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M31,G31,Trigger)</f>
@@ -22466,7 +22453,7 @@
       </c>
       <c r="I31" s="100">
         <f>_xll.qlIndexFixing(M31,F31,TRUE,InterestRatesTrigger)</f>
-        <v>5.0249639507925483E-3</v>
+        <v>4.9750000000010315E-3</v>
       </c>
       <c r="J31" s="125" t="str">
         <f>Contribution!U31</f>
@@ -22479,7 +22466,7 @@
       <c r="L31" s="89"/>
       <c r="M31" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c7#0001</v>
+        <v>obj_004cc#0001</v>
       </c>
       <c r="N31" s="144"/>
       <c r="O31" s="133"/>
@@ -22500,26 +22487,26 @@
       <c r="B32" s="63"/>
       <c r="C32" s="64"/>
       <c r="D32" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F32" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G32" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M32,F32,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H32" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M32,G32,Trigger)</f>
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="I32" s="100">
         <f>_xll.qlIndexFixing(M32,F32,TRUE,InterestRatesTrigger)</f>
-        <v>5.9749678594145728E-3</v>
+        <v>5.9000000000005116E-3</v>
       </c>
       <c r="J32" s="125" t="str">
         <f>Contribution!U32</f>
@@ -22532,7 +22519,7 @@
       <c r="L32" s="89"/>
       <c r="M32" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b6#0001</v>
+        <v>obj_004cf#0001</v>
       </c>
       <c r="N32" s="144"/>
       <c r="O32" s="133"/>
@@ -22553,26 +22540,26 @@
       <c r="B33" s="63"/>
       <c r="C33" s="64"/>
       <c r="D33" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F33" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G33" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M33,F33,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H33" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M33,G33,Trigger)</f>
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="I33" s="100">
         <f>_xll.qlIndexFixing(M33,F33,TRUE,InterestRatesTrigger)</f>
-        <v>6.89997098928223E-3</v>
+        <v>6.8500000000006785E-3</v>
       </c>
       <c r="J33" s="125" t="str">
         <f>Contribution!U33</f>
@@ -22585,7 +22572,7 @@
       <c r="L33" s="89"/>
       <c r="M33" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ad#0001</v>
+        <v>obj_004d0#0001</v>
       </c>
       <c r="N33" s="144"/>
       <c r="O33" s="133"/>
@@ -22606,26 +22593,26 @@
       <c r="B34" s="63"/>
       <c r="C34" s="64"/>
       <c r="D34" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F34" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G34" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M34,F34,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H34" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M34,G34,Trigger)</f>
-        <v>46213</v>
+        <v>46216</v>
       </c>
       <c r="I34" s="100">
         <f>_xll.qlIndexFixing(M34,F34,TRUE,InterestRatesTrigger)</f>
-        <v>8.7749753621395674E-3</v>
+        <v>8.7250000000028433E-3</v>
       </c>
       <c r="J34" s="125" t="str">
         <f>Contribution!U34</f>
@@ -22638,7 +22625,7 @@
       <c r="L34" s="89"/>
       <c r="M34" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c1#0001</v>
+        <v>obj_004c4#0001</v>
       </c>
       <c r="N34" s="144"/>
       <c r="O34" s="133"/>
@@ -22659,26 +22646,26 @@
       <c r="B35" s="63"/>
       <c r="C35" s="64"/>
       <c r="D35" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F35" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G35" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M35,F35,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H35" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M35,G35,Trigger)</f>
-        <v>47309</v>
+        <v>47310</v>
       </c>
       <c r="I35" s="100">
         <f>_xll.qlIndexFixing(M35,F35,TRUE,InterestRatesTrigger)</f>
-        <v>1.1424979822909588E-2</v>
+        <v>1.1375000000031969E-2</v>
       </c>
       <c r="J35" s="125" t="str">
         <f>Contribution!U35</f>
@@ -22691,7 +22678,7 @@
       <c r="L35" s="89"/>
       <c r="M35" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b8#0001</v>
+        <v>obj_004c1#0001</v>
       </c>
       <c r="N35" s="144"/>
       <c r="O35" s="133"/>
@@ -22712,26 +22699,26 @@
       <c r="B36" s="63"/>
       <c r="C36" s="64"/>
       <c r="D36" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F36" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G36" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M36,F36,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H36" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M36,G36,Trigger)</f>
-        <v>49135</v>
+        <v>49136</v>
       </c>
       <c r="I36" s="100">
         <f>_xll.qlIndexFixing(M36,F36,TRUE,InterestRatesTrigger)</f>
-        <v>1.4649984066690779E-2</v>
+        <v>1.4625000000050034E-2</v>
       </c>
       <c r="J36" s="125" t="str">
         <f>Contribution!U36</f>
@@ -22744,7 +22731,7 @@
       <c r="L36" s="89"/>
       <c r="M36" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b5#0001</v>
+        <v>obj_004bc#0001</v>
       </c>
       <c r="N36" s="144"/>
       <c r="O36" s="133"/>
@@ -22765,18 +22752,18 @@
       <c r="B37" s="63"/>
       <c r="C37" s="64"/>
       <c r="D37" s="44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F37" s="101">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G37" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M37,F37,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H37" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M37,G37,Trigger)</f>
@@ -22784,7 +22771,7 @@
       </c>
       <c r="I37" s="100">
         <f>_xll.qlIndexFixing(M37,F37,TRUE,InterestRatesTrigger)</f>
-        <v>1.6349986386552585E-2</v>
+        <v>1.6349999999993155E-2</v>
       </c>
       <c r="J37" s="125" t="str">
         <f>Contribution!U37</f>
@@ -22797,7 +22784,7 @@
       <c r="L37" s="89"/>
       <c r="M37" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c5#0001</v>
+        <v>obj_004c3#0001</v>
       </c>
       <c r="N37" s="144"/>
       <c r="O37" s="133"/>
@@ -22818,18 +22805,18 @@
       <c r="B38" s="69"/>
       <c r="C38" s="70"/>
       <c r="D38" s="45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F38" s="102">
         <f t="shared" si="6"/>
-        <v>41828</v>
+        <v>41829</v>
       </c>
       <c r="G38" s="102">
         <f>_xll.qlInterestRateIndexValueDate(M38,F38,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H38" s="102">
         <f>_xll.qlInterestRateIndexMaturity(M38,G38,Trigger)</f>
@@ -22837,7 +22824,7 @@
       </c>
       <c r="I38" s="103">
         <f>_xll.qlIndexFixing(M38,F38,TRUE,InterestRatesTrigger)</f>
-        <v>1.7349987950193699E-2</v>
+        <v>1.7399999999999995E-2</v>
       </c>
       <c r="J38" s="126" t="str">
         <f>Contribution!U38</f>
@@ -22850,7 +22837,7 @@
       <c r="L38" s="89"/>
       <c r="M38" s="132" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b1#0001</v>
+        <v>obj_004c9#0001</v>
       </c>
       <c r="N38" s="144"/>
       <c r="O38" s="133"/>

--- a/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
@@ -21,13 +21,11 @@
     <definedName name="ASK">Contribution!$I$1</definedName>
     <definedName name="BID">Contribution!$H$1</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
-    <definedName name="Calendar1">'General Settings'!$D$15</definedName>
-    <definedName name="Calendar2">'General Settings'!$D$16</definedName>
     <definedName name="Contribute">Contribution!$C$1</definedName>
     <definedName name="Currency">'General Settings'!$D$11</definedName>
-    <definedName name="CurveTenor" localSheetId="3">'3M Pricing'!$F$2</definedName>
-    <definedName name="CurveTenor" localSheetId="4">'6M Pricing'!$F$2</definedName>
-    <definedName name="CurveTenor" localSheetId="2">'ON Pricing'!$F$2</definedName>
+    <definedName name="CurveTenor" localSheetId="3">'3M Pricing'!$F$1</definedName>
+    <definedName name="CurveTenor" localSheetId="4">'6M Pricing'!$F$1</definedName>
+    <definedName name="CurveTenor" localSheetId="2">'ON Pricing'!$F$1</definedName>
     <definedName name="EvaluationDate">'General Settings'!$D$5</definedName>
     <definedName name="Fields">Contribution!$H$1:$I$1</definedName>
     <definedName name="FixedLegBDC" localSheetId="4">'6M Pricing'!$P$24</definedName>
@@ -41,15 +39,17 @@
     <definedName name="IborIndexFamily">'General Settings'!$D$12</definedName>
     <definedName name="InterestRatesTrigger">'General Settings'!$D$6</definedName>
     <definedName name="InterpolationType">'General Settings'!$D$20</definedName>
+    <definedName name="LiborCalendar">'General Settings'!$D$16</definedName>
+    <definedName name="LocalCalendar">'General Settings'!$D$15</definedName>
     <definedName name="MainTenor">'General Settings'!$D$13</definedName>
     <definedName name="OvernightIndex" localSheetId="2">'ON Pricing'!$M$5</definedName>
     <definedName name="SettlementDate">'General Settings'!$D$19</definedName>
     <definedName name="SettlementDays">'General Settings'!$D$14</definedName>
     <definedName name="SourceAlias">Contribution!$F$1</definedName>
     <definedName name="Trigger">'General Settings'!$D$4</definedName>
-    <definedName name="YieldCurve" localSheetId="3">'3M Pricing'!$H$2</definedName>
-    <definedName name="YieldCurve" localSheetId="4">'6M Pricing'!$H$2</definedName>
-    <definedName name="YieldCurve" localSheetId="2">'ON Pricing'!$H$2</definedName>
+    <definedName name="YieldCurve" localSheetId="3">'3M Pricing'!$F$2</definedName>
+    <definedName name="YieldCurve" localSheetId="4">'6M Pricing'!$F$2</definedName>
+    <definedName name="YieldCurve" localSheetId="2">'ON Pricing'!$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="134">
   <si>
     <t>BID</t>
   </si>
@@ -135,12 +135,6 @@
   </si>
   <si>
     <t>JPY</t>
-  </si>
-  <si>
-    <t>Calendar1</t>
-  </si>
-  <si>
-    <t>Calendar2</t>
   </si>
   <si>
     <t>UnitedKingdom::Exchange</t>
@@ -491,10 +485,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>RIC TONAR?!?</t>
+    <t>HolidayCheck</t>
   </si>
   <si>
-    <t>HolidayCheck</t>
+    <t>LocalCalendar</t>
+  </si>
+  <si>
+    <t>LiborCalendar</t>
   </si>
 </sst>
 </file>
@@ -3173,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="35">
-        <v>41829.722870370373</v>
+        <v>41830.525370370371</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="38"/>
@@ -3206,7 +3203,7 @@
       </c>
       <c r="D5" s="35">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="38"/>
@@ -3235,7 +3232,7 @@
       <c r="A6" s="38"/>
       <c r="B6" s="24"/>
       <c r="C6" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" s="29">
         <f>[1]!TriggerCounter</f>
@@ -3447,10 +3444,10 @@
       <c r="A13" s="38"/>
       <c r="B13" s="24"/>
       <c r="C13" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="38"/>
@@ -3512,10 +3509,10 @@
       <c r="A15" s="38"/>
       <c r="B15" s="24"/>
       <c r="C15" s="27" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="38"/>
@@ -3544,10 +3541,10 @@
       <c r="A16" s="38"/>
       <c r="B16" s="24"/>
       <c r="C16" s="27" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="38"/>
@@ -3576,10 +3573,10 @@
       <c r="A17" s="38"/>
       <c r="B17" s="24"/>
       <c r="C17" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="34" t="b">
-        <f>_xll.qlCalendarIsHoliday(Calendar1,_xll.qlCalendarAdvance(Calendar2,EvaluationDate,SettlementDays&amp;"D","f",FALSE,Trigger))</f>
+        <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,EvaluationDate,SettlementDays&amp;"D","f",FALSE,Trigger))</f>
         <v>0</v>
       </c>
       <c r="E17" s="26"/>
@@ -3612,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="34" t="str">
-        <f>IF(D17,Calendar1,Calendar2)</f>
+        <f>IF(D17,LocalCalendar,LiborCalendar)</f>
         <v>UnitedKingdom::Exchange</v>
       </c>
       <c r="E18" s="26"/>
@@ -3646,7 +3643,7 @@
       </c>
       <c r="D19" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="38"/>
@@ -3675,10 +3672,10 @@
       <c r="A20" s="38"/>
       <c r="B20" s="24"/>
       <c r="C20" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="38"/>
@@ -6125,10 +6122,10 @@
       <c r="C3" s="79"/>
       <c r="D3" s="80"/>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -6136,10 +6133,10 @@
       <c r="J3" s="77"/>
       <c r="K3" s="16"/>
       <c r="L3" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -6147,10 +6144,10 @@
       <c r="Q3" s="77"/>
       <c r="R3" s="16"/>
       <c r="S3" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
@@ -6187,25 +6184,25 @@
     </row>
     <row r="4" spans="1:52" s="83" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>0</v>
@@ -6214,19 +6211,19 @@
         <v>1</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K4" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L4" s="90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N4" s="82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O4" s="51" t="s">
         <v>0</v>
@@ -6235,19 +6232,19 @@
         <v>1</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S4" s="90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U4" s="82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V4" s="51" t="s">
         <v>0</v>
@@ -6256,10 +6253,10 @@
         <v>1</v>
       </c>
       <c r="X4" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y4" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z4" s="81"/>
       <c r="AA4" s="81"/>
@@ -6291,7 +6288,7 @@
     </row>
     <row r="5" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="43" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G5,Fields,H5:I5,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H5:I5,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6306,10 +6303,10 @@
         <v>stopped</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="17" t="str">
         <f t="shared" ref="G5:G16" si="0">Currency&amp;"ON"&amp;F5&amp;"="</f>
@@ -6317,11 +6314,11 @@
       </c>
       <c r="H5" s="18">
         <f>'ON Pricing'!I5*100</f>
-        <v>6.4355657782511067E-2</v>
+        <v>6.4130114298399654E-2</v>
       </c>
       <c r="I5" s="18">
         <f>H5</f>
-        <v>6.4355657782511067E-2</v>
+        <v>6.4130114298399654E-2</v>
       </c>
       <c r="J5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G5,BID)-H5)</f>
@@ -6332,10 +6329,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L5" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N5" s="17" t="str">
         <f t="shared" ref="N5:N19" si="1">Currency&amp;"3M"&amp;M5&amp;"="</f>
@@ -6343,11 +6340,11 @@
       </c>
       <c r="O5" s="18">
         <f>'3M Pricing'!I5*100</f>
-        <v>0.13169175923951118</v>
+        <v>0.12183624616191047</v>
       </c>
       <c r="P5" s="18">
         <f>O5</f>
-        <v>0.13169175923951118</v>
+        <v>0.12183624616191047</v>
       </c>
       <c r="Q5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N5,BID)-O5)</f>
@@ -6358,10 +6355,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S5" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U5" s="17" t="str">
         <f t="shared" ref="U5:U22" si="2">Currency&amp;"6M"&amp;T5&amp;"="</f>
@@ -6369,11 +6366,11 @@
       </c>
       <c r="V5" s="18">
         <f>'6M Pricing'!I5*100</f>
-        <v>0.15083802883797404</v>
+        <v>0.22040393604351186</v>
       </c>
       <c r="W5" s="18">
         <f>V5</f>
-        <v>0.15083802883797404</v>
+        <v>0.22040393604351186</v>
       </c>
       <c r="X5" s="18" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U5,BID)-V5)</f>
@@ -6413,7 +6410,7 @@
     </row>
     <row r="6" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G6,Fields,H6:I6,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H6:I6,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6428,10 +6425,10 @@
         <v>stopped</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6439,11 +6436,11 @@
       </c>
       <c r="H6" s="20">
         <f>'ON Pricing'!I6*100</f>
-        <v>6.4358987342028051E-2</v>
+        <v>6.414280889073995E-2</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" ref="I6:I38" si="3">H6</f>
-        <v>6.4358987342028051E-2</v>
+        <v>6.414280889073995E-2</v>
       </c>
       <c r="J6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G6,BID)-H6)</f>
@@ -6454,10 +6451,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L6" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N6" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6465,11 +6462,11 @@
       </c>
       <c r="O6" s="20">
         <f>'3M Pricing'!I6*100</f>
-        <v>0.13168977641110866</v>
+        <v>0.12186697742641819</v>
       </c>
       <c r="P6" s="20">
         <f t="shared" ref="P6:P38" si="4">O6</f>
-        <v>0.13168977641110866</v>
+        <v>0.12186697742641819</v>
       </c>
       <c r="Q6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N6,BID)-O6)</f>
@@ -6480,10 +6477,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S6" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T6" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U6" s="19" t="str">
         <f t="shared" si="2"/>
@@ -6491,11 +6488,11 @@
       </c>
       <c r="V6" s="20">
         <f>'6M Pricing'!I6*100</f>
-        <v>0.15087191954883333</v>
+        <v>0.22034342519608391</v>
       </c>
       <c r="W6" s="20">
         <f t="shared" ref="W6:W38" si="5">V6</f>
-        <v>0.15087191954883333</v>
+        <v>0.22034342519608391</v>
       </c>
       <c r="X6" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U6,BID)-V6)</f>
@@ -6535,7 +6532,7 @@
     </row>
     <row r="7" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G7,Fields,H7:I7,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H7:I7,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6550,10 +6547,10 @@
         <v>stopped</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="21" t="str">
         <f t="shared" si="0"/>
@@ -6561,11 +6558,11 @@
       </c>
       <c r="H7" s="22">
         <f>'ON Pricing'!I7*100</f>
-        <v>6.4376858568341674E-2</v>
+        <v>6.4167859926023141E-2</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="3"/>
-        <v>6.4376858568341674E-2</v>
+        <v>6.4167859926023141E-2</v>
       </c>
       <c r="J7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G7,BID)-H7)</f>
@@ -6576,10 +6573,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L7" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N7" s="21" t="str">
         <f t="shared" si="1"/>
@@ -6587,11 +6584,11 @@
       </c>
       <c r="O7" s="22">
         <f>'3M Pricing'!I7*100</f>
-        <v>0.13168412289399356</v>
+        <v>0.12197662158719424</v>
       </c>
       <c r="P7" s="22">
         <f t="shared" si="4"/>
-        <v>0.13168412289399356</v>
+        <v>0.12197662158719424</v>
       </c>
       <c r="Q7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N7,BID)-O7)</f>
@@ -6602,10 +6599,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S7" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U7" s="21" t="str">
         <f t="shared" si="2"/>
@@ -6613,11 +6610,11 @@
       </c>
       <c r="V7" s="22">
         <f>'6M Pricing'!I7*100</f>
-        <v>0.15095024533273715</v>
+        <v>0.22032675840577554</v>
       </c>
       <c r="W7" s="22">
         <f t="shared" si="5"/>
-        <v>0.15095024533273715</v>
+        <v>0.22032675840577554</v>
       </c>
       <c r="X7" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U7,BID)-V7)</f>
@@ -6657,7 +6654,7 @@
     </row>
     <row r="8" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G8,Fields,H8:I8,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H8:I8,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6672,10 +6669,10 @@
         <v>stopped</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6683,11 +6680,11 @@
       </c>
       <c r="H8" s="20">
         <f>'ON Pricing'!I8*100</f>
-        <v>6.4412601390308383E-2</v>
+        <v>6.4260732683743535E-2</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="3"/>
-        <v>6.4412601390308383E-2</v>
+        <v>6.4260732683743535E-2</v>
       </c>
       <c r="J8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G8,BID)-H8)</f>
@@ -6698,10 +6695,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L8" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N8" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6709,11 +6706,11 @@
       </c>
       <c r="O8" s="20">
         <f>'3M Pricing'!I8*100</f>
-        <v>0.13168126867427585</v>
+        <v>0.12211699701247802</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="4"/>
-        <v>0.13168126867427585</v>
+        <v>0.12211699701247802</v>
       </c>
       <c r="Q8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N8,BID)-O8)</f>
@@ -6724,10 +6721,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S8" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T8" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U8" s="19" t="str">
         <f t="shared" si="2"/>
@@ -6735,11 +6732,11 @@
       </c>
       <c r="V8" s="20">
         <f>'6M Pricing'!I8*100</f>
-        <v>0.15106246182750027</v>
+        <v>0.22015123220520127</v>
       </c>
       <c r="W8" s="20">
         <f t="shared" si="5"/>
-        <v>0.15106246182750027</v>
+        <v>0.22015123220520127</v>
       </c>
       <c r="X8" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U8,BID)-V8)</f>
@@ -6779,7 +6776,7 @@
     </row>
     <row r="9" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G9,Fields,H9:I9,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H9:I9,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6794,10 +6791,10 @@
         <v>stopped</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6805,11 +6802,11 @@
       </c>
       <c r="H9" s="20">
         <f>'ON Pricing'!I9*100</f>
-        <v>6.4517882931769424E-2</v>
+        <v>6.4389410167255343E-2</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="3"/>
-        <v>6.4517882931769424E-2</v>
+        <v>6.4389410167255343E-2</v>
       </c>
       <c r="J9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G9,BID)-H9)</f>
@@ -6820,10 +6817,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L9" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N9" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6831,11 +6828,11 @@
       </c>
       <c r="O9" s="20">
         <f>'3M Pricing'!I9*100</f>
-        <v>0.13166892448688927</v>
+        <v>0.12240933482386496</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="4"/>
-        <v>0.13166892448688927</v>
+        <v>0.12240933482386496</v>
       </c>
       <c r="Q9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N9,BID)-O9)</f>
@@ -6846,10 +6843,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S9" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T9" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U9" s="19" t="str">
         <f t="shared" si="2"/>
@@ -6857,11 +6854,11 @@
       </c>
       <c r="V9" s="20">
         <f>'6M Pricing'!I9*100</f>
-        <v>0.15147243591646337</v>
+        <v>0.21977759936639019</v>
       </c>
       <c r="W9" s="20">
         <f t="shared" si="5"/>
-        <v>0.15147243591646337</v>
+        <v>0.21977759936639019</v>
       </c>
       <c r="X9" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U9,BID)-V9)</f>
@@ -6901,7 +6898,7 @@
     </row>
     <row r="10" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G10,Fields,H10:I10,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H10:I10,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -6916,10 +6913,10 @@
         <v>stopped</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="19" t="str">
         <f t="shared" si="0"/>
@@ -6927,11 +6924,11 @@
       </c>
       <c r="H10" s="20">
         <f>'ON Pricing'!I10*100</f>
-        <v>6.4677551893295368E-2</v>
+        <v>6.4596786906385387E-2</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="3"/>
-        <v>6.4677551893295368E-2</v>
+        <v>6.4596786906385387E-2</v>
       </c>
       <c r="J10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G10,BID)-H10)</f>
@@ -6942,10 +6939,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L10" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N10" s="19" t="str">
         <f t="shared" si="1"/>
@@ -6953,11 +6950,11 @@
       </c>
       <c r="O10" s="20">
         <f>'3M Pricing'!I10*100</f>
-        <v>0.13164722602557585</v>
+        <v>0.12295109471909577</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="4"/>
-        <v>0.13164722602557585</v>
+        <v>0.12295109471909577</v>
       </c>
       <c r="Q10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N10,BID)-O10)</f>
@@ -6968,10 +6965,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S10" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T10" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U10" s="19" t="str">
         <f t="shared" si="2"/>
@@ -6979,11 +6976,11 @@
       </c>
       <c r="V10" s="20">
         <f>'6M Pricing'!I10*100</f>
-        <v>0.15215427924036057</v>
+        <v>0.21908128401701021</v>
       </c>
       <c r="W10" s="20">
         <f t="shared" si="5"/>
-        <v>0.15215427924036057</v>
+        <v>0.21908128401701021</v>
       </c>
       <c r="X10" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U10,BID)-V10)</f>
@@ -7023,7 +7020,7 @@
     </row>
     <row r="11" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G11,Fields,H11:I11,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H11:I11,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7038,10 +7035,10 @@
         <v>stopped</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7049,11 +7046,11 @@
       </c>
       <c r="H11" s="20">
         <f>'ON Pricing'!I11*100</f>
-        <v>6.4999999999716729E-2</v>
+        <v>6.4999999999978145E-2</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="3"/>
-        <v>6.4999999999716729E-2</v>
+        <v>6.4999999999978145E-2</v>
       </c>
       <c r="J11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G11,BID)-H11)</f>
@@ -7064,10 +7061,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L11" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N11" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7075,11 +7072,11 @@
       </c>
       <c r="O11" s="20">
         <f>'3M Pricing'!I11*100</f>
-        <v>0.13160000000005245</v>
+        <v>0.12409999999990665</v>
       </c>
       <c r="P11" s="20">
         <f t="shared" si="4"/>
-        <v>0.13160000000005245</v>
+        <v>0.12409999999990665</v>
       </c>
       <c r="Q11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N11,BID)-O11)</f>
@@ -7090,10 +7087,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S11" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T11" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U11" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7101,11 +7098,11 @@
       </c>
       <c r="V11" s="20">
         <f>'6M Pricing'!I11*100</f>
-        <v>0.15359999999986138</v>
+        <v>0.21759999999806309</v>
       </c>
       <c r="W11" s="20">
         <f t="shared" si="5"/>
-        <v>0.15359999999986138</v>
+        <v>0.21759999999806309</v>
       </c>
       <c r="X11" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U11,BID)-V11)</f>
@@ -7145,7 +7142,7 @@
     </row>
     <row r="12" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G12,Fields,H12:I12,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H12:I12,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7160,10 +7157,10 @@
         <v>stopped</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7171,11 +7168,11 @@
       </c>
       <c r="H12" s="20">
         <f>'ON Pricing'!I12*100</f>
-        <v>6.4999999999978159E-2</v>
+        <v>6.4999999999990427E-2</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="3"/>
-        <v>6.4999999999978159E-2</v>
+        <v>6.4999999999990427E-2</v>
       </c>
       <c r="J12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G12,BID)-H12)</f>
@@ -7186,10 +7183,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L12" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M12" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N12" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7197,11 +7194,11 @@
       </c>
       <c r="O12" s="20">
         <f>'3M Pricing'!I12*100</f>
-        <v>0.1320000000016899</v>
+        <v>0.12741458618119317</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="4"/>
-        <v>0.1320000000016899</v>
+        <v>0.12741458618119317</v>
       </c>
       <c r="Q12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N12,BID)-O12)</f>
@@ -7212,10 +7209,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S12" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T12" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U12" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7223,11 +7220,11 @@
       </c>
       <c r="V12" s="20">
         <f>'6M Pricing'!I12*100</f>
-        <v>0.1602000000000619</v>
+        <v>0.20928402032183158</v>
       </c>
       <c r="W12" s="20">
         <f t="shared" si="5"/>
-        <v>0.1602000000000619</v>
+        <v>0.20928402032183158</v>
       </c>
       <c r="X12" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U12,BID)-V12)</f>
@@ -7267,7 +7264,7 @@
     </row>
     <row r="13" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G13,Fields,H13:I13,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H13:I13,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7282,10 +7279,10 @@
         <v>stopped</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7293,11 +7290,11 @@
       </c>
       <c r="H13" s="20">
         <f>'ON Pricing'!I13*100</f>
-        <v>6.2499999999960698E-2</v>
+        <v>6.2499999999929161E-2</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="3"/>
-        <v>6.2499999999960698E-2</v>
+        <v>6.2499999999929161E-2</v>
       </c>
       <c r="J13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G13,BID)-H13)</f>
@@ -7308,10 +7305,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L13" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N13" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7319,11 +7316,11 @@
       </c>
       <c r="O13" s="20">
         <f>'3M Pricing'!I13*100</f>
-        <v>0.13244490113667051</v>
+        <v>0.12710000000001767</v>
       </c>
       <c r="P13" s="20">
         <f t="shared" si="4"/>
-        <v>0.13244490113667051</v>
+        <v>0.12710000000001767</v>
       </c>
       <c r="Q13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N13,BID)-O13)</f>
@@ -7334,10 +7331,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S13" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T13" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U13" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7345,11 +7342,11 @@
       </c>
       <c r="V13" s="20">
         <f>'6M Pricing'!I13*100</f>
-        <v>0.16587424459142291</v>
+        <v>0.20079999999747161</v>
       </c>
       <c r="W13" s="20">
         <f t="shared" si="5"/>
-        <v>0.16587424459142291</v>
+        <v>0.20079999999747161</v>
       </c>
       <c r="X13" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U13,BID)-V13)</f>
@@ -7389,7 +7386,7 @@
     </row>
     <row r="14" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G14,Fields,H14:I14,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H14:I14,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7404,10 +7401,10 @@
         <v>stopped</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7415,11 +7412,11 @@
       </c>
       <c r="H14" s="20">
         <f>'ON Pricing'!I14*100</f>
-        <v>6.2499999999939188E-2</v>
+        <v>6.2500000000005079E-2</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="3"/>
-        <v>6.2499999999939188E-2</v>
+        <v>6.2500000000005079E-2</v>
       </c>
       <c r="J14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G14,BID)-H14)</f>
@@ -7430,10 +7427,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L14" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M14" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N14" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7456,10 +7453,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S14" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T14" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U14" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7467,11 +7464,11 @@
       </c>
       <c r="V14" s="20">
         <f>'6M Pricing'!I14*100</f>
-        <v>0.1671000000329817</v>
+        <v>0.19509999999751237</v>
       </c>
       <c r="W14" s="20">
         <f t="shared" si="5"/>
-        <v>0.1671000000329817</v>
+        <v>0.19509999999751237</v>
       </c>
       <c r="X14" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U14,BID)-V14)</f>
@@ -7511,7 +7508,7 @@
     </row>
     <row r="15" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G15,Fields,H15:I15,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H15:I15,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7526,10 +7523,10 @@
         <v>stopped</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7537,11 +7534,11 @@
       </c>
       <c r="H15" s="20">
         <f>'ON Pricing'!I15*100</f>
-        <v>6.2500000000027048E-2</v>
+        <v>6.2499999999997786E-2</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="3"/>
-        <v>6.2500000000027048E-2</v>
+        <v>6.2499999999997786E-2</v>
       </c>
       <c r="J15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G15,BID)-H15)</f>
@@ -7552,10 +7549,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L15" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M15" s="44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N15" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7563,11 +7560,11 @@
       </c>
       <c r="O15" s="20">
         <f>'3M Pricing'!I15*100</f>
-        <v>0.13000000000001716</v>
+        <v>0.13000000005878334</v>
       </c>
       <c r="P15" s="20">
         <f t="shared" si="4"/>
-        <v>0.13000000000001716</v>
+        <v>0.13000000005878334</v>
       </c>
       <c r="Q15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N15,BID)-O15)</f>
@@ -7578,10 +7575,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S15" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T15" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U15" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7589,11 +7586,11 @@
       </c>
       <c r="V15" s="20">
         <f>'6M Pricing'!I15*100</f>
-        <v>0.16989999999997121</v>
+        <v>0.19049999999849437</v>
       </c>
       <c r="W15" s="20">
         <f t="shared" si="5"/>
-        <v>0.16989999999997121</v>
+        <v>0.19049999999849437</v>
       </c>
       <c r="X15" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U15,BID)-V15)</f>
@@ -7633,7 +7630,7 @@
     </row>
     <row r="16" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G16,Fields,H16:I16,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H16:I16,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7648,10 +7645,10 @@
         <v>stopped</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="19" t="str">
         <f t="shared" si="0"/>
@@ -7659,11 +7656,11 @@
       </c>
       <c r="H16" s="20">
         <f>'ON Pricing'!I16*100</f>
-        <v>6.0000000000003315E-2</v>
+        <v>6.0000000000016554E-2</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="3"/>
-        <v>6.0000000000003315E-2</v>
+        <v>6.0000000000016554E-2</v>
       </c>
       <c r="J16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G16,BID)-H16)</f>
@@ -7674,10 +7671,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L16" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M16" s="44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N16" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7685,11 +7682,11 @@
       </c>
       <c r="O16" s="20">
         <f>'3M Pricing'!I16*100</f>
-        <v>0.13000000006645138</v>
+        <v>0.12500000000003694</v>
       </c>
       <c r="P16" s="20">
         <f t="shared" si="4"/>
-        <v>0.13000000006645138</v>
+        <v>0.12500000000003694</v>
       </c>
       <c r="Q16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N16,BID)-O16)</f>
@@ -7700,10 +7697,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S16" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T16" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U16" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7711,11 +7708,11 @@
       </c>
       <c r="V16" s="20">
         <f>'6M Pricing'!I16*100</f>
-        <v>0.17156750778773808</v>
+        <v>0.18459999999948207</v>
       </c>
       <c r="W16" s="20">
         <f t="shared" si="5"/>
-        <v>0.17156750778773808</v>
+        <v>0.18459999999948207</v>
       </c>
       <c r="X16" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U16,BID)-V16)</f>
@@ -7755,7 +7752,7 @@
     </row>
     <row r="17" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44" t="str">
@@ -7767,7 +7764,7 @@
         <v>stopped</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="19"/>
@@ -7776,10 +7773,10 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M17" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N17" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7787,11 +7784,11 @@
       </c>
       <c r="O17" s="20">
         <f>'3M Pricing'!I17*100</f>
-        <v>0.12500000000002384</v>
+        <v>0.12500000000001102</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" si="4"/>
-        <v>0.12500000000002384</v>
+        <v>0.12500000000001102</v>
       </c>
       <c r="Q17" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N17,BID)-O17)</f>
@@ -7802,10 +7799,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S17" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T17" s="44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U17" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7813,11 +7810,11 @@
       </c>
       <c r="V17" s="20">
         <f>'6M Pricing'!I17*100</f>
-        <v>0.17499999999977459</v>
+        <v>0.17499999999962076</v>
       </c>
       <c r="W17" s="20">
         <f t="shared" si="5"/>
-        <v>0.17499999999977459</v>
+        <v>0.17499999999962076</v>
       </c>
       <c r="X17" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U17,BID)-V17)</f>
@@ -7857,10 +7854,10 @@
     </row>
     <row r="18" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N18,Fields,O18:P18,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N18:P18,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7871,7 +7868,7 @@
         <v>stopped</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="19"/>
@@ -7880,10 +7877,10 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N18" s="19" t="str">
         <f t="shared" si="1"/>
@@ -7891,11 +7888,11 @@
       </c>
       <c r="O18" s="20">
         <f>'3M Pricing'!I18*100</f>
-        <v>0.12499999999997513</v>
+        <v>0.12500000005705963</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="4"/>
-        <v>0.12499999999997513</v>
+        <v>0.12500000005705963</v>
       </c>
       <c r="Q18" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N18,BID)-O18)</f>
@@ -7906,10 +7903,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S18" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T18" s="44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U18" s="19" t="str">
         <f t="shared" si="2"/>
@@ -7917,11 +7914,11 @@
       </c>
       <c r="V18" s="20">
         <f>'6M Pricing'!I18*100</f>
-        <v>0.16999999999923676</v>
+        <v>0.16999999999998755</v>
       </c>
       <c r="W18" s="20">
         <f t="shared" si="5"/>
-        <v>0.16999999999923676</v>
+        <v>0.16999999999998755</v>
       </c>
       <c r="X18" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U18,BID)-V18)</f>
@@ -7961,7 +7958,7 @@
     </row>
     <row r="19" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G19,Fields,H19:I19,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H19:I19,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -7976,10 +7973,10 @@
         <v>stopped</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G19" s="19" t="str">
         <f>Currency&amp;"ON"&amp;F19&amp;"="</f>
@@ -7987,11 +7984,11 @@
       </c>
       <c r="H19" s="20">
         <f>'ON Pricing'!I19*100</f>
-        <v>6.0000000000016575E-2</v>
+        <v>5.9999999999995973E-2</v>
       </c>
       <c r="I19" s="20">
         <f t="shared" si="3"/>
-        <v>6.0000000000016575E-2</v>
+        <v>5.9999999999995973E-2</v>
       </c>
       <c r="J19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G19,BID)-H19)</f>
@@ -8002,10 +7999,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L19" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N19" s="19" t="str">
         <f t="shared" si="1"/>
@@ -8028,10 +8025,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S19" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T19" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U19" s="19" t="str">
         <f t="shared" si="2"/>
@@ -8039,11 +8036,11 @@
       </c>
       <c r="V19" s="20">
         <f>'6M Pricing'!I19*100</f>
-        <v>0.17000000012136915</v>
+        <v>0.16999999999869805</v>
       </c>
       <c r="W19" s="20">
         <f t="shared" si="5"/>
-        <v>0.17000000012136915</v>
+        <v>0.16999999999869805</v>
       </c>
       <c r="X19" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U19,BID)-V19)</f>
@@ -8083,20 +8080,20 @@
     </row>
     <row r="20" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U20,Fields,V20:W20,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U20:W20,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
         <v>stopped</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="19"/>
@@ -8105,7 +8102,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M20" s="44"/>
       <c r="N20" s="19"/>
@@ -8114,10 +8111,10 @@
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
       <c r="S20" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T20" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U20" s="19" t="str">
         <f t="shared" si="2"/>
@@ -8125,11 +8122,11 @@
       </c>
       <c r="V20" s="20">
         <f>'6M Pricing'!I20*100</f>
-        <v>0.16999999999888346</v>
+        <v>0.16999999999844181</v>
       </c>
       <c r="W20" s="20">
         <f t="shared" si="5"/>
-        <v>0.16999999999888346</v>
+        <v>0.16999999999844181</v>
       </c>
       <c r="X20" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U20,BID)-V20)</f>
@@ -8169,20 +8166,20 @@
     </row>
     <row r="21" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,U21,Fields,V21:W21,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,U21:W21,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
         <v>stopped</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="19"/>
@@ -8191,7 +8188,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M21" s="44"/>
       <c r="N21" s="19"/>
@@ -8200,10 +8197,10 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T21" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U21" s="19" t="str">
         <f t="shared" si="2"/>
@@ -8211,11 +8208,11 @@
       </c>
       <c r="V21" s="20">
         <f>'6M Pricing'!I21*100</f>
-        <v>0.16499999999895079</v>
+        <v>0.16499999999864334</v>
       </c>
       <c r="W21" s="20">
         <f t="shared" si="5"/>
-        <v>0.16499999999895079</v>
+        <v>0.16499999999864334</v>
       </c>
       <c r="X21" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U21,BID)-V21)</f>
@@ -8255,7 +8252,7 @@
     </row>
     <row r="22" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G22,Fields,H22:I22,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H22:I22,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8270,10 +8267,10 @@
         <v>stopped</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G22" s="19" t="str">
         <f>Currency&amp;"ON"&amp;F22&amp;"="</f>
@@ -8281,11 +8278,11 @@
       </c>
       <c r="H22" s="20">
         <f>'ON Pricing'!I22*100</f>
-        <v>5.9999999999986814E-2</v>
+        <v>6.0000000000015596E-2</v>
       </c>
       <c r="I22" s="20">
         <f t="shared" si="3"/>
-        <v>5.9999999999986814E-2</v>
+        <v>6.0000000000015596E-2</v>
       </c>
       <c r="J22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G22,BID)-H22)</f>
@@ -8296,10 +8293,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L22" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M22" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N22" s="19" t="str">
         <f t="shared" ref="N22:N38" si="6">Currency&amp;"3M"&amp;M22&amp;"="</f>
@@ -8307,11 +8304,11 @@
       </c>
       <c r="O22" s="20">
         <f>'3M Pricing'!I22*100</f>
-        <v>0.11999999999999557</v>
+        <v>0.1200000000000834</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" si="4"/>
-        <v>0.11999999999999557</v>
+        <v>0.1200000000000834</v>
       </c>
       <c r="Q22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N22,BID)-O22)</f>
@@ -8322,10 +8319,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S22" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T22" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U22" s="19" t="str">
         <f t="shared" si="2"/>
@@ -8333,11 +8330,11 @@
       </c>
       <c r="V22" s="20">
         <f>'6M Pricing'!I22*100</f>
-        <v>0.16499999999731602</v>
+        <v>0.16499999999948001</v>
       </c>
       <c r="W22" s="20">
         <f t="shared" si="5"/>
-        <v>0.16499999999731602</v>
+        <v>0.16499999999948001</v>
       </c>
       <c r="X22" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U22,BID)-V22)</f>
@@ -8377,20 +8374,20 @@
     </row>
     <row r="23" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C23" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,N23,Fields,O23:P23,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,N23:P23,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
         <v>stopped</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="19"/>
@@ -8399,10 +8396,10 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N23" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8410,11 +8407,11 @@
       </c>
       <c r="O23" s="20">
         <f>'3M Pricing'!I23*100</f>
-        <v>0.11499999999997142</v>
+        <v>0.11500000000005831</v>
       </c>
       <c r="P23" s="20">
         <f t="shared" si="4"/>
-        <v>0.11499999999997142</v>
+        <v>0.11500000000005831</v>
       </c>
       <c r="Q23" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N23,BID)-O23)</f>
@@ -8425,7 +8422,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="S23" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T23" s="44"/>
       <c r="U23" s="19"/>
@@ -8463,7 +8460,7 @@
     </row>
     <row r="24" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G24,Fields,H24:I24,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H24:I24,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8478,10 +8475,10 @@
         <v>stopped</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G24" s="19" t="str">
         <f t="shared" ref="G24:G38" si="7">Currency&amp;"ON"&amp;F24&amp;"="</f>
@@ -8489,11 +8486,11 @@
       </c>
       <c r="H24" s="20">
         <f>'ON Pricing'!I24*100</f>
-        <v>5.9999999999991269E-2</v>
+        <v>6.0000000000001157E-2</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="3"/>
-        <v>5.9999999999991269E-2</v>
+        <v>6.0000000000001157E-2</v>
       </c>
       <c r="J24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G24,BID)-H24)</f>
@@ -8504,10 +8501,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L24" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M24" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N24" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8515,11 +8512,11 @@
       </c>
       <c r="O24" s="20">
         <f>'3M Pricing'!I24*100</f>
-        <v>0.12466872626720005</v>
+        <v>0.12201557427362905</v>
       </c>
       <c r="P24" s="20">
         <f t="shared" si="4"/>
-        <v>0.12466872626720005</v>
+        <v>0.12201557427362905</v>
       </c>
       <c r="Q24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N24,BID)-O24)</f>
@@ -8530,10 +8527,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S24" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T24" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U24" s="19" t="str">
         <f t="shared" ref="U24:U38" si="8">Currency&amp;"6M"&amp;T24&amp;"="</f>
@@ -8541,11 +8538,11 @@
       </c>
       <c r="V24" s="20">
         <f>'6M Pricing'!I24*100</f>
-        <v>0.17000000000001009</v>
+        <v>0.16999999999990031</v>
       </c>
       <c r="W24" s="20">
         <f t="shared" si="5"/>
-        <v>0.17000000000001009</v>
+        <v>0.16999999999990031</v>
       </c>
       <c r="X24" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U24,BID)-V24)</f>
@@ -8585,7 +8582,7 @@
     </row>
     <row r="25" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G25,Fields,H25:I25,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H25:I25,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8600,10 +8597,10 @@
         <v>stopped</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G25" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8611,11 +8608,11 @@
       </c>
       <c r="H25" s="20">
         <f>'ON Pricing'!I25*100</f>
-        <v>5.9999999999997569E-2</v>
+        <v>5.9999999999997292E-2</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="3"/>
-        <v>5.9999999999997569E-2</v>
+        <v>5.9999999999997292E-2</v>
       </c>
       <c r="J25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G25,BID)-H25)</f>
@@ -8626,10 +8623,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L25" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M25" s="44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N25" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8637,11 +8634,11 @@
       </c>
       <c r="O25" s="20">
         <f>'3M Pricing'!I25*100</f>
-        <v>0.12183668100508491</v>
+        <v>0.11933667989151994</v>
       </c>
       <c r="P25" s="20">
         <f t="shared" si="4"/>
-        <v>0.12183668100508491</v>
+        <v>0.11933667989151994</v>
       </c>
       <c r="Q25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N25,BID)-O25)</f>
@@ -8652,10 +8649,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S25" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T25" s="44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U25" s="19" t="str">
         <f t="shared" si="8"/>
@@ -8663,11 +8660,11 @@
       </c>
       <c r="V25" s="20">
         <f>'6M Pricing'!I25*100</f>
-        <v>0.17000000000000481</v>
+        <v>0.16749999999992549</v>
       </c>
       <c r="W25" s="20">
         <f t="shared" si="5"/>
-        <v>0.17000000000000481</v>
+        <v>0.16749999999992549</v>
       </c>
       <c r="X25" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U25,BID)-V25)</f>
@@ -8707,7 +8704,7 @@
     </row>
     <row r="26" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G26,Fields,H26:I26,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H26:I26,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8722,10 +8719,10 @@
         <v>stopped</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G26" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8733,11 +8730,11 @@
       </c>
       <c r="H26" s="20">
         <f>'ON Pricing'!I26*100</f>
-        <v>6.4999999999992369E-2</v>
+        <v>6.4999999999993008E-2</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="3"/>
-        <v>6.4999999999992369E-2</v>
+        <v>6.4999999999993008E-2</v>
       </c>
       <c r="J26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G26,BID)-H26)</f>
@@ -8748,10 +8745,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L26" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N26" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8759,11 +8756,11 @@
       </c>
       <c r="O26" s="20">
         <f>'3M Pricing'!I26*100</f>
-        <v>0.1217315454906757</v>
+        <v>0.11673154563884107</v>
       </c>
       <c r="P26" s="20">
         <f t="shared" si="4"/>
-        <v>0.1217315454906757</v>
+        <v>0.11673154563884107</v>
       </c>
       <c r="Q26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N26,BID)-O26)</f>
@@ -8774,10 +8771,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S26" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T26" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="U26" s="19" t="str">
         <f t="shared" si="8"/>
@@ -8785,11 +8782,11 @@
       </c>
       <c r="V26" s="20">
         <f>'6M Pricing'!I26*100</f>
-        <v>0.17750000000000457</v>
+        <v>0.17250000004334243</v>
       </c>
       <c r="W26" s="20">
         <f t="shared" si="5"/>
-        <v>0.17750000000000457</v>
+        <v>0.17250000004334243</v>
       </c>
       <c r="X26" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U26,BID)-V26)</f>
@@ -8829,7 +8826,7 @@
     </row>
     <row r="27" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G27,Fields,H27:I27,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H27:I27,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8844,10 +8841,10 @@
         <v>stopped</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8855,11 +8852,11 @@
       </c>
       <c r="H27" s="20">
         <f>'ON Pricing'!I27*100</f>
-        <v>7.2500000000007905E-2</v>
+        <v>7.2500000000001258E-2</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="3"/>
-        <v>7.2500000000007905E-2</v>
+        <v>7.2500000000001258E-2</v>
       </c>
       <c r="J27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G27,BID)-H27)</f>
@@ -8870,10 +8867,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L27" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N27" s="19" t="str">
         <f t="shared" si="6"/>
@@ -8881,11 +8878,11 @@
       </c>
       <c r="O27" s="20">
         <f>'3M Pricing'!I27*100</f>
-        <v>0.13909111352062209</v>
+        <v>0.13409110520231871</v>
       </c>
       <c r="P27" s="20">
         <f t="shared" si="4"/>
-        <v>0.13909111352062209</v>
+        <v>0.13409110520231871</v>
       </c>
       <c r="Q27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N27,BID)-O27)</f>
@@ -8896,10 +8893,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S27" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T27" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U27" s="19" t="str">
         <f t="shared" si="8"/>
@@ -8907,11 +8904,11 @@
       </c>
       <c r="V27" s="20">
         <f>'6M Pricing'!I27*100</f>
-        <v>0.20499999998052831</v>
+        <v>0.20000000001686477</v>
       </c>
       <c r="W27" s="20">
         <f t="shared" si="5"/>
-        <v>0.20499999998052831</v>
+        <v>0.20000000001686477</v>
       </c>
       <c r="X27" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U27,BID)-V27)</f>
@@ -8951,7 +8948,7 @@
     </row>
     <row r="28" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G28,Fields,H28:I28,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H28:I28,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -8966,10 +8963,10 @@
         <v>stopped</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G28" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8977,11 +8974,11 @@
       </c>
       <c r="H28" s="20">
         <f>'ON Pricing'!I28*100</f>
-        <v>9.4999999999995213E-2</v>
+        <v>9.4999999999998225E-2</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="3"/>
-        <v>9.4999999999995213E-2</v>
+        <v>9.4999999999998225E-2</v>
       </c>
       <c r="J28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G28,BID)-H28)</f>
@@ -8992,10 +8989,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L28" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M28" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N28" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9003,11 +9000,11 @@
       </c>
       <c r="O28" s="20">
         <f>'3M Pricing'!I28*100</f>
-        <v>0.1789488452395645</v>
+        <v>0.17394884166472244</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="4"/>
-        <v>0.1789488452395645</v>
+        <v>0.17394884166472244</v>
       </c>
       <c r="Q28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N28,BID)-O28)</f>
@@ -9018,10 +9015,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S28" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T28" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U28" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9029,11 +9026,11 @@
       </c>
       <c r="V28" s="20">
         <f>'6M Pricing'!I28*100</f>
-        <v>0.25500000000002099</v>
+        <v>0.25000000000000694</v>
       </c>
       <c r="W28" s="20">
         <f t="shared" si="5"/>
-        <v>0.25500000000002099</v>
+        <v>0.25000000000000694</v>
       </c>
       <c r="X28" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U28,BID)-V28)</f>
@@ -9073,7 +9070,7 @@
     </row>
     <row r="29" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G29,Fields,H29:I29,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H29:I29,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9088,10 +9085,10 @@
         <v>stopped</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9099,11 +9096,11 @@
       </c>
       <c r="H29" s="20">
         <f>'ON Pricing'!I29*100</f>
-        <v>0.1425000000000054</v>
+        <v>0.14249999999999727</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="3"/>
-        <v>0.1425000000000054</v>
+        <v>0.14249999999999727</v>
       </c>
       <c r="J29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G29,BID)-H29)</f>
@@ -9114,10 +9111,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L29" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M29" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N29" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9125,11 +9122,11 @@
       </c>
       <c r="O29" s="20">
         <f>'3M Pricing'!I29*100</f>
-        <v>0.23880309928379931</v>
+        <v>0.2338031466297309</v>
       </c>
       <c r="P29" s="20">
         <f t="shared" si="4"/>
-        <v>0.23880309928379931</v>
+        <v>0.2338031466297309</v>
       </c>
       <c r="Q29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N29,BID)-O29)</f>
@@ -9140,10 +9137,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S29" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T29" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="U29" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9151,11 +9148,11 @@
       </c>
       <c r="V29" s="20">
         <f>'6M Pricing'!I29*100</f>
-        <v>0.32500000000005669</v>
+        <v>0.32000000000003248</v>
       </c>
       <c r="W29" s="20">
         <f t="shared" si="5"/>
-        <v>0.32500000000005669</v>
+        <v>0.32000000000003248</v>
       </c>
       <c r="X29" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U29,BID)-V29)</f>
@@ -9195,7 +9192,7 @@
     </row>
     <row r="30" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G30,Fields,H30:I30,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H30:I30,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9210,10 +9207,10 @@
         <v>stopped</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G30" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9221,11 +9218,11 @@
       </c>
       <c r="H30" s="20">
         <f>'ON Pricing'!I30*100</f>
-        <v>0.20750000000000576</v>
+        <v>0.20749999999999866</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="3"/>
-        <v>0.20750000000000576</v>
+        <v>0.20749999999999866</v>
       </c>
       <c r="J30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G30,BID)-H30)</f>
@@ -9236,10 +9233,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L30" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M30" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N30" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9247,11 +9244,11 @@
       </c>
       <c r="O30" s="20">
         <f>'3M Pricing'!I30*100</f>
-        <v>0.31368968737145358</v>
+        <v>0.30868971388516775</v>
       </c>
       <c r="P30" s="20">
         <f t="shared" si="4"/>
-        <v>0.31368968737145358</v>
+        <v>0.30868971388516775</v>
       </c>
       <c r="Q30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N30,BID)-O30)</f>
@@ -9262,10 +9259,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S30" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T30" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U30" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9273,11 +9270,11 @@
       </c>
       <c r="V30" s="20">
         <f>'6M Pricing'!I30*100</f>
-        <v>0.40749999998895975</v>
+        <v>0.4025000000000431</v>
       </c>
       <c r="W30" s="20">
         <f t="shared" si="5"/>
-        <v>0.40749999998895975</v>
+        <v>0.4025000000000431</v>
       </c>
       <c r="X30" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U30,BID)-V30)</f>
@@ -9317,7 +9314,7 @@
     </row>
     <row r="31" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G31,Fields,H31:I31,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H31:I31,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9332,10 +9329,10 @@
         <v>stopped</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G31" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9343,11 +9340,11 @@
       </c>
       <c r="H31" s="20">
         <f>'ON Pricing'!I31*100</f>
-        <v>0.27499999999999913</v>
+        <v>0.2749999999999958</v>
       </c>
       <c r="I31" s="20">
         <f t="shared" si="3"/>
-        <v>0.27499999999999913</v>
+        <v>0.2749999999999958</v>
       </c>
       <c r="J31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G31,BID)-H31)</f>
@@ -9358,10 +9355,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L31" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M31" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N31" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9369,11 +9366,11 @@
       </c>
       <c r="O31" s="20">
         <f>'3M Pricing'!I31*100</f>
-        <v>0.39607480700405134</v>
+        <v>0.39107479399517814</v>
       </c>
       <c r="P31" s="20">
         <f t="shared" si="4"/>
-        <v>0.39607480700405134</v>
+        <v>0.39107479399517814</v>
       </c>
       <c r="Q31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N31,BID)-O31)</f>
@@ -9384,10 +9381,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S31" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T31" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U31" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9395,11 +9392,11 @@
       </c>
       <c r="V31" s="20">
         <f>'6M Pricing'!I31*100</f>
-        <v>0.49750000000010314</v>
+        <v>0.49250000000008581</v>
       </c>
       <c r="W31" s="20">
         <f t="shared" si="5"/>
-        <v>0.49750000000010314</v>
+        <v>0.49250000000008581</v>
       </c>
       <c r="X31" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U31,BID)-V31)</f>
@@ -9439,7 +9436,7 @@
     </row>
     <row r="32" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G32,Fields,H32:I32,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H32:I32,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9454,10 +9451,10 @@
         <v>stopped</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G32" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9465,11 +9462,11 @@
       </c>
       <c r="H32" s="20">
         <f>'ON Pricing'!I32*100</f>
-        <v>0.34750000000000092</v>
+        <v>0.34749999999999504</v>
       </c>
       <c r="I32" s="20">
         <f t="shared" si="3"/>
-        <v>0.34750000000000092</v>
+        <v>0.34749999999999504</v>
       </c>
       <c r="J32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G32,BID)-H32)</f>
@@ -9480,10 +9477,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L32" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M32" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N32" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9491,11 +9488,11 @@
       </c>
       <c r="O32" s="20">
         <f>'3M Pricing'!I32*100</f>
-        <v>0.47842205594920667</v>
+        <v>0.47342205662928538</v>
       </c>
       <c r="P32" s="20">
         <f t="shared" si="4"/>
-        <v>0.47842205594920667</v>
+        <v>0.47342205662928538</v>
       </c>
       <c r="Q32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N32,BID)-O32)</f>
@@ -9506,10 +9503,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S32" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T32" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U32" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9517,11 +9514,11 @@
       </c>
       <c r="V32" s="20">
         <f>'6M Pricing'!I32*100</f>
-        <v>0.59000000000005115</v>
+        <v>0.58500000000001784</v>
       </c>
       <c r="W32" s="20">
         <f t="shared" si="5"/>
-        <v>0.59000000000005115</v>
+        <v>0.58500000000001784</v>
       </c>
       <c r="X32" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U32,BID)-V32)</f>
@@ -9561,7 +9558,7 @@
     </row>
     <row r="33" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G33,Fields,H33:I33,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H33:I33,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9576,10 +9573,10 @@
         <v>stopped</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9587,11 +9584,11 @@
       </c>
       <c r="H33" s="20">
         <f>'ON Pricing'!I33*100</f>
-        <v>0.42250000000000554</v>
+        <v>0.4225000000000011</v>
       </c>
       <c r="I33" s="20">
         <f t="shared" si="3"/>
-        <v>0.42250000000000554</v>
+        <v>0.4225000000000011</v>
       </c>
       <c r="J33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G33,BID)-H33)</f>
@@ -9602,10 +9599,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L33" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M33" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N33" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9613,11 +9610,11 @@
       </c>
       <c r="O33" s="20">
         <f>'3M Pricing'!I33*100</f>
-        <v>0.56580312879349703</v>
+        <v>0.56080311248876802</v>
       </c>
       <c r="P33" s="20">
         <f t="shared" si="4"/>
-        <v>0.56580312879349703</v>
+        <v>0.56080311248876802</v>
       </c>
       <c r="Q33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N33,BID)-O33)</f>
@@ -9628,10 +9625,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S33" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T33" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U33" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9639,11 +9636,11 @@
       </c>
       <c r="V33" s="20">
         <f>'6M Pricing'!I33*100</f>
-        <v>0.68500000000006789</v>
+        <v>0.68000000000005778</v>
       </c>
       <c r="W33" s="20">
         <f t="shared" si="5"/>
-        <v>0.68500000000006789</v>
+        <v>0.68000000000005778</v>
       </c>
       <c r="X33" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U33,BID)-V33)</f>
@@ -9683,7 +9680,7 @@
     </row>
     <row r="34" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G34,Fields,H34:I34,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H34:I34,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9698,10 +9695,10 @@
         <v>stopped</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9709,11 +9706,11 @@
       </c>
       <c r="H34" s="20">
         <f>'ON Pricing'!I34*100</f>
-        <v>0.59000000000000674</v>
+        <v>0.58999999999999642</v>
       </c>
       <c r="I34" s="20">
         <f t="shared" si="3"/>
-        <v>0.59000000000000674</v>
+        <v>0.58999999999999642</v>
       </c>
       <c r="J34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G34,BID)-H34)</f>
@@ -9724,10 +9721,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L34" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M34" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N34" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9735,11 +9732,11 @@
       </c>
       <c r="O34" s="20">
         <f>'3M Pricing'!I34*100</f>
-        <v>0.74629029575319861</v>
+        <v>0.74119372952541807</v>
       </c>
       <c r="P34" s="20">
         <f t="shared" si="4"/>
-        <v>0.74629029575319861</v>
+        <v>0.74119372952541807</v>
       </c>
       <c r="Q34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N34,BID)-O34)</f>
@@ -9750,10 +9747,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S34" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T34" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U34" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9761,11 +9758,11 @@
       </c>
       <c r="V34" s="20">
         <f>'6M Pricing'!I34*100</f>
-        <v>0.87250000000028438</v>
+        <v>0.86750000000024052</v>
       </c>
       <c r="W34" s="20">
         <f t="shared" si="5"/>
-        <v>0.87250000000028438</v>
+        <v>0.86750000000024052</v>
       </c>
       <c r="X34" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U34,BID)-V34)</f>
@@ -9805,7 +9802,7 @@
     </row>
     <row r="35" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G35,Fields,H35:I35,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H35:I35,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9820,10 +9817,10 @@
         <v>stopped</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G35" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9831,11 +9828,11 @@
       </c>
       <c r="H35" s="20">
         <f>'ON Pricing'!I35*100</f>
-        <v>0.84999999999999987</v>
+        <v>0.85000000000000286</v>
       </c>
       <c r="I35" s="20">
         <f t="shared" si="3"/>
-        <v>0.84999999999999987</v>
+        <v>0.85000000000000286</v>
       </c>
       <c r="J35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G35,BID)-H35)</f>
@@ -9846,10 +9843,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L35" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M35" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N35" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9857,11 +9854,11 @@
       </c>
       <c r="O35" s="20">
         <f>'3M Pricing'!I35*100</f>
-        <v>1.0004771232663732</v>
+        <v>0.99797704986467761</v>
       </c>
       <c r="P35" s="20">
         <f t="shared" si="4"/>
-        <v>1.0004771232663732</v>
+        <v>0.99797704986467761</v>
       </c>
       <c r="Q35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N35,BID)-O35)</f>
@@ -9872,10 +9869,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S35" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T35" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U35" s="19" t="str">
         <f t="shared" si="8"/>
@@ -9883,11 +9880,11 @@
       </c>
       <c r="V35" s="20">
         <f>'6M Pricing'!I35*100</f>
-        <v>1.137500000003197</v>
+        <v>1.135000000003336</v>
       </c>
       <c r="W35" s="20">
         <f t="shared" si="5"/>
-        <v>1.137500000003197</v>
+        <v>1.135000000003336</v>
       </c>
       <c r="X35" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U35,BID)-V35)</f>
@@ -9927,7 +9924,7 @@
     </row>
     <row r="36" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G36,Fields,H36:I36,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H36:I36,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -9942,10 +9939,10 @@
         <v>stopped</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G36" s="19" t="str">
         <f t="shared" si="7"/>
@@ -9953,11 +9950,11 @@
       </c>
       <c r="H36" s="20">
         <f>'ON Pricing'!I36*100</f>
-        <v>1.1749999999999967</v>
+        <v>1.1750000000000063</v>
       </c>
       <c r="I36" s="20">
         <f t="shared" si="3"/>
-        <v>1.1749999999999967</v>
+        <v>1.1750000000000063</v>
       </c>
       <c r="J36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G36,BID)-H36)</f>
@@ -9968,10 +9965,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L36" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M36" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N36" s="19" t="str">
         <f t="shared" si="6"/>
@@ -9979,11 +9976,11 @@
       </c>
       <c r="O36" s="20">
         <f>'3M Pricing'!I36*100</f>
-        <v>1.3228840645289823</v>
+        <v>1.3203840593142937</v>
       </c>
       <c r="P36" s="20">
         <f t="shared" si="4"/>
-        <v>1.3228840645289823</v>
+        <v>1.3203840593142937</v>
       </c>
       <c r="Q36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N36,BID)-O36)</f>
@@ -9994,10 +9991,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S36" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T36" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U36" s="19" t="str">
         <f t="shared" si="8"/>
@@ -10005,11 +10002,11 @@
       </c>
       <c r="V36" s="20">
         <f>'6M Pricing'!I36*100</f>
-        <v>1.4625000000050035</v>
+        <v>1.4600000000050402</v>
       </c>
       <c r="W36" s="20">
         <f t="shared" si="5"/>
-        <v>1.4625000000050035</v>
+        <v>1.4600000000050402</v>
       </c>
       <c r="X36" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U36,BID)-V36)</f>
@@ -10049,7 +10046,7 @@
     </row>
     <row r="37" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="44" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G37,Fields,H37:I37,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H37:I37,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -10064,10 +10061,10 @@
         <v>stopped</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G37" s="19" t="str">
         <f t="shared" si="7"/>
@@ -10075,11 +10072,11 @@
       </c>
       <c r="H37" s="20">
         <f>'ON Pricing'!I37*100</f>
-        <v>1.3375000000000021</v>
+        <v>1.3375000000000024</v>
       </c>
       <c r="I37" s="20">
         <f t="shared" si="3"/>
-        <v>1.3375000000000021</v>
+        <v>1.3375000000000024</v>
       </c>
       <c r="J37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G37,BID)-H37)</f>
@@ -10090,10 +10087,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L37" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M37" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N37" s="19" t="str">
         <f t="shared" si="6"/>
@@ -10101,11 +10098,11 @@
       </c>
       <c r="O37" s="20">
         <f>'3M Pricing'!I37*100</f>
-        <v>1.4968138947167944</v>
+        <v>1.4942782244814254</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="4"/>
-        <v>1.4968138947167944</v>
+        <v>1.4942782244814254</v>
       </c>
       <c r="Q37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N37,BID)-O37)</f>
@@ -10116,10 +10113,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S37" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T37" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U37" s="19" t="str">
         <f t="shared" si="8"/>
@@ -10127,11 +10124,11 @@
       </c>
       <c r="V37" s="20">
         <f>'6M Pricing'!I37*100</f>
-        <v>1.6349999999993154</v>
+        <v>1.6349999999991431</v>
       </c>
       <c r="W37" s="20">
         <f t="shared" si="5"/>
-        <v>1.6349999999993154</v>
+        <v>1.6349999999991431</v>
       </c>
       <c r="X37" s="20" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U37,BID)-V37)</f>
@@ -10171,7 +10168,7 @@
     </row>
     <row r="38" spans="1:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="45" t="str">
         <f>IF(Contribute="abcd",IF($G$1&lt;&gt;-1,_xll.RtContribute(SourceAlias,G38,Fields,H38:I38,"SCOPE:SERVER"),_xll.RtContribute(SourceAlias,"DDS_INSERT_S",$G$1:$I$1,H38:I38,"SCOPE:SERVER FTC:ALL")),"stopped")</f>
@@ -10186,10 +10183,10 @@
         <v>stopped</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" s="21" t="str">
         <f t="shared" si="7"/>
@@ -10197,11 +10194,11 @@
       </c>
       <c r="H38" s="22">
         <f>'ON Pricing'!I38*100</f>
-        <v>1.4375000000000016</v>
+        <v>1.4374999999999993</v>
       </c>
       <c r="I38" s="22">
         <f t="shared" si="3"/>
-        <v>1.4375000000000016</v>
+        <v>1.4374999999999993</v>
       </c>
       <c r="J38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$G38,BID)-H38)</f>
@@ -10212,10 +10209,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="L38" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M38" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N38" s="21" t="str">
         <f t="shared" si="6"/>
@@ -10223,11 +10220,11 @@
       </c>
       <c r="O38" s="22">
         <f>'3M Pricing'!I38*100</f>
-        <v>1.5952609078236764</v>
+        <v>1.5927608937148963</v>
       </c>
       <c r="P38" s="22">
         <f t="shared" si="4"/>
-        <v>1.5952609078236764</v>
+        <v>1.5927608937148963</v>
       </c>
       <c r="Q38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$N38,BID)-O38)</f>
@@ -10238,10 +10235,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S38" s="89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T38" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U38" s="21" t="str">
         <f t="shared" si="8"/>
@@ -10249,11 +10246,11 @@
       </c>
       <c r="V38" s="22">
         <f>'6M Pricing'!I38*100</f>
-        <v>1.7399999999999995</v>
+        <v>1.7375000000000029</v>
       </c>
       <c r="W38" s="22">
         <f t="shared" si="5"/>
-        <v>1.7399999999999995</v>
+        <v>1.7375000000000029</v>
       </c>
       <c r="X38" s="22" t="e">
         <f>ABS(_xll.RtGet(SourceAlias,$U38,BID)-V38)</f>
@@ -13602,7 +13599,7 @@
   <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -13630,8 +13627,12 @@
       <c r="B1" s="2"/>
       <c r="C1" s="133"/>
       <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="E1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>19</v>
+      </c>
       <c r="G1" s="133"/>
       <c r="H1" s="133"/>
       <c r="I1" s="133"/>
@@ -13658,19 +13659,15 @@
       <c r="B2" s="2"/>
       <c r="C2" s="133"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="39" t="str">
+      <c r="E2" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="39" t="str">
         <f>Currency&amp;CurveTenor</f>
         <v>JPYON</v>
       </c>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
       <c r="K2" s="135"/>
@@ -13724,29 +13721,29 @@
       <c r="C4" s="133"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>127</v>
-      </c>
       <c r="K4" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" s="137"/>
       <c r="M4" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N4" s="89"/>
       <c r="O4" s="89"/>
@@ -13767,38 +13764,36 @@
       <c r="B5" s="2"/>
       <c r="C5" s="133"/>
       <c r="D5" s="53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="98">
         <f t="shared" ref="F5" si="0">EvaluationDate</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G5" s="98">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,F5)</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="H5" s="98">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,G5)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="I5" s="99">
         <f>_xll.qlIndexFixing(OvernightIndex,F5,TRUE,InterestRatesTrigger)</f>
-        <v>6.4355657782511067E-4</v>
+        <v>6.4130114298399654E-4</v>
       </c>
       <c r="J5" s="86" t="str">
         <f>Contribution!G5</f>
         <v>JPYONOND=</v>
       </c>
-      <c r="K5" s="130" t="s">
-        <v>133</v>
-      </c>
+      <c r="K5" s="130"/>
       <c r="L5" s="137"/>
       <c r="M5" s="104" t="str">
-        <f>_xll.qlOvernightIndex(,"Tonar",0,Currency,Calendar1,"Actual/365 (Fixed)",YieldCurve,,Trigger)</f>
-        <v>obj_00486#0000</v>
+        <f>_xll.qlOvernightIndex(,"Tonar",0,Currency,LocalCalendar,"Actual/365 (Fixed)",YieldCurve,,Trigger)</f>
+        <v>obj_00486#0002</v>
       </c>
       <c r="N5" s="89"/>
       <c r="O5" s="89"/>
@@ -13819,26 +13814,26 @@
       <c r="B6" s="2"/>
       <c r="C6" s="133"/>
       <c r="D6" s="56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="101">
         <f>H5</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="G6" s="101">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,F6)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="H6" s="101">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,G6)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="I6" s="100">
         <f>_xll.qlIndexFixing(OvernightIndex,F6,TRUE,InterestRatesTrigger)</f>
-        <v>6.4358987342028051E-4</v>
+        <v>6.4142808890739944E-4</v>
       </c>
       <c r="J6" s="86" t="str">
         <f>Contribution!G6</f>
@@ -13866,26 +13861,26 @@
       <c r="B7" s="2"/>
       <c r="C7" s="133"/>
       <c r="D7" s="58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="102">
         <f>H6</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="G7" s="102">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,F7)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H7" s="102">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,G7)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
       <c r="I7" s="103">
         <f>_xll.qlIndexFixing(OvernightIndex,F7,TRUE,InterestRatesTrigger)</f>
-        <v>6.4376858568341677E-4</v>
+        <v>6.4167859926023141E-4</v>
       </c>
       <c r="J7" s="86" t="str">
         <f>Contribution!G7</f>
@@ -13894,7 +13889,7 @@
       <c r="K7" s="86"/>
       <c r="L7" s="137"/>
       <c r="M7" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="89"/>
       <c r="O7" s="89"/>
@@ -13915,23 +13910,23 @@
       <c r="B8" s="2"/>
       <c r="C8" s="133"/>
       <c r="D8" s="56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="101"/>
       <c r="G8" s="101">
         <f>_xll.qlSwapStartDate(M8)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H8" s="101">
         <f>_xll.qlSwapMaturityDate(M8)</f>
-        <v>41838</v>
+        <v>41842</v>
       </c>
       <c r="I8" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M8,InterestRatesTrigger)</f>
-        <v>6.4412601390308384E-4</v>
+        <v>6.4260732683743538E-4</v>
       </c>
       <c r="J8" s="87" t="str">
         <f>Contribution!G8</f>
@@ -13941,7 +13936,7 @@
       <c r="L8" s="137"/>
       <c r="M8" s="56" t="str">
         <f>_xll.qlMakeOIS(,"1W",OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0049b#0000</v>
+        <v>obj_0049b#0002</v>
       </c>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
@@ -13962,23 +13957,23 @@
       <c r="B9" s="2"/>
       <c r="C9" s="133"/>
       <c r="D9" s="56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="101"/>
       <c r="G9" s="101">
         <f>_xll.qlSwapStartDate(M9)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H9" s="101">
         <f>_xll.qlSwapMaturityDate(M9)</f>
-        <v>41845</v>
+        <v>41848</v>
       </c>
       <c r="I9" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M9,InterestRatesTrigger)</f>
-        <v>6.4517882931769421E-4</v>
+        <v>6.438941016725534E-4</v>
       </c>
       <c r="J9" s="86" t="str">
         <f>Contribution!G9</f>
@@ -13988,7 +13983,7 @@
       <c r="L9" s="137"/>
       <c r="M9" s="56" t="str">
         <f>_xll.qlMakeOIS(,D9,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0048b#0000</v>
+        <v>obj_00495#0002</v>
       </c>
       <c r="N9" s="89"/>
       <c r="O9" s="89"/>
@@ -14009,23 +14004,23 @@
       <c r="B10" s="2"/>
       <c r="C10" s="133"/>
       <c r="D10" s="56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="101"/>
       <c r="G10" s="101">
         <f>_xll.qlSwapStartDate(M10)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H10" s="101">
         <f>_xll.qlSwapMaturityDate(M10)</f>
-        <v>41852</v>
+        <v>41855</v>
       </c>
       <c r="I10" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M10,InterestRatesTrigger)</f>
-        <v>6.4677551893295372E-4</v>
+        <v>6.4596786906385387E-4</v>
       </c>
       <c r="J10" s="86" t="str">
         <f>Contribution!G10</f>
@@ -14035,7 +14030,7 @@
       <c r="L10" s="137"/>
       <c r="M10" s="56" t="str">
         <f>_xll.qlMakeOIS(,D10,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00491#0000</v>
+        <v>obj_0048c#0002</v>
       </c>
       <c r="N10" s="89"/>
       <c r="O10" s="89"/>
@@ -14056,23 +14051,23 @@
       <c r="B11" s="2"/>
       <c r="C11" s="133"/>
       <c r="D11" s="56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" s="101"/>
       <c r="G11" s="101">
         <f>_xll.qlSwapStartDate(M11)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H11" s="101">
         <f>_xll.qlSwapMaturityDate(M11)</f>
-        <v>41862</v>
+        <v>41865</v>
       </c>
       <c r="I11" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M11,InterestRatesTrigger)</f>
-        <v>6.4999999999716728E-4</v>
+        <v>6.499999999997815E-4</v>
       </c>
       <c r="J11" s="86" t="str">
         <f>Contribution!G11</f>
@@ -14085,7 +14080,7 @@
       <c r="L11" s="137"/>
       <c r="M11" s="56" t="str">
         <f>_xll.qlMakeOIS(,D11,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00494#0000</v>
+        <v>obj_0048b#0002</v>
       </c>
       <c r="N11" s="89"/>
       <c r="O11" s="89"/>
@@ -14106,23 +14101,23 @@
       <c r="B12" s="2"/>
       <c r="C12" s="133"/>
       <c r="D12" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="101"/>
       <c r="G12" s="101">
         <f>_xll.qlSwapStartDate(M12)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H12" s="101">
         <f>_xll.qlSwapMaturityDate(M12)</f>
-        <v>41893</v>
+        <v>41898</v>
       </c>
       <c r="I12" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M12,InterestRatesTrigger)</f>
-        <v>6.4999999999978161E-4</v>
+        <v>6.4999999999990424E-4</v>
       </c>
       <c r="J12" s="86" t="str">
         <f>Contribution!G12</f>
@@ -14135,7 +14130,7 @@
       <c r="L12" s="137"/>
       <c r="M12" s="56" t="str">
         <f>_xll.qlMakeOIS(,D12,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00489#0000</v>
+        <v>obj_00492#0002</v>
       </c>
       <c r="N12" s="89"/>
       <c r="O12" s="89"/>
@@ -14156,15 +14151,15 @@
       <c r="B13" s="2"/>
       <c r="C13" s="133"/>
       <c r="D13" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="101"/>
       <c r="G13" s="101">
         <f>_xll.qlSwapStartDate(M13)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H13" s="101">
         <f>_xll.qlSwapMaturityDate(M13)</f>
@@ -14172,7 +14167,7 @@
       </c>
       <c r="I13" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M13,InterestRatesTrigger)</f>
-        <v>6.2499999999960699E-4</v>
+        <v>6.249999999992916E-4</v>
       </c>
       <c r="J13" s="86" t="str">
         <f>Contribution!G13</f>
@@ -14185,7 +14180,7 @@
       <c r="L13" s="137"/>
       <c r="M13" s="56" t="str">
         <f>_xll.qlMakeOIS(,D13,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0048f#0000</v>
+        <v>obj_00493#0002</v>
       </c>
       <c r="N13" s="89"/>
       <c r="O13" s="89"/>
@@ -14206,23 +14201,23 @@
       <c r="B14" s="2"/>
       <c r="C14" s="133"/>
       <c r="D14" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="101"/>
       <c r="G14" s="101">
         <f>_xll.qlSwapStartDate(M14)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H14" s="101">
         <f>_xll.qlSwapMaturityDate(M14)</f>
-        <v>41954</v>
+        <v>41957</v>
       </c>
       <c r="I14" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M14,InterestRatesTrigger)</f>
-        <v>6.2499999999939188E-4</v>
+        <v>6.2500000000005075E-4</v>
       </c>
       <c r="J14" s="86" t="str">
         <f>Contribution!G14</f>
@@ -14235,7 +14230,7 @@
       <c r="L14" s="137"/>
       <c r="M14" s="56" t="str">
         <f>_xll.qlMakeOIS(,D14,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00488#0000</v>
+        <v>obj_00491#0002</v>
       </c>
       <c r="N14" s="89"/>
       <c r="O14" s="89"/>
@@ -14256,23 +14251,23 @@
       <c r="B15" s="2"/>
       <c r="C15" s="133"/>
       <c r="D15" s="56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="101"/>
       <c r="G15" s="101">
         <f>_xll.qlSwapStartDate(M15)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H15" s="101">
         <f>_xll.qlSwapMaturityDate(M15)</f>
-        <v>41984</v>
+        <v>41988</v>
       </c>
       <c r="I15" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M15,InterestRatesTrigger)</f>
-        <v>6.2500000000027041E-4</v>
+        <v>6.249999999999779E-4</v>
       </c>
       <c r="J15" s="86" t="str">
         <f>Contribution!G15</f>
@@ -14285,7 +14280,7 @@
       <c r="L15" s="137"/>
       <c r="M15" s="56" t="str">
         <f>_xll.qlMakeOIS(,D15,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_00490#0000</v>
+        <v>obj_00494#0002</v>
       </c>
       <c r="N15" s="89"/>
       <c r="O15" s="89"/>
@@ -14306,23 +14301,23 @@
       <c r="B16" s="2"/>
       <c r="C16" s="133"/>
       <c r="D16" s="56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16" s="101"/>
       <c r="G16" s="101">
         <f>_xll.qlSwapStartDate(M16)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H16" s="101">
         <f>_xll.qlSwapMaturityDate(M16)</f>
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="I16" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M16,InterestRatesTrigger)</f>
-        <v>6.0000000000003312E-4</v>
+        <v>6.0000000000016551E-4</v>
       </c>
       <c r="J16" s="86" t="str">
         <f>Contribution!G16</f>
@@ -14335,7 +14330,7 @@
       <c r="L16" s="137"/>
       <c r="M16" s="56" t="str">
         <f>_xll.qlMakeOIS(,D16,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a3#0000</v>
+        <v>obj_004a7#0002</v>
       </c>
       <c r="N16" s="89"/>
       <c r="O16" s="89"/>
@@ -14356,30 +14351,30 @@
       <c r="B17" s="2"/>
       <c r="C17" s="133"/>
       <c r="D17" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="101"/>
       <c r="G17" s="101">
         <f>_xll.qlSwapStartDate(M17)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H17" s="101">
         <f>_xll.qlSwapMaturityDate(M17)</f>
-        <v>42047</v>
+        <v>42051</v>
       </c>
       <c r="I17" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M17,InterestRatesTrigger)</f>
-        <v>5.9207864414939236E-4</v>
+        <v>5.911478545951069E-4</v>
       </c>
       <c r="J17" s="86"/>
       <c r="K17" s="86"/>
       <c r="L17" s="137"/>
       <c r="M17" s="56" t="str">
         <f>_xll.qlMakeOIS(,D17,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a7#0000</v>
+        <v>obj_004a5#0002</v>
       </c>
       <c r="N17" s="89"/>
       <c r="O17" s="89"/>
@@ -14400,30 +14395,30 @@
       <c r="B18" s="2"/>
       <c r="C18" s="133"/>
       <c r="D18" s="56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="101"/>
       <c r="G18" s="101">
         <f>_xll.qlSwapStartDate(M18)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H18" s="101">
         <f>_xll.qlSwapMaturityDate(M18)</f>
-        <v>42074</v>
+        <v>42079</v>
       </c>
       <c r="I18" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M18,InterestRatesTrigger)</f>
-        <v>5.9476978383267854E-4</v>
+        <v>5.9490889697398879E-4</v>
       </c>
       <c r="J18" s="86"/>
       <c r="K18" s="86"/>
       <c r="L18" s="137"/>
       <c r="M18" s="56" t="str">
         <f>_xll.qlMakeOIS(,D18,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004b3#0000</v>
+        <v>obj_004a9#0002</v>
       </c>
       <c r="N18" s="89"/>
       <c r="O18" s="89"/>
@@ -14444,23 +14439,23 @@
       <c r="B19" s="2"/>
       <c r="C19" s="133"/>
       <c r="D19" s="56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="101"/>
       <c r="G19" s="101">
         <f>_xll.qlSwapStartDate(M19)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H19" s="101">
         <f>_xll.qlSwapMaturityDate(M19)</f>
-        <v>42107</v>
+        <v>42108</v>
       </c>
       <c r="I19" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M19,InterestRatesTrigger)</f>
-        <v>6.0000000000016572E-4</v>
+        <v>5.9999999999995972E-4</v>
       </c>
       <c r="J19" s="86" t="str">
         <f>Contribution!G19</f>
@@ -14473,7 +14468,7 @@
       <c r="L19" s="137"/>
       <c r="M19" s="56" t="str">
         <f>_xll.qlMakeOIS(,D19,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004ae#0000</v>
+        <v>obj_004ad#0002</v>
       </c>
       <c r="N19" s="89"/>
       <c r="O19" s="89"/>
@@ -14494,30 +14489,30 @@
       <c r="B20" s="2"/>
       <c r="C20" s="133"/>
       <c r="D20" s="56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="101"/>
       <c r="G20" s="101">
         <f>_xll.qlSwapStartDate(M20)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H20" s="101">
         <f>_xll.qlSwapMaturityDate(M20)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="I20" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M20,InterestRatesTrigger)</f>
-        <v>6.0151927079952518E-4</v>
+        <v>6.0172230943273796E-4</v>
       </c>
       <c r="J20" s="86"/>
       <c r="K20" s="86"/>
       <c r="L20" s="137"/>
       <c r="M20" s="56" t="str">
         <f>_xll.qlMakeOIS(,D20,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a9#0000</v>
+        <v>obj_0049e#0002</v>
       </c>
       <c r="N20" s="89"/>
       <c r="O20" s="89"/>
@@ -14538,30 +14533,30 @@
       <c r="B21" s="2"/>
       <c r="C21" s="133"/>
       <c r="D21" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="101"/>
       <c r="G21" s="101">
         <f>_xll.qlSwapStartDate(M21)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H21" s="101">
         <f>_xll.qlSwapMaturityDate(M21)</f>
-        <v>42166</v>
+        <v>42170</v>
       </c>
       <c r="I21" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M21,InterestRatesTrigger)</f>
-        <v>6.0101313862458714E-4</v>
+        <v>6.0103212682061623E-4</v>
       </c>
       <c r="J21" s="86"/>
       <c r="K21" s="86"/>
       <c r="L21" s="137"/>
       <c r="M21" s="56" t="str">
         <f>_xll.qlMakeOIS(,D21,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004b2#0000</v>
+        <v>obj_004a6#0002</v>
       </c>
       <c r="N21" s="89"/>
       <c r="O21" s="89"/>
@@ -14582,23 +14577,23 @@
       <c r="B22" s="2"/>
       <c r="C22" s="133"/>
       <c r="D22" s="56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="101"/>
       <c r="G22" s="101">
         <f>_xll.qlSwapStartDate(M22)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H22" s="101">
         <f>_xll.qlSwapMaturityDate(M22)</f>
-        <v>42198</v>
+        <v>42199</v>
       </c>
       <c r="I22" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M22,InterestRatesTrigger)</f>
-        <v>5.9999999999986811E-4</v>
+        <v>6.0000000000015596E-4</v>
       </c>
       <c r="J22" s="86" t="str">
         <f>Contribution!G22</f>
@@ -14611,7 +14606,7 @@
       <c r="L22" s="137"/>
       <c r="M22" s="56" t="str">
         <f>_xll.qlMakeOIS(,D22,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a8#0000</v>
+        <v>obj_004b3#0002</v>
       </c>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
@@ -14632,30 +14627,30 @@
       <c r="B23" s="2"/>
       <c r="C23" s="133"/>
       <c r="D23" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="101"/>
       <c r="G23" s="101">
         <f>_xll.qlSwapStartDate(M23)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H23" s="101">
         <f>_xll.qlSwapMaturityDate(M23)</f>
-        <v>42290</v>
+        <v>42291</v>
       </c>
       <c r="I23" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M23,InterestRatesTrigger)</f>
-        <v>5.9998781856021436E-4</v>
+        <v>5.9990873352723832E-4</v>
       </c>
       <c r="J23" s="86"/>
       <c r="K23" s="86"/>
       <c r="L23" s="137"/>
       <c r="M23" s="56" t="str">
         <f>_xll.qlMakeOIS(,D23,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004b1#0000</v>
+        <v>obj_004a3#0002</v>
       </c>
       <c r="N23" s="89"/>
       <c r="O23" s="89"/>
@@ -14676,23 +14671,23 @@
       <c r="B24" s="2"/>
       <c r="C24" s="133"/>
       <c r="D24" s="44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="101"/>
       <c r="G24" s="101">
         <f>_xll.qlSwapStartDate(M24)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H24" s="101">
         <f>_xll.qlSwapMaturityDate(M24)</f>
-        <v>42381</v>
+        <v>42383</v>
       </c>
       <c r="I24" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M24,InterestRatesTrigger)</f>
-        <v>5.9999999999991267E-4</v>
+        <v>6.0000000000001155E-4</v>
       </c>
       <c r="J24" s="86" t="str">
         <f>Contribution!G24</f>
@@ -14705,7 +14700,7 @@
       <c r="L24" s="137"/>
       <c r="M24" s="56" t="str">
         <f>_xll.qlMakeOIS(,D24,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004ac#0000</v>
+        <v>obj_004b4#0002</v>
       </c>
       <c r="N24" s="89"/>
       <c r="O24" s="89"/>
@@ -14726,23 +14721,23 @@
       <c r="B25" s="2"/>
       <c r="C25" s="133"/>
       <c r="D25" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F25" s="101"/>
       <c r="G25" s="101">
         <f>_xll.qlSwapStartDate(M25)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H25" s="101">
         <f>_xll.qlSwapMaturityDate(M25)</f>
-        <v>42562</v>
+        <v>42565</v>
       </c>
       <c r="I25" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M25,InterestRatesTrigger)</f>
-        <v>5.9999999999997566E-4</v>
+        <v>5.9999999999997295E-4</v>
       </c>
       <c r="J25" s="86" t="str">
         <f>Contribution!G25</f>
@@ -14755,7 +14750,7 @@
       <c r="L25" s="137"/>
       <c r="M25" s="56" t="str">
         <f>_xll.qlMakeOIS(,D25,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004ab#0000</v>
+        <v>obj_004b0#0002</v>
       </c>
       <c r="N25" s="89"/>
       <c r="O25" s="89"/>
@@ -14776,23 +14771,23 @@
       <c r="B26" s="2"/>
       <c r="C26" s="133"/>
       <c r="D26" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" s="101"/>
       <c r="G26" s="101">
         <f>_xll.qlSwapStartDate(M26)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H26" s="101">
         <f>_xll.qlSwapMaturityDate(M26)</f>
-        <v>42927</v>
+        <v>42930</v>
       </c>
       <c r="I26" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M26,InterestRatesTrigger)</f>
-        <v>6.4999999999992364E-4</v>
+        <v>6.4999999999993004E-4</v>
       </c>
       <c r="J26" s="86" t="str">
         <f>Contribution!G26</f>
@@ -14805,7 +14800,7 @@
       <c r="L26" s="137"/>
       <c r="M26" s="56" t="str">
         <f>_xll.qlMakeOIS(,D26,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a4#0000</v>
+        <v>obj_004ac#0002</v>
       </c>
       <c r="N26" s="89"/>
       <c r="O26" s="89"/>
@@ -14826,23 +14821,23 @@
       <c r="B27" s="2"/>
       <c r="C27" s="133"/>
       <c r="D27" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F27" s="101"/>
       <c r="G27" s="101">
         <f>_xll.qlSwapStartDate(M27)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H27" s="101">
         <f>_xll.qlSwapMaturityDate(M27)</f>
-        <v>43292</v>
+        <v>43298</v>
       </c>
       <c r="I27" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M27,InterestRatesTrigger)</f>
-        <v>7.2500000000007899E-4</v>
+        <v>7.2500000000001264E-4</v>
       </c>
       <c r="J27" s="86" t="str">
         <f>Contribution!G27</f>
@@ -14855,7 +14850,7 @@
       <c r="L27" s="137"/>
       <c r="M27" s="56" t="str">
         <f>_xll.qlMakeOIS(,D27,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a6#0000</v>
+        <v>obj_004a1#0002</v>
       </c>
       <c r="N27" s="89"/>
       <c r="O27" s="89"/>
@@ -14876,23 +14871,23 @@
       <c r="B28" s="2"/>
       <c r="C28" s="133"/>
       <c r="D28" s="56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" s="101"/>
       <c r="G28" s="101">
         <f>_xll.qlSwapStartDate(M28)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H28" s="101">
         <f>_xll.qlSwapMaturityDate(M28)</f>
-        <v>43657</v>
+        <v>43662</v>
       </c>
       <c r="I28" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M28,InterestRatesTrigger)</f>
-        <v>9.4999999999995218E-4</v>
+        <v>9.4999999999998222E-4</v>
       </c>
       <c r="J28" s="86" t="str">
         <f>Contribution!G28</f>
@@ -14905,7 +14900,7 @@
       <c r="L28" s="137"/>
       <c r="M28" s="56" t="str">
         <f>_xll.qlMakeOIS(,D28,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004b0#0000</v>
+        <v>obj_0049f#0002</v>
       </c>
       <c r="N28" s="89"/>
       <c r="O28" s="89"/>
@@ -14926,23 +14921,23 @@
       <c r="B29" s="2"/>
       <c r="C29" s="133"/>
       <c r="D29" s="56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="101"/>
       <c r="G29" s="101">
         <f>_xll.qlSwapStartDate(M29)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H29" s="101">
         <f>_xll.qlSwapMaturityDate(M29)</f>
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="I29" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M29,InterestRatesTrigger)</f>
-        <v>1.425000000000054E-3</v>
+        <v>1.4249999999999727E-3</v>
       </c>
       <c r="J29" s="86" t="str">
         <f>Contribution!G29</f>
@@ -14955,7 +14950,7 @@
       <c r="L29" s="137"/>
       <c r="M29" s="56" t="str">
         <f>_xll.qlMakeOIS(,D29,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004aa#0000</v>
+        <v>obj_004a2#0002</v>
       </c>
       <c r="N29" s="89"/>
       <c r="O29" s="89"/>
@@ -14976,23 +14971,23 @@
       <c r="B30" s="2"/>
       <c r="C30" s="133"/>
       <c r="D30" s="56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="101"/>
       <c r="G30" s="101">
         <f>_xll.qlSwapStartDate(M30)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H30" s="101">
         <f>_xll.qlSwapMaturityDate(M30)</f>
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="I30" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M30,InterestRatesTrigger)</f>
-        <v>2.0750000000000577E-3</v>
+        <v>2.0749999999999866E-3</v>
       </c>
       <c r="J30" s="86" t="str">
         <f>Contribution!G30</f>
@@ -15005,7 +15000,7 @@
       <c r="L30" s="137"/>
       <c r="M30" s="56" t="str">
         <f>_xll.qlMakeOIS(,D30,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a5#0000</v>
+        <v>obj_004b2#0002</v>
       </c>
       <c r="N30" s="89"/>
       <c r="O30" s="89"/>
@@ -15026,23 +15021,23 @@
       <c r="B31" s="2"/>
       <c r="C31" s="133"/>
       <c r="D31" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="101"/>
       <c r="G31" s="101">
         <f>_xll.qlSwapStartDate(M31)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H31" s="101">
         <f>_xll.qlSwapMaturityDate(M31)</f>
-        <v>44753</v>
+        <v>44756</v>
       </c>
       <c r="I31" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M31,InterestRatesTrigger)</f>
-        <v>2.7499999999999916E-3</v>
+        <v>2.7499999999999582E-3</v>
       </c>
       <c r="J31" s="86" t="str">
         <f>Contribution!G31</f>
@@ -15055,7 +15050,7 @@
       <c r="L31" s="137"/>
       <c r="M31" s="56" t="str">
         <f>_xll.qlMakeOIS(,D31,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004af#0000</v>
+        <v>obj_004b1#0002</v>
       </c>
       <c r="N31" s="89"/>
       <c r="O31" s="89"/>
@@ -15076,23 +15071,23 @@
       <c r="B32" s="2"/>
       <c r="C32" s="133"/>
       <c r="D32" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="101"/>
       <c r="G32" s="101">
         <f>_xll.qlSwapStartDate(M32)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H32" s="101">
         <f>_xll.qlSwapMaturityDate(M32)</f>
-        <v>45118</v>
+        <v>45121</v>
       </c>
       <c r="I32" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M32,InterestRatesTrigger)</f>
-        <v>3.4750000000000093E-3</v>
+        <v>3.4749999999999504E-3</v>
       </c>
       <c r="J32" s="86" t="str">
         <f>Contribution!G32</f>
@@ -15105,7 +15100,7 @@
       <c r="L32" s="137"/>
       <c r="M32" s="56" t="str">
         <f>_xll.qlMakeOIS(,D32,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a1#0000</v>
+        <v>obj_004a0#0002</v>
       </c>
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
@@ -15126,23 +15121,23 @@
       <c r="B33" s="2"/>
       <c r="C33" s="133"/>
       <c r="D33" s="56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="101"/>
       <c r="G33" s="101">
         <f>_xll.qlSwapStartDate(M33)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H33" s="101">
         <f>_xll.qlSwapMaturityDate(M33)</f>
-        <v>45484</v>
+        <v>45489</v>
       </c>
       <c r="I33" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M33,InterestRatesTrigger)</f>
-        <v>4.2250000000000551E-3</v>
+        <v>4.2250000000000109E-3</v>
       </c>
       <c r="J33" s="86" t="str">
         <f>Contribution!G33</f>
@@ -15155,7 +15150,7 @@
       <c r="L33" s="137"/>
       <c r="M33" s="56" t="str">
         <f>_xll.qlMakeOIS(,D33,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0049f#0000</v>
+        <v>obj_004ab#0002</v>
       </c>
       <c r="N33" s="89"/>
       <c r="O33" s="89"/>
@@ -15176,23 +15171,23 @@
       <c r="B34" s="2"/>
       <c r="C34" s="133"/>
       <c r="D34" s="56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F34" s="101"/>
       <c r="G34" s="101">
         <f>_xll.qlSwapStartDate(M34)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H34" s="101">
         <f>_xll.qlSwapMaturityDate(M34)</f>
-        <v>46216</v>
+        <v>46217</v>
       </c>
       <c r="I34" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M34,InterestRatesTrigger)</f>
-        <v>5.9000000000000675E-3</v>
+        <v>5.8999999999999643E-3</v>
       </c>
       <c r="J34" s="86" t="str">
         <f>Contribution!G34</f>
@@ -15205,7 +15200,7 @@
       <c r="L34" s="137"/>
       <c r="M34" s="56" t="str">
         <f>_xll.qlMakeOIS(,D34,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a0#0000</v>
+        <v>obj_004af#0002</v>
       </c>
       <c r="N34" s="89"/>
       <c r="O34" s="89"/>
@@ -15226,23 +15221,23 @@
       <c r="B35" s="2"/>
       <c r="C35" s="133"/>
       <c r="D35" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F35" s="101"/>
       <c r="G35" s="101">
         <f>_xll.qlSwapStartDate(M35)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H35" s="101">
         <f>_xll.qlSwapMaturityDate(M35)</f>
-        <v>47310</v>
+        <v>47316</v>
       </c>
       <c r="I35" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M35,InterestRatesTrigger)</f>
-        <v>8.4999999999999989E-3</v>
+        <v>8.5000000000000284E-3</v>
       </c>
       <c r="J35" s="86" t="str">
         <f>Contribution!G35</f>
@@ -15255,7 +15250,7 @@
       <c r="L35" s="137"/>
       <c r="M35" s="56" t="str">
         <f>_xll.qlMakeOIS(,D35,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004b4#0000</v>
+        <v>obj_004ae#0002</v>
       </c>
       <c r="N35" s="89"/>
       <c r="O35" s="89"/>
@@ -15276,23 +15271,23 @@
       <c r="B36" s="2"/>
       <c r="C36" s="133"/>
       <c r="D36" s="56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F36" s="101"/>
       <c r="G36" s="101">
         <f>_xll.qlSwapStartDate(M36)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H36" s="101">
         <f>_xll.qlSwapMaturityDate(M36)</f>
-        <v>49136</v>
+        <v>49139</v>
       </c>
       <c r="I36" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M36,InterestRatesTrigger)</f>
-        <v>1.1749999999999967E-2</v>
+        <v>1.1750000000000062E-2</v>
       </c>
       <c r="J36" s="86" t="str">
         <f>Contribution!G36</f>
@@ -15305,7 +15300,7 @@
       <c r="L36" s="137"/>
       <c r="M36" s="56" t="str">
         <f>_xll.qlMakeOIS(,D36,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004ad#0000</v>
+        <v>obj_004a8#0002</v>
       </c>
       <c r="N36" s="89"/>
       <c r="O36" s="89"/>
@@ -15326,23 +15321,23 @@
       <c r="B37" s="2"/>
       <c r="C37" s="133"/>
       <c r="D37" s="56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" s="101"/>
       <c r="G37" s="101">
         <f>_xll.qlSwapStartDate(M37)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H37" s="101">
         <f>_xll.qlSwapMaturityDate(M37)</f>
-        <v>50962</v>
+        <v>50965</v>
       </c>
       <c r="I37" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M37,InterestRatesTrigger)</f>
-        <v>1.3375000000000021E-2</v>
+        <v>1.3375000000000024E-2</v>
       </c>
       <c r="J37" s="86" t="str">
         <f>Contribution!G37</f>
@@ -15355,7 +15350,7 @@
       <c r="L37" s="137"/>
       <c r="M37" s="56" t="str">
         <f>_xll.qlMakeOIS(,D37,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_0049e#0000</v>
+        <v>obj_004aa#0002</v>
       </c>
       <c r="N37" s="89"/>
       <c r="O37" s="89"/>
@@ -15376,23 +15371,23 @@
       <c r="B38" s="2"/>
       <c r="C38" s="133"/>
       <c r="D38" s="56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F38" s="101"/>
       <c r="G38" s="101">
         <f>_xll.qlSwapStartDate(M38)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H38" s="101">
         <f>_xll.qlSwapMaturityDate(M38)</f>
-        <v>52789</v>
+        <v>52792</v>
       </c>
       <c r="I38" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(M38,InterestRatesTrigger)</f>
-        <v>1.4375000000000015E-2</v>
+        <v>1.4374999999999994E-2</v>
       </c>
       <c r="J38" s="88" t="str">
         <f>Contribution!G38</f>
@@ -15405,7 +15400,7 @@
       <c r="L38" s="137"/>
       <c r="M38" s="58" t="str">
         <f>_xll.qlMakeOIS(,D38,OvernightIndex,,"0D","Actual/365 (Fixed)",,,Trigger)</f>
-        <v>obj_004a2#0000</v>
+        <v>obj_004a4#0002</v>
       </c>
       <c r="N38" s="89"/>
       <c r="O38" s="89"/>
@@ -17170,7 +17165,7 @@
   <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -17201,8 +17196,12 @@
       <c r="B1" s="135"/>
       <c r="C1" s="133"/>
       <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="E1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>27</v>
+      </c>
       <c r="G1" s="133"/>
       <c r="H1" s="133"/>
       <c r="I1" s="133"/>
@@ -17230,18 +17229,14 @@
       <c r="C2" s="133"/>
       <c r="D2" s="6"/>
       <c r="E2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="39" t="str">
+        <v>128</v>
+      </c>
+      <c r="F2" s="39" t="str">
         <f>Currency&amp;CurveTenor</f>
         <v>JPY3M</v>
       </c>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
@@ -17295,29 +17290,29 @@
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
       <c r="E4" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>127</v>
-      </c>
       <c r="K4" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" s="133"/>
       <c r="M4" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N4" s="133"/>
       <c r="O4" s="133"/>
@@ -17341,26 +17336,26 @@
       </c>
       <c r="C5" s="107"/>
       <c r="D5" s="53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="98">
         <f t="shared" ref="F5:G13" si="1">EvaluationDate</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G5" s="98">
         <f>EvaluationDate</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="H5" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1D","f",TRUE,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="I5" s="108">
         <f>_xll.qlInterpolationInterpolate(M5,-2,TRUE)</f>
-        <v>1.3169175923951118E-3</v>
+        <v>1.2183624616191047E-3</v>
       </c>
       <c r="J5" s="127" t="str">
         <f>Contribution!N5</f>
@@ -17370,7 +17365,7 @@
       <c r="L5" s="133"/>
       <c r="M5" s="39" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B7:B13,I7:I13,,Trigger)</f>
-        <v>obj_004d4#0002</v>
+        <v>obj_004d4#0004</v>
       </c>
       <c r="N5" s="133"/>
       <c r="O5" s="133"/>
@@ -17390,30 +17385,30 @@
       <c r="A6" s="133"/>
       <c r="B6" s="119">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="109"/>
       <c r="D6" s="56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G6" s="101">
-        <f t="shared" si="1"/>
-        <v>41829</v>
+        <f>H5</f>
+        <v>41831</v>
       </c>
       <c r="H6" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f",TRUE,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="I6" s="106">
         <f>_xll.qlInterpolationInterpolate(M5,-1,TRUE)</f>
-        <v>1.3168977641110865E-3</v>
+        <v>1.218669774264182E-3</v>
       </c>
       <c r="J6" s="129" t="str">
         <f>Contribution!N6</f>
@@ -17422,7 +17417,7 @@
       <c r="K6" s="130"/>
       <c r="L6" s="133"/>
       <c r="M6" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" s="133"/>
       <c r="O6" s="133"/>
@@ -17446,26 +17441,26 @@
       </c>
       <c r="C7" s="110"/>
       <c r="D7" s="53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="98">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G7" s="98">
         <f>_xll.qlInterestRateIndexValueDate(M7,F7,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H7" s="98">
         <f>_xll.qlInterestRateIndexMaturity(M7,G7,Trigger)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
       <c r="I7" s="99">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,InterestRatesTrigger)</f>
-        <v>1.3168412289399356E-3</v>
+        <v>1.2197662158719424E-3</v>
       </c>
       <c r="J7" s="87" t="str">
         <f>Contribution!N7</f>
@@ -17475,7 +17470,7 @@
       <c r="L7" s="133"/>
       <c r="M7" s="54" t="str">
         <f>_xll.qlLibor(,Currency,D7,YieldCurve,,Trigger)</f>
-        <v>obj_0049d#0000</v>
+        <v>obj_0049d#0002</v>
       </c>
       <c r="N7" s="133"/>
       <c r="O7" s="133"/>
@@ -17495,30 +17490,30 @@
       <c r="A8" s="133"/>
       <c r="B8" s="119">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="111"/>
       <c r="D8" s="56" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G8" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H8" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>41838</v>
+        <v>41842</v>
       </c>
       <c r="I8" s="100">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,InterestRatesTrigger)</f>
-        <v>1.3168126867427585E-3</v>
+        <v>1.2211699701247802E-3</v>
       </c>
       <c r="J8" s="86" t="str">
         <f>Contribution!N8</f>
@@ -17528,7 +17523,7 @@
       <c r="L8" s="133"/>
       <c r="M8" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_0049a#0000</v>
+        <v>obj_00497#0002</v>
       </c>
       <c r="N8" s="133"/>
       <c r="O8" s="133"/>
@@ -17548,30 +17543,30 @@
       <c r="A9" s="133"/>
       <c r="B9" s="119">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="111"/>
       <c r="D9" s="56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G9" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H9" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>41845</v>
+        <v>41848</v>
       </c>
       <c r="I9" s="100">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,InterestRatesTrigger)</f>
-        <v>1.3166892448688928E-3</v>
+        <v>1.2240933482386496E-3</v>
       </c>
       <c r="J9" s="86" t="str">
         <f>Contribution!N9</f>
@@ -17581,7 +17576,7 @@
       <c r="L9" s="133"/>
       <c r="M9" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_0049c#0000</v>
+        <v>obj_00498#0002</v>
       </c>
       <c r="N9" s="133"/>
       <c r="O9" s="133"/>
@@ -17601,30 +17596,30 @@
       <c r="A10" s="133"/>
       <c r="B10" s="119">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="111"/>
       <c r="D10" s="56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G10" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M10,F10,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H10" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M10,G10,Trigger)</f>
-        <v>41852</v>
+        <v>41855</v>
       </c>
       <c r="I10" s="100">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,InterestRatesTrigger)</f>
-        <v>1.3164722602557585E-3</v>
+        <v>1.2295109471909577E-3</v>
       </c>
       <c r="J10" s="86" t="str">
         <f>Contribution!N10</f>
@@ -17634,7 +17629,7 @@
       <c r="L10" s="133"/>
       <c r="M10" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_00498#0000</v>
+        <v>obj_00499#0002</v>
       </c>
       <c r="N10" s="133"/>
       <c r="O10" s="133"/>
@@ -17654,30 +17649,30 @@
       <c r="A11" s="133"/>
       <c r="B11" s="119">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="111"/>
       <c r="D11" s="56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G11" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H11" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
-        <v>41862</v>
+        <v>41865</v>
       </c>
       <c r="I11" s="100">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,InterestRatesTrigger)</f>
-        <v>1.3160000000005246E-3</v>
+        <v>1.2409999999990664E-3</v>
       </c>
       <c r="J11" s="86" t="str">
         <f>Contribution!N11</f>
@@ -17687,7 +17682,7 @@
       <c r="L11" s="133"/>
       <c r="M11" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_00499#0000</v>
+        <v>obj_0049a#0002</v>
       </c>
       <c r="N11" s="133"/>
       <c r="O11" s="133"/>
@@ -17707,30 +17702,30 @@
       <c r="A12" s="133"/>
       <c r="B12" s="119">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C12" s="111"/>
       <c r="D12" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G12" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H12" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M12,G12,Trigger)</f>
-        <v>41893</v>
+        <v>41898</v>
       </c>
       <c r="I12" s="100">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,InterestRatesTrigger)</f>
-        <v>1.320000000016899E-3</v>
+        <v>1.2741458618119317E-3</v>
       </c>
       <c r="J12" s="86" t="str">
         <f>Contribution!N12</f>
@@ -17740,7 +17735,7 @@
       <c r="L12" s="133"/>
       <c r="M12" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_00497#0000</v>
+        <v>obj_0049c#0002</v>
       </c>
       <c r="N12" s="133"/>
       <c r="O12" s="133"/>
@@ -17760,22 +17755,22 @@
       <c r="A13" s="133"/>
       <c r="B13" s="119">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="111"/>
       <c r="D13" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F13" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G13" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H13" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M13,G13,Trigger)</f>
@@ -17783,7 +17778,7 @@
       </c>
       <c r="I13" s="100">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,InterestRatesTrigger)</f>
-        <v>1.3244490113667052E-3</v>
+        <v>1.2710000000001767E-3</v>
       </c>
       <c r="J13" s="86" t="str">
         <f>Contribution!N13</f>
@@ -17815,26 +17810,26 @@
         <v>1</v>
       </c>
       <c r="C14" s="121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D14" s="53" t="str">
         <f>B14+3&amp;"M"</f>
         <v>4M</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" s="98">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G14)</f>
-        <v>41858</v>
+        <v>41863</v>
       </c>
       <c r="G14" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B14&amp;"M","mf",TRUE)</f>
-        <v>41862</v>
+        <v>41865</v>
       </c>
       <c r="H14" s="98">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G14,Trigger)</f>
-        <v>41954</v>
+        <v>41957</v>
       </c>
       <c r="I14" s="99">
         <f>_xll.qlIndexFixing(IborIndex,F14,TRUE,InterestRatesTrigger)</f>
@@ -17870,30 +17865,30 @@
         <v>2</v>
       </c>
       <c r="C15" s="122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" s="56" t="str">
         <f t="shared" ref="D15:D23" si="3">B15+3&amp;"M"</f>
         <v>5M</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G15)</f>
-        <v>41891</v>
+        <v>41893</v>
       </c>
       <c r="G15" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B15&amp;"M","mf",TRUE)</f>
-        <v>41893</v>
+        <v>41897</v>
       </c>
       <c r="H15" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G15,Trigger)</f>
-        <v>41984</v>
+        <v>41988</v>
       </c>
       <c r="I15" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F15,TRUE,InterestRatesTrigger)</f>
-        <v>1.3000000000001717E-3</v>
+        <v>1.3000000005878333E-3</v>
       </c>
       <c r="J15" s="86" t="str">
         <f>Contribution!N15</f>
@@ -17925,30 +17920,30 @@
         <v>3</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D16" s="56" t="str">
         <f t="shared" si="3"/>
         <v>6M</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G16)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="G16" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B16&amp;"M","mf",TRUE)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="H16" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G16,Trigger)</f>
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="I16" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F16,TRUE,InterestRatesTrigger)</f>
-        <v>1.3000000006645137E-3</v>
+        <v>1.2500000000003693E-3</v>
       </c>
       <c r="J16" s="86" t="str">
         <f>Contribution!N16</f>
@@ -17980,30 +17975,30 @@
         <v>4</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="56" t="str">
         <f t="shared" si="3"/>
         <v>7M</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G17)</f>
-        <v>41950</v>
+        <v>41955</v>
       </c>
       <c r="G17" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B17&amp;"M","mf",TRUE)</f>
-        <v>41954</v>
+        <v>41957</v>
       </c>
       <c r="H17" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G17,Trigger)</f>
-        <v>42047</v>
+        <v>42051</v>
       </c>
       <c r="I17" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F17,TRUE,InterestRatesTrigger)</f>
-        <v>1.2500000000002383E-3</v>
+        <v>1.2500000000001102E-3</v>
       </c>
       <c r="J17" s="86" t="str">
         <f>Contribution!N17</f>
@@ -18035,30 +18030,30 @@
         <v>5</v>
       </c>
       <c r="C18" s="122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D18" s="56" t="str">
         <f t="shared" si="3"/>
         <v>8M</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18)</f>
-        <v>41982</v>
+        <v>41984</v>
       </c>
       <c r="G18" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B18&amp;"M","mf",TRUE)</f>
-        <v>41984</v>
+        <v>41988</v>
       </c>
       <c r="H18" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G18,Trigger)</f>
-        <v>42074</v>
+        <v>42079</v>
       </c>
       <c r="I18" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,InterestRatesTrigger)</f>
-        <v>1.2499999999997513E-3</v>
+        <v>1.2500000005705963E-3</v>
       </c>
       <c r="J18" s="86" t="str">
         <f>Contribution!N18</f>
@@ -18090,26 +18085,26 @@
         <v>6</v>
       </c>
       <c r="C19" s="122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="56" t="str">
         <f t="shared" si="3"/>
         <v>9M</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="G19" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B19&amp;"M","mf",TRUE)</f>
-        <v>42016</v>
+        <v>42018</v>
       </c>
       <c r="H19" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G19,Trigger)</f>
-        <v>42107</v>
+        <v>42108</v>
       </c>
       <c r="I19" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,InterestRatesTrigger)</f>
@@ -18145,30 +18140,30 @@
         <v>7</v>
       </c>
       <c r="C20" s="122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" s="56" t="str">
         <f t="shared" si="3"/>
         <v>10M</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G20)</f>
-        <v>42044</v>
+        <v>42047</v>
       </c>
       <c r="G20" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B20&amp;"M","mf",TRUE)</f>
-        <v>42046</v>
+        <v>42051</v>
       </c>
       <c r="H20" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G20,Trigger)</f>
-        <v>42135</v>
+        <v>42142</v>
       </c>
       <c r="I20" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,InterestRatesTrigger)</f>
-        <v>1.2717059438682482E-3</v>
+        <v>1.1876721930796138E-3</v>
       </c>
       <c r="J20" s="86"/>
       <c r="K20" s="86"/>
@@ -18194,30 +18189,30 @@
         <v>8</v>
       </c>
       <c r="C21" s="122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" s="56" t="str">
         <f t="shared" si="3"/>
         <v>11M</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G21)</f>
-        <v>42072</v>
+        <v>42075</v>
       </c>
       <c r="G21" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B21&amp;"M","mf",TRUE)</f>
-        <v>42074</v>
+        <v>42079</v>
       </c>
       <c r="H21" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G21,Trigger)</f>
-        <v>42166</v>
+        <v>42171</v>
       </c>
       <c r="I21" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,InterestRatesTrigger)</f>
-        <v>1.2263885527369104E-3</v>
+        <v>1.1605021158253932E-3</v>
       </c>
       <c r="J21" s="86"/>
       <c r="K21" s="86"/>
@@ -18243,30 +18238,30 @@
         <v>9</v>
       </c>
       <c r="C22" s="122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" s="56" t="str">
         <f t="shared" si="3"/>
         <v>12M</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F22" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G22)</f>
-        <v>42103</v>
+        <v>42104</v>
       </c>
       <c r="G22" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B22&amp;"M","mf",TRUE)</f>
-        <v>42107</v>
+        <v>42108</v>
       </c>
       <c r="H22" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G22,Trigger)</f>
-        <v>42198</v>
+        <v>42199</v>
       </c>
       <c r="I22" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,InterestRatesTrigger)</f>
-        <v>1.1999999999999557E-3</v>
+        <v>1.2000000000008341E-3</v>
       </c>
       <c r="J22" s="86" t="str">
         <f>Contribution!N22</f>
@@ -18298,30 +18293,30 @@
         <v>12</v>
       </c>
       <c r="C23" s="123" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="56" t="str">
         <f t="shared" si="3"/>
         <v>15M</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F23" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G23)</f>
-        <v>42194</v>
+        <v>42195</v>
       </c>
       <c r="G23" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B23&amp;"M","mf",TRUE)</f>
-        <v>42198</v>
+        <v>42199</v>
       </c>
       <c r="H23" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G23,Trigger)</f>
-        <v>42290</v>
+        <v>42291</v>
       </c>
       <c r="I23" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,InterestRatesTrigger)</f>
-        <v>1.1499999999997142E-3</v>
+        <v>1.1500000000005831E-3</v>
       </c>
       <c r="J23" s="86" t="str">
         <f>Contribution!N23</f>
@@ -18333,17 +18328,17 @@
       </c>
       <c r="L23" s="133"/>
       <c r="M23" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N23" s="133"/>
       <c r="O23" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R23" s="89"/>
       <c r="S23" s="89"/>
@@ -18360,26 +18355,26 @@
       <c r="B24" s="112"/>
       <c r="C24" s="114"/>
       <c r="D24" s="53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F24" s="98">
         <f t="shared" ref="F24" si="4">EvaluationDate</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G24" s="98">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H24" s="98">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
-        <v>42380</v>
+        <v>42383</v>
       </c>
       <c r="I24" s="99">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,InterestRatesTrigger)</f>
-        <v>1.2466872626720005E-3</v>
+        <v>1.2201557427362906E-3</v>
       </c>
       <c r="J24" s="87" t="str">
         <f>Contribution!N24</f>
@@ -18389,17 +18384,17 @@
       <c r="L24" s="133"/>
       <c r="M24" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c6#0001</v>
+        <v>obj_004bd#0002</v>
       </c>
       <c r="N24" s="133"/>
       <c r="O24" s="57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P24" s="57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R24" s="89"/>
       <c r="S24" s="89"/>
@@ -18416,26 +18411,26 @@
       <c r="B25" s="113"/>
       <c r="C25" s="115"/>
       <c r="D25" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F25" s="101">
         <f t="shared" ref="F25:F38" si="5">EvaluationDate</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G25" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H25" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
-        <v>42562</v>
+        <v>42565</v>
       </c>
       <c r="I25" s="100">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,InterestRatesTrigger)</f>
-        <v>1.2183668100508491E-3</v>
+        <v>1.1933667989151994E-3</v>
       </c>
       <c r="J25" s="86" t="str">
         <f>Contribution!N25</f>
@@ -18445,7 +18440,7 @@
       <c r="L25" s="133"/>
       <c r="M25" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c2#0001</v>
+        <v>obj_004c6#0002</v>
       </c>
       <c r="N25" s="133"/>
       <c r="O25" s="134"/>
@@ -18466,26 +18461,26 @@
       <c r="B26" s="113"/>
       <c r="C26" s="109"/>
       <c r="D26" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F26" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G26" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H26" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>42927</v>
+        <v>42930</v>
       </c>
       <c r="I26" s="100">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,InterestRatesTrigger)</f>
-        <v>1.2173154549067571E-3</v>
+        <v>1.1673154563884107E-3</v>
       </c>
       <c r="J26" s="86" t="str">
         <f>Contribution!N26</f>
@@ -18495,7 +18490,7 @@
       <c r="L26" s="133"/>
       <c r="M26" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004be#0001</v>
+        <v>obj_004ba#0002</v>
       </c>
       <c r="N26" s="133"/>
       <c r="O26" s="133"/>
@@ -18516,26 +18511,26 @@
       <c r="B27" s="113"/>
       <c r="C27" s="109"/>
       <c r="D27" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F27" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G27" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H27" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>43292</v>
+        <v>43297</v>
       </c>
       <c r="I27" s="100">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,InterestRatesTrigger)</f>
-        <v>1.3909111352062209E-3</v>
+        <v>1.3409110520231872E-3</v>
       </c>
       <c r="J27" s="86" t="str">
         <f>Contribution!N27</f>
@@ -18545,7 +18540,7 @@
       <c r="L27" s="133"/>
       <c r="M27" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c5#0001</v>
+        <v>obj_004bb#0002</v>
       </c>
       <c r="N27" s="133"/>
       <c r="O27" s="133"/>
@@ -18566,26 +18561,26 @@
       <c r="B28" s="113"/>
       <c r="C28" s="109"/>
       <c r="D28" s="56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G28" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H28" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>43657</v>
+        <v>43661</v>
       </c>
       <c r="I28" s="100">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,InterestRatesTrigger)</f>
-        <v>1.7894884523956449E-3</v>
+        <v>1.7394884166472243E-3</v>
       </c>
       <c r="J28" s="86" t="str">
         <f>Contribution!N28</f>
@@ -18595,7 +18590,7 @@
       <c r="L28" s="133"/>
       <c r="M28" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c8#0001</v>
+        <v>obj_004c4#0002</v>
       </c>
       <c r="N28" s="133"/>
       <c r="O28" s="133"/>
@@ -18616,26 +18611,26 @@
       <c r="B29" s="113"/>
       <c r="C29" s="109"/>
       <c r="D29" s="56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F29" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G29" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H29" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="I29" s="100">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,InterestRatesTrigger)</f>
-        <v>2.388030992837993E-3</v>
+        <v>2.3380314662973089E-3</v>
       </c>
       <c r="J29" s="86" t="str">
         <f>Contribution!N29</f>
@@ -18645,7 +18640,7 @@
       <c r="L29" s="133"/>
       <c r="M29" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004d1#0001</v>
+        <v>obj_004cd#0002</v>
       </c>
       <c r="N29" s="133"/>
       <c r="O29" s="133"/>
@@ -18666,26 +18661,26 @@
       <c r="B30" s="113"/>
       <c r="C30" s="109"/>
       <c r="D30" s="56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F30" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G30" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M30,F30,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H30" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M30,G30,Trigger)</f>
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="I30" s="100">
         <f>_xll.qlIndexFixing(M30,F30,TRUE,InterestRatesTrigger)</f>
-        <v>3.1368968737145357E-3</v>
+        <v>3.0868971388516775E-3</v>
       </c>
       <c r="J30" s="86" t="str">
         <f>Contribution!N30</f>
@@ -18695,7 +18690,7 @@
       <c r="L30" s="133"/>
       <c r="M30" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bf#0001</v>
+        <v>obj_004bc#0002</v>
       </c>
       <c r="N30" s="133"/>
       <c r="O30" s="133"/>
@@ -18716,26 +18711,26 @@
       <c r="B31" s="113"/>
       <c r="C31" s="109"/>
       <c r="D31" s="56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F31" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G31" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M31,F31,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H31" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M31,G31,Trigger)</f>
-        <v>44753</v>
+        <v>44756</v>
       </c>
       <c r="I31" s="100">
         <f>_xll.qlIndexFixing(M31,F31,TRUE,InterestRatesTrigger)</f>
-        <v>3.9607480700405134E-3</v>
+        <v>3.9107479399517813E-3</v>
       </c>
       <c r="J31" s="86" t="str">
         <f>Contribution!N31</f>
@@ -18745,7 +18740,7 @@
       <c r="L31" s="133"/>
       <c r="M31" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ce#0001</v>
+        <v>obj_004c7#0002</v>
       </c>
       <c r="N31" s="133"/>
       <c r="O31" s="133"/>
@@ -18766,26 +18761,26 @@
       <c r="B32" s="113"/>
       <c r="C32" s="109"/>
       <c r="D32" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F32" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G32" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M32,F32,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H32" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M32,G32,Trigger)</f>
-        <v>45118</v>
+        <v>45121</v>
       </c>
       <c r="I32" s="100">
         <f>_xll.qlIndexFixing(M32,F32,TRUE,InterestRatesTrigger)</f>
-        <v>4.7842205594920669E-3</v>
+        <v>4.7342205662928537E-3</v>
       </c>
       <c r="J32" s="86" t="str">
         <f>Contribution!N32</f>
@@ -18795,7 +18790,7 @@
       <c r="L32" s="133"/>
       <c r="M32" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004cb#0001</v>
+        <v>obj_004be#0002</v>
       </c>
       <c r="N32" s="133"/>
       <c r="O32" s="133"/>
@@ -18816,26 +18811,26 @@
       <c r="B33" s="113"/>
       <c r="C33" s="109"/>
       <c r="D33" s="56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F33" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G33" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M33,F33,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H33" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M33,G33,Trigger)</f>
-        <v>45484</v>
+        <v>45488</v>
       </c>
       <c r="I33" s="100">
         <f>_xll.qlIndexFixing(M33,F33,TRUE,InterestRatesTrigger)</f>
-        <v>5.6580312879349701E-3</v>
+        <v>5.6080311248876804E-3</v>
       </c>
       <c r="J33" s="86" t="str">
         <f>Contribution!N33</f>
@@ -18845,7 +18840,7 @@
       <c r="L33" s="133"/>
       <c r="M33" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bb#0001</v>
+        <v>obj_004c3#0002</v>
       </c>
       <c r="N33" s="133"/>
       <c r="O33" s="133"/>
@@ -18866,26 +18861,26 @@
       <c r="B34" s="113"/>
       <c r="C34" s="109"/>
       <c r="D34" s="56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G34" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M34,F34,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H34" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M34,G34,Trigger)</f>
-        <v>46216</v>
+        <v>46217</v>
       </c>
       <c r="I34" s="100">
         <f>_xll.qlIndexFixing(M34,F34,TRUE,InterestRatesTrigger)</f>
-        <v>7.4629029575319864E-3</v>
+        <v>7.4119372952541809E-3</v>
       </c>
       <c r="J34" s="86" t="str">
         <f>Contribution!N34</f>
@@ -18895,7 +18890,7 @@
       <c r="L34" s="133"/>
       <c r="M34" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c0#0001</v>
+        <v>obj_004c1#0002</v>
       </c>
       <c r="N34" s="133"/>
       <c r="O34" s="133"/>
@@ -18916,26 +18911,26 @@
       <c r="B35" s="113"/>
       <c r="C35" s="109"/>
       <c r="D35" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G35" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M35,F35,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H35" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M35,G35,Trigger)</f>
-        <v>47310</v>
+        <v>47315</v>
       </c>
       <c r="I35" s="100">
         <f>_xll.qlIndexFixing(M35,F35,TRUE,InterestRatesTrigger)</f>
-        <v>1.0004771232663731E-2</v>
+        <v>9.9797704986467756E-3</v>
       </c>
       <c r="J35" s="86" t="str">
         <f>Contribution!N35</f>
@@ -18945,7 +18940,7 @@
       <c r="L35" s="133"/>
       <c r="M35" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ba#0001</v>
+        <v>obj_004c0#0002</v>
       </c>
       <c r="N35" s="133"/>
       <c r="O35" s="133"/>
@@ -18966,26 +18961,26 @@
       <c r="B36" s="113"/>
       <c r="C36" s="109"/>
       <c r="D36" s="56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F36" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G36" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M36,F36,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H36" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M36,G36,Trigger)</f>
-        <v>49136</v>
+        <v>49139</v>
       </c>
       <c r="I36" s="100">
         <f>_xll.qlIndexFixing(M36,F36,TRUE,InterestRatesTrigger)</f>
-        <v>1.3228840645289824E-2</v>
+        <v>1.3203840593142937E-2</v>
       </c>
       <c r="J36" s="86" t="str">
         <f>Contribution!N36</f>
@@ -18995,7 +18990,7 @@
       <c r="L36" s="133"/>
       <c r="M36" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004cd#0001</v>
+        <v>obj_004cf#0002</v>
       </c>
       <c r="N36" s="133"/>
       <c r="O36" s="133"/>
@@ -19016,26 +19011,26 @@
       <c r="B37" s="113"/>
       <c r="C37" s="109"/>
       <c r="D37" s="56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F37" s="101">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G37" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M37,F37,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H37" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M37,G37,Trigger)</f>
-        <v>50962</v>
+        <v>50965</v>
       </c>
       <c r="I37" s="100">
         <f>_xll.qlIndexFixing(M37,F37,TRUE,InterestRatesTrigger)</f>
-        <v>1.4968138947167944E-2</v>
+        <v>1.4942782244814254E-2</v>
       </c>
       <c r="J37" s="86" t="str">
         <f>Contribution!N37</f>
@@ -19045,7 +19040,7 @@
       <c r="L37" s="133"/>
       <c r="M37" s="57" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b6#0001</v>
+        <v>obj_004b5#0002</v>
       </c>
       <c r="N37" s="133"/>
       <c r="O37" s="133"/>
@@ -19066,26 +19061,26 @@
       <c r="B38" s="116"/>
       <c r="C38" s="117"/>
       <c r="D38" s="58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F38" s="102">
         <f t="shared" si="5"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G38" s="102">
         <f>_xll.qlInterestRateIndexValueDate(M38,F38,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H38" s="102">
         <f>_xll.qlInterestRateIndexMaturity(M38,G38,Trigger)</f>
-        <v>52789</v>
+        <v>52792</v>
       </c>
       <c r="I38" s="103">
         <f>_xll.qlIndexFixing(M38,F38,TRUE,InterestRatesTrigger)</f>
-        <v>1.5952609078236764E-2</v>
+        <v>1.5927608937148962E-2</v>
       </c>
       <c r="J38" s="88" t="str">
         <f>Contribution!N38</f>
@@ -19095,7 +19090,7 @@
       <c r="L38" s="133"/>
       <c r="M38" s="59" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b9#0001</v>
+        <v>obj_004cb#0002</v>
       </c>
       <c r="N38" s="133"/>
       <c r="O38" s="133"/>
@@ -20866,7 +20861,7 @@
   <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -20898,8 +20893,12 @@
       <c r="B1" s="141"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="E1" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>18</v>
+      </c>
       <c r="G1" s="133"/>
       <c r="H1" s="133"/>
       <c r="I1" s="133"/>
@@ -20927,18 +20926,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="39" t="str">
+        <v>128</v>
+      </c>
+      <c r="F2" s="39" t="str">
         <f>Currency&amp;CurveTenor</f>
         <v>JPY6M</v>
       </c>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
       <c r="I2" s="133"/>
       <c r="J2" s="89"/>
       <c r="K2" s="6"/>
@@ -20992,29 +20987,29 @@
       <c r="C4" s="74"/>
       <c r="D4" s="75"/>
       <c r="E4" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G4" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>127</v>
-      </c>
       <c r="K4" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L4" s="89"/>
       <c r="M4" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="133"/>
@@ -21038,26 +21033,26 @@
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="98">
         <f t="shared" ref="F5:F16" si="1">EvaluationDate</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G5" s="98">
         <f>EvaluationDate</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="H5" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1D","f",TRUE,Trigger)</f>
-        <v>41830</v>
+        <v>41831</v>
       </c>
       <c r="I5" s="108">
         <f>_xll.qlInterpolationInterpolate($M$5,B5,TRUE)</f>
-        <v>1.5083802883797404E-3</v>
+        <v>2.2040393604351185E-3</v>
       </c>
       <c r="J5" s="124" t="str">
         <f>Contribution!U5</f>
@@ -21067,7 +21062,7 @@
       <c r="L5" s="89"/>
       <c r="M5" s="39" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B7:B16,I7:I16,,Trigger)</f>
-        <v>obj_004d3#0002</v>
+        <v>obj_004d3#0004</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="133"/>
@@ -21087,30 +21082,30 @@
       <c r="A6" s="4"/>
       <c r="B6" s="95">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F6" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G6" s="101">
-        <f>EvaluationDate</f>
-        <v>41829</v>
+        <f>H5</f>
+        <v>41831</v>
       </c>
       <c r="H6" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f",TRUE,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="I6" s="106">
         <f>_xll.qlInterpolationInterpolate($M$5,B6,TRUE)</f>
-        <v>1.5087191954883334E-3</v>
+        <v>2.2034342519608391E-3</v>
       </c>
       <c r="J6" s="125" t="str">
         <f>Contribution!U6</f>
@@ -21119,7 +21114,7 @@
       <c r="K6" s="125"/>
       <c r="L6" s="89"/>
       <c r="M6" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="133"/>
@@ -21143,26 +21138,26 @@
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="98">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G7" s="98">
         <f>_xll.qlInterestRateIndexValueDate(M7,F7,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H7" s="98">
         <f>_xll.qlInterestRateIndexMaturity(M7,G7,Trigger)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
       <c r="I7" s="99">
         <f>_xll.qlIndexFixing(M7,F7,TRUE,InterestRatesTrigger)</f>
-        <v>1.5095024533273715E-3</v>
+        <v>2.2032675840577554E-3</v>
       </c>
       <c r="J7" s="124" t="str">
         <f>Contribution!U7</f>
@@ -21172,7 +21167,7 @@
       <c r="L7" s="89"/>
       <c r="M7" s="54" t="str">
         <f>_xll.qlLibor(,Currency,D7,YieldCurve,,Trigger)</f>
-        <v>obj_0048e#0000</v>
+        <v>obj_00488#0002</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="133"/>
@@ -21192,30 +21187,30 @@
       <c r="A8" s="4"/>
       <c r="B8" s="95">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G8" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M8,F8,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H8" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M8,G8,Trigger)</f>
-        <v>41838</v>
+        <v>41842</v>
       </c>
       <c r="I8" s="100">
         <f>_xll.qlIndexFixing(M8,F8,TRUE,InterestRatesTrigger)</f>
-        <v>1.5106246182750027E-3</v>
+        <v>2.2015123220520127E-3</v>
       </c>
       <c r="J8" s="125" t="str">
         <f>Contribution!U8</f>
@@ -21225,7 +21220,7 @@
       <c r="L8" s="89"/>
       <c r="M8" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D8,YieldCurve,,Trigger)</f>
-        <v>obj_00487#0000</v>
+        <v>obj_00490#0002</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="133"/>
@@ -21245,30 +21240,30 @@
       <c r="A9" s="4"/>
       <c r="B9" s="95">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F9" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G9" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M9,F9,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H9" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M9,G9,Trigger)</f>
-        <v>41845</v>
+        <v>41848</v>
       </c>
       <c r="I9" s="100">
         <f>_xll.qlIndexFixing(M9,F9,TRUE,InterestRatesTrigger)</f>
-        <v>1.5147243591646336E-3</v>
+        <v>2.1977759936639019E-3</v>
       </c>
       <c r="J9" s="125" t="str">
         <f>Contribution!U9</f>
@@ -21278,7 +21273,7 @@
       <c r="L9" s="89"/>
       <c r="M9" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D9,YieldCurve,,Trigger)</f>
-        <v>obj_00493#0000</v>
+        <v>obj_00489#0002</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="133"/>
@@ -21298,30 +21293,30 @@
       <c r="A10" s="4"/>
       <c r="B10" s="95">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G10" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M10,F10,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H10" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M10,G10,Trigger)</f>
-        <v>41852</v>
+        <v>41855</v>
       </c>
       <c r="I10" s="100">
         <f>_xll.qlIndexFixing(M10,F10,TRUE,InterestRatesTrigger)</f>
-        <v>1.5215427924036057E-3</v>
+        <v>2.1908128401701022E-3</v>
       </c>
       <c r="J10" s="125" t="str">
         <f>Contribution!U10</f>
@@ -21331,7 +21326,7 @@
       <c r="L10" s="89"/>
       <c r="M10" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D10,YieldCurve,,Trigger)</f>
-        <v>obj_00492#0000</v>
+        <v>obj_0048e#0002</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="133"/>
@@ -21351,30 +21346,30 @@
       <c r="A11" s="4"/>
       <c r="B11" s="95">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G11" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M11,F11,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H11" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M11,G11,Trigger)</f>
-        <v>41862</v>
+        <v>41865</v>
       </c>
       <c r="I11" s="100">
         <f>_xll.qlIndexFixing(M11,F11,TRUE,InterestRatesTrigger)</f>
-        <v>1.5359999999986138E-3</v>
+        <v>2.1759999999806309E-3</v>
       </c>
       <c r="J11" s="125" t="str">
         <f>Contribution!U11</f>
@@ -21384,7 +21379,7 @@
       <c r="L11" s="89"/>
       <c r="M11" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D11,YieldCurve,,Trigger)</f>
-        <v>obj_0048d#0000</v>
+        <v>obj_00487#0002</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="133"/>
@@ -21404,30 +21399,30 @@
       <c r="A12" s="4"/>
       <c r="B12" s="95">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G12" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M12,F12,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H12" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M12,G12,Trigger)</f>
-        <v>41893</v>
+        <v>41898</v>
       </c>
       <c r="I12" s="100">
         <f>_xll.qlIndexFixing(M12,F12,TRUE,InterestRatesTrigger)</f>
-        <v>1.602000000000619E-3</v>
+        <v>2.0928402032183158E-3</v>
       </c>
       <c r="J12" s="125" t="str">
         <f>Contribution!U12</f>
@@ -21437,7 +21432,7 @@
       <c r="L12" s="89"/>
       <c r="M12" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D12,YieldCurve,,Trigger)</f>
-        <v>obj_0048c#0000</v>
+        <v>obj_0048d#0002</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="133"/>
@@ -21457,22 +21452,22 @@
       <c r="A13" s="4"/>
       <c r="B13" s="95">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F13" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G13" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M13,F13,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H13" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M13,G13,Trigger)</f>
@@ -21480,7 +21475,7 @@
       </c>
       <c r="I13" s="100">
         <f>_xll.qlIndexFixing(M13,F13,TRUE,InterestRatesTrigger)</f>
-        <v>1.6587424459142291E-3</v>
+        <v>2.0079999999747162E-3</v>
       </c>
       <c r="J13" s="125" t="str">
         <f>Contribution!U13</f>
@@ -21490,7 +21485,7 @@
       <c r="L13" s="89"/>
       <c r="M13" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D13,YieldCurve,,Trigger)</f>
-        <v>obj_0048a#0000</v>
+        <v>obj_0048a#0002</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="133"/>
@@ -21510,30 +21505,30 @@
       <c r="A14" s="4"/>
       <c r="B14" s="95">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F14" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G14" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M14,F14,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H14" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M14,G14,Trigger)</f>
-        <v>41954</v>
+        <v>41957</v>
       </c>
       <c r="I14" s="100">
         <f>_xll.qlIndexFixing(M14,F14,TRUE,InterestRatesTrigger)</f>
-        <v>1.6710000003298171E-3</v>
+        <v>1.9509999999751237E-3</v>
       </c>
       <c r="J14" s="125" t="str">
         <f>Contribution!U14</f>
@@ -21543,7 +21538,7 @@
       <c r="L14" s="89"/>
       <c r="M14" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D14,YieldCurve,,Trigger)</f>
-        <v>obj_00496#0000</v>
+        <v>obj_0048f#0002</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="133"/>
@@ -21563,30 +21558,30 @@
       <c r="A15" s="4"/>
       <c r="B15" s="95">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C15" s="66"/>
       <c r="D15" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F15" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G15" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M15,F15,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H15" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M15,G15,Trigger)</f>
-        <v>41984</v>
+        <v>41988</v>
       </c>
       <c r="I15" s="100">
         <f>_xll.qlIndexFixing(M15,F15,TRUE,InterestRatesTrigger)</f>
-        <v>1.6989999999997122E-3</v>
+        <v>1.9049999999849437E-3</v>
       </c>
       <c r="J15" s="125" t="str">
         <f>Contribution!U15</f>
@@ -21596,7 +21591,7 @@
       <c r="L15" s="89"/>
       <c r="M15" s="57" t="str">
         <f>_xll.qlLibor(,Currency,D15,YieldCurve,,Trigger)</f>
-        <v>obj_00495#0000</v>
+        <v>obj_00496#0002</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="133"/>
@@ -21620,26 +21615,26 @@
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="101">
         <f t="shared" si="1"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G16" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M16,F16,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H16" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M16,G16,Trigger)</f>
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="I16" s="100">
         <f>_xll.qlIndexFixing(M16,F16,TRUE,InterestRatesTrigger)</f>
-        <v>1.7156750778773808E-3</v>
+        <v>1.8459999999948205E-3</v>
       </c>
       <c r="J16" s="125" t="str">
         <f>Contribution!U16</f>
@@ -21671,30 +21666,30 @@
         <v>1</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="43" t="str">
         <f>B17+6&amp;"M"</f>
         <v>7M</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17" s="98">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G17,Trigger)</f>
-        <v>41858</v>
+        <v>41863</v>
       </c>
       <c r="G17" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B17&amp;"M","mf",TRUE,Trigger)</f>
-        <v>41862</v>
+        <v>41865</v>
       </c>
       <c r="H17" s="98">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G17,Trigger)</f>
-        <v>42047</v>
+        <v>42051</v>
       </c>
       <c r="I17" s="99">
         <f>_xll.qlIndexFixing(IborIndex,F17,TRUE,InterestRatesTrigger)</f>
-        <v>1.749999999997746E-3</v>
+        <v>1.7499999999962077E-3</v>
       </c>
       <c r="J17" s="124" t="str">
         <f>Contribution!U17</f>
@@ -21726,30 +21721,30 @@
         <v>2</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D18" s="44" t="str">
         <f t="shared" ref="D18:D23" si="3">B18+6&amp;"M"</f>
         <v>8M</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F18" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G18,Trigger)</f>
-        <v>41891</v>
+        <v>41893</v>
       </c>
       <c r="G18" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B18&amp;"M","mf",TRUE)</f>
-        <v>41893</v>
+        <v>41897</v>
       </c>
       <c r="H18" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G18,Trigger)</f>
-        <v>42074</v>
+        <v>42079</v>
       </c>
       <c r="I18" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F18,TRUE,InterestRatesTrigger)</f>
-        <v>1.6999999999923676E-3</v>
+        <v>1.6999999999998754E-3</v>
       </c>
       <c r="J18" s="125" t="str">
         <f>Contribution!U18</f>
@@ -21781,30 +21776,30 @@
         <v>3</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="44" t="str">
         <f t="shared" si="3"/>
         <v>9M</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G19,Trigger)</f>
-        <v>41921</v>
+        <v>41922</v>
       </c>
       <c r="G19" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B19&amp;"M","mf",TRUE)</f>
-        <v>41925</v>
+        <v>41926</v>
       </c>
       <c r="H19" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G19,Trigger)</f>
-        <v>42107</v>
+        <v>42108</v>
       </c>
       <c r="I19" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F19,TRUE,InterestRatesTrigger)</f>
-        <v>1.7000000012136916E-3</v>
+        <v>1.6999999999869806E-3</v>
       </c>
       <c r="J19" s="125" t="str">
         <f>Contribution!U19</f>
@@ -21836,30 +21831,30 @@
         <v>4</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" s="44" t="str">
         <f t="shared" si="3"/>
         <v>10M</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G20,Trigger)</f>
-        <v>41950</v>
+        <v>41955</v>
       </c>
       <c r="G20" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B20&amp;"M","mf",TRUE)</f>
-        <v>41954</v>
+        <v>41957</v>
       </c>
       <c r="H20" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G20,Trigger)</f>
-        <v>42135</v>
+        <v>42138</v>
       </c>
       <c r="I20" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F20,TRUE,InterestRatesTrigger)</f>
-        <v>1.6999999999888346E-3</v>
+        <v>1.6999999999844182E-3</v>
       </c>
       <c r="J20" s="125" t="str">
         <f>Contribution!U20</f>
@@ -21891,30 +21886,30 @@
         <v>5</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" s="44" t="str">
         <f t="shared" si="3"/>
         <v>11M</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G21,Trigger)</f>
-        <v>41982</v>
+        <v>41984</v>
       </c>
       <c r="G21" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B21&amp;"M","mf",TRUE)</f>
-        <v>41984</v>
+        <v>41988</v>
       </c>
       <c r="H21" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G21,Trigger)</f>
-        <v>42166</v>
+        <v>42170</v>
       </c>
       <c r="I21" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F21,TRUE,InterestRatesTrigger)</f>
-        <v>1.6499999999895079E-3</v>
+        <v>1.6499999999864334E-3</v>
       </c>
       <c r="J21" s="125" t="str">
         <f>Contribution!U21</f>
@@ -21946,30 +21941,30 @@
         <v>6</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" s="44" t="str">
         <f t="shared" si="3"/>
         <v>12M</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F22" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G22,Trigger)</f>
-        <v>42012</v>
+        <v>42016</v>
       </c>
       <c r="G22" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B22&amp;"M","mf",TRUE)</f>
-        <v>42016</v>
+        <v>42018</v>
       </c>
       <c r="H22" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G22,Trigger)</f>
-        <v>42198</v>
+        <v>42199</v>
       </c>
       <c r="I22" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F22,TRUE,InterestRatesTrigger)</f>
-        <v>1.6499999999731601E-3</v>
+        <v>1.6499999999948002E-3</v>
       </c>
       <c r="J22" s="125" t="str">
         <f>Contribution!U22</f>
@@ -22001,46 +21996,46 @@
         <v>9</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="44" t="str">
         <f t="shared" si="3"/>
         <v>15M</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F23" s="101">
         <f>_xll.qlInterestRateIndexFixingDate(IborIndex,G23,Trigger)</f>
-        <v>42103</v>
+        <v>42104</v>
       </c>
       <c r="G23" s="101">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,B23&amp;"M","mf",TRUE)</f>
-        <v>42107</v>
+        <v>42108</v>
       </c>
       <c r="H23" s="101">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,G23,Trigger)</f>
-        <v>42290</v>
+        <v>42291</v>
       </c>
       <c r="I23" s="100">
         <f>_xll.qlIndexFixing(IborIndex,F23,TRUE,InterestRatesTrigger)</f>
-        <v>1.555757673468052E-3</v>
+        <v>1.5639692058877679E-3</v>
       </c>
       <c r="J23" s="125"/>
       <c r="K23" s="125"/>
       <c r="L23" s="89"/>
       <c r="M23" s="131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N23" s="144"/>
       <c r="O23" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R23" s="89"/>
       <c r="S23" s="89"/>
@@ -22057,26 +22052,26 @@
       <c r="B24" s="61"/>
       <c r="C24" s="67"/>
       <c r="D24" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F24" s="98">
         <f t="shared" ref="F24" si="4">EvaluationDate</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G24" s="98">
         <f>_xll.qlInterestRateIndexValueDate(M24,F24,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H24" s="98">
         <f>_xll.qlInterestRateIndexMaturity(M24,G24,Trigger)</f>
-        <v>42380</v>
+        <v>42383</v>
       </c>
       <c r="I24" s="99">
         <f>_xll.qlIndexFixing(M24,F24,TRUE,InterestRatesTrigger)</f>
-        <v>1.700000000000101E-3</v>
+        <v>1.6999999999990031E-3</v>
       </c>
       <c r="J24" s="124" t="str">
         <f>Contribution!U24</f>
@@ -22089,17 +22084,17 @@
       <c r="L24" s="89"/>
       <c r="M24" s="118" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D24,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004ca#0001</v>
+        <v>obj_004d2#0002</v>
       </c>
       <c r="N24" s="144"/>
       <c r="O24" s="54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P24" s="54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R24" s="89"/>
       <c r="S24" s="89"/>
@@ -22116,26 +22111,26 @@
       <c r="B25" s="63"/>
       <c r="C25" s="68"/>
       <c r="D25" s="44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F25" s="101">
         <f t="shared" ref="F25:F38" si="6">EvaluationDate</f>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G25" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M25,F25,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H25" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M25,G25,Trigger)</f>
-        <v>42562</v>
+        <v>42565</v>
       </c>
       <c r="I25" s="100">
         <f>_xll.qlIndexFixing(M25,F25,TRUE,InterestRatesTrigger)</f>
-        <v>1.7000000000000483E-3</v>
+        <v>1.674999999999255E-3</v>
       </c>
       <c r="J25" s="125" t="str">
         <f>Contribution!U25</f>
@@ -22148,7 +22143,7 @@
       <c r="L25" s="89"/>
       <c r="M25" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b7#0001</v>
+        <v>obj_004b7#0002</v>
       </c>
       <c r="N25" s="144"/>
       <c r="O25" s="134"/>
@@ -22169,26 +22164,26 @@
       <c r="B26" s="63"/>
       <c r="C26" s="64"/>
       <c r="D26" s="44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F26" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G26" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M26,F26,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H26" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M26,G26,Trigger)</f>
-        <v>42927</v>
+        <v>42930</v>
       </c>
       <c r="I26" s="100">
         <f>_xll.qlIndexFixing(M26,F26,TRUE,InterestRatesTrigger)</f>
-        <v>1.7750000000000456E-3</v>
+        <v>1.7250000004334243E-3</v>
       </c>
       <c r="J26" s="125" t="str">
         <f>Contribution!U26</f>
@@ -22201,7 +22196,7 @@
       <c r="L26" s="89"/>
       <c r="M26" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b8#0001</v>
+        <v>obj_004b9#0002</v>
       </c>
       <c r="N26" s="144"/>
       <c r="O26" s="133"/>
@@ -22222,26 +22217,26 @@
       <c r="B27" s="63"/>
       <c r="C27" s="64"/>
       <c r="D27" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F27" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G27" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M27,F27,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H27" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M27,G27,Trigger)</f>
-        <v>43292</v>
+        <v>43297</v>
       </c>
       <c r="I27" s="100">
         <f>_xll.qlIndexFixing(M27,F27,TRUE,InterestRatesTrigger)</f>
-        <v>2.0499999998052831E-3</v>
+        <v>2.0000000001686477E-3</v>
       </c>
       <c r="J27" s="125" t="str">
         <f>Contribution!U27</f>
@@ -22254,7 +22249,7 @@
       <c r="L27" s="89"/>
       <c r="M27" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004d2#0001</v>
+        <v>obj_004c5#0002</v>
       </c>
       <c r="N27" s="144"/>
       <c r="O27" s="133"/>
@@ -22275,26 +22270,26 @@
       <c r="B28" s="63"/>
       <c r="C28" s="64"/>
       <c r="D28" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F28" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G28" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M28,F28,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H28" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M28,G28,Trigger)</f>
-        <v>43657</v>
+        <v>43661</v>
       </c>
       <c r="I28" s="100">
         <f>_xll.qlIndexFixing(M28,F28,TRUE,InterestRatesTrigger)</f>
-        <v>2.5500000000002097E-3</v>
+        <v>2.5000000000000694E-3</v>
       </c>
       <c r="J28" s="125" t="str">
         <f>Contribution!U28</f>
@@ -22307,7 +22302,7 @@
       <c r="L28" s="89"/>
       <c r="M28" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bd#0001</v>
+        <v>obj_004b6#0002</v>
       </c>
       <c r="N28" s="144"/>
       <c r="O28" s="133"/>
@@ -22328,26 +22323,26 @@
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
       <c r="D29" s="44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F29" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G29" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M29,F29,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H29" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M29,G29,Trigger)</f>
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="I29" s="100">
         <f>_xll.qlIndexFixing(M29,F29,TRUE,InterestRatesTrigger)</f>
-        <v>3.2500000000005671E-3</v>
+        <v>3.2000000000003245E-3</v>
       </c>
       <c r="J29" s="125" t="str">
         <f>Contribution!U29</f>
@@ -22360,7 +22355,7 @@
       <c r="L29" s="89"/>
       <c r="M29" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004b5#0001</v>
+        <v>obj_004c8#0002</v>
       </c>
       <c r="N29" s="144"/>
       <c r="O29" s="133"/>
@@ -22381,26 +22376,26 @@
       <c r="B30" s="63"/>
       <c r="C30" s="64"/>
       <c r="D30" s="44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F30" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G30" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M30,F30,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H30" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M30,G30,Trigger)</f>
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="I30" s="100">
         <f>_xll.qlIndexFixing(M30,F30,TRUE,InterestRatesTrigger)</f>
-        <v>4.0749999998895975E-3</v>
+        <v>4.025000000000431E-3</v>
       </c>
       <c r="J30" s="125" t="str">
         <f>Contribution!U30</f>
@@ -22413,7 +22408,7 @@
       <c r="L30" s="89"/>
       <c r="M30" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c7#0001</v>
+        <v>obj_004cc#0002</v>
       </c>
       <c r="N30" s="144"/>
       <c r="O30" s="133"/>
@@ -22434,26 +22429,26 @@
       <c r="B31" s="63"/>
       <c r="C31" s="64"/>
       <c r="D31" s="44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F31" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G31" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M31,F31,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H31" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M31,G31,Trigger)</f>
-        <v>44753</v>
+        <v>44756</v>
       </c>
       <c r="I31" s="100">
         <f>_xll.qlIndexFixing(M31,F31,TRUE,InterestRatesTrigger)</f>
-        <v>4.9750000000010315E-3</v>
+        <v>4.9250000000008584E-3</v>
       </c>
       <c r="J31" s="125" t="str">
         <f>Contribution!U31</f>
@@ -22466,7 +22461,7 @@
       <c r="L31" s="89"/>
       <c r="M31" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004cc#0001</v>
+        <v>obj_004c2#0002</v>
       </c>
       <c r="N31" s="144"/>
       <c r="O31" s="133"/>
@@ -22487,26 +22482,26 @@
       <c r="B32" s="63"/>
       <c r="C32" s="64"/>
       <c r="D32" s="44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F32" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G32" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M32,F32,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H32" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M32,G32,Trigger)</f>
-        <v>45118</v>
+        <v>45121</v>
       </c>
       <c r="I32" s="100">
         <f>_xll.qlIndexFixing(M32,F32,TRUE,InterestRatesTrigger)</f>
-        <v>5.9000000000005116E-3</v>
+        <v>5.8500000000001788E-3</v>
       </c>
       <c r="J32" s="125" t="str">
         <f>Contribution!U32</f>
@@ -22519,7 +22514,7 @@
       <c r="L32" s="89"/>
       <c r="M32" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004cf#0001</v>
+        <v>obj_004ca#0002</v>
       </c>
       <c r="N32" s="144"/>
       <c r="O32" s="133"/>
@@ -22540,26 +22535,26 @@
       <c r="B33" s="63"/>
       <c r="C33" s="64"/>
       <c r="D33" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F33" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G33" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M33,F33,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H33" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M33,G33,Trigger)</f>
-        <v>45484</v>
+        <v>45488</v>
       </c>
       <c r="I33" s="100">
         <f>_xll.qlIndexFixing(M33,F33,TRUE,InterestRatesTrigger)</f>
-        <v>6.8500000000006785E-3</v>
+        <v>6.8000000000005782E-3</v>
       </c>
       <c r="J33" s="125" t="str">
         <f>Contribution!U33</f>
@@ -22572,7 +22567,7 @@
       <c r="L33" s="89"/>
       <c r="M33" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004d0#0001</v>
+        <v>obj_004bf#0002</v>
       </c>
       <c r="N33" s="144"/>
       <c r="O33" s="133"/>
@@ -22593,26 +22588,26 @@
       <c r="B34" s="63"/>
       <c r="C34" s="64"/>
       <c r="D34" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G34" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M34,F34,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H34" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M34,G34,Trigger)</f>
-        <v>46216</v>
+        <v>46217</v>
       </c>
       <c r="I34" s="100">
         <f>_xll.qlIndexFixing(M34,F34,TRUE,InterestRatesTrigger)</f>
-        <v>8.7250000000028433E-3</v>
+        <v>8.6750000000024047E-3</v>
       </c>
       <c r="J34" s="125" t="str">
         <f>Contribution!U34</f>
@@ -22625,7 +22620,7 @@
       <c r="L34" s="89"/>
       <c r="M34" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c4#0001</v>
+        <v>obj_004b8#0002</v>
       </c>
       <c r="N34" s="144"/>
       <c r="O34" s="133"/>
@@ -22646,26 +22641,26 @@
       <c r="B35" s="63"/>
       <c r="C35" s="64"/>
       <c r="D35" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G35" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M35,F35,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H35" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M35,G35,Trigger)</f>
-        <v>47310</v>
+        <v>47315</v>
       </c>
       <c r="I35" s="100">
         <f>_xll.qlIndexFixing(M35,F35,TRUE,InterestRatesTrigger)</f>
-        <v>1.1375000000031969E-2</v>
+        <v>1.1350000000033359E-2</v>
       </c>
       <c r="J35" s="125" t="str">
         <f>Contribution!U35</f>
@@ -22678,7 +22673,7 @@
       <c r="L35" s="89"/>
       <c r="M35" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c1#0001</v>
+        <v>obj_004ce#0002</v>
       </c>
       <c r="N35" s="144"/>
       <c r="O35" s="133"/>
@@ -22699,26 +22694,26 @@
       <c r="B36" s="63"/>
       <c r="C36" s="64"/>
       <c r="D36" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F36" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G36" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M36,F36,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H36" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M36,G36,Trigger)</f>
-        <v>49136</v>
+        <v>49139</v>
       </c>
       <c r="I36" s="100">
         <f>_xll.qlIndexFixing(M36,F36,TRUE,InterestRatesTrigger)</f>
-        <v>1.4625000000050034E-2</v>
+        <v>1.4600000000050403E-2</v>
       </c>
       <c r="J36" s="125" t="str">
         <f>Contribution!U36</f>
@@ -22731,7 +22726,7 @@
       <c r="L36" s="89"/>
       <c r="M36" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004bc#0001</v>
+        <v>obj_004d1#0002</v>
       </c>
       <c r="N36" s="144"/>
       <c r="O36" s="133"/>
@@ -22752,26 +22747,26 @@
       <c r="B37" s="63"/>
       <c r="C37" s="64"/>
       <c r="D37" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E37" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F37" s="101">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G37" s="101">
         <f>_xll.qlInterestRateIndexValueDate(M37,F37,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H37" s="101">
         <f>_xll.qlInterestRateIndexMaturity(M37,G37,Trigger)</f>
-        <v>50962</v>
+        <v>50965</v>
       </c>
       <c r="I37" s="100">
         <f>_xll.qlIndexFixing(M37,F37,TRUE,InterestRatesTrigger)</f>
-        <v>1.6349999999993155E-2</v>
+        <v>1.634999999999143E-2</v>
       </c>
       <c r="J37" s="125" t="str">
         <f>Contribution!U37</f>
@@ -22784,7 +22779,7 @@
       <c r="L37" s="89"/>
       <c r="M37" s="85" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c3#0001</v>
+        <v>obj_004c9#0002</v>
       </c>
       <c r="N37" s="144"/>
       <c r="O37" s="133"/>
@@ -22805,26 +22800,26 @@
       <c r="B38" s="69"/>
       <c r="C38" s="70"/>
       <c r="D38" s="45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F38" s="102">
         <f t="shared" si="6"/>
-        <v>41829</v>
+        <v>41830</v>
       </c>
       <c r="G38" s="102">
         <f>_xll.qlInterestRateIndexValueDate(M38,F38,Trigger)</f>
-        <v>41831</v>
+        <v>41834</v>
       </c>
       <c r="H38" s="102">
         <f>_xll.qlInterestRateIndexMaturity(M38,G38,Trigger)</f>
-        <v>52789</v>
+        <v>52792</v>
       </c>
       <c r="I38" s="103">
         <f>_xll.qlIndexFixing(M38,F38,TRUE,InterestRatesTrigger)</f>
-        <v>1.7399999999999995E-2</v>
+        <v>1.7375000000000029E-2</v>
       </c>
       <c r="J38" s="126" t="str">
         <f>Contribution!U38</f>
@@ -22837,7 +22832,7 @@
       <c r="L38" s="89"/>
       <c r="M38" s="132" t="str">
         <f>_xll.qlSwapIndex(,"Libor",D38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,"JPYON",,Trigger)</f>
-        <v>obj_004c9#0001</v>
+        <v>obj_004d0#0002</v>
       </c>
       <c r="N38" s="144"/>
       <c r="O38" s="133"/>

--- a/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_MxContributor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15285" windowHeight="8550" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19230" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="2" r:id="rId1"/>
@@ -28,12 +28,14 @@
     <definedName name="CurveTenor" localSheetId="2">'ON Pricing'!$F$1</definedName>
     <definedName name="EvaluationDate">'General Settings'!$D$5</definedName>
     <definedName name="Fields">Contribution!$H$1:$I$1</definedName>
+    <definedName name="FixDayCounter" localSheetId="2">'ON Pricing'!$P$8</definedName>
     <definedName name="FixedLegBDC" localSheetId="4">'6M Pricing'!$P$24</definedName>
     <definedName name="FixedLegBDC">'3M Pricing'!$P$24</definedName>
     <definedName name="FixedLegDayCounter" localSheetId="3">'3M Pricing'!$Q$24</definedName>
     <definedName name="FixedLegDayCounter" localSheetId="4">'6M Pricing'!$Q$24</definedName>
     <definedName name="FixedLegTenor" localSheetId="3">'3M Pricing'!$O$24</definedName>
     <definedName name="FixedLegTenor" localSheetId="4">'6M Pricing'!$O$24</definedName>
+    <definedName name="ForwardStart" localSheetId="2">'ON Pricing'!$O$8</definedName>
     <definedName name="IborIndex" localSheetId="3">'3M Pricing'!$M$13</definedName>
     <definedName name="IborIndex" localSheetId="4">'6M Pricing'!$M$16</definedName>
     <definedName name="IborIndexFamily">'General Settings'!$D$12</definedName>
@@ -90,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="138">
   <si>
     <t>BID</t>
   </si>
@@ -492,6 +494,18 @@
   </si>
   <si>
     <t>LiborCalendar</t>
+  </si>
+  <si>
+    <t>ForwardStart</t>
+  </si>
+  <si>
+    <t>FixDayCounter</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>Actual/360</t>
   </si>
 </sst>
 </file>
@@ -1405,259 +1419,259 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.17499999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M2x8F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X18" s="7"/>
       </tp>
-      <tp>
-        <v>0.17</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M3x9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X19" s="7"/>
       </tp>
-      <tp>
-        <v>0.17</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M3x9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y19" s="7"/>
       </tp>
-      <tp>
-        <v>0.17499999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M2x8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y18" s="7"/>
       </tp>
-      <tp>
-        <v>6.4290683000000001E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K7" s="7"/>
       </tp>
-      <tp>
-        <v>6.3456116000000007E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K8" s="7"/>
       </tp>
-      <tp>
-        <v>6.4284050999999995E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K6" s="7"/>
       </tp>
-      <tp>
-        <v>6.4280734000000006E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K5" s="7"/>
       </tp>
-      <tp>
-        <v>6.1643836E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K13" s="7"/>
       </tp>
-      <tp>
-        <v>6.3716391999999997E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K10" s="7"/>
       </tp>
-      <tp>
-        <v>6.1643836E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K26" s="7"/>
       </tp>
-      <tp>
-        <v>6.4109588999999995E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K12" s="7"/>
       </tp>
-      <tp>
-        <v>6.3559539999999998E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K9" s="7"/>
       </tp>
-      <tp>
-        <v>5.6712328999999999E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K25" s="7"/>
       </tp>
-      <tp>
-        <v>6.4109588999999995E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K11" s="7"/>
       </tp>
-      <tp>
-        <v>5.6712328999999999E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K22" s="7"/>
       </tp>
-      <tp>
-        <v>0.199726027</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K30" s="7"/>
       </tp>
-      <tp>
-        <v>5.9178082E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K16" s="7"/>
       </tp>
-      <tp>
-        <v>0.13561643800000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K29" s="7"/>
       </tp>
-      <tp>
-        <v>6.1643836E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K15" s="7"/>
       </tp>
-      <tp>
-        <v>9.3698630000000005E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K28" s="7"/>
       </tp>
-      <tp>
-        <v>6.1643836E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K14" s="7"/>
       </tp>
-      <tp>
-        <v>6.9041095999999996E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K27" s="7"/>
       </tp>
-      <tp>
-        <v>5.9178082E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K19" s="7"/>
       </tp>
-      <tp>
-        <v>0.34027397300000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K32" s="7"/>
       </tp>
-      <tp>
-        <v>0.268767123</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K31" s="7"/>
       </tp>
-      <tp>
-        <v>0.125</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M6x9F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q19" s="7"/>
       </tp>
-      <tp>
-        <v>0.125</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M5x8F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q18" s="7"/>
       </tp>
-      <tp>
-        <v>0.125</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M5x8F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R18" s="7"/>
       </tp>
-      <tp>
-        <v>0.125</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M6x9F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R19" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M3x6F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R16" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M2x5F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q15" s="7"/>
       </tp>
-      <tp>
-        <v>0.125</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M4x7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R17" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M1x4F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q14" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M1x4F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R14" s="7"/>
       </tp>
-      <tp>
-        <v>0.125</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M4x7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q17" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M2x5F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R15" s="7"/>
       </tp>
-      <tp>
-        <v>0.13</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY3M3x6F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q16" s="7"/>
       </tp>
-      <tp>
-        <v>0.17499999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M1x7F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Y17" s="7"/>
       </tp>
-      <tp>
-        <v>0.17499999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPY6M1x7F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1665,51 +1679,51 @@
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.11</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000C_JPY3M12x15F=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="Q23" s="7"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>1.3093150680000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J37" s="7"/>
       </tp>
-      <tp>
-        <v>1.1441095889999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J36" s="7"/>
       </tp>
-      <tp>
-        <v>1.410410959</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J38" s="7"/>
       </tp>
-      <tp>
-        <v>0.83342465799999998</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J35" s="7"/>
       </tp>
-      <tp>
-        <v>0.41424657500000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J33" s="7"/>
       </tp>
-      <tp>
-        <v>0.58191780800000004</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1717,175 +1731,177 @@
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>6.4290683000000001E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J7" s="7"/>
       </tp>
-      <tp>
-        <v>6.3456116000000007E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J8" s="7"/>
       </tp>
-      <tp>
-        <v>6.4284050999999995E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J6" s="7"/>
       </tp>
-      <tp>
-        <v>6.4280734000000006E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J5" s="7"/>
       </tp>
-      <tp>
-        <v>6.1643836E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J13" s="7"/>
       </tp>
-      <tp>
-        <v>6.3716391999999997E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J10" s="7"/>
       </tp>
-      <tp>
-        <v>6.1643836E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J26" s="7"/>
       </tp>
-      <tp>
-        <v>6.4109588999999995E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J12" s="7"/>
       </tp>
-      <tp>
-        <v>6.3559539999999998E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J9" s="7"/>
       </tp>
-      <tp>
-        <v>5.6712328999999999E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J25" s="7"/>
       </tp>
-      <tp>
-        <v>6.4109588999999995E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J11" s="7"/>
       </tp>
-      <tp>
-        <v>5.6712328999999999E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J22" s="7"/>
       </tp>
-      <tp>
-        <v>0.199726027</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J30" s="7"/>
       </tp>
-      <tp>
-        <v>5.9178082E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J16" s="7"/>
       </tp>
-      <tp>
-        <v>0.13561643800000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J29" s="7"/>
       </tp>
-      <tp>
-        <v>6.1643836E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J15" s="7"/>
       </tp>
-      <tp>
-        <v>9.3698630000000005E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J28" s="7"/>
       </tp>
-      <tp>
-        <v>6.1643836E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J14" s="7"/>
       </tp>
-      <tp>
-        <v>6.9041095999999996E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J27" s="7"/>
       </tp>
-      <tp>
-        <v>5.9178082E-2</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J19" s="7"/>
       </tp>
-      <tp>
-        <v>0.34027397300000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J32" s="7"/>
       </tp>
-      <tp>
-        <v>0.268767123</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPYON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="J31" s="7"/>
       </tp>
-      <tp>
-        <v>0.83342465799999998</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K35" s="7"/>
       </tp>
-      <tp>
-        <v>0.41424657500000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K33" s="7"/>
       </tp>
-      <tp>
-        <v>0.58191780800000004</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K34" s="7"/>
       </tp>
-      <tp>
-        <v>1.410410959</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K38" s="7"/>
       </tp>
-      <tp>
-        <v>1.3093150680000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="K37" s="7"/>
       </tp>
-      <tp>
-        <v>1.1441095889999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">
 JPYON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1893,696 +1909,692 @@
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.11</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x000C_JPY3M12x15F=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R23" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>0.23113118199999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X7" s="7"/>
       </tp>
-      <tp>
-        <v>0.23094794699999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X8" s="7"/>
       </tp>
-      <tp>
-        <v>0.231152212</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X6" s="7"/>
       </tp>
-      <tp>
-        <v>0.231174873</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6MOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X5" s="7"/>
       </tp>
-      <tp>
-        <v>0.2064</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X13" s="7"/>
       </tp>
-      <tp>
-        <v>0.229425409</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X10" s="7"/>
       </tp>
-      <tp>
-        <v>0.21729999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X12" s="7"/>
       </tp>
-      <tp>
-        <v>0.230378317</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X9" s="7"/>
       </tp>
-      <tp>
-        <v>0.22689999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X11" s="7"/>
       </tp>
-      <tp>
-        <v>0.1865</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X16" s="7"/>
       </tp>
-      <tp>
-        <v>0.19339999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X15" s="7"/>
       </tp>
-      <tp>
-        <v>0.19889999999999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp xml:space="preserve">	JPY6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="X14" s="7"/>
       </tp>
-      <tp>
-        <v>0.47824467599999998</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R32" s="7"/>
       </tp>
-      <tp>
-        <v>0.39343523699999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R31" s="7"/>
       </tp>
-      <tp>
-        <v>0.11672265499999999</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R26" s="7"/>
       </tp>
-      <tp>
-        <v>0.11932841800000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R25" s="7"/>
       </tp>
-      <tp>
-        <v>0.17392729700000001</v>
+      <tp t="s">
+        <v>#N/A Invalid source.</v>
         <stp/>
         <stp>_x0008_JPY3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="R28" s="7"/>
       </tp>
-      <tp>
-        <v>0.13661405600000001</v>
+      <tp t="s">